--- a/Data.xlsx
+++ b/Data.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -362,7 +362,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>range=linspace(5.06,12.0,50)</t>
+          <t>range=linspace(5.07,12.0,200)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -400,13 +400,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.06</v>
+        <v>5.07</v>
       </c>
       <c r="B3" t="n">
-        <v>1.034771183234591</v>
+        <v>0.2609787748250972</v>
       </c>
       <c r="C3" t="n">
-        <v>50061.27722303397</v>
+        <v>13888.2056137455</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -414,688 +414,2788 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.201632653061224</v>
+        <v>5.104824120603015</v>
       </c>
       <c r="B4" t="n">
-        <v>0.000156459534966491</v>
+        <v>0.007986513540077438</v>
       </c>
       <c r="C4" t="n">
-        <v>48.54807238835774</v>
+        <v>865.8530993583709</v>
       </c>
       <c r="D4" t="n">
-        <v>2.937088180287655e-05</v>
+        <v>1.390336235733444e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.343265306122449</v>
+        <v>5.13964824120603</v>
       </c>
       <c r="B5" t="n">
-        <v>1.530610081869411e-05</v>
+        <v>0.001156359130818645</v>
       </c>
       <c r="C5" t="n">
-        <v>9.552310761528817</v>
+        <v>205.801780228026</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01145255616456889</v>
+        <v>0.0001891481725571895</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.484897959183673</v>
+        <v>5.174472361809046</v>
       </c>
       <c r="B6" t="n">
-        <v>4.314363490986284e-06</v>
+        <v>0.0003273943345142932</v>
       </c>
       <c r="C6" t="n">
-        <v>4.066427646057283</v>
+        <v>82.35922274806835</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06288045021614348</v>
+        <v>0.0008525286553658265</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.626530612244897</v>
+        <v>5.209296482412061</v>
       </c>
       <c r="B7" t="n">
-        <v>1.864066099169494e-06</v>
+        <v>0.0001304894189964621</v>
       </c>
       <c r="C7" t="n">
-        <v>2.35275839447432</v>
+        <v>42.66830876780074</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1719054161568634</v>
+        <v>0.002389493328543445</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.768163265306122</v>
+        <v>5.244120603015076</v>
       </c>
       <c r="B8" t="n">
-        <v>1.013261633295406e-06</v>
+        <v>6.376350760481275e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>1.602677471412898</v>
+        <v>25.72482926709465</v>
       </c>
       <c r="D8" t="n">
-        <v>0.3454665682048558</v>
+        <v>0.005192174150513927</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.909795918367347</v>
+        <v>5.278944723618091</v>
       </c>
       <c r="B9" t="n">
-        <v>6.350065034705392e-07</v>
+        <v>3.562007668269549e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>1.207000706819327</v>
+        <v>17.11891814300044</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5833695684141835</v>
+        <v>0.009642302765412235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6.051428571428571</v>
+        <v>5.313768844221106</v>
       </c>
       <c r="B10" t="n">
-        <v>4.381742802018962e-07</v>
+        <v>2.187974597977477e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.972322571912328</v>
+        <v>12.21219202665176</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8808764076648492</v>
+        <v>0.01609355672797503</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6.193061224489796</v>
+        <v>5.348592964824121</v>
       </c>
       <c r="B11" t="n">
-        <v>3.239813003537206e-07</v>
+        <v>1.44134426313227e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8217055895668758</v>
+        <v>9.167825196565481</v>
       </c>
       <c r="D11" t="n">
-        <v>1.230545470820757</v>
+        <v>0.02487730699672899</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>6.33469387755102</v>
+        <v>5.383417085427136</v>
       </c>
       <c r="B12" t="n">
-        <v>2.52254711066937e-07</v>
+        <v>1.002212807807237e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7195192265892538</v>
+        <v>7.157300441196064</v>
       </c>
       <c r="D12" t="n">
-        <v>1.623592504771291</v>
+        <v>0.03628836734938418</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.476326530612244</v>
+        <v>5.418241206030151</v>
       </c>
       <c r="B13" t="n">
-        <v>2.044066145700561e-07</v>
+        <v>7.272823679888717e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6473950028448997</v>
+        <v>5.763184160952527</v>
       </c>
       <c r="D13" t="n">
-        <v>2.050797440587986</v>
+        <v>0.05058786076610802</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6.617959183673469</v>
+        <v>5.453065326633166</v>
       </c>
       <c r="B14" t="n">
-        <v>1.709536779374405e-07</v>
+        <v>5.464010098151672e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5950429660923958</v>
+        <v>4.758070189503154</v>
       </c>
       <c r="D14" t="n">
-        <v>2.503128280831602</v>
+        <v>0.06800329607824471</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>6.759591836734693</v>
+        <v>5.487889447236181</v>
       </c>
       <c r="B15" t="n">
-        <v>1.466745731188852e-07</v>
+        <v>4.224318251977134e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>0.556316830859801</v>
+        <v>4.009997226727866</v>
       </c>
       <c r="D15" t="n">
-        <v>2.972124085279983</v>
+        <v>0.08872807768901329</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6.901224489795919</v>
+        <v>5.522713567839197</v>
       </c>
       <c r="B16" t="n">
-        <v>1.285107683619553e-07</v>
+        <v>3.345299409701493e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5273528971894715</v>
+        <v>3.438326846148052</v>
       </c>
       <c r="D16" t="n">
-        <v>3.45010128215702</v>
+        <v>0.1129236168271787</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>7.042857142857143</v>
+        <v>5.557537688442212</v>
       </c>
       <c r="B17" t="n">
-        <v>1.145786509040639e-07</v>
+        <v>2.703906184604051e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5056154256345018</v>
+        <v>2.991585317291114</v>
       </c>
       <c r="D17" t="n">
-        <v>3.930287632379204</v>
+        <v>0.1407218896521201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>7.184489795918367</v>
+        <v>5.592361809045227</v>
       </c>
       <c r="B18" t="n">
-        <v>1.036703987521662e-07</v>
+        <v>2.224360735508195e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4893800996377951</v>
+        <v>2.63585797514052</v>
       </c>
       <c r="D18" t="n">
-        <v>4.406824884862006</v>
+        <v>0.1722200282574632</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7.326122448979591</v>
+        <v>5.627185929648242</v>
       </c>
       <c r="B19" t="n">
-        <v>9.498083897255576e-08</v>
+        <v>1.85807204772507e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4774408168036616</v>
+        <v>2.34785662924415</v>
       </c>
       <c r="D19" t="n">
-        <v>4.874756366424663</v>
+        <v>0.2074949052998475</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>7.467755102040816</v>
+        <v>5.662010050251257</v>
       </c>
       <c r="B20" t="n">
-        <v>8.795793429767054e-08</v>
+        <v>1.573026604982841e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4689296588759254</v>
+        <v>2.111338988964203</v>
       </c>
       <c r="D20" t="n">
-        <v>5.329979944918875</v>
+        <v>0.2465954383563094</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>7.60938775510204</v>
+        <v>5.696834170854272</v>
       </c>
       <c r="B21" t="n">
-        <v>8.221207084409113e-08</v>
+        <v>1.347595894599052e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4632069569363826</v>
+        <v>1.914679259662615</v>
       </c>
       <c r="D21" t="n">
-        <v>5.769158186350381</v>
+        <v>0.2895444359975378</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>7.751020408163265</v>
+        <v>5.731658291457286</v>
       </c>
       <c r="B22" t="n">
-        <v>7.746552120686434e-08</v>
+        <v>1.166701408273876e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4598057197874338</v>
+        <v>1.749317949165937</v>
       </c>
       <c r="D22" t="n">
-        <v>6.189714713389871</v>
+        <v>0.3363476781767648</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>7.89265306122449</v>
+        <v>5.766482412060302</v>
       </c>
       <c r="B23" t="n">
-        <v>7.350927395388391e-08</v>
+        <v>1.019626805630352e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4583526289127123</v>
+        <v>1.608908542474273</v>
       </c>
       <c r="D23" t="n">
-        <v>6.589595337888937</v>
+        <v>0.3869898050756252</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>8.034285714285714</v>
+        <v>5.801306532663316</v>
       </c>
       <c r="B24" t="n">
-        <v>7.018959749537294e-08</v>
+        <v>8.986654321092739e-07</v>
       </c>
       <c r="C24" t="n">
-        <v>0.458569525096151</v>
+        <v>1.488620615438539</v>
       </c>
       <c r="D24" t="n">
-        <v>6.967346793513113</v>
+        <v>0.4414408039850073</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>8.175918367346938</v>
+        <v>5.836130653266332</v>
       </c>
       <c r="B25" t="n">
-        <v>6.73882707097804e-08</v>
+        <v>7.981906280262964e-07</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4602341014440408</v>
+        <v>1.384795860509186</v>
       </c>
       <c r="D25" t="n">
-        <v>7.321951140992241</v>
+        <v>0.499641900927653</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>8.317551020408164</v>
+        <v>5.870954773869347</v>
       </c>
       <c r="B26" t="n">
-        <v>6.501594194888599e-08</v>
+        <v>7.138780951486763e-07</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4631813178745469</v>
+        <v>1.294503638604125</v>
       </c>
       <c r="D26" t="n">
-        <v>7.652901145275538</v>
+        <v>0.5615386975562243</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>8.459183673469386</v>
+        <v>5.905778894472363</v>
       </c>
       <c r="B27" t="n">
-        <v>6.299953051566638e-08</v>
+        <v>6.425100510625675e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4672615468792308</v>
+        <v>1.215475558912072</v>
       </c>
       <c r="D27" t="n">
-        <v>7.959823126105921</v>
+        <v>0.6270566461045561</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>8.600816326530612</v>
+        <v>5.940603015075377</v>
       </c>
       <c r="B28" t="n">
-        <v>6.128307624783847e-08</v>
+        <v>5.816520593299262e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4723655011895021</v>
+        <v>1.14590649650881</v>
       </c>
       <c r="D28" t="n">
-        <v>8.242771944725272</v>
+        <v>0.6961085219978957</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>8.742448979591837</v>
+        <v>5.975427135678392</v>
       </c>
       <c r="B29" t="n">
-        <v>5.982174675029117e-08</v>
+        <v>5.293707786767323e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4784030731505987</v>
+        <v>1.084346493344416</v>
       </c>
       <c r="D29" t="n">
-        <v>8.502016884817406</v>
+        <v>0.7685934802968118</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>8.884081632653061</v>
+        <v>6.010251256281407</v>
       </c>
       <c r="B30" t="n">
-        <v>5.857738434753908e-08</v>
+        <v>4.841507698885473e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4852883538758613</v>
+        <v>1.029596215446793</v>
       </c>
       <c r="D30" t="n">
-        <v>8.737830647146485</v>
+        <v>0.8444129346814224</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>9.025714285714285</v>
+        <v>6.045075376884422</v>
       </c>
       <c r="B31" t="n">
-        <v>5.75225696913033e-08</v>
+        <v>4.447973263922843e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4929756482126204</v>
+        <v>0.9806805700460767</v>
       </c>
       <c r="D31" t="n">
-        <v>8.951056296973094</v>
+        <v>0.9234574645120737</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>9.167346938775509</v>
+        <v>6.079899497487437</v>
       </c>
       <c r="B32" t="n">
-        <v>5.663021784245259e-08</v>
+        <v>4.103658095376871e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>0.5013966926488868</v>
+        <v>0.936818031986566</v>
       </c>
       <c r="D32" t="n">
-        <v>9.142117866785719</v>
+        <v>1.005601699058213</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>9.308979591836735</v>
+        <v>6.114723618090452</v>
       </c>
       <c r="B33" t="n">
-        <v>5.588173956591725e-08</v>
+        <v>3.800703711913664e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>0.5105193268387379</v>
+        <v>0.8973224400455782</v>
       </c>
       <c r="D33" t="n">
-        <v>9.311998254807202</v>
+        <v>1.090731431085135</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>9.450612244897959</v>
+        <v>6.149547738693467</v>
       </c>
       <c r="B34" t="n">
-        <v>5.525952587915738e-08</v>
+        <v>3.532896838552654e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5203048288968189</v>
+        <v>0.8616397921752714</v>
       </c>
       <c r="D34" t="n">
-        <v>9.46151470181568</v>
+        <v>1.178717951389847</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>9.592244897959183</v>
+        <v>6.184371859296482</v>
       </c>
       <c r="B35" t="n">
-        <v>5.474851990026829e-08</v>
+        <v>3.295018144944619e-07</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5307162117812528</v>
+        <v>0.8293009768885526</v>
       </c>
       <c r="D35" t="n">
-        <v>9.591444753370169</v>
+        <v>1.269431784441259</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>9.733877551020408</v>
+        <v>6.219195979899498</v>
       </c>
       <c r="B36" t="n">
-        <v>5.433656860362197e-08</v>
+        <v>3.08287123279927e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5417284178930212</v>
+        <v>0.7999067875159638</v>
       </c>
       <c r="D36" t="n">
-        <v>9.702734791631057</v>
+        <v>1.362741222341666</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9.875510204081632</v>
+        <v>6.254020100502513</v>
       </c>
       <c r="B37" t="n">
-        <v>5.401416041392885e-08</v>
+        <v>2.892904420866297e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5533242521992464</v>
+        <v>0.7731164682500171</v>
       </c>
       <c r="D37" t="n">
-        <v>9.796433793455751</v>
+        <v>1.458513254236709</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>10.01714285714286</v>
+        <v>6.288844221105528</v>
       </c>
       <c r="B38" t="n">
-        <v>5.377164339138758e-08</v>
+        <v>2.722170467158818e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5654791720227458</v>
+        <v>0.7486392879389949</v>
       </c>
       <c r="D38" t="n">
-        <v>9.873373100193776</v>
+        <v>1.556612535610866</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>10.15877551020408</v>
+        <v>6.323668341708543</v>
       </c>
       <c r="B39" t="n">
-        <v>5.36015113682109e-08</v>
+        <v>2.568156536921773e-07</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5781773465597749</v>
+        <v>0.7262232090569911</v>
       </c>
       <c r="D39" t="n">
-        <v>9.934506518058175</v>
+        <v>1.65690562663461</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10.30040816326531</v>
+        <v>6.358492462311558</v>
       </c>
       <c r="B40" t="n">
-        <v>5.34972615610627e-08</v>
+        <v>2.428781637443839e-07</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5914065226797985</v>
+        <v>0.705644951946273</v>
       </c>
       <c r="D40" t="n">
-        <v>9.980802809646017</v>
+        <v>1.759260126596394</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10.44204081632653</v>
+        <v>6.393316582914573</v>
       </c>
       <c r="B41" t="n">
-        <v>5.345304152017039e-08</v>
+        <v>2.302297012452279e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>0.605151625625669</v>
+        <v>0.6867343717618202</v>
       </c>
       <c r="D41" t="n">
-        <v>10.01310972940548</v>
+        <v>1.863532084991384</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>10.58367346938775</v>
+        <v>6.428140703517588</v>
       </c>
       <c r="B42" t="n">
-        <v>5.3463825431843e-08</v>
+        <v>2.187111617955745e-07</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6194033474376235</v>
+        <v>0.6693063894243741</v>
       </c>
       <c r="D42" t="n">
-        <v>10.03234263700202</v>
+        <v>1.969599180079557</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>10.72530612244898</v>
+        <v>6.462964824120603</v>
       </c>
       <c r="B43" t="n">
-        <v>5.352469809822428e-08</v>
+        <v>2.081987485954059e-07</v>
       </c>
       <c r="C43" t="n">
-        <v>0.634147185414498</v>
+        <v>0.6532328013045461</v>
       </c>
       <c r="D43" t="n">
-        <v>10.0392423433122</v>
+        <v>2.077321310002658</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>10.8669387755102</v>
+        <v>6.497788944723618</v>
       </c>
       <c r="B44" t="n">
-        <v>5.363355153045178e-08</v>
+        <v>1.985754878297002e-07</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6493910233504326</v>
+        <v>0.6383776860107748</v>
       </c>
       <c r="D44" t="n">
-        <v>10.03500191655446</v>
+        <v>2.186570444725647</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11.00857142857143</v>
+        <v>6.532613065326633</v>
       </c>
       <c r="B45" t="n">
-        <v>5.378422850874505e-08</v>
+        <v>1.897445772146232e-07</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6651021251843455</v>
+        <v>0.6246305690781102</v>
       </c>
       <c r="D45" t="n">
-        <v>10.01983717771727</v>
+        <v>2.297220806573421</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>11.15020408163265</v>
+        <v>6.567437185929649</v>
       </c>
       <c r="B46" t="n">
-        <v>5.397568954341516e-08</v>
+        <v>1.816244082895518e-07</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6812922164326877</v>
+        <v>0.6118971688356286</v>
       </c>
       <c r="D46" t="n">
-        <v>9.994924162208671</v>
+        <v>2.409143758891825</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>11.29183673469388</v>
+        <v>6.602261306532664</v>
       </c>
       <c r="B47" t="n">
-        <v>5.420453438836042e-08</v>
+        <v>1.74138197389069e-07</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6979495353937859</v>
+        <v>0.6000864356244918</v>
       </c>
       <c r="D47" t="n">
-        <v>9.960855956703053</v>
+        <v>2.522213005197252</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>11.4334693877551</v>
+        <v>6.637085427135679</v>
       </c>
       <c r="B48" t="n">
-        <v>5.446853614326872e-08</v>
+        <v>1.672234647502691e-07</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7150702103372937</v>
+        <v>0.5891201655593076</v>
       </c>
       <c r="D48" t="n">
-        <v>9.918351364051652</v>
+        <v>2.63631322139975</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11.57510204081633</v>
+        <v>6.671909547738694</v>
       </c>
       <c r="B49" t="n">
-        <v>5.476536206689962e-08</v>
+        <v>1.608242660614523e-07</v>
       </c>
       <c r="C49" t="n">
-        <v>0.7326480848253198</v>
+        <v>0.5789324709691391</v>
       </c>
       <c r="D49" t="n">
-        <v>9.868047858306621</v>
+        <v>2.751321122570546</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11.71673469387755</v>
+        <v>6.706733668341709</v>
       </c>
       <c r="B50" t="n">
-        <v>5.5092962720233e-08</v>
+        <v>1.548897476321527e-07</v>
       </c>
       <c r="C50" t="n">
-        <v>0.7506771721104009</v>
+        <v>0.5694576563727693</v>
       </c>
       <c r="D50" t="n">
-        <v>9.810527605396844</v>
+        <v>2.867122018785683</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11.85836734693877</v>
+        <v>6.741557788944724</v>
       </c>
       <c r="B51" t="n">
-        <v>5.544994551041996e-08</v>
+        <v>1.493770397044558e-07</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7691574553805669</v>
+        <v>0.5606413577515241</v>
       </c>
       <c r="D51" t="n">
-        <v>9.746474029153219</v>
+        <v>2.983604675425861</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
+        <v>6.776381909547739</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1.442461086114296e-07</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.5524300770918246</v>
+      </c>
+      <c r="D52" t="n">
+        <v>3.100658977676789</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6.811206030150754</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1.394652207110289e-07</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.5447875705244074</v>
+      </c>
+      <c r="D53" t="n">
+        <v>3.218179576826296</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6.846030150753769</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1.349999244768646e-07</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.537660420436848</v>
+      </c>
+      <c r="D54" t="n">
+        <v>3.336059659425999</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6.880854271356784</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1.308275026350092e-07</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.5310255680648511</v>
+      </c>
+      <c r="D55" t="n">
+        <v>3.45420610890627</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6.915678391959799</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.269196403592058e-07</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.5248387380966912</v>
+      </c>
+      <c r="D56" t="n">
+        <v>3.572515408250653</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6.950502512562815</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1.232557308657218e-07</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.5190715456332269</v>
+      </c>
+      <c r="D57" t="n">
+        <v>3.690897882183081</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6.98532663316583</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.198163801317582e-07</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.5136987152282483</v>
+      </c>
+      <c r="D58" t="n">
+        <v>3.809264779201798</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>7.020150753768845</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.165831220936169e-07</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.5086921649873122</v>
+      </c>
+      <c r="D59" t="n">
+        <v>3.927528333655447</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>7.05497487437186</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.135410072427653e-07</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.5040313412101083</v>
+      </c>
+      <c r="D60" t="n">
+        <v>4.045606193309646</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>7.089798994974874</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.106725752538821e-07</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.4996862218017243</v>
+      </c>
+      <c r="D61" t="n">
+        <v>4.163408535980908</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>7.12462311557789</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1.079711278419699e-07</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.4956577531077963</v>
+      </c>
+      <c r="D62" t="n">
+        <v>4.280886323532617</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>7.159447236180904</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1.054188041094961e-07</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.4919091938023832</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.397939855982553</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>7.19427135678392</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1.030056955224402e-07</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.4884257477767256</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.514499274144807</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>7.229095477386934</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1.007246173450898e-07</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.4852032739331526</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.630521131529418</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>7.26391959798995</v>
+      </c>
+      <c r="B66" t="n">
+        <v>9.856398282669798e-08</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.4822176505119143</v>
+      </c>
+      <c r="D66" t="n">
+        <v>4.745917817257904</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>7.298743718592965</v>
+      </c>
+      <c r="B67" t="n">
+        <v>9.651619875887948e-08</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.4794581110500138</v>
+      </c>
+      <c r="D67" t="n">
+        <v>4.86063507636244</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>7.333567839195981</v>
+      </c>
+      <c r="B68" t="n">
+        <v>9.457424286833159e-08</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.4769145464305894</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4.97461619701674</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>7.368391959798995</v>
+      </c>
+      <c r="B69" t="n">
+        <v>9.273041838995169e-08</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.4745740592376349</v>
+      </c>
+      <c r="D69" t="n">
+        <v>5.087803220369663</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>7.403216080402011</v>
+      </c>
+      <c r="B70" t="n">
+        <v>9.097872728182393e-08</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.4724264111984486</v>
+      </c>
+      <c r="D70" t="n">
+        <v>5.200145286666618</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>7.438040201005025</v>
+      </c>
+      <c r="B71" t="n">
+        <v>8.931426468505114e-08</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.470465699433711</v>
+      </c>
+      <c r="D71" t="n">
+        <v>5.311603886183953</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>7.472864321608041</v>
+      </c>
+      <c r="B72" t="n">
+        <v>8.773038381085551e-08</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.4686781593947593</v>
+      </c>
+      <c r="D72" t="n">
+        <v>5.422114550763727</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>7.507688442211055</v>
+      </c>
+      <c r="B73" t="n">
+        <v>8.622258292084972e-08</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.4670579088723441</v>
+      </c>
+      <c r="D73" t="n">
+        <v>5.53164371335003</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>7.542512562814071</v>
+      </c>
+      <c r="B74" t="n">
+        <v>8.478622568748149e-08</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.465596898266834</v>
+      </c>
+      <c r="D74" t="n">
+        <v>5.640142323450239</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>7.577336683417085</v>
+      </c>
+      <c r="B75" t="n">
+        <v>8.341704705150377e-08</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.4642872893302606</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.74757442238363</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>7.612160804020101</v>
+      </c>
+      <c r="B76" t="n">
+        <v>8.211116818249627e-08</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.4631230351878475</v>
+      </c>
+      <c r="D76" t="n">
+        <v>5.853906032522413</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>7.646984924623116</v>
+      </c>
+      <c r="B77" t="n">
+        <v>8.086495187478131e-08</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.4620976578513316</v>
+      </c>
+      <c r="D77" t="n">
+        <v>5.95909452462929</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>7.681809045226131</v>
+      </c>
+      <c r="B78" t="n">
+        <v>7.967505735785726e-08</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.4612054104121492</v>
+      </c>
+      <c r="D78" t="n">
+        <v>6.063115269193164</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>7.716633165829146</v>
+      </c>
+      <c r="B79" t="n">
+        <v>7.85380823144842e-08</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.4604386000893655</v>
+      </c>
+      <c r="D79" t="n">
+        <v>6.165922330512689</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>7.751457286432161</v>
+      </c>
+      <c r="B80" t="n">
+        <v>7.745215159733316e-08</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.4597985509182272</v>
+      </c>
+      <c r="D80" t="n">
+        <v>6.267527601122541</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>7.786281407035176</v>
+      </c>
+      <c r="B81" t="n">
+        <v>7.641346303681837e-08</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.4592741622028783</v>
+      </c>
+      <c r="D81" t="n">
+        <v>6.367865570852354</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>7.821105527638191</v>
+      </c>
+      <c r="B82" t="n">
+        <v>7.541946151488777e-08</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.4588617688656748</v>
+      </c>
+      <c r="D82" t="n">
+        <v>6.466918255892878</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>7.855929648241206</v>
+      </c>
+      <c r="B83" t="n">
+        <v>7.446841421217489e-08</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.4585587311859403</v>
+      </c>
+      <c r="D83" t="n">
+        <v>6.564671069930156</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>7.890753768844221</v>
+      </c>
+      <c r="B84" t="n">
+        <v>7.355780134603597e-08</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.4583604794409297</v>
+      </c>
+      <c r="D84" t="n">
+        <v>6.661103174107575</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>7.925577889447236</v>
+      </c>
+      <c r="B85" t="n">
+        <v>7.268562787278585e-08</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.458262825466361</v>
+      </c>
+      <c r="D85" t="n">
+        <v>6.756192668931637</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>7.960402010050251</v>
+      </c>
+      <c r="B86" t="n">
+        <v>7.184998896215261e-08</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.4582631646334693</v>
+      </c>
+      <c r="D86" t="n">
+        <v>6.849926556513832</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>7.995226130653267</v>
+      </c>
+      <c r="B87" t="n">
+        <v>7.104894141989808e-08</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.4583569202700536</v>
+      </c>
+      <c r="D87" t="n">
+        <v>6.94228296367351</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>8.030050251256281</v>
+      </c>
+      <c r="B88" t="n">
+        <v>7.028096673917733e-08</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.4585415148509953</v>
+      </c>
+      <c r="D88" t="n">
+        <v>7.033251597809792</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>8.064874371859297</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6.954429368208222e-08</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.4588138442409656</v>
+      </c>
+      <c r="D89" t="n">
+        <v>7.12281892123539</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>8.099698492462313</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6.883736045567962e-08</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.459169238838243</v>
+      </c>
+      <c r="D90" t="n">
+        <v>7.210956125430771</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>8.134522613065327</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6.815964507838213e-08</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.4596109559615421</v>
+      </c>
+      <c r="D91" t="n">
+        <v>7.2977114706467</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>8.169346733668341</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6.750820214183218e-08</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.4601280939645684</v>
+      </c>
+      <c r="D92" t="n">
+        <v>7.382994416866508</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>8.204170854271357</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6.68837080245447e-08</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.4607267042948435</v>
+      </c>
+      <c r="D93" t="n">
+        <v>7.466881103054014</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>8.238994974874373</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6.628388158765974e-08</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.4613998983922593</v>
+      </c>
+      <c r="D94" t="n">
+        <v>7.549321237901141</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>8.273819095477387</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6.570758216276147e-08</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.4621452036873085</v>
+      </c>
+      <c r="D95" t="n">
+        <v>7.630305252078916</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>8.308643216080402</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6.515398737305122e-08</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.4629612629984585</v>
+      </c>
+      <c r="D96" t="n">
+        <v>7.709836646855595</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>8.343467336683418</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6.462147452178233e-08</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.4638433418744107</v>
+      </c>
+      <c r="D97" t="n">
+        <v>7.787880801872906</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>8.378291457286434</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6.41105401695178e-08</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.4647960793871447</v>
+      </c>
+      <c r="D98" t="n">
+        <v>7.864509843577161</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>8.413115577889448</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6.362000331980983e-08</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.4658172202279928</v>
+      </c>
+      <c r="D99" t="n">
+        <v>7.939722192836306</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>8.447939698492462</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6.314800144229656e-08</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.4668988637782721</v>
+      </c>
+      <c r="D100" t="n">
+        <v>8.013439403745675</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>8.482763819095478</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6.269423147696094e-08</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.468043392495099</v>
+      </c>
+      <c r="D101" t="n">
+        <v>8.085713645508589</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>8.517587939698492</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6.225818000414928e-08</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.4692480634440456</v>
+      </c>
+      <c r="D102" t="n">
+        <v>8.156528522421924</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>8.552412060301508</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6.1838974471075e-08</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.4705123756419788</v>
+      </c>
+      <c r="D103" t="n">
+        <v>8.225900179431477</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>8.587236180904522</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6.14359063360678e-08</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.4718337538843962</v>
+      </c>
+      <c r="D104" t="n">
+        <v>8.293814965946101</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>8.622060301507538</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6.104828367384287e-08</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.4732118371712953</v>
+      </c>
+      <c r="D105" t="n">
+        <v>8.360291887203022</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>8.656884422110553</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6.067542947384103e-08</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.4746435665557786</v>
+      </c>
+      <c r="D106" t="n">
+        <v>8.425309612692159</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>8.691708542713569</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6.03182860178503e-08</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.476136640881353</v>
+      </c>
+      <c r="D107" t="n">
+        <v>8.489001129803301</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>8.726532663316583</v>
+      </c>
+      <c r="B108" t="n">
+        <v>5.99742976447634e-08</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.4776792645132606</v>
+      </c>
+      <c r="D108" t="n">
+        <v>8.551219880532711</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>8.761356783919599</v>
+      </c>
+      <c r="B109" t="n">
+        <v>5.964345440519591e-08</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.4792723585291426</v>
+      </c>
+      <c r="D109" t="n">
+        <v>8.611998930543759</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>8.796180904522613</v>
+      </c>
+      <c r="B110" t="n">
+        <v>5.932567738575709e-08</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.4809177646129663</v>
+      </c>
+      <c r="D110" t="n">
+        <v>8.671388619281311</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>8.831005025125629</v>
+      </c>
+      <c r="B111" t="n">
+        <v>5.902028330444515e-08</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.4826127356161443</v>
+      </c>
+      <c r="D111" t="n">
+        <v>8.729372203882292</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>8.865829145728643</v>
+      </c>
+      <c r="B112" t="n">
+        <v>5.872676709120999e-08</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.4843559156658589</v>
+      </c>
+      <c r="D112" t="n">
+        <v>8.785949882931014</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>8.900653266331659</v>
+      </c>
+      <c r="B113" t="n">
+        <v>5.84451543312318e-08</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.4861505209184308</v>
+      </c>
+      <c r="D113" t="n">
+        <v>8.841197567422329</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>8.935477386934673</v>
+      </c>
+      <c r="B114" t="n">
+        <v>5.817454304703535e-08</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.4879909703433326</v>
+      </c>
+      <c r="D114" t="n">
+        <v>8.895047422057244</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>8.970301507537689</v>
+      </c>
+      <c r="B115" t="n">
+        <v>5.791464603630978e-08</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.4898780409852311</v>
+      </c>
+      <c r="D115" t="n">
+        <v>8.947535319404105</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>9.005125628140703</v>
+      </c>
+      <c r="B116" t="n">
+        <v>5.766518846836936e-08</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.4918108727094833</v>
+      </c>
+      <c r="D116" t="n">
+        <v>8.998670357320492</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>9.039949748743719</v>
+      </c>
+      <c r="B117" t="n">
+        <v>5.742589802278452e-08</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.4937896724711455</v>
+      </c>
+      <c r="D117" t="n">
+        <v>9.048480021586705</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>9.074773869346734</v>
+      </c>
+      <c r="B118" t="n">
+        <v>5.719582133187934e-08</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.4958093587791689</v>
+      </c>
+      <c r="D118" t="n">
+        <v>9.096897562889342</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>9.109597989949748</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5.697539030195102e-08</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.4978744822521449</v>
+      </c>
+      <c r="D119" t="n">
+        <v>9.144027452200461</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>9.144422110552764</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5.676485486742916e-08</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.499987784765283</v>
+      </c>
+      <c r="D120" t="n">
+        <v>9.189941224638371</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>9.17924623115578</v>
+      </c>
+      <c r="B121" t="n">
+        <v>5.656258085886417e-08</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.5021400763966087</v>
+      </c>
+      <c r="D121" t="n">
+        <v>9.234498119353182</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>9.214070351758794</v>
+      </c>
+      <c r="B122" t="n">
+        <v>5.636892768677627e-08</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0.5043346302116762</v>
+      </c>
+      <c r="D122" t="n">
+        <v>9.277780095215583</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>9.248894472361808</v>
+      </c>
+      <c r="B123" t="n">
+        <v>5.618344392989745e-08</v>
+      </c>
+      <c r="C123" t="n">
+        <v>0.5065700046857782</v>
+      </c>
+      <c r="D123" t="n">
+        <v>9.319782979450229</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>9.283718592964824</v>
+      </c>
+      <c r="B124" t="n">
+        <v>5.60060593229799e-08</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.5088464362453228</v>
+      </c>
+      <c r="D124" t="n">
+        <v>9.360534544437513</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>9.31854271356784</v>
+      </c>
+      <c r="B125" t="n">
+        <v>5.583618040129169e-08</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0.5111620054347803</v>
+      </c>
+      <c r="D125" t="n">
+        <v>9.40002089123422</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>9.353366834170854</v>
+      </c>
+      <c r="B126" t="n">
+        <v>5.567413571356442e-08</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.5135182703952681</v>
+      </c>
+      <c r="D126" t="n">
+        <v>9.438294661562669</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>9.388190954773869</v>
+      </c>
+      <c r="B127" t="n">
+        <v>5.551934377022112e-08</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0.5159138751642925</v>
+      </c>
+      <c r="D127" t="n">
+        <v>9.475351074410858</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>9.423015075376885</v>
+      </c>
+      <c r="B128" t="n">
+        <v>5.537164483538634e-08</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0.5183483532162586</v>
+      </c>
+      <c r="D128" t="n">
+        <v>9.51120458324881</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>9.457839195979901</v>
+      </c>
+      <c r="B129" t="n">
+        <v>5.523083463900305e-08</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.520821153854242</v>
+      </c>
+      <c r="D129" t="n">
+        <v>9.545866544795786</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>9.492663316582915</v>
+      </c>
+      <c r="B130" t="n">
+        <v>5.509666884711704e-08</v>
+      </c>
+      <c r="C130" t="n">
+        <v>0.5233312635215855</v>
+      </c>
+      <c r="D130" t="n">
+        <v>9.579338704201033</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>9.527487437185929</v>
+      </c>
+      <c r="B131" t="n">
+        <v>5.496908006676837e-08</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.525879528994514</v>
+      </c>
+      <c r="D131" t="n">
+        <v>9.611658819436512</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>9.562311557788945</v>
+      </c>
+      <c r="B132" t="n">
+        <v>5.484780938720349e-08</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.5284647760186159</v>
+      </c>
+      <c r="D132" t="n">
+        <v>9.642826287601373</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>9.597135678391961</v>
+      </c>
+      <c r="B133" t="n">
+        <v>5.473264767479649e-08</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.5310864479097263</v>
+      </c>
+      <c r="D133" t="n">
+        <v>9.672851115923274</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>9.631959798994975</v>
+      </c>
+      <c r="B134" t="n">
+        <v>5.462347549173144e-08</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.5337448927246772</v>
+      </c>
+      <c r="D134" t="n">
+        <v>9.701761344527194</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>9.666783919597989</v>
+      </c>
+      <c r="B135" t="n">
+        <v>5.452013441864777e-08</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.5364391226547598</v>
+      </c>
+      <c r="D135" t="n">
+        <v>9.729558058634183</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>9.701608040201005</v>
+      </c>
+      <c r="B136" t="n">
+        <v>5.442248107724399e-08</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.5391695236989592</v>
+      </c>
+      <c r="D136" t="n">
+        <v>9.75627019856533</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>9.736432160804021</v>
+      </c>
+      <c r="B137" t="n">
+        <v>5.433011267030249e-08</v>
+      </c>
+      <c r="C137" t="n">
+        <v>0.5419327833416351</v>
+      </c>
+      <c r="D137" t="n">
+        <v>9.781849346186545</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>9.771256281407036</v>
+      </c>
+      <c r="B138" t="n">
+        <v>5.424325012524142e-08</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.5447335403231145</v>
+      </c>
+      <c r="D138" t="n">
+        <v>9.806412961873235</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>9.80608040201005</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5.4162034039153e-08</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.5475716386728832</v>
+      </c>
+      <c r="D139" t="n">
+        <v>9.829979190924137</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>9.840904522613066</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5.408526469551721e-08</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.5504387398075707</v>
+      </c>
+      <c r="D140" t="n">
+        <v>9.852391359830349</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>9.875728643216082</v>
+      </c>
+      <c r="B141" t="n">
+        <v>5.40136911761734e-08</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.5533425853386422</v>
+      </c>
+      <c r="D141" t="n">
+        <v>9.87383343984666</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>9.910552763819096</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5.394715654533668e-08</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.5562809884056495</v>
+      </c>
+      <c r="D142" t="n">
+        <v>9.894278414430779</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>9.94537688442211</v>
+      </c>
+      <c r="B143" t="n">
+        <v>5.388511913485126e-08</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.5592520601300749</v>
+      </c>
+      <c r="D143" t="n">
+        <v>9.913706332711691</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>9.980201005025126</v>
+      </c>
+      <c r="B144" t="n">
+        <v>5.382767204582163e-08</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.5622560483544888</v>
+      </c>
+      <c r="D144" t="n">
+        <v>9.932139517125028</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>10.01502512562814</v>
+      </c>
+      <c r="B145" t="n">
+        <v>5.377470406271443e-08</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.5652933019648971</v>
+      </c>
+      <c r="D145" t="n">
+        <v>9.949609753670662</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>10.04984924623116</v>
+      </c>
+      <c r="B146" t="n">
+        <v>5.372620999780036e-08</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.5683639374577908</v>
+      </c>
+      <c r="D146" t="n">
+        <v>9.966134107002112</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>10.08467336683417</v>
+      </c>
+      <c r="B147" t="n">
+        <v>5.368155618235019e-08</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.5714637844400534</v>
+      </c>
+      <c r="D147" t="n">
+        <v>9.981641022134259</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>10.11949748743719</v>
+      </c>
+      <c r="B148" t="n">
+        <v>5.364179551150986e-08</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.5746022581346252</v>
+      </c>
+      <c r="D148" t="n">
+        <v>9.996355441164962</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>10.1543216080402</v>
+      </c>
+      <c r="B149" t="n">
+        <v>5.360579525809966e-08</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.577769946919339</v>
+      </c>
+      <c r="D149" t="n">
+        <v>10.01008909384861</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>10.18914572864322</v>
+      </c>
+      <c r="B150" t="n">
+        <v>5.357385001683148e-08</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.5809702219874139</v>
+      </c>
+      <c r="D150" t="n">
+        <v>10.02293527185563</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>10.22396984924623</v>
+      </c>
+      <c r="B151" t="n">
+        <v>5.354581801886905e-08</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.5842027484217915</v>
+      </c>
+      <c r="D151" t="n">
+        <v>10.03490293738858</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>10.25879396984925</v>
+      </c>
+      <c r="B152" t="n">
+        <v>5.352146698670316e-08</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.5874656927565043</v>
+      </c>
+      <c r="D152" t="n">
+        <v>10.04597052550804</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>10.29361809045226</v>
+      </c>
+      <c r="B153" t="n">
+        <v>5.350086312503751e-08</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.5907602534559806</v>
+      </c>
+      <c r="D153" t="n">
+        <v>10.05618103689928</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>10.32844221105528</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5.348394875643816e-08</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.5940865180409188</v>
+      </c>
+      <c r="D154" t="n">
+        <v>10.06555397957391</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>10.36326633165829</v>
+      </c>
+      <c r="B155" t="n">
+        <v>5.347054784917676e-08</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.5974435611284341</v>
+      </c>
+      <c r="D155" t="n">
+        <v>10.07408626841636</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>10.39809045226131</v>
+      </c>
+      <c r="B156" t="n">
+        <v>5.346031799815301e-08</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.6008287457150724</v>
+      </c>
+      <c r="D156" t="n">
+        <v>10.08173507312484</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>10.43291457286432</v>
+      </c>
+      <c r="B157" t="n">
+        <v>5.345421742509645e-08</v>
+      </c>
+      <c r="C157" t="n">
+        <v>0.604250969894401</v>
+      </c>
+      <c r="D157" t="n">
+        <v>10.08871747521483</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>10.46773869346734</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5.345107027045742e-08</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.6077000302253696</v>
+      </c>
+      <c r="D158" t="n">
+        <v>10.09481967489392</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>10.50256281407035</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5.345118182034184e-08</v>
+      </c>
+      <c r="C159" t="n">
+        <v>0.6111803425916937</v>
+      </c>
+      <c r="D159" t="n">
+        <v>10.10015808855164</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>10.53738693467337</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5.345441328344086e-08</v>
+      </c>
+      <c r="C160" t="n">
+        <v>0.614689592378991</v>
+      </c>
+      <c r="D160" t="n">
+        <v>10.10469612074862</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>10.57221105527638</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5.346057565361983e-08</v>
+      </c>
+      <c r="C161" t="n">
+        <v>0.6182274199068998</v>
+      </c>
+      <c r="D161" t="n">
+        <v>10.10844141953629</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>10.6070351758794</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5.347053449805677e-08</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0.6218017560365799</v>
+      </c>
+      <c r="D162" t="n">
+        <v>10.11158866550396</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>10.64185929648241</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5.348307113548693e-08</v>
+      </c>
+      <c r="C163" t="n">
+        <v>0.6254021501453695</v>
+      </c>
+      <c r="D163" t="n">
+        <v>10.11391943108107</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>10.67668341708543</v>
+      </c>
+      <c r="B164" t="n">
+        <v>5.349869971045207e-08</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.6290334731460366</v>
+      </c>
+      <c r="D164" t="n">
+        <v>10.11555504155488</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>10.71150753768844</v>
+      </c>
+      <c r="B165" t="n">
+        <v>5.351691799343192e-08</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.6326915921510168</v>
+      </c>
+      <c r="D165" t="n">
+        <v>10.11642014756483</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>10.74633165829146</v>
+      </c>
+      <c r="B166" t="n">
+        <v>5.353837665715809e-08</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0.6363831626391765</v>
+      </c>
+      <c r="D166" t="n">
+        <v>10.11667899654471</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>10.78115577889447</v>
+      </c>
+      <c r="B167" t="n">
+        <v>5.356228252412503e-08</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0.6401006412433221</v>
+      </c>
+      <c r="D167" t="n">
+        <v>10.11617569564712</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>10.81597989949749</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5.358917170606492e-08</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.6438499423927029</v>
+      </c>
+      <c r="D168" t="n">
+        <v>10.11505839564912</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>10.8508040201005</v>
+      </c>
+      <c r="B169" t="n">
+        <v>5.361858455196159e-08</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0.6476267959349878</v>
+      </c>
+      <c r="D169" t="n">
+        <v>10.11324270812941</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>10.88562814070352</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5.365048536630444e-08</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.6514315889938691</v>
+      </c>
+      <c r="D170" t="n">
+        <v>10.11075489023371</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>10.92045226130653</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5.368475548173897e-08</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0.6552630312071872</v>
+      </c>
+      <c r="D171" t="n">
+        <v>10.10757760285897</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>10.95527638190955</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5.372249005945296e-08</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.6591323255427325</v>
+      </c>
+      <c r="D172" t="n">
+        <v>10.1039800968372</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>10.99010050251256</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5.376224298325195e-08</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.6630256208293305</v>
+      </c>
+      <c r="D173" t="n">
+        <v>10.09966038570875</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>11.02492462311558</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5.380440382515839e-08</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.6669478497548109</v>
+      </c>
+      <c r="D174" t="n">
+        <v>10.09474340163184</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>11.05974874371859</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5.384900103846717e-08</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.6708985691574396</v>
+      </c>
+      <c r="D175" t="n">
+        <v>10.08923044599205</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>11.09457286432161</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5.389613617678899e-08</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0.6748793502044057</v>
+      </c>
+      <c r="D176" t="n">
+        <v>10.08317870091264</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>11.12939698492462</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5.394513027446935e-08</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.678884042409559</v>
+      </c>
+      <c r="D177" t="n">
+        <v>10.07645208396988</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>11.16422110552764</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5.399673328014817e-08</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.6829201809997025</v>
+      </c>
+      <c r="D178" t="n">
+        <v>10.06923741566769</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>11.19904522613065</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.40505328926353e-08</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.6869841956347797</v>
+      </c>
+      <c r="D179" t="n">
+        <v>10.06146541610164</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>11.23386934673367</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.410653375255033e-08</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.6910763258066421</v>
+      </c>
+      <c r="D180" t="n">
+        <v>10.05315669756621</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>11.26869346733668</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.416466724691063e-08</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.6951958054513055</v>
+      </c>
+      <c r="D181" t="n">
+        <v>10.04430013306135</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>11.3035175879397</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.422494824738757e-08</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.6993434229828405</v>
+      </c>
+      <c r="D182" t="n">
+        <v>10.03493130422748</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>11.33834170854271</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.428735723529152e-08</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.7035192976549104</v>
+      </c>
+      <c r="D183" t="n">
+        <v>10.02506201885536</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>11.37316582914573</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.435177221362343e-08</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.7077222599024663</v>
+      </c>
+      <c r="D184" t="n">
+        <v>10.01467752925755</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>11.40798994974874</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.441836086852107e-08</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.7119538413121738</v>
+      </c>
+      <c r="D185" t="n">
+        <v>10.00382155762958</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>11.44281407035176</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.448711353614479e-08</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.7162159029624062</v>
+      </c>
+      <c r="D186" t="n">
+        <v>9.99255195359442</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>11.47763819095477</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.455765420711808e-08</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.7205030224984897</v>
+      </c>
+      <c r="D187" t="n">
+        <v>9.98075843935653</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>11.51246231155779</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.463016963869683e-08</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.724818370326784</v>
+      </c>
+      <c r="D188" t="n">
+        <v>9.968517914214098</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>11.5472864321608</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.470455543280709e-08</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.7291597619335549</v>
+      </c>
+      <c r="D189" t="n">
+        <v>9.955792387265273</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>11.58211055276382</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.478083061957852e-08</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.7335293118259626</v>
+      </c>
+      <c r="D190" t="n">
+        <v>9.942645954814578</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>11.61693467336683</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.485902940531439e-08</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.7379268923987868</v>
+      </c>
+      <c r="D191" t="n">
+        <v>9.929081202676693</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>11.65175879396985</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.493915303497618e-08</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.7423523249235926</v>
+      </c>
+      <c r="D192" t="n">
+        <v>9.915104752202273</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>11.68658291457287</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.502075657418086e-08</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.7468016546735168</v>
+      </c>
+      <c r="D193" t="n">
+        <v>9.900641482157846</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>11.72140703517588</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.510426038853969e-08</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.7512794617211682</v>
+      </c>
+      <c r="D194" t="n">
+        <v>9.885800611578549</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>11.7562311557789</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.518951283881917e-08</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.7557841022840034</v>
+      </c>
+      <c r="D195" t="n">
+        <v>9.870555952397773</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>11.79105527638191</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.527687273057786e-08</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.7603198764520743</v>
+      </c>
+      <c r="D196" t="n">
+        <v>9.855013540334074</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>11.82587939698492</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.536565819226573e-08</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.7648799345968685</v>
+      </c>
+      <c r="D197" t="n">
+        <v>9.839027307042432</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>11.86070351758794</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.545609180966037e-08</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.7694659917456805</v>
+      </c>
+      <c r="D198" t="n">
+        <v>9.822654977567487</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>11.89552763819096</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.554827552579649e-08</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.7740803168362473</v>
+      </c>
+      <c r="D199" t="n">
+        <v>9.805945707757475</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>11.93035175879397</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.564205544969983e-08</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.7787209218070671</v>
+      </c>
+      <c r="D200" t="n">
+        <v>9.78886749736091</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>11.96517587939698</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.573745749340741e-08</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.7833885551348707</v>
+      </c>
+      <c r="D201" t="n">
+        <v>9.771448458367441</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
         <v>12</v>
       </c>
-      <c r="B52" t="n">
-        <v>5.583408447018482e-08</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.7880777366043336</v>
-      </c>
-      <c r="D52" t="n">
-        <v>9.676284674250542</v>
+      <c r="B202" t="n">
+        <v>5.583408235417613e-08</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.7880777123982869</v>
+      </c>
+      <c r="D202" t="n">
+        <v>9.753575645718547</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -362,7 +362,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>range=linspace(5.07,12.0,200)</t>
+          <t>range=linspace(5.15,12.0,200)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -400,13 +400,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.07</v>
+        <v>5.15</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2609787748250972</v>
+        <v>0.0007564791796121726</v>
       </c>
       <c r="C3" t="n">
-        <v>13888.2056137455</v>
+        <v>150.9763868365818</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -414,2774 +414,2774 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.104824120603015</v>
+        <v>5.184422110552764</v>
       </c>
       <c r="B4" t="n">
-        <v>0.007986513540077438</v>
+        <v>0.0002450555297886277</v>
       </c>
       <c r="C4" t="n">
-        <v>865.8530993583709</v>
+        <v>66.89308905231518</v>
       </c>
       <c r="D4" t="n">
-        <v>1.390336235733444e-05</v>
+        <v>0.0008703916090894197</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.13964824120603</v>
+        <v>5.218844221105528</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001156359130818645</v>
+        <v>0.0001054704752841625</v>
       </c>
       <c r="C5" t="n">
-        <v>205.801780228026</v>
+        <v>36.68998490443413</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001891481725571895</v>
+        <v>0.002704976468576973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.174472361809046</v>
+        <v>5.253266331658292</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0003273943345142932</v>
+        <v>5.412472234222575e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>82.35922274806835</v>
+        <v>22.92971861492324</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0008525286553658265</v>
+        <v>0.005880420935248569</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.209296482412061</v>
+        <v>5.287688442211055</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0001304894189964621</v>
+        <v>3.127541498500425e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>42.66830876780074</v>
+        <v>15.63834880628372</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002389493328543445</v>
+        <v>0.01075954505664951</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.244120603015076</v>
+        <v>5.322110552763819</v>
       </c>
       <c r="B8" t="n">
-        <v>6.376350760481275e-05</v>
+        <v>1.968523702910699e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>25.72482926709465</v>
+        <v>11.35459700573758</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005192174150513927</v>
+        <v>0.01767777768018886</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.278944723618091</v>
+        <v>5.356532663316584</v>
       </c>
       <c r="B9" t="n">
-        <v>3.562007668269549e-05</v>
+        <v>1.321121966314068e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>17.11891814300044</v>
+        <v>8.637830002083282</v>
       </c>
       <c r="D9" t="n">
-        <v>0.009642302765412235</v>
+        <v>0.0269471156461854</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.313768844221106</v>
+        <v>5.390954773869347</v>
       </c>
       <c r="B10" t="n">
-        <v>2.187974597977477e-05</v>
+        <v>9.319444092104907e-06</v>
       </c>
       <c r="C10" t="n">
-        <v>12.21219202665176</v>
+        <v>6.813125996642746</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01609355672797503</v>
+        <v>0.03884413187127302</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.348592964824121</v>
+        <v>5.425376884422111</v>
       </c>
       <c r="B11" t="n">
-        <v>1.44134426313227e-05</v>
+        <v>6.841245551620547e-06</v>
       </c>
       <c r="C11" t="n">
-        <v>9.167825196565481</v>
+        <v>5.530847906680535</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02487730699672899</v>
+        <v>0.05361450041838927</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.383417085427136</v>
+        <v>5.459798994974875</v>
       </c>
       <c r="B12" t="n">
-        <v>1.002212807807237e-05</v>
+        <v>5.188032596906953e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>7.157300441196064</v>
+        <v>4.596411307178551</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03628836734938418</v>
+        <v>0.07147009814887111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.418241206030151</v>
+        <v>5.494221105527639</v>
       </c>
       <c r="B13" t="n">
-        <v>7.272823679888717e-06</v>
+        <v>4.041882731551343e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>5.763184160952527</v>
+        <v>3.894711220763502</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05058786076610802</v>
+        <v>0.09259346657503145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.453065326633166</v>
+        <v>5.528643216080402</v>
       </c>
       <c r="B14" t="n">
-        <v>5.464010098151672e-06</v>
+        <v>3.221786346149364e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>4.758070189503154</v>
+        <v>3.354539473838223</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06800329607824471</v>
+        <v>0.1171324683145463</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.487889447236181</v>
+        <v>5.563065326633167</v>
       </c>
       <c r="B15" t="n">
-        <v>4.224318251977134e-06</v>
+        <v>2.618448131870979e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>4.009997226727866</v>
+        <v>2.929728490824943</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08872807768901329</v>
+        <v>0.1452108708792807</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.522713567839197</v>
+        <v>5.59748743718593</v>
       </c>
       <c r="B16" t="n">
-        <v>3.345299409701493e-06</v>
+        <v>2.164264535615566e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>3.438326846148052</v>
+        <v>2.589672156434232</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1129236168271787</v>
+        <v>0.1769152771403317</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.557537688442212</v>
+        <v>5.631909547738694</v>
       </c>
       <c r="B17" t="n">
-        <v>2.703906184604051e-06</v>
+        <v>1.815199755325059e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>2.991585317291114</v>
+        <v>2.313054917723921</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1407218896521201</v>
+        <v>0.2123192388431786</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.592361809045227</v>
+        <v>5.666331658291457</v>
       </c>
       <c r="B18" t="n">
-        <v>2.224360735508195e-06</v>
+        <v>1.542203872120123e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>2.63585797514052</v>
+        <v>2.084970198770235</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1722200282574632</v>
+        <v>0.2514646184190041</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.627185929648242</v>
+        <v>5.700753768844222</v>
       </c>
       <c r="B19" t="n">
-        <v>1.85807204772507e-06</v>
+        <v>1.325222117157278e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>2.34785662924415</v>
+        <v>1.894630640915791</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2074949052998475</v>
+        <v>0.2943727823452938</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.662010050251257</v>
+        <v>5.735175879396985</v>
       </c>
       <c r="B20" t="n">
-        <v>1.573026604982841e-06</v>
+        <v>1.150434916160549e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>2.111338988964203</v>
+        <v>1.734093105974028</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2465954383563094</v>
+        <v>0.3410454980671832</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.696834170854272</v>
+        <v>5.769597989949749</v>
       </c>
       <c r="B21" t="n">
-        <v>1.347595894599052e-06</v>
+        <v>1.007839868690518e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>1.914679259662615</v>
+        <v>1.597390992050725</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2895444359975378</v>
+        <v>0.3914663863632039</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.731658291457286</v>
+        <v>5.804020100502512</v>
       </c>
       <c r="B22" t="n">
-        <v>1.166701408273876e-06</v>
+        <v>8.902028203732314e-07</v>
       </c>
       <c r="C22" t="n">
-        <v>1.749317949165937</v>
+        <v>1.479991971995973</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3363476781767648</v>
+        <v>0.4456015805656449</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.766482412060302</v>
+        <v>5.838442211055277</v>
       </c>
       <c r="B23" t="n">
-        <v>1.019626805630352e-06</v>
+        <v>7.921362891626044e-07</v>
       </c>
       <c r="C23" t="n">
-        <v>1.608908542474273</v>
+        <v>1.378410647669595</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3869898050756252</v>
+        <v>0.5034003632045755</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.801306532663316</v>
+        <v>5.872864321608041</v>
       </c>
       <c r="B24" t="n">
-        <v>8.986654321092739e-07</v>
+        <v>7.096370351376255e-07</v>
       </c>
       <c r="C24" t="n">
-        <v>1.488620615438539</v>
+        <v>1.289894301446892</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4414408039850073</v>
+        <v>0.5648052965286201</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.836130653266332</v>
+        <v>5.907286432160804</v>
       </c>
       <c r="B25" t="n">
-        <v>7.981906280262964e-07</v>
+        <v>6.396807198443487e-07</v>
       </c>
       <c r="C25" t="n">
-        <v>1.384795860509186</v>
+        <v>1.212282246772692</v>
       </c>
       <c r="D25" t="n">
-        <v>0.499641900927653</v>
+        <v>0.6297422744750621</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.870954773869347</v>
+        <v>5.941708542713569</v>
       </c>
       <c r="B26" t="n">
-        <v>7.138780951486763e-07</v>
+        <v>5.798628581756484e-07</v>
       </c>
       <c r="C26" t="n">
-        <v>1.294503638604125</v>
+        <v>1.143829380646371</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5615386975562243</v>
+        <v>0.6981313402561383</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.905778894472363</v>
+        <v>5.976130653266332</v>
       </c>
       <c r="B27" t="n">
-        <v>6.425100510625675e-07</v>
+        <v>5.283905473586908e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>1.215475558912072</v>
+        <v>1.083177356828858</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6270566461045561</v>
+        <v>0.7698665578579806</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.940603015075377</v>
+        <v>6.010552763819096</v>
       </c>
       <c r="B28" t="n">
-        <v>5.816520593299262e-07</v>
+        <v>4.837885606997275e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>1.14590649650881</v>
+        <v>1.029151660454489</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6961085219978957</v>
+        <v>0.8448588381023217</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.975427135678392</v>
+        <v>6.04497487437186</v>
       </c>
       <c r="B29" t="n">
-        <v>5.293707786767323e-07</v>
+        <v>4.449066968544948e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>1.084346493344416</v>
+        <v>0.980816753661569</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7685934802968118</v>
+        <v>0.9230019538896658</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6.010251256281407</v>
+        <v>6.079396984924624</v>
       </c>
       <c r="B30" t="n">
-        <v>4.841507698885473e-07</v>
+        <v>4.108352920266488e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>1.029596215446793</v>
+        <v>0.9374186877788249</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8444129346814224</v>
+        <v>1.004174257716818</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.045075376884422</v>
+        <v>6.113819095477387</v>
       </c>
       <c r="B31" t="n">
-        <v>4.447973263922843e-07</v>
+        <v>3.808079964496725e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9806805700460767</v>
+        <v>0.8982927699846496</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9234574645120737</v>
+        <v>1.088266816313112</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.079899497487437</v>
+        <v>6.148241206030151</v>
       </c>
       <c r="B32" t="n">
-        <v>4.103658095376871e-07</v>
+        <v>3.542360932868838e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>0.936818031986566</v>
+        <v>0.8629164883488909</v>
       </c>
       <c r="D32" t="n">
-        <v>1.005601699058213</v>
+        <v>1.175149307351325</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.114723618090452</v>
+        <v>6.182663316582915</v>
       </c>
       <c r="B33" t="n">
-        <v>3.800703711913664e-07</v>
+        <v>3.306025138819971e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8973224400455782</v>
+        <v>0.8308073900899319</v>
       </c>
       <c r="D33" t="n">
-        <v>1.090731431085135</v>
+        <v>1.26470943836624</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.149547738693467</v>
+        <v>6.217085427135679</v>
       </c>
       <c r="B34" t="n">
-        <v>3.532896838552654e-07</v>
+        <v>3.09506200505387e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8616397921752714</v>
+        <v>0.801609406954268</v>
       </c>
       <c r="D34" t="n">
-        <v>1.178717951389847</v>
+        <v>1.356801917774123</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6.184371859296482</v>
+        <v>6.251507537688442</v>
       </c>
       <c r="B35" t="n">
-        <v>3.295018144944619e-07</v>
+        <v>2.905938805014093e-07</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8293009768885526</v>
+        <v>0.7749694942709161</v>
       </c>
       <c r="D35" t="n">
-        <v>1.269431784441259</v>
+        <v>1.451310936997458</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6.219195979899498</v>
+        <v>6.285929648241206</v>
       </c>
       <c r="B36" t="n">
-        <v>3.08287123279927e-07</v>
+        <v>2.735778817317793e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7999067875159638</v>
+        <v>0.7506042276882612</v>
       </c>
       <c r="D36" t="n">
-        <v>1.362741222341666</v>
+        <v>1.548106068768147</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.254020100502513</v>
+        <v>6.32035175879397</v>
       </c>
       <c r="B37" t="n">
-        <v>2.892904420866297e-07</v>
+        <v>2.582178541857475e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7731164682500171</v>
+        <v>0.7282747431465679</v>
       </c>
       <c r="D37" t="n">
-        <v>1.458513254236709</v>
+        <v>1.647053004045073</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.288844221105528</v>
+        <v>6.354773869346734</v>
       </c>
       <c r="B38" t="n">
-        <v>2.722170467158818e-07</v>
+        <v>2.44305353625385e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7486392879389949</v>
+        <v>0.7077653640288283</v>
       </c>
       <c r="D38" t="n">
-        <v>1.556612535610866</v>
+        <v>1.74802340157577</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6.323668341708543</v>
+        <v>6.389195979899498</v>
       </c>
       <c r="B39" t="n">
-        <v>2.568156536921773e-07</v>
+        <v>2.316655611453853e-07</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7262232090569911</v>
+        <v>0.688891940133229</v>
       </c>
       <c r="D39" t="n">
-        <v>1.65690562663461</v>
+        <v>1.850888140528341</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6.358492462311558</v>
+        <v>6.423618090452262</v>
       </c>
       <c r="B40" t="n">
-        <v>2.428781637443839e-07</v>
+        <v>2.201453260338022e-07</v>
       </c>
       <c r="C40" t="n">
-        <v>0.705644951946273</v>
+        <v>0.6714870327643538</v>
       </c>
       <c r="D40" t="n">
-        <v>1.759260126596394</v>
+        <v>1.955521796774291</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6.393316582914573</v>
+        <v>6.458040201005026</v>
       </c>
       <c r="B41" t="n">
-        <v>2.302297012452279e-07</v>
+        <v>2.096288443251739e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6867343717618202</v>
+        <v>0.6554302231336357</v>
       </c>
       <c r="D41" t="n">
-        <v>1.863532084991384</v>
+        <v>2.061784954091083</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6.428140703517588</v>
+        <v>6.492462311557789</v>
       </c>
       <c r="B42" t="n">
-        <v>2.187111617955745e-07</v>
+        <v>1.999946639819507e-07</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6693063894243741</v>
+        <v>0.640577741920774</v>
       </c>
       <c r="D42" t="n">
-        <v>1.969599180079557</v>
+        <v>2.169557987946957</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6.462964824120603</v>
+        <v>6.526884422110554</v>
       </c>
       <c r="B43" t="n">
-        <v>2.081987485954059e-07</v>
+        <v>1.91147107862184e-07</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6532328013045461</v>
+        <v>0.6268204446891036</v>
       </c>
       <c r="D43" t="n">
-        <v>2.077321310002658</v>
+        <v>2.278721998359607</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6.497788944723618</v>
+        <v>6.561306532663317</v>
       </c>
       <c r="B44" t="n">
-        <v>1.985754878297002e-07</v>
+        <v>1.830052183793543e-07</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6383776860107748</v>
+        <v>0.6140696938857204</v>
       </c>
       <c r="D44" t="n">
-        <v>2.186570444725647</v>
+        <v>2.389147527398253</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6.532613065326633</v>
+        <v>6.595728643216081</v>
       </c>
       <c r="B45" t="n">
-        <v>1.897445772146232e-07</v>
+        <v>1.754976602135215e-07</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6246305690781102</v>
+        <v>0.6022353721880009</v>
       </c>
       <c r="D45" t="n">
-        <v>2.297220806573421</v>
+        <v>2.500716132187196</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6.567437185929649</v>
+        <v>6.630150753768845</v>
       </c>
       <c r="B46" t="n">
-        <v>1.816244082895518e-07</v>
+        <v>1.685571602383256e-07</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6118971688356286</v>
+        <v>0.5912402064832522</v>
       </c>
       <c r="D46" t="n">
-        <v>2.409143758891825</v>
+        <v>2.613311747230164</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6.602261306532664</v>
+        <v>6.664572864321609</v>
       </c>
       <c r="B47" t="n">
-        <v>1.74138197389069e-07</v>
+        <v>1.621298271933719e-07</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6000864356244918</v>
+        <v>0.5810112333431954</v>
       </c>
       <c r="D47" t="n">
-        <v>2.522213005197252</v>
+        <v>2.726822860433524</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6.637085427135679</v>
+        <v>6.698994974874372</v>
       </c>
       <c r="B48" t="n">
-        <v>1.672234647502691e-07</v>
+        <v>1.561708243709633e-07</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5891201655593076</v>
+        <v>0.5715045745336355</v>
       </c>
       <c r="D48" t="n">
-        <v>2.63631322139975</v>
+        <v>2.841126039930959</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6.671909547738694</v>
+        <v>6.733417085427136</v>
       </c>
       <c r="B49" t="n">
-        <v>1.608242660614523e-07</v>
+        <v>1.506302348049797e-07</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5789324709691391</v>
+        <v>0.5626460881956109</v>
       </c>
       <c r="D49" t="n">
-        <v>2.751321122570546</v>
+        <v>2.95612077209603</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6.706733668341709</v>
+        <v>6.767839195979899</v>
       </c>
       <c r="B50" t="n">
-        <v>1.548897476321527e-07</v>
+        <v>1.454712025002915e-07</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5694576563727693</v>
+        <v>0.5543917266541523</v>
       </c>
       <c r="D50" t="n">
-        <v>2.867122018785683</v>
+        <v>3.071697914805982</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6.741557788944724</v>
+        <v>6.802261306532664</v>
       </c>
       <c r="B51" t="n">
-        <v>1.493770397044558e-07</v>
+        <v>1.406619212044599e-07</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5606413577515241</v>
+        <v>0.5467000781017833</v>
       </c>
       <c r="D51" t="n">
-        <v>2.983604675425861</v>
+        <v>3.18775570585</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6.776381909547739</v>
+        <v>6.836683417085427</v>
       </c>
       <c r="B52" t="n">
-        <v>1.442461086114296e-07</v>
+        <v>1.361691794125224e-07</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5524300770918246</v>
+        <v>0.5395265524274186</v>
       </c>
       <c r="D52" t="n">
-        <v>3.100658977676789</v>
+        <v>3.304192669709218</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.811206030150754</v>
+        <v>6.871105527638191</v>
       </c>
       <c r="B53" t="n">
-        <v>1.394652207110289e-07</v>
+        <v>1.319678184146008e-07</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5447875705244074</v>
+        <v>0.5328372985618528</v>
       </c>
       <c r="D53" t="n">
-        <v>3.218179576826296</v>
+        <v>3.420914413858632</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6.846030150753769</v>
+        <v>6.905527638190955</v>
       </c>
       <c r="B54" t="n">
-        <v>1.349999244768646e-07</v>
+        <v>1.280327838365376e-07</v>
       </c>
       <c r="C54" t="n">
-        <v>0.537660420436848</v>
+        <v>0.5265974091432336</v>
       </c>
       <c r="D54" t="n">
-        <v>3.336059659425999</v>
+        <v>3.537819658122995</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6.880854271356784</v>
+        <v>6.939949748743719</v>
       </c>
       <c r="B55" t="n">
-        <v>1.308275026350092e-07</v>
+        <v>1.243417738207005e-07</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5310255680648511</v>
+        <v>0.5207766631729122</v>
       </c>
       <c r="D55" t="n">
-        <v>3.45420610890627</v>
+        <v>3.654825049488895</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6.915678391959799</v>
+        <v>6.974371859296483</v>
       </c>
       <c r="B56" t="n">
-        <v>1.269196403592058e-07</v>
+        <v>1.208753936880092e-07</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5248387380966912</v>
+        <v>0.515348254819938</v>
       </c>
       <c r="D56" t="n">
-        <v>3.572515408250653</v>
+        <v>3.771839722568639</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6.950502512562815</v>
+        <v>7.008793969849247</v>
       </c>
       <c r="B57" t="n">
-        <v>1.232557308657218e-07</v>
+        <v>1.176157091181686e-07</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5190715456332269</v>
+        <v>0.5102854741842958</v>
       </c>
       <c r="D57" t="n">
-        <v>3.690897882183081</v>
+        <v>3.88878027485179</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6.98532663316583</v>
+        <v>7.043216080402011</v>
       </c>
       <c r="B58" t="n">
-        <v>1.198163801317582e-07</v>
+        <v>1.145473396209588e-07</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5136987152282483</v>
+        <v>0.5055679024978568</v>
       </c>
       <c r="D58" t="n">
-        <v>3.809264779201798</v>
+        <v>4.005564381585581</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7.020150753768845</v>
+        <v>7.077638190954774</v>
       </c>
       <c r="B59" t="n">
-        <v>1.165831220936169e-07</v>
+        <v>1.116563972132156e-07</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5086921649873122</v>
+        <v>0.5011725158185737</v>
       </c>
       <c r="D59" t="n">
-        <v>3.927528333655447</v>
+        <v>4.122114438652406</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7.05497487437186</v>
+        <v>7.112060301507539</v>
       </c>
       <c r="B60" t="n">
-        <v>1.135410072427653e-07</v>
+        <v>1.089279793900041e-07</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5040313412101083</v>
+        <v>0.4970784143041513</v>
       </c>
       <c r="D60" t="n">
-        <v>4.045606193309646</v>
+        <v>4.238353723537568</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7.089798994974874</v>
+        <v>7.146482412060302</v>
       </c>
       <c r="B61" t="n">
-        <v>1.106725752538821e-07</v>
+        <v>1.063520925296683e-07</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4996862218017243</v>
+        <v>0.4932725345289373</v>
       </c>
       <c r="D61" t="n">
-        <v>4.163408535980908</v>
+        <v>4.354216778202841</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7.12462311557789</v>
+        <v>7.180904522613066</v>
       </c>
       <c r="B62" t="n">
-        <v>1.079711278419699e-07</v>
+        <v>1.039165778818671e-07</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4956577531077963</v>
+        <v>0.4897342321088015</v>
       </c>
       <c r="D62" t="n">
-        <v>4.280886323532617</v>
+        <v>4.469629941505878</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7.159447236180904</v>
+        <v>7.21532663316583</v>
       </c>
       <c r="B63" t="n">
-        <v>1.054188041094961e-07</v>
+        <v>1.016117764143111e-07</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4919091938023832</v>
+        <v>0.4864494523819025</v>
       </c>
       <c r="D63" t="n">
-        <v>4.397939855982553</v>
+        <v>4.584522640313436</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7.19427135678392</v>
+        <v>7.249748743718593</v>
       </c>
       <c r="B64" t="n">
-        <v>1.030056955224402e-07</v>
+        <v>9.942785128165791e-08</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4884257477767256</v>
+        <v>0.483400331735257</v>
       </c>
       <c r="D64" t="n">
-        <v>4.514499274144807</v>
+        <v>4.698829454163505</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>7.229095477386934</v>
+        <v>7.284170854271357</v>
       </c>
       <c r="B65" t="n">
-        <v>1.007246173450898e-07</v>
+        <v>9.735971305437499e-08</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4852032739331526</v>
+        <v>0.4805861638955183</v>
       </c>
       <c r="D65" t="n">
-        <v>4.630521131529418</v>
+        <v>4.812517884493314</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>7.26391959798995</v>
+        <v>7.318592964824121</v>
       </c>
       <c r="B66" t="n">
-        <v>9.856398282669798e-08</v>
+        <v>9.539679805859775e-08</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4822176505119143</v>
+        <v>0.4779828522547843</v>
       </c>
       <c r="D66" t="n">
-        <v>4.745917817257904</v>
+        <v>4.925499338033338</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>7.298743718592965</v>
+        <v>7.353015075376884</v>
       </c>
       <c r="B67" t="n">
-        <v>9.651619875887948e-08</v>
+        <v>9.353283661202213e-08</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4794581110500138</v>
+        <v>0.475583253521388</v>
       </c>
       <c r="D67" t="n">
-        <v>4.86063507636244</v>
+        <v>5.037729983616424</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>7.333567839195981</v>
+        <v>7.387437185929649</v>
       </c>
       <c r="B68" t="n">
-        <v>9.457424286833159e-08</v>
+        <v>9.176142573246649e-08</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4769145464305894</v>
+        <v>0.4733756553243295</v>
       </c>
       <c r="D68" t="n">
-        <v>4.97461619701674</v>
+        <v>5.149153357202798</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>7.368391959798995</v>
+        <v>7.421859296482412</v>
       </c>
       <c r="B69" t="n">
-        <v>9.273041838995169e-08</v>
+        <v>9.007624135040364e-08</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4745740592376349</v>
+        <v>0.4713500718420616</v>
       </c>
       <c r="D69" t="n">
-        <v>5.087803220369663</v>
+        <v>5.259719087436467</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>7.403216080402011</v>
+        <v>7.456281407035176</v>
       </c>
       <c r="B70" t="n">
-        <v>9.097872728182393e-08</v>
+        <v>8.847481587978724e-08</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4724264111984486</v>
+        <v>0.4695079004564816</v>
       </c>
       <c r="D70" t="n">
-        <v>5.200145286666618</v>
+        <v>5.369418295413042</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>7.438040201005025</v>
+        <v>7.49070351758794</v>
       </c>
       <c r="B71" t="n">
-        <v>8.931426468505114e-08</v>
+        <v>8.694874770194057e-08</v>
       </c>
       <c r="C71" t="n">
-        <v>0.470465699433711</v>
+        <v>0.467828053821753</v>
       </c>
       <c r="D71" t="n">
-        <v>5.311603886183953</v>
+        <v>5.478154470731642</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>7.472864321608041</v>
+        <v>7.525125628140704</v>
       </c>
       <c r="B72" t="n">
-        <v>8.773038381085551e-08</v>
+        <v>8.549485307679362e-08</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4686781593947593</v>
+        <v>0.4663068047463452</v>
       </c>
       <c r="D72" t="n">
-        <v>5.422114550763727</v>
+        <v>5.58590691225352</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>7.507688442211055</v>
+        <v>7.559547738693468</v>
       </c>
       <c r="B73" t="n">
-        <v>8.622258292084972e-08</v>
+        <v>8.410821266033445e-08</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4670579088723441</v>
+        <v>0.4649374083008039</v>
       </c>
       <c r="D73" t="n">
-        <v>5.53164371335003</v>
+        <v>5.692636277848764</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>7.542512562814071</v>
+        <v>7.593969849246232</v>
       </c>
       <c r="B74" t="n">
-        <v>8.478622568748149e-08</v>
+        <v>8.278585098174886e-08</v>
       </c>
       <c r="C74" t="n">
-        <v>0.465596898266834</v>
+        <v>0.4637143015702606</v>
       </c>
       <c r="D74" t="n">
-        <v>5.640142323450239</v>
+        <v>5.798312626250834</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>7.577336683417085</v>
+        <v>7.628391959798996</v>
       </c>
       <c r="B75" t="n">
-        <v>8.341704705150377e-08</v>
+        <v>8.152316601271119e-08</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4642872893302606</v>
+        <v>0.4626283176600625</v>
       </c>
       <c r="D75" t="n">
-        <v>5.74757442238363</v>
+        <v>5.90288378407324</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>7.612160804020101</v>
+        <v>7.662814070351759</v>
       </c>
       <c r="B76" t="n">
-        <v>8.211116818249627e-08</v>
+        <v>8.031752993272626e-08</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4631230351878475</v>
+        <v>0.4616763613833879</v>
       </c>
       <c r="D76" t="n">
-        <v>5.853906032522413</v>
+        <v>6.006332333295926</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>7.646984924623116</v>
+        <v>7.697236180904524</v>
       </c>
       <c r="B77" t="n">
-        <v>8.086495187478131e-08</v>
+        <v>7.916437319453494e-08</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4620976578513316</v>
+        <v>0.4608476241766063</v>
       </c>
       <c r="D77" t="n">
-        <v>5.95909452462929</v>
+        <v>6.108599416458125</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7.681809045226131</v>
+        <v>7.731658291457286</v>
       </c>
       <c r="B78" t="n">
-        <v>7.967505735785726e-08</v>
+        <v>7.806355900928992e-08</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4612054104121492</v>
+        <v>0.4601490868369252</v>
       </c>
       <c r="D78" t="n">
-        <v>6.063115269193164</v>
+        <v>6.209728846173028</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>7.716633165829146</v>
+        <v>7.766080402010051</v>
       </c>
       <c r="B79" t="n">
-        <v>7.85380823144842e-08</v>
+        <v>7.701024084703055e-08</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4604386000893655</v>
+        <v>0.459564034935269</v>
       </c>
       <c r="D79" t="n">
-        <v>6.165922330512689</v>
+        <v>6.309621892416748</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>7.751457286432161</v>
+        <v>7.800502512562815</v>
       </c>
       <c r="B80" t="n">
-        <v>7.745215159733316e-08</v>
+        <v>7.600204907538839e-08</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4597985509182272</v>
+        <v>0.4590919739768806</v>
       </c>
       <c r="D80" t="n">
-        <v>6.267527601122541</v>
+        <v>6.408276047602117</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>7.786281407035176</v>
+        <v>7.834924623115578</v>
       </c>
       <c r="B81" t="n">
-        <v>7.641346303681837e-08</v>
+        <v>7.503712530494834e-08</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4592741622028783</v>
+        <v>0.4587289122536762</v>
       </c>
       <c r="D81" t="n">
-        <v>6.367865570852354</v>
+        <v>6.505674432028114</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7.821105527638191</v>
+        <v>7.869346733668342</v>
       </c>
       <c r="B82" t="n">
-        <v>7.541946151488777e-08</v>
+        <v>7.41129870445184e-08</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4588617688656748</v>
+        <v>0.4584703105829844</v>
       </c>
       <c r="D82" t="n">
-        <v>6.466918255892878</v>
+        <v>6.601791146976352</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.855929648241206</v>
+        <v>7.903768844221106</v>
       </c>
       <c r="B83" t="n">
-        <v>7.446841421217489e-08</v>
+        <v>7.322753353122825e-08</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4585587311859403</v>
+        <v>0.4583125403827389</v>
       </c>
       <c r="D83" t="n">
-        <v>6.564671069930156</v>
+        <v>6.696609453940016</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7.890753768844221</v>
+        <v>7.938190954773869</v>
       </c>
       <c r="B84" t="n">
-        <v>7.355780134603597e-08</v>
+        <v>7.23787452664865e-08</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4583604794409297</v>
+        <v>0.458251713521711</v>
       </c>
       <c r="D84" t="n">
-        <v>6.661103174107575</v>
+        <v>6.790106924219892</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7.925577889447236</v>
+        <v>7.972613065326634</v>
       </c>
       <c r="B85" t="n">
-        <v>7.268562787278585e-08</v>
+        <v>7.156518961341019e-08</v>
       </c>
       <c r="C85" t="n">
-        <v>0.458262825466361</v>
+        <v>0.4582851269960884</v>
       </c>
       <c r="D85" t="n">
-        <v>6.756192668931637</v>
+        <v>6.882273120433828</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>7.960402010050251</v>
+        <v>8.007035175879398</v>
       </c>
       <c r="B86" t="n">
-        <v>7.184998896215261e-08</v>
+        <v>7.078497950423678e-08</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4582631646334693</v>
+        <v>0.4584096772373034</v>
       </c>
       <c r="D86" t="n">
-        <v>6.849926556513832</v>
+        <v>6.973096650602247</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>7.995226130653267</v>
+        <v>8.041457286432161</v>
       </c>
       <c r="B87" t="n">
-        <v>7.104894141989808e-08</v>
+        <v>7.003537806659822e-08</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4583569202700536</v>
+        <v>0.4586165593966265</v>
       </c>
       <c r="D87" t="n">
-        <v>6.94228296367351</v>
+        <v>7.062511126730796</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8.030050251256281</v>
+        <v>8.075879396984925</v>
       </c>
       <c r="B88" t="n">
-        <v>7.028096673917733e-08</v>
+        <v>6.931778613827871e-08</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4585415148509953</v>
+        <v>0.4589176435074469</v>
       </c>
       <c r="D88" t="n">
-        <v>7.033251597809792</v>
+        <v>7.150640862426799</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8.064874371859297</v>
+        <v>8.110301507537688</v>
       </c>
       <c r="B89" t="n">
-        <v>6.954429368208222e-08</v>
+        <v>6.862826570123663e-08</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4588138442409656</v>
+        <v>0.4592963732610764</v>
       </c>
       <c r="D89" t="n">
-        <v>7.12281892123539</v>
+        <v>7.237343125341383</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8.099698492462313</v>
+        <v>8.144723618090453</v>
       </c>
       <c r="B90" t="n">
-        <v>6.883736045567962e-08</v>
+        <v>6.796616733402666e-08</v>
       </c>
       <c r="C90" t="n">
-        <v>0.459169238838243</v>
+        <v>0.4597551931819812</v>
       </c>
       <c r="D90" t="n">
-        <v>7.210956125430771</v>
+        <v>7.322659766658</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8.134522613065327</v>
+        <v>8.179145728643217</v>
       </c>
       <c r="B91" t="n">
-        <v>6.815964507838213e-08</v>
+        <v>6.733036958869459e-08</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4596109559615421</v>
+        <v>0.460291017484746</v>
       </c>
       <c r="D91" t="n">
-        <v>7.2977114706467</v>
+        <v>7.40657644506716</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8.169346733668341</v>
+        <v>8.21356783919598</v>
       </c>
       <c r="B92" t="n">
-        <v>6.750820214183218e-08</v>
+        <v>6.671905195759862e-08</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4601280939645684</v>
+        <v>0.4608988690688723</v>
       </c>
       <c r="D92" t="n">
-        <v>7.382994416866508</v>
+        <v>7.489053971319122</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8.204170854271357</v>
+        <v>8.247989949748744</v>
       </c>
       <c r="B93" t="n">
-        <v>6.68837080245447e-08</v>
+        <v>6.613286924992585e-08</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4607267042948435</v>
+        <v>0.4615857068916718</v>
       </c>
       <c r="D93" t="n">
-        <v>7.466881103054014</v>
+        <v>7.570190261424385</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.238994974874373</v>
+        <v>8.282412060301509</v>
       </c>
       <c r="B94" t="n">
-        <v>6.628388158765974e-08</v>
+        <v>6.5568933714087e-08</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4613998983922593</v>
+        <v>0.4623401672458727</v>
       </c>
       <c r="D94" t="n">
-        <v>7.549321237901141</v>
+        <v>7.64987486087425</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8.273819095477387</v>
+        <v>8.316834170854271</v>
       </c>
       <c r="B95" t="n">
-        <v>6.570758216276147e-08</v>
+        <v>6.502696565875442e-08</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4621452036873085</v>
+        <v>0.4631633253299798</v>
       </c>
       <c r="D95" t="n">
-        <v>7.630305252078916</v>
+        <v>7.728142329495542</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.308643216080402</v>
+        <v>8.351256281407036</v>
       </c>
       <c r="B96" t="n">
-        <v>6.515398737305122e-08</v>
+        <v>6.450604670034783e-08</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4629612629984585</v>
+        <v>0.4640540407820746</v>
       </c>
       <c r="D96" t="n">
-        <v>7.709836646855595</v>
+        <v>7.804994201654464</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>8.343467336683418</v>
+        <v>8.3856783919598</v>
       </c>
       <c r="B97" t="n">
-        <v>6.462147452178233e-08</v>
+        <v>6.400541580536495e-08</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4638433418744107</v>
+        <v>0.4650102265673323</v>
       </c>
       <c r="D97" t="n">
-        <v>7.787880801872906</v>
+        <v>7.880428918439745</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8.378291457286434</v>
+        <v>8.420100502512563</v>
       </c>
       <c r="B98" t="n">
-        <v>6.41105401695178e-08</v>
+        <v>6.352383974430255e-08</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4647960793871447</v>
+        <v>0.46602923713533</v>
       </c>
       <c r="D98" t="n">
-        <v>7.864509843577161</v>
+        <v>7.954432923425874</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>8.413115577889448</v>
+        <v>8.454522613065327</v>
       </c>
       <c r="B99" t="n">
-        <v>6.362000331980983e-08</v>
+        <v>6.30607496774297e-08</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4658172202279928</v>
+        <v>0.4671102417023951</v>
       </c>
       <c r="D99" t="n">
-        <v>7.939722192836306</v>
+        <v>8.027017223697705</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>8.447939698492462</v>
+        <v>8.48894472361809</v>
       </c>
       <c r="B100" t="n">
-        <v>6.314800144229656e-08</v>
+        <v>6.261560106025671e-08</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4668988637782721</v>
+        <v>0.4682528443957958</v>
       </c>
       <c r="D100" t="n">
-        <v>8.013439403745675</v>
+        <v>8.098195388357039</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8.482763819095478</v>
+        <v>8.523366834170854</v>
       </c>
       <c r="B101" t="n">
-        <v>6.269423147696094e-08</v>
+        <v>6.218752238614903e-08</v>
       </c>
       <c r="C101" t="n">
-        <v>0.468043392495099</v>
+        <v>0.4694537433726125</v>
       </c>
       <c r="D101" t="n">
-        <v>8.085713645508589</v>
+        <v>8.167945148784346</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>8.517587939698492</v>
+        <v>8.557788944723619</v>
       </c>
       <c r="B102" t="n">
-        <v>6.225818000414928e-08</v>
+        <v>6.177573513207545e-08</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4692480634440456</v>
+        <v>0.4707127639567795</v>
       </c>
       <c r="D102" t="n">
-        <v>8.156528522421924</v>
+        <v>8.236287895301425</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>8.552412060301508</v>
+        <v>8.592211055276383</v>
       </c>
       <c r="B103" t="n">
-        <v>6.1838974471075e-08</v>
+        <v>6.137962344753954e-08</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4705123756419788</v>
+        <v>0.4720277751084816</v>
       </c>
       <c r="D103" t="n">
-        <v>8.225900179431477</v>
+        <v>8.303215839141091</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8.587236180904522</v>
+        <v>8.626633165829146</v>
       </c>
       <c r="B104" t="n">
-        <v>6.14359063360678e-08</v>
+        <v>6.099861739688149e-08</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4718337538843962</v>
+        <v>0.4733972037632418</v>
       </c>
       <c r="D104" t="n">
-        <v>8.293814965946101</v>
+        <v>8.368724768364041</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8.622060301507538</v>
+        <v>8.66105527638191</v>
       </c>
       <c r="B105" t="n">
-        <v>6.104828367384287e-08</v>
+        <v>6.063209658961172e-08</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4732118371712953</v>
+        <v>0.4748199517605261</v>
       </c>
       <c r="D105" t="n">
-        <v>8.360291887203022</v>
+        <v>8.432825583495543</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>8.656884422110553</v>
+        <v>8.695477386934673</v>
       </c>
       <c r="B106" t="n">
-        <v>6.067542947384103e-08</v>
+        <v>6.028035168122742e-08</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4746435665557786</v>
+        <v>0.4763009834692015</v>
       </c>
       <c r="D106" t="n">
-        <v>8.425309612692159</v>
+        <v>8.495609459507833</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>8.691708542713569</v>
+        <v>8.729899497487438</v>
       </c>
       <c r="B107" t="n">
-        <v>6.03182860178503e-08</v>
+        <v>5.994177115278713e-08</v>
       </c>
       <c r="C107" t="n">
-        <v>0.476136640881353</v>
+        <v>0.4778310138913078</v>
       </c>
       <c r="D107" t="n">
-        <v>8.489001129803301</v>
+        <v>8.556963802412328</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>8.726532663316583</v>
+        <v>8.764321608040202</v>
       </c>
       <c r="B108" t="n">
-        <v>5.99742976447634e-08</v>
+        <v>5.961589025499892e-08</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4776792645132606</v>
+        <v>0.4794104510953631</v>
       </c>
       <c r="D108" t="n">
-        <v>8.551219880532711</v>
+        <v>8.616914911574813</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>8.761356783919599</v>
+        <v>8.798743718592965</v>
       </c>
       <c r="B109" t="n">
-        <v>5.964345440519591e-08</v>
+        <v>5.930287265450121e-08</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4792723585291426</v>
+        <v>0.4810408226691987</v>
       </c>
       <c r="D109" t="n">
-        <v>8.611998930543759</v>
+        <v>8.675509823950568</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>8.796180904522613</v>
+        <v>8.833165829145729</v>
       </c>
       <c r="B110" t="n">
-        <v>5.932567738575709e-08</v>
+        <v>5.900158251996368e-08</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4809177646129663</v>
+        <v>0.482718616055599</v>
       </c>
       <c r="D110" t="n">
-        <v>8.671388619281311</v>
+        <v>8.732716226419928</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>8.831005025125629</v>
+        <v>8.867587939698492</v>
       </c>
       <c r="B111" t="n">
-        <v>5.902028330444515e-08</v>
+        <v>5.871211905437479e-08</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4826127356161443</v>
+        <v>0.4844450664364948</v>
       </c>
       <c r="D111" t="n">
-        <v>8.729372203882292</v>
+        <v>8.788574149027385</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>8.865829145728643</v>
+        <v>8.902010050251256</v>
       </c>
       <c r="B112" t="n">
-        <v>5.872676709120999e-08</v>
+        <v>5.843439730779619e-08</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4843559156658589</v>
+        <v>0.486221342794915</v>
       </c>
       <c r="D112" t="n">
-        <v>8.785949882931014</v>
+        <v>8.843127720809768</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>8.900653266331659</v>
+        <v>8.936432160804021</v>
       </c>
       <c r="B113" t="n">
-        <v>5.84451543312318e-08</v>
+        <v>5.816724306033732e-08</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4861505209184308</v>
+        <v>0.4880420891259075</v>
       </c>
       <c r="D113" t="n">
-        <v>8.841197567422329</v>
+        <v>8.896311601366998</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8.935477386934673</v>
+        <v>8.970854271356785</v>
       </c>
       <c r="B114" t="n">
-        <v>5.817454304703535e-08</v>
+        <v>5.79106291979067e-08</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4879909703433326</v>
+        <v>0.4899083982160031</v>
       </c>
       <c r="D114" t="n">
-        <v>8.895047422057244</v>
+        <v>8.948165042409927</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>8.970301507537689</v>
+        <v>9.005276381909548</v>
       </c>
       <c r="B115" t="n">
-        <v>5.791464603630978e-08</v>
+        <v>5.766398801716995e-08</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4898780409852311</v>
+        <v>0.4918183869742151</v>
       </c>
       <c r="D115" t="n">
-        <v>8.947535319404105</v>
+        <v>8.998679554725907</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9.005125628140703</v>
+        <v>9.039698492462312</v>
       </c>
       <c r="B116" t="n">
-        <v>5.766518846836936e-08</v>
+        <v>5.74275844933625e-08</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4918108727094833</v>
+        <v>0.4937752381090261</v>
       </c>
       <c r="D116" t="n">
-        <v>8.998670357320492</v>
+        <v>9.047931753004676</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9.039949748743719</v>
+        <v>9.074120603015075</v>
       </c>
       <c r="B117" t="n">
-        <v>5.742589802278452e-08</v>
+        <v>5.720049531711246e-08</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4937896724711455</v>
+        <v>0.4957741422126529</v>
       </c>
       <c r="D117" t="n">
-        <v>9.048480021586705</v>
+        <v>9.095862237671666</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9.074773869346734</v>
+        <v>9.108542713567839</v>
       </c>
       <c r="B118" t="n">
-        <v>5.719582133187934e-08</v>
+        <v>5.698260677074998e-08</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4958093587791689</v>
+        <v>0.4978152997729915</v>
       </c>
       <c r="D118" t="n">
-        <v>9.096897562889342</v>
+        <v>9.1424962091886</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9.109597989949748</v>
+        <v>9.142964824120604</v>
       </c>
       <c r="B119" t="n">
-        <v>5.697539030195102e-08</v>
+        <v>5.677360984426872e-08</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4978744822521449</v>
+        <v>0.4998992957386228</v>
       </c>
       <c r="D119" t="n">
-        <v>9.144027452200461</v>
+        <v>9.187865377065766</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9.144422110552764</v>
+        <v>9.177386934673368</v>
       </c>
       <c r="B120" t="n">
-        <v>5.676485486742916e-08</v>
+        <v>5.657326666233333e-08</v>
       </c>
       <c r="C120" t="n">
-        <v>0.499987784765283</v>
+        <v>0.5020247071972707</v>
       </c>
       <c r="D120" t="n">
-        <v>9.189941224638371</v>
+        <v>9.231968367609667</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9.17924623115578</v>
+        <v>9.211809045226131</v>
       </c>
       <c r="B121" t="n">
-        <v>5.656258085886417e-08</v>
+        <v>5.638123610364404e-08</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5021400763966087</v>
+        <v>0.5041908012233576</v>
       </c>
       <c r="D121" t="n">
-        <v>9.234498119353182</v>
+        <v>9.274812513838324</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>9.214070351758794</v>
+        <v>9.246231155778894</v>
       </c>
       <c r="B122" t="n">
-        <v>5.636892768677627e-08</v>
+        <v>5.619739127832939e-08</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5043346302116762</v>
+        <v>0.5063975570467555</v>
       </c>
       <c r="D122" t="n">
-        <v>9.277780095215583</v>
+        <v>9.316420038879436</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>9.248894472361808</v>
+        <v>9.280653266331658</v>
       </c>
       <c r="B123" t="n">
-        <v>5.618344392989745e-08</v>
+        <v>5.602127399030304e-08</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5065700046857782</v>
+        <v>0.5086440813326303</v>
       </c>
       <c r="D123" t="n">
-        <v>9.319782979450229</v>
+        <v>9.356796669242788</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>9.283718592964824</v>
+        <v>9.315075376884423</v>
       </c>
       <c r="B124" t="n">
-        <v>5.60060593229799e-08</v>
+        <v>5.585288569227374e-08</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5088464362453228</v>
+        <v>0.510929989299142</v>
       </c>
       <c r="D124" t="n">
-        <v>9.360534544437513</v>
+        <v>9.395956258075111</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>9.31854271356784</v>
+        <v>9.349497487437187</v>
       </c>
       <c r="B125" t="n">
-        <v>5.583618040129169e-08</v>
+        <v>5.569170535606333e-08</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5111620054347803</v>
+        <v>0.5132541175661003</v>
       </c>
       <c r="D125" t="n">
-        <v>9.40002089123422</v>
+        <v>9.433899407173588</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9.353366834170854</v>
+        <v>9.383919597989951</v>
       </c>
       <c r="B126" t="n">
-        <v>5.567413571356442e-08</v>
+        <v>5.553799761822911e-08</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5135182703952681</v>
+        <v>0.5156180172447024</v>
       </c>
       <c r="D126" t="n">
-        <v>9.438294661562669</v>
+        <v>9.4706778252304</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9.388190954773869</v>
+        <v>9.418341708542714</v>
       </c>
       <c r="B127" t="n">
-        <v>5.551934377022112e-08</v>
+        <v>5.539110951329559e-08</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5159138751642925</v>
+        <v>0.5180194604245394</v>
       </c>
       <c r="D127" t="n">
-        <v>9.475351074410858</v>
+        <v>9.506269067817675</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>9.423015075376885</v>
+        <v>9.452763819095477</v>
       </c>
       <c r="B128" t="n">
-        <v>5.537164483538634e-08</v>
+        <v>5.525097075131801e-08</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5183483532162586</v>
+        <v>0.5204583785779233</v>
       </c>
       <c r="D128" t="n">
-        <v>9.51120458324881</v>
+        <v>9.540693714325169</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>9.457839195979901</v>
+        <v>9.487185929648241</v>
       </c>
       <c r="B129" t="n">
-        <v>5.523083463900305e-08</v>
+        <v>5.511735795778657e-08</v>
       </c>
       <c r="C129" t="n">
-        <v>0.520821153854242</v>
+        <v>0.5229341323921054</v>
       </c>
       <c r="D129" t="n">
-        <v>9.545866544795786</v>
+        <v>9.57395970200724</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>9.492663316582915</v>
+        <v>9.521608040201006</v>
       </c>
       <c r="B130" t="n">
-        <v>5.509666884711704e-08</v>
+        <v>5.499021146952358e-08</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5233312635215855</v>
+        <v>0.5254464482263763</v>
       </c>
       <c r="D130" t="n">
-        <v>9.579338704201033</v>
+        <v>9.606083389131046</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>9.527487437185929</v>
+        <v>9.55603015075377</v>
       </c>
       <c r="B131" t="n">
-        <v>5.496908006676837e-08</v>
+        <v>5.486922205743747e-08</v>
       </c>
       <c r="C131" t="n">
-        <v>0.525879528994514</v>
+        <v>0.5279957295110739</v>
       </c>
       <c r="D131" t="n">
-        <v>9.611658819436512</v>
+        <v>9.637093906728156</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>9.562311557788945</v>
+        <v>9.590452261306533</v>
       </c>
       <c r="B132" t="n">
-        <v>5.484780938720349e-08</v>
+        <v>5.475426121882988e-08</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5284647760186159</v>
+        <v>0.5305803812421425</v>
       </c>
       <c r="D132" t="n">
-        <v>9.642826287601373</v>
+        <v>9.666979513301627</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>9.597135678391961</v>
+        <v>9.624874371859297</v>
       </c>
       <c r="B133" t="n">
-        <v>5.473264767479649e-08</v>
+        <v>5.46448876408885e-08</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5310864479097263</v>
+        <v>0.5331984930596647</v>
       </c>
       <c r="D133" t="n">
-        <v>9.672851115923274</v>
+        <v>9.695721858486184</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9.631959798994975</v>
+        <v>9.65929648241206</v>
       </c>
       <c r="B134" t="n">
-        <v>5.462347549173144e-08</v>
+        <v>5.454183359115678e-08</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5337448927246772</v>
+        <v>0.5358565434623338</v>
       </c>
       <c r="D134" t="n">
-        <v>9.701761344527194</v>
+        <v>9.723474025397101</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>9.666783919597989</v>
+        <v>9.693718592964824</v>
       </c>
       <c r="B135" t="n">
-        <v>5.452013441864777e-08</v>
+        <v>5.444458342162967e-08</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5364391226547598</v>
+        <v>0.5385514704520258</v>
       </c>
       <c r="D135" t="n">
-        <v>9.729558058634183</v>
+        <v>9.750194363938084</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9.701608040201005</v>
+        <v>9.728140703517589</v>
       </c>
       <c r="B136" t="n">
-        <v>5.442248107724399e-08</v>
+        <v>5.435169780367446e-08</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5391695236989592</v>
+        <v>0.5412725728804559</v>
       </c>
       <c r="D136" t="n">
-        <v>9.75627019856533</v>
+        <v>9.775680157447521</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9.736432160804021</v>
+        <v>9.762562814070353</v>
       </c>
       <c r="B137" t="n">
-        <v>5.433011267030249e-08</v>
+        <v>5.426465918801022e-08</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5419327833416351</v>
+        <v>0.5440328635497402</v>
       </c>
       <c r="D137" t="n">
-        <v>9.781849346186545</v>
+        <v>9.800222281381856</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>9.771256281407036</v>
+        <v>9.796984924623116</v>
       </c>
       <c r="B138" t="n">
-        <v>5.424325012524142e-08</v>
+        <v>5.418244794974006e-08</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5447335403231145</v>
+        <v>0.5468243269842871</v>
       </c>
       <c r="D138" t="n">
-        <v>9.806412961873235</v>
+        <v>9.823672196636133</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>9.80608040201005</v>
+        <v>9.831407035175879</v>
       </c>
       <c r="B139" t="n">
-        <v>5.4162034039153e-08</v>
+        <v>5.41056065815457e-08</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5475716386728832</v>
+        <v>0.5496526778405277</v>
       </c>
       <c r="D139" t="n">
-        <v>9.829979190924137</v>
+        <v>9.846170606411022</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>9.840904522613066</v>
+        <v>9.865829145728643</v>
       </c>
       <c r="B140" t="n">
-        <v>5.408526469551721e-08</v>
+        <v>5.403354902166584e-08</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5504387398075707</v>
+        <v>0.5525135910037332</v>
       </c>
       <c r="D140" t="n">
-        <v>9.852391359830349</v>
+        <v>9.867645298856164</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9.875728643216082</v>
+        <v>9.900251256281408</v>
       </c>
       <c r="B141" t="n">
-        <v>5.40136911761734e-08</v>
+        <v>5.396632639223265e-08</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5533425853386422</v>
+        <v>0.5554080108545683</v>
       </c>
       <c r="D141" t="n">
-        <v>9.87383343984666</v>
+        <v>9.8881350357806</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>9.910552763819096</v>
+        <v>9.934673366834172</v>
       </c>
       <c r="B142" t="n">
-        <v>5.394715654533668e-08</v>
+        <v>5.39036363826529e-08</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5562809884056495</v>
+        <v>0.5583349139213749</v>
       </c>
       <c r="D142" t="n">
-        <v>9.894278414430779</v>
+        <v>9.907636970129227</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>9.94537688442211</v>
+        <v>9.969095477386935</v>
       </c>
       <c r="B143" t="n">
-        <v>5.388511913485126e-08</v>
+        <v>5.384543478338041e-08</v>
       </c>
       <c r="C143" t="n">
-        <v>0.5592520601300749</v>
+        <v>0.5612942950776106</v>
       </c>
       <c r="D143" t="n">
-        <v>9.913706332711691</v>
+        <v>9.926170170206829</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>9.980201005025126</v>
+        <v>10.0035175879397</v>
       </c>
       <c r="B144" t="n">
-        <v>5.382767204582163e-08</v>
+        <v>5.379171266792998e-08</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5622560483544888</v>
+        <v>0.5642862305585503</v>
       </c>
       <c r="D144" t="n">
-        <v>9.932139517125028</v>
+        <v>9.943754413012119</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>10.01502512562814</v>
+        <v>10.03793969849246</v>
       </c>
       <c r="B145" t="n">
-        <v>5.377470406271443e-08</v>
+        <v>5.374237076797328e-08</v>
       </c>
       <c r="C145" t="n">
-        <v>0.5652933019648971</v>
+        <v>0.5673103830134214</v>
       </c>
       <c r="D145" t="n">
-        <v>9.949609753670662</v>
+        <v>9.960400901557611</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>10.04984924623116</v>
+        <v>10.07236180904523</v>
       </c>
       <c r="B146" t="n">
-        <v>5.372620999780036e-08</v>
+        <v>5.369661961427412e-08</v>
       </c>
       <c r="C146" t="n">
-        <v>0.5683639374577908</v>
+        <v>0.5703621286859348</v>
       </c>
       <c r="D146" t="n">
-        <v>9.966134107002112</v>
+        <v>9.976026093982274</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>10.08467336683417</v>
+        <v>10.10678391959799</v>
       </c>
       <c r="B147" t="n">
-        <v>5.368155618235019e-08</v>
+        <v>5.365580015896273e-08</v>
       </c>
       <c r="C147" t="n">
-        <v>0.5714637844400534</v>
+        <v>0.5734522572375552</v>
       </c>
       <c r="D147" t="n">
-        <v>9.981641022134259</v>
+        <v>9.990885243439969</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>10.11949748743719</v>
+        <v>10.14120603015076</v>
       </c>
       <c r="B148" t="n">
-        <v>5.364179551150986e-08</v>
+        <v>5.361890529604374e-08</v>
       </c>
       <c r="C148" t="n">
-        <v>0.5746022581346252</v>
+        <v>0.5765729671892242</v>
       </c>
       <c r="D148" t="n">
-        <v>9.996355441164962</v>
+        <v>10.00482450834035</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>10.1543216080402</v>
+        <v>10.17562814070352</v>
       </c>
       <c r="B149" t="n">
-        <v>5.360579525809966e-08</v>
+        <v>5.358579644419353e-08</v>
       </c>
       <c r="C149" t="n">
-        <v>0.577769946919339</v>
+        <v>0.5797241170455478</v>
       </c>
       <c r="D149" t="n">
-        <v>10.01008909384861</v>
+        <v>10.01785867709218</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>10.18914572864322</v>
+        <v>10.21005025125628</v>
       </c>
       <c r="B150" t="n">
-        <v>5.357385001683148e-08</v>
+        <v>5.355657289915781e-08</v>
       </c>
       <c r="C150" t="n">
-        <v>0.5809702219874139</v>
+        <v>0.5829069322796602</v>
       </c>
       <c r="D150" t="n">
-        <v>10.02293527185563</v>
+        <v>10.0300312407214</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>10.22396984924623</v>
+        <v>10.24447236180904</v>
       </c>
       <c r="B151" t="n">
-        <v>5.354581801886905e-08</v>
+        <v>5.353098418299721e-08</v>
       </c>
       <c r="C151" t="n">
-        <v>0.5842027484217915</v>
+        <v>0.5861195876276764</v>
       </c>
       <c r="D151" t="n">
-        <v>10.03490293738858</v>
+        <v>10.04132057712096</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>10.25879396984925</v>
+        <v>10.27889447236181</v>
       </c>
       <c r="B152" t="n">
-        <v>5.352146698670316e-08</v>
+        <v>5.350912381716655e-08</v>
       </c>
       <c r="C152" t="n">
-        <v>0.5874656927565043</v>
+        <v>0.5893634344077072</v>
       </c>
       <c r="D152" t="n">
-        <v>10.04597052550804</v>
+        <v>10.05177172546387</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>10.29361809045226</v>
+        <v>10.31331658291457</v>
       </c>
       <c r="B153" t="n">
-        <v>5.350086312503751e-08</v>
+        <v>5.349090495086435e-08</v>
       </c>
       <c r="C153" t="n">
-        <v>0.5907602534559806</v>
+        <v>0.5926384397325626</v>
       </c>
       <c r="D153" t="n">
-        <v>10.05618103689928</v>
+        <v>10.06140217192797</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>10.32844221105528</v>
+        <v>10.34773869346734</v>
       </c>
       <c r="B154" t="n">
-        <v>5.348394875643816e-08</v>
+        <v>5.347607926727369e-08</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5940865180409188</v>
+        <v>0.5959427857507053</v>
       </c>
       <c r="D154" t="n">
-        <v>10.06555397957391</v>
+        <v>10.07018733612736</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>10.36326633165829</v>
+        <v>10.3821608040201</v>
       </c>
       <c r="B155" t="n">
-        <v>5.347054784917676e-08</v>
+        <v>5.34643478376394e-08</v>
       </c>
       <c r="C155" t="n">
-        <v>0.5974435611284341</v>
+        <v>0.5992740195861354</v>
       </c>
       <c r="D155" t="n">
-        <v>10.07408626841636</v>
+        <v>10.07808835599526</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10.39809045226131</v>
+        <v>10.41658291457286</v>
       </c>
       <c r="B156" t="n">
-        <v>5.346031799815301e-08</v>
+        <v>5.345671447542249e-08</v>
       </c>
       <c r="C156" t="n">
-        <v>0.6008287457150724</v>
+        <v>0.6026428484306583</v>
       </c>
       <c r="D156" t="n">
-        <v>10.08173507312484</v>
+        <v>10.08536214921014</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>10.43291457286432</v>
+        <v>10.45100502512563</v>
       </c>
       <c r="B157" t="n">
-        <v>5.345421742509645e-08</v>
+        <v>5.345210884037319e-08</v>
       </c>
       <c r="C157" t="n">
-        <v>0.604250969894401</v>
+        <v>0.6060385632297179</v>
       </c>
       <c r="D157" t="n">
-        <v>10.08871747521483</v>
+        <v>10.09178402246203</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10.46773869346734</v>
+        <v>10.48542713567839</v>
       </c>
       <c r="B158" t="n">
-        <v>5.345107027045742e-08</v>
+        <v>5.345068640912606e-08</v>
       </c>
       <c r="C158" t="n">
-        <v>0.6077000302253696</v>
+        <v>0.6094638436203066</v>
       </c>
       <c r="D158" t="n">
-        <v>10.09481967489392</v>
+        <v>10.09742966236545</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10.50256281407035</v>
+        <v>10.51984924623116</v>
       </c>
       <c r="B159" t="n">
-        <v>5.345118182034184e-08</v>
+        <v>5.345242257129447e-08</v>
       </c>
       <c r="C159" t="n">
-        <v>0.6111803425916937</v>
+        <v>0.6129187180000629</v>
       </c>
       <c r="D159" t="n">
-        <v>10.10015808855164</v>
+        <v>10.10231585755071</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>10.53738693467337</v>
+        <v>10.55427135678392</v>
       </c>
       <c r="B160" t="n">
-        <v>5.345441328344086e-08</v>
+        <v>5.345693134960766e-08</v>
       </c>
       <c r="C160" t="n">
-        <v>0.614689592378991</v>
+        <v>0.6164006890079562</v>
       </c>
       <c r="D160" t="n">
-        <v>10.10469612074862</v>
+        <v>10.10640099273538</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>10.57221105527638</v>
+        <v>10.58869346733668</v>
       </c>
       <c r="B161" t="n">
-        <v>5.346057565361983e-08</v>
+        <v>5.346514062339488e-08</v>
       </c>
       <c r="C161" t="n">
-        <v>0.6182274199068998</v>
+        <v>0.6199176149488431</v>
       </c>
       <c r="D161" t="n">
-        <v>10.10844141953629</v>
+        <v>10.10987848622646</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>10.6070351758794</v>
+        <v>10.62311557788945</v>
       </c>
       <c r="B162" t="n">
-        <v>5.347053449805677e-08</v>
+        <v>5.347598339360963e-08</v>
       </c>
       <c r="C162" t="n">
-        <v>0.6218017560365799</v>
+        <v>0.6234606749239192</v>
       </c>
       <c r="D162" t="n">
-        <v>10.11158866550396</v>
+        <v>10.11256305327248</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>10.64185929648241</v>
+        <v>10.65753768844221</v>
       </c>
       <c r="B163" t="n">
-        <v>5.348307113548693e-08</v>
+        <v>5.348969524181368e-08</v>
       </c>
       <c r="C163" t="n">
-        <v>0.6254021501453695</v>
+        <v>0.6270328850581492</v>
       </c>
       <c r="D163" t="n">
-        <v>10.11391943108107</v>
+        <v>10.11454038434688</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>10.67668341708543</v>
+        <v>10.69195979899498</v>
       </c>
       <c r="B164" t="n">
-        <v>5.349869971045207e-08</v>
+        <v>5.350632968347994e-08</v>
       </c>
       <c r="C164" t="n">
-        <v>0.6290334731460366</v>
+        <v>0.6306342525489599</v>
       </c>
       <c r="D164" t="n">
-        <v>10.11555504155488</v>
+        <v>10.11581962425664</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>10.71150753768844</v>
+        <v>10.72638190954774</v>
       </c>
       <c r="B165" t="n">
-        <v>5.351691799343192e-08</v>
+        <v>5.352561669569926e-08</v>
       </c>
       <c r="C165" t="n">
-        <v>0.6326915921510168</v>
+        <v>0.6342635840545433</v>
       </c>
       <c r="D165" t="n">
-        <v>10.11642014756483</v>
+        <v>10.11639337396515</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>10.74633165829146</v>
+        <v>10.7608040201005</v>
       </c>
       <c r="B166" t="n">
-        <v>5.353837665715809e-08</v>
+        <v>5.354795441763318e-08</v>
       </c>
       <c r="C166" t="n">
-        <v>0.6363831626391765</v>
+        <v>0.6379242321053331</v>
       </c>
       <c r="D166" t="n">
-        <v>10.11667899654471</v>
+        <v>10.11635047525524</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>10.78115577889447</v>
+        <v>10.79522613065327</v>
       </c>
       <c r="B167" t="n">
-        <v>5.356228252412503e-08</v>
+        <v>5.357280933707017e-08</v>
       </c>
       <c r="C167" t="n">
-        <v>0.6401006412433221</v>
+        <v>0.641611903114466</v>
       </c>
       <c r="D167" t="n">
-        <v>10.11617569564712</v>
+        <v>10.11560906178578</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>10.81597989949749</v>
+        <v>10.82964824120603</v>
       </c>
       <c r="B168" t="n">
-        <v>5.358917170606492e-08</v>
+        <v>5.360031377473353e-08</v>
       </c>
       <c r="C168" t="n">
-        <v>0.6438499423927029</v>
+        <v>0.6453281688572665</v>
       </c>
       <c r="D168" t="n">
-        <v>10.11505839564912</v>
+        <v>10.11421351510051</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>10.8508040201005</v>
+        <v>10.86407035175879</v>
       </c>
       <c r="B169" t="n">
-        <v>5.361858455196159e-08</v>
+        <v>5.363088650723893e-08</v>
       </c>
       <c r="C169" t="n">
-        <v>0.6476267959349878</v>
+        <v>0.6490773220597381</v>
       </c>
       <c r="D169" t="n">
-        <v>10.11324270812941</v>
+        <v>10.11227863118244</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>10.88562814070352</v>
+        <v>10.89849246231156</v>
       </c>
       <c r="B170" t="n">
-        <v>5.365048536630444e-08</v>
+        <v>5.366308336681576e-08</v>
       </c>
       <c r="C170" t="n">
-        <v>0.6514315889938691</v>
+        <v>0.6528458731631541</v>
       </c>
       <c r="D170" t="n">
-        <v>10.11075489023371</v>
+        <v>10.10951189477507</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>10.92045226130653</v>
+        <v>10.93291457286432</v>
       </c>
       <c r="B171" t="n">
-        <v>5.368475548173897e-08</v>
+        <v>5.369834009746074e-08</v>
       </c>
       <c r="C171" t="n">
-        <v>0.6552630312071872</v>
+        <v>0.6566479678673199</v>
       </c>
       <c r="D171" t="n">
-        <v>10.10757760285897</v>
+        <v>10.1062480793174</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>10.95527638190955</v>
+        <v>10.96733668341709</v>
       </c>
       <c r="B172" t="n">
-        <v>5.372249005945296e-08</v>
+        <v>5.37359367193612e-08</v>
       </c>
       <c r="C172" t="n">
-        <v>0.6591323255427325</v>
+        <v>0.6604772765359411</v>
       </c>
       <c r="D172" t="n">
-        <v>10.1039800968372</v>
+        <v>10.10235555484424</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>10.99010050251256</v>
+        <v>11.00175879396985</v>
       </c>
       <c r="B173" t="n">
-        <v>5.376224298325195e-08</v>
+        <v>5.377605106856655e-08</v>
       </c>
       <c r="C173" t="n">
-        <v>0.6630256208293305</v>
+        <v>0.6643355371516723</v>
       </c>
       <c r="D173" t="n">
-        <v>10.09966038570875</v>
+        <v>10.09788719723237</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>11.02492462311558</v>
+        <v>11.03618090452261</v>
       </c>
       <c r="B174" t="n">
-        <v>5.380440382515839e-08</v>
+        <v>5.381853136859165e-08</v>
       </c>
       <c r="C174" t="n">
-        <v>0.6669478497548109</v>
+        <v>0.6682214272748547</v>
       </c>
       <c r="D174" t="n">
-        <v>10.09474340163184</v>
+        <v>10.09282514257008</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>11.05974874371859</v>
+        <v>11.07060301507538</v>
       </c>
       <c r="B175" t="n">
-        <v>5.384900103846717e-08</v>
+        <v>5.386325701633002e-08</v>
       </c>
       <c r="C175" t="n">
-        <v>0.6708985691574396</v>
+        <v>0.6721344315811991</v>
       </c>
       <c r="D175" t="n">
-        <v>10.08923044599205</v>
+        <v>10.08716878311002</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>11.09457286432161</v>
+        <v>11.10502512562814</v>
       </c>
       <c r="B176" t="n">
-        <v>5.389613617678899e-08</v>
+        <v>5.39104544612621e-08</v>
       </c>
       <c r="C176" t="n">
-        <v>0.6748793502044057</v>
+        <v>0.6760766455604443</v>
       </c>
       <c r="D176" t="n">
-        <v>10.08317870091264</v>
+        <v>10.08098534712319</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>11.12939698492462</v>
+        <v>11.1394472361809</v>
       </c>
       <c r="B177" t="n">
-        <v>5.394513027446935e-08</v>
+        <v>5.395983272546763e-08</v>
       </c>
       <c r="C177" t="n">
-        <v>0.678884042409559</v>
+        <v>0.6800464356506453</v>
       </c>
       <c r="D177" t="n">
-        <v>10.07645208396988</v>
+        <v>10.07424265826997</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>11.16422110552764</v>
+        <v>11.17386934673367</v>
       </c>
       <c r="B178" t="n">
-        <v>5.399673328014817e-08</v>
+        <v>5.401139443518309e-08</v>
       </c>
       <c r="C178" t="n">
-        <v>0.6829201809997025</v>
+        <v>0.684043169120244</v>
       </c>
       <c r="D178" t="n">
-        <v>10.06923741566769</v>
+        <v>10.06694044550532</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>11.19904522613065</v>
+        <v>11.20829145728643</v>
       </c>
       <c r="B179" t="n">
-        <v>5.40505328926353e-08</v>
+        <v>5.406520706857218e-08</v>
       </c>
       <c r="C179" t="n">
-        <v>0.6869841956347797</v>
+        <v>0.6880678593168312</v>
       </c>
       <c r="D179" t="n">
-        <v>10.06146541610164</v>
+        <v>10.05911400114724</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>11.23386934673367</v>
+        <v>11.2427135678392</v>
       </c>
       <c r="B180" t="n">
-        <v>5.410653375255033e-08</v>
+        <v>5.412115343793242e-08</v>
       </c>
       <c r="C180" t="n">
-        <v>0.6910763258066421</v>
+        <v>0.6921201653636074</v>
       </c>
       <c r="D180" t="n">
-        <v>10.05315669756621</v>
+        <v>10.05076864326337</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>11.26869346733668</v>
+        <v>11.27713567839196</v>
       </c>
       <c r="B181" t="n">
-        <v>5.416466724691063e-08</v>
+        <v>5.417889647138875e-08</v>
       </c>
       <c r="C181" t="n">
-        <v>0.6951958054513055</v>
+        <v>0.6961965336522107</v>
       </c>
       <c r="D181" t="n">
-        <v>10.04430013306135</v>
+        <v>10.0418329476686</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>11.3035175879397</v>
+        <v>11.31155778894473</v>
       </c>
       <c r="B182" t="n">
-        <v>5.422494824738757e-08</v>
+        <v>5.423925046155759e-08</v>
       </c>
       <c r="C182" t="n">
-        <v>0.6993434229828405</v>
+        <v>0.7003059101811611</v>
       </c>
       <c r="D182" t="n">
-        <v>10.03493130422748</v>
+        <v>10.03252140265842</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>11.33834170854271</v>
+        <v>11.34597989949749</v>
       </c>
       <c r="B183" t="n">
-        <v>5.428735723529152e-08</v>
+        <v>5.430129143289244e-08</v>
       </c>
       <c r="C183" t="n">
-        <v>0.7035192976549104</v>
+        <v>0.7044383912885989</v>
       </c>
       <c r="D183" t="n">
-        <v>10.02506201885536</v>
+        <v>10.02262346575111</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>11.37316582914573</v>
+        <v>11.38040201005025</v>
       </c>
       <c r="B184" t="n">
-        <v>5.435177221362343e-08</v>
+        <v>5.436538648093589e-08</v>
       </c>
       <c r="C184" t="n">
-        <v>0.7077222599024663</v>
+        <v>0.7085987170020732</v>
       </c>
       <c r="D184" t="n">
-        <v>10.01467752925755</v>
+        <v>10.01225518618017</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>11.40798994974874</v>
+        <v>11.41482412060301</v>
       </c>
       <c r="B185" t="n">
-        <v>5.441836086852107e-08</v>
+        <v>5.44315124849688e-08</v>
       </c>
       <c r="C185" t="n">
-        <v>0.7119538413121738</v>
+        <v>0.7127864563968636</v>
       </c>
       <c r="D185" t="n">
-        <v>10.00382155762958</v>
+        <v>10.00141607763655</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>11.44281407035176</v>
+        <v>11.44924623115578</v>
       </c>
       <c r="B186" t="n">
-        <v>5.448711353614479e-08</v>
+        <v>5.449999246630633e-08</v>
       </c>
       <c r="C186" t="n">
-        <v>0.7162159029624062</v>
+        <v>0.7170056367186276</v>
       </c>
       <c r="D186" t="n">
-        <v>9.99255195359442</v>
+        <v>9.990212724950801</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>11.47763819095477</v>
+        <v>11.48366834170854</v>
       </c>
       <c r="B187" t="n">
-        <v>5.455765420711808e-08</v>
+        <v>5.457006116645506e-08</v>
       </c>
       <c r="C187" t="n">
-        <v>0.7205030224984897</v>
+        <v>0.7212481416299729</v>
       </c>
       <c r="D187" t="n">
-        <v>9.98075843935653</v>
+        <v>9.978470972748605</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>11.51246231155779</v>
+        <v>11.51809045226131</v>
       </c>
       <c r="B188" t="n">
-        <v>5.463016963869683e-08</v>
+        <v>5.46420531077009e-08</v>
       </c>
       <c r="C188" t="n">
-        <v>0.724818370326784</v>
+        <v>0.7255176743360223</v>
       </c>
       <c r="D188" t="n">
-        <v>9.968517914214098</v>
+        <v>9.966285848539698</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>11.5472864321608</v>
+        <v>11.55251256281407</v>
       </c>
       <c r="B189" t="n">
-        <v>5.470455543280709e-08</v>
+        <v>5.471589632964632e-08</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7291597619335549</v>
+        <v>0.7298137670266138</v>
       </c>
       <c r="D189" t="n">
-        <v>9.955792387265273</v>
+        <v>9.953654795433405</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>11.58211055276382</v>
+        <v>11.58693467336683</v>
       </c>
       <c r="B190" t="n">
-        <v>5.478083061957852e-08</v>
+        <v>5.479155346887673e-08</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7335293118259626</v>
+        <v>0.7341368668456005</v>
       </c>
       <c r="D190" t="n">
-        <v>9.942645954814578</v>
+        <v>9.94059800893398</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>11.61693467336683</v>
+        <v>11.6213567839196</v>
       </c>
       <c r="B191" t="n">
-        <v>5.485902940531439e-08</v>
+        <v>5.486906321334659e-08</v>
       </c>
       <c r="C191" t="n">
-        <v>0.7379268923987868</v>
+        <v>0.7384866964453388</v>
       </c>
       <c r="D191" t="n">
-        <v>9.929081202676693</v>
+        <v>9.927120033975703</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>11.65175879396985</v>
+        <v>11.65577889447236</v>
       </c>
       <c r="B192" t="n">
-        <v>5.493915303497618e-08</v>
+        <v>5.494856217249094e-08</v>
       </c>
       <c r="C192" t="n">
-        <v>0.7423523249235926</v>
+        <v>0.7428655725494639</v>
       </c>
       <c r="D192" t="n">
-        <v>9.915104752202273</v>
+        <v>9.913283412434961</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>11.68658291457287</v>
+        <v>11.69020100502513</v>
       </c>
       <c r="B193" t="n">
-        <v>5.502075657418086e-08</v>
+        <v>5.502938969924281e-08</v>
       </c>
       <c r="C193" t="n">
-        <v>0.7468016546735168</v>
+        <v>0.747265947574379</v>
       </c>
       <c r="D193" t="n">
-        <v>9.900641482157846</v>
+        <v>9.898930757648342</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>11.72140703517588</v>
+        <v>11.72462311557789</v>
       </c>
       <c r="B194" t="n">
-        <v>5.510426038853969e-08</v>
+        <v>5.511215303661845e-08</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7512794617211682</v>
+        <v>0.7516953796788038</v>
       </c>
       <c r="D194" t="n">
-        <v>9.885800611578549</v>
+        <v>9.884236715366319</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>11.7562311557789</v>
+        <v>11.75904522613065</v>
       </c>
       <c r="B195" t="n">
-        <v>5.518951283881917e-08</v>
+        <v>5.519642846735792e-08</v>
       </c>
       <c r="C195" t="n">
-        <v>0.7557841022840034</v>
+        <v>0.7561488259079467</v>
       </c>
       <c r="D195" t="n">
-        <v>9.870555952397773</v>
+        <v>9.869102509972571</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>11.79105527638191</v>
+        <v>11.79346733668342</v>
       </c>
       <c r="B196" t="n">
-        <v>5.527687273057786e-08</v>
+        <v>5.528294159125876e-08</v>
       </c>
       <c r="C196" t="n">
-        <v>0.7603198764520743</v>
+        <v>0.7606348560639724</v>
       </c>
       <c r="D196" t="n">
-        <v>9.855013540334074</v>
+        <v>9.853723253263889</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>11.82587939698492</v>
+        <v>11.82788944723618</v>
       </c>
       <c r="B197" t="n">
-        <v>5.536565819226573e-08</v>
+        <v>5.537085725110188e-08</v>
       </c>
       <c r="C197" t="n">
-        <v>0.7648799345968685</v>
+        <v>0.7651441961049286</v>
       </c>
       <c r="D197" t="n">
-        <v>9.839027307042432</v>
+        <v>9.837906828722495</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>11.86070351758794</v>
+        <v>11.86231155778895</v>
       </c>
       <c r="B198" t="n">
-        <v>5.545609180966037e-08</v>
+        <v>5.546025324786668e-08</v>
       </c>
       <c r="C198" t="n">
-        <v>0.7694659917456805</v>
+        <v>0.7696781493081604</v>
       </c>
       <c r="D198" t="n">
-        <v>9.822654977567487</v>
+        <v>9.821689561914463</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>11.89552763819096</v>
+        <v>11.89673366834171</v>
       </c>
       <c r="B199" t="n">
-        <v>5.554827552579649e-08</v>
+        <v>5.555149607973061e-08</v>
       </c>
       <c r="C199" t="n">
-        <v>0.7740803168362473</v>
+        <v>0.7742406987989278</v>
       </c>
       <c r="D199" t="n">
-        <v>9.805945707757475</v>
+        <v>9.805167750752702</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>11.93035175879397</v>
+        <v>11.93115577889447</v>
       </c>
       <c r="B200" t="n">
-        <v>5.564205544969983e-08</v>
+        <v>5.56442450691994e-08</v>
       </c>
       <c r="C200" t="n">
-        <v>0.7787209218070671</v>
+        <v>0.7788283827918671</v>
       </c>
       <c r="D200" t="n">
-        <v>9.78886749736091</v>
+        <v>9.78827512954539</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>11.96517587939698</v>
+        <v>11.96557788944724</v>
       </c>
       <c r="B201" t="n">
-        <v>5.573745749340741e-08</v>
+        <v>5.573854053219245e-08</v>
       </c>
       <c r="C201" t="n">
-        <v>0.7833885551348707</v>
+        <v>0.7834419675961362</v>
       </c>
       <c r="D201" t="n">
-        <v>9.771448458367441</v>
+        <v>9.771036377176545</v>
       </c>
     </row>
     <row r="202">
@@ -3195,7 +3195,7 @@
         <v>0.7880777123982869</v>
       </c>
       <c r="D202" t="n">
-        <v>9.753575645718547</v>
+        <v>9.753380803610298</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -362,7 +362,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>range=linspace(5.15,12.0,200)</t>
+          <t>range=linspace(5.1,12.0,200)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -400,13 +400,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.15</v>
+        <v>5.1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0007564791796121726</v>
+        <v>0.01144251692327199</v>
       </c>
       <c r="C3" t="n">
-        <v>150.9763868365818</v>
+        <v>1137.51783718782</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -414,2774 +414,2774 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.184422110552764</v>
+        <v>5.13467336683417</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0002450555297886277</v>
+        <v>0.001445211257589782</v>
       </c>
       <c r="C4" t="n">
-        <v>66.89308905231518</v>
+        <v>242.3653611748811</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0008703916090894197</v>
+        <v>0.0001352680740420803</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.218844221105528</v>
+        <v>5.169346733668341</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0001054704752841625</v>
+        <v>0.0003839959089785305</v>
       </c>
       <c r="C5" t="n">
-        <v>36.68998490443413</v>
+        <v>92.3827111275241</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002704976468576973</v>
+        <v>0.0007030838242582943</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.253266331658292</v>
+        <v>5.204020100502512</v>
       </c>
       <c r="B6" t="n">
-        <v>5.412472234222575e-05</v>
+        <v>0.0001477021032288825</v>
       </c>
       <c r="C6" t="n">
-        <v>22.92971861492324</v>
+        <v>46.59724618262027</v>
       </c>
       <c r="D6" t="n">
-        <v>0.005880420935248569</v>
+        <v>0.002080009290842902</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.287688442211055</v>
+        <v>5.238693467336683</v>
       </c>
       <c r="B7" t="n">
-        <v>3.127541498500425e-05</v>
+        <v>7.05731930289931e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>15.63834880628372</v>
+        <v>27.6282045205298</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01075954505664951</v>
+        <v>0.004653345282316076</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.322110552763819</v>
+        <v>5.273366834170854</v>
       </c>
       <c r="B8" t="n">
-        <v>1.968523702910699e-05</v>
+        <v>3.882557175933499e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>11.35459700573758</v>
+        <v>18.17876850940148</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01767777768018886</v>
+        <v>0.008801534740381903</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.356532663316584</v>
+        <v>5.308040201005025</v>
       </c>
       <c r="B9" t="n">
-        <v>1.321121966314068e-05</v>
+        <v>2.358016025676712e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>8.637830002083282</v>
+        <v>12.85969326297668</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0269471156461854</v>
+        <v>0.0148812821804236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.390954773869347</v>
+        <v>5.342713567839196</v>
       </c>
       <c r="B10" t="n">
-        <v>9.319444092104907e-06</v>
+        <v>1.540233880678454e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>6.813125996642746</v>
+        <v>9.593522788285869</v>
       </c>
       <c r="D10" t="n">
-        <v>0.03884413187127302</v>
+        <v>0.02322026410621574</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.425376884422111</v>
+        <v>5.377386934673367</v>
       </c>
       <c r="B11" t="n">
-        <v>6.841245551620547e-06</v>
+        <v>1.06375368957518e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>5.530847906680535</v>
+        <v>7.452814996732065</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05361450041838927</v>
+        <v>0.03411667006940414</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.459798994974875</v>
+        <v>5.412060301507537</v>
       </c>
       <c r="B12" t="n">
-        <v>5.188032596906953e-06</v>
+        <v>7.677620814067921e-06</v>
       </c>
       <c r="C12" t="n">
-        <v>4.596411307178551</v>
+        <v>5.977094527089852</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07147009814887111</v>
+        <v>0.04783611988068607</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.494221105527639</v>
+        <v>5.446733668341708</v>
       </c>
       <c r="B13" t="n">
-        <v>4.041882731551343e-06</v>
+        <v>5.742506263376307e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>3.894711220763502</v>
+        <v>4.918671387896397</v>
       </c>
       <c r="D13" t="n">
-        <v>0.09259346657503145</v>
+        <v>0.06460360363998843</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.528643216080402</v>
+        <v>5.481407035175879</v>
       </c>
       <c r="B14" t="n">
-        <v>3.221786346149364e-06</v>
+        <v>4.422967186175439e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>3.354539473838223</v>
+        <v>4.133960562183072</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1171324683145463</v>
+        <v>0.08462087051488303</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.563065326633167</v>
+        <v>5.51608040201005</v>
       </c>
       <c r="B15" t="n">
-        <v>2.618448131870979e-06</v>
+        <v>3.491450807925407e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>2.929728490824943</v>
+        <v>3.536299239376136</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1452108708792807</v>
+        <v>0.1080517773934709</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.59748743718593</v>
+        <v>5.550753768844221</v>
       </c>
       <c r="B16" t="n">
-        <v>2.164264535615566e-06</v>
+        <v>2.81437208799272e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>2.589672156434232</v>
+        <v>3.070688895414647</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1769152771403317</v>
+        <v>0.1350278949535361</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.631909547738694</v>
+        <v>5.585427135678391</v>
       </c>
       <c r="B17" t="n">
-        <v>1.815199755325059e-06</v>
+        <v>2.309527385757343e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>2.313054917723921</v>
+        <v>2.700678630087985</v>
       </c>
       <c r="D17" t="n">
-        <v>0.2123192388431786</v>
+        <v>0.1656622705614622</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.666331658291457</v>
+        <v>5.620100502512562</v>
       </c>
       <c r="B18" t="n">
-        <v>1.542203872120123e-06</v>
+        <v>1.925149411178645e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>2.084970198770235</v>
+        <v>2.401832573920135</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2514646184190041</v>
+        <v>0.2000251335309445</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.700753768844222</v>
+        <v>5.654773869346734</v>
       </c>
       <c r="B19" t="n">
-        <v>1.325222117157278e-06</v>
+        <v>1.626732483675073e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>1.894630640915791</v>
+        <v>2.156859839707961</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2943727823452938</v>
+        <v>0.238172813181996</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.735175879396985</v>
+        <v>5.689447236180905</v>
       </c>
       <c r="B20" t="n">
-        <v>1.150434916160549e-06</v>
+        <v>1.391276710975245e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>1.734093105974028</v>
+        <v>1.953526869956517</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3410454980671832</v>
+        <v>0.2801304013352948</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.769597989949749</v>
+        <v>5.724120603015075</v>
       </c>
       <c r="B21" t="n">
-        <v>1.007839868690518e-06</v>
+        <v>1.202666418594067e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>1.597390992050725</v>
+        <v>1.782801367862747</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3914663863632039</v>
+        <v>0.325910811869095</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.804020100502512</v>
+        <v>5.758793969849246</v>
       </c>
       <c r="B22" t="n">
-        <v>8.902028203732314e-07</v>
+        <v>1.049621069058834e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>1.479991971995973</v>
+        <v>1.638028277664096</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4456015805656449</v>
+        <v>0.3755011545660052</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.838442211055277</v>
+        <v>5.793467336683417</v>
       </c>
       <c r="B23" t="n">
-        <v>7.921362891626044e-07</v>
+        <v>9.239600462157105e-07</v>
       </c>
       <c r="C23" t="n">
-        <v>1.378410647669595</v>
+        <v>1.514153786514721</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5034003632045755</v>
+        <v>0.4288739557188972</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.872864321608041</v>
+        <v>5.828140703517588</v>
       </c>
       <c r="B24" t="n">
-        <v>7.096370351376255e-07</v>
+        <v>8.196915581680697e-07</v>
       </c>
       <c r="C24" t="n">
-        <v>1.289894301446892</v>
+        <v>1.407332344846092</v>
       </c>
       <c r="D24" t="n">
-        <v>0.5648052965286201</v>
+        <v>0.4859797025631676</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.907286432160804</v>
+        <v>5.862814070351758</v>
       </c>
       <c r="B25" t="n">
-        <v>6.396807198443487e-07</v>
+        <v>7.323158471573569e-07</v>
       </c>
       <c r="C25" t="n">
-        <v>1.212282246772692</v>
+        <v>1.314523553675818</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6297422744750621</v>
+        <v>0.5467653570728421</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.941708542713569</v>
+        <v>5.897487437185929</v>
       </c>
       <c r="B26" t="n">
-        <v>5.798628581756484e-07</v>
+        <v>6.584708151017929e-07</v>
       </c>
       <c r="C26" t="n">
-        <v>1.143829380646371</v>
+        <v>1.233373241611371</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6981313402561383</v>
+        <v>0.6111562784339208</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.976130653266332</v>
+        <v>5.9321608040201</v>
       </c>
       <c r="B27" t="n">
-        <v>5.283905473586908e-07</v>
+        <v>5.95553511352247e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>1.083177356828858</v>
+        <v>1.161985685126617</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7698665578579806</v>
+        <v>0.6790736338526876</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6.010552763819096</v>
+        <v>5.966834170854271</v>
       </c>
       <c r="B28" t="n">
-        <v>4.837885606997275e-07</v>
+        <v>5.415630092642572e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>1.029151660454489</v>
+        <v>1.098863727778912</v>
       </c>
       <c r="D28" t="n">
-        <v>0.8448588381023217</v>
+        <v>0.7504173897639583</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.04497487437186</v>
+        <v>6.001507537688441</v>
       </c>
       <c r="B29" t="n">
-        <v>4.449066968544948e-07</v>
+        <v>4.949092994816447e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>0.980816753661569</v>
+        <v>1.042758868135558</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9230019538896658</v>
+        <v>0.8250943126377296</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6.079396984924624</v>
+        <v>6.036180904522613</v>
       </c>
       <c r="B30" t="n">
-        <v>4.108352920266488e-07</v>
+        <v>4.543498400762055e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9374186877788249</v>
+        <v>0.9926688292924226</v>
       </c>
       <c r="D30" t="n">
-        <v>1.004174257716818</v>
+        <v>0.9029938130192439</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.113819095477387</v>
+        <v>6.070854271356784</v>
       </c>
       <c r="B31" t="n">
-        <v>3.808079964496725e-07</v>
+        <v>4.188700704605839e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8982927699846496</v>
+        <v>0.9477475699914018</v>
       </c>
       <c r="D31" t="n">
-        <v>1.088266816313112</v>
+        <v>0.9840099141632407</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.148241206030151</v>
+        <v>6.105527638190955</v>
       </c>
       <c r="B32" t="n">
-        <v>3.542360932868838e-07</v>
+        <v>3.877048850554325e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8629164883488909</v>
+        <v>0.9073598240122013</v>
       </c>
       <c r="D32" t="n">
-        <v>1.175149307351325</v>
+        <v>1.06799880242433</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.182663316582915</v>
+        <v>6.140201005025125</v>
       </c>
       <c r="B33" t="n">
-        <v>3.306025138819971e-07</v>
+        <v>3.601659538429255e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8308073900899319</v>
+        <v>0.8708703613042821</v>
       </c>
       <c r="D33" t="n">
-        <v>1.26470943836624</v>
+        <v>1.154858985373482</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.217085427135679</v>
+        <v>6.174874371859296</v>
       </c>
       <c r="B34" t="n">
-        <v>3.09506200505387e-07</v>
+        <v>3.35717394945406e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>0.801609406954268</v>
+        <v>0.8378139231844813</v>
       </c>
       <c r="D34" t="n">
-        <v>1.356801917774123</v>
+        <v>1.244458670827823</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6.251507537688442</v>
+        <v>6.209547738693467</v>
       </c>
       <c r="B35" t="n">
-        <v>2.905938805014093e-07</v>
+        <v>3.139273831717664e-07</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7749694942709161</v>
+        <v>0.8077745010433727</v>
       </c>
       <c r="D35" t="n">
-        <v>1.451310936997458</v>
+        <v>1.336668881290441</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6.285929648241206</v>
+        <v>6.244221105527638</v>
       </c>
       <c r="B36" t="n">
-        <v>2.735778817317793e-07</v>
+        <v>2.944299601580523e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7506042276882612</v>
+        <v>0.7804084342788686</v>
       </c>
       <c r="D36" t="n">
-        <v>1.548106068768147</v>
+        <v>1.431355749850177</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.32035175879397</v>
+        <v>6.278894472361809</v>
       </c>
       <c r="B37" t="n">
-        <v>2.582178541857475e-07</v>
+        <v>2.769120252698591e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7282747431465679</v>
+        <v>0.7554081662124318</v>
       </c>
       <c r="D37" t="n">
-        <v>1.647053004045073</v>
+        <v>1.528389736190113</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.354773869346734</v>
+        <v>6.313567839195979</v>
       </c>
       <c r="B38" t="n">
-        <v>2.44305353625385e-07</v>
+        <v>2.611238948493778e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7077653640288283</v>
+        <v>0.7325255944581852</v>
       </c>
       <c r="D38" t="n">
-        <v>1.74802340157577</v>
+        <v>1.627631105059367</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6.389195979899498</v>
+        <v>6.348241206030151</v>
       </c>
       <c r="B39" t="n">
-        <v>2.316655611453853e-07</v>
+        <v>2.468364053439688e-07</v>
       </c>
       <c r="C39" t="n">
-        <v>0.688891940133229</v>
+        <v>0.7115130162638863</v>
       </c>
       <c r="D39" t="n">
-        <v>1.850888140528341</v>
+        <v>1.72896428548706</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6.423618090452262</v>
+        <v>6.382914572864321</v>
       </c>
       <c r="B40" t="n">
-        <v>2.201453260338022e-07</v>
+        <v>2.338829709240788e-07</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6714870327643538</v>
+        <v>0.6922204728110648</v>
       </c>
       <c r="D40" t="n">
-        <v>1.955521796774291</v>
+        <v>1.832226151488629</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6.458040201005026</v>
+        <v>6.417587939698493</v>
       </c>
       <c r="B41" t="n">
-        <v>2.096288443251739e-07</v>
+        <v>2.220908618384325e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6554302231336357</v>
+        <v>0.6744413344429451</v>
       </c>
       <c r="D41" t="n">
-        <v>2.061784954091083</v>
+        <v>1.937309995264479</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6.492462311557789</v>
+        <v>6.452261306532663</v>
       </c>
       <c r="B42" t="n">
-        <v>1.999946639819507e-07</v>
+        <v>2.113300836942764e-07</v>
       </c>
       <c r="C42" t="n">
-        <v>0.640577741920774</v>
+        <v>0.6580394060411096</v>
       </c>
       <c r="D42" t="n">
-        <v>2.169557987946957</v>
+        <v>2.044076743461333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6.526884422110554</v>
+        <v>6.486934673366834</v>
       </c>
       <c r="B43" t="n">
-        <v>1.91147107862184e-07</v>
+        <v>2.014855686734389e-07</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6268204446891036</v>
+        <v>0.6428836348784317</v>
       </c>
       <c r="D43" t="n">
-        <v>2.278721998359607</v>
+        <v>2.152398033103601</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6.561306532663317</v>
+        <v>6.521608040201005</v>
       </c>
       <c r="B44" t="n">
-        <v>1.830052183793543e-07</v>
+        <v>1.924546206924137e-07</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6140696938857204</v>
+        <v>0.6288607976276818</v>
       </c>
       <c r="D44" t="n">
-        <v>2.389147527398253</v>
+        <v>2.262145272760256</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6.595728643216081</v>
+        <v>6.556281407035176</v>
       </c>
       <c r="B45" t="n">
-        <v>1.754976602135215e-07</v>
+        <v>1.841529712398704e-07</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6022353721880009</v>
+        <v>0.6158721364198231</v>
       </c>
       <c r="D45" t="n">
-        <v>2.500716132187196</v>
+        <v>2.373193382149904</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6.630150753768845</v>
+        <v>6.590954773869346</v>
       </c>
       <c r="B46" t="n">
-        <v>1.685571602383256e-07</v>
+        <v>1.765029661543721e-07</v>
       </c>
       <c r="C46" t="n">
-        <v>0.5912402064832522</v>
+        <v>0.6038248494693951</v>
       </c>
       <c r="D46" t="n">
-        <v>2.613311747230164</v>
+        <v>2.485420806522304</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6.664572864321609</v>
+        <v>6.625628140703517</v>
       </c>
       <c r="B47" t="n">
-        <v>1.621298271933719e-07</v>
+        <v>1.694391053309963e-07</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5810112333431954</v>
+        <v>0.5926393675387204</v>
       </c>
       <c r="D47" t="n">
-        <v>2.726822860433524</v>
+        <v>2.598705118063644</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6.698994974874372</v>
+        <v>6.660301507537688</v>
       </c>
       <c r="B48" t="n">
-        <v>1.561708243709633e-07</v>
+        <v>1.629033814849312e-07</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5715045745336355</v>
+        <v>0.5822452863717703</v>
       </c>
       <c r="D48" t="n">
-        <v>2.841126039930959</v>
+        <v>2.712928947121212</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6.733417085427136</v>
+        <v>6.694974874371859</v>
       </c>
       <c r="B49" t="n">
-        <v>1.506302348049797e-07</v>
+        <v>1.568437334070694e-07</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5626460881956109</v>
+        <v>0.5725805217692416</v>
       </c>
       <c r="D49" t="n">
-        <v>2.95612077209603</v>
+        <v>2.827977107102059</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6.767839195979899</v>
+        <v>6.72964824120603</v>
       </c>
       <c r="B50" t="n">
-        <v>1.454712025002915e-07</v>
+        <v>1.512173948953805e-07</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5543917266541523</v>
+        <v>0.5635856633784394</v>
       </c>
       <c r="D50" t="n">
-        <v>3.071697914805982</v>
+        <v>2.943737144688532</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6.802261306532664</v>
+        <v>6.7643216080402</v>
       </c>
       <c r="B51" t="n">
-        <v>1.406619212044599e-07</v>
+        <v>1.459819626019116e-07</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5467000781017833</v>
+        <v>0.5552082207030024</v>
       </c>
       <c r="D51" t="n">
-        <v>3.18775570585</v>
+        <v>3.060101273403563</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6.836683417085427</v>
+        <v>6.798994974874372</v>
       </c>
       <c r="B52" t="n">
-        <v>1.361691794125224e-07</v>
+        <v>1.41104284049904e-07</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5395265524274186</v>
+        <v>0.5474070395183898</v>
       </c>
       <c r="D52" t="n">
-        <v>3.304192669709218</v>
+        <v>3.176963539303236</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.871105527638191</v>
+        <v>6.833668341708543</v>
       </c>
       <c r="B53" t="n">
-        <v>1.319678184146008e-07</v>
+        <v>1.365510108275713e-07</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5328372985618528</v>
+        <v>0.5401351857408995</v>
       </c>
       <c r="D53" t="n">
-        <v>3.420914413858632</v>
+        <v>3.294219143883351</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6.905527638190955</v>
+        <v>6.868341708542713</v>
       </c>
       <c r="B54" t="n">
-        <v>1.280327838365376e-07</v>
+        <v>1.322954931093618e-07</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5265974091432336</v>
+        <v>0.5333572092635879</v>
       </c>
       <c r="D54" t="n">
-        <v>3.537819658122995</v>
+        <v>3.411768829623981</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6.939949748743719</v>
+        <v>6.903015075376884</v>
       </c>
       <c r="B55" t="n">
-        <v>1.243417738207005e-07</v>
+        <v>1.28311599628842e-07</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5207766631729122</v>
+        <v>0.5270378116826852</v>
       </c>
       <c r="D55" t="n">
-        <v>3.654825049488895</v>
+        <v>3.529518550296535</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6.974371859296483</v>
+        <v>6.937688442211055</v>
       </c>
       <c r="B56" t="n">
-        <v>1.208753936880092e-07</v>
+        <v>1.245769781248957e-07</v>
       </c>
       <c r="C56" t="n">
-        <v>0.515348254819938</v>
+        <v>0.5211462178047869</v>
       </c>
       <c r="D56" t="n">
-        <v>3.771839722568639</v>
+        <v>3.647374057415885</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>7.008793969849247</v>
+        <v>6.972361809045226</v>
       </c>
       <c r="B57" t="n">
-        <v>1.176157091181686e-07</v>
+        <v>1.210721037509009e-07</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5102854741842958</v>
+        <v>0.5156548252195594</v>
       </c>
       <c r="D57" t="n">
-        <v>3.88878027485179</v>
+        <v>3.765242521385291</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>7.043216080402011</v>
+        <v>7.007035175879397</v>
       </c>
       <c r="B58" t="n">
-        <v>1.145473396209588e-07</v>
+        <v>1.177774919248488e-07</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5055679024978568</v>
+        <v>0.5105354788732415</v>
       </c>
       <c r="D58" t="n">
-        <v>4.005564381585581</v>
+        <v>3.883041318366454</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7.077638190954774</v>
+        <v>7.041708542713567</v>
       </c>
       <c r="B59" t="n">
-        <v>1.116563972132156e-07</v>
+        <v>1.146790695235765e-07</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5011725158185737</v>
+        <v>0.5057680282349118</v>
       </c>
       <c r="D59" t="n">
-        <v>4.122114438652406</v>
+        <v>4.000688135440227</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7.112060301507539</v>
+        <v>7.076381909547738</v>
       </c>
       <c r="B60" t="n">
-        <v>1.089279793900041e-07</v>
+        <v>1.11759037710515e-07</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4970784143041513</v>
+        <v>0.5013274911175698</v>
       </c>
       <c r="D60" t="n">
-        <v>4.238353723537568</v>
+        <v>4.118101707282609</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7.146482412060302</v>
+        <v>7.11105527638191</v>
       </c>
       <c r="B61" t="n">
-        <v>1.063520925296683e-07</v>
+        <v>1.090051277769563e-07</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4932725345289373</v>
+        <v>0.497193555981432</v>
       </c>
       <c r="D61" t="n">
-        <v>4.354216778202841</v>
+        <v>4.235198169311165</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7.180904522613066</v>
+        <v>7.14572864321608</v>
       </c>
       <c r="B62" t="n">
-        <v>1.039165778818671e-07</v>
+        <v>1.064069983286372e-07</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4897342321088015</v>
+        <v>0.4933529357322515</v>
       </c>
       <c r="D62" t="n">
-        <v>4.469629941505878</v>
+        <v>4.351917921036305</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7.21532663316583</v>
+        <v>7.180402010050251</v>
       </c>
       <c r="B63" t="n">
-        <v>1.016117764143111e-07</v>
+        <v>1.039511436288203e-07</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4864494523819025</v>
+        <v>0.4897840378302121</v>
       </c>
       <c r="D63" t="n">
-        <v>4.584522640313436</v>
+        <v>4.468179985327009</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7.249748743718593</v>
+        <v>7.215075376884421</v>
       </c>
       <c r="B64" t="n">
-        <v>9.942785128165791e-08</v>
+        <v>1.016282448717327e-07</v>
       </c>
       <c r="C64" t="n">
-        <v>0.483400331735257</v>
+        <v>0.4864725007621633</v>
       </c>
       <c r="D64" t="n">
-        <v>4.698829454163505</v>
+        <v>4.583920290233709</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>7.284170854271357</v>
+        <v>7.249748743718593</v>
       </c>
       <c r="B65" t="n">
-        <v>9.735971305437499e-08</v>
+        <v>9.942785128165791e-08</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4805861638955183</v>
+        <v>0.483400331735257</v>
       </c>
       <c r="D65" t="n">
-        <v>4.812517884493314</v>
+        <v>4.699062594330316</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>7.318592964824121</v>
+        <v>7.284422110552764</v>
       </c>
       <c r="B66" t="n">
-        <v>9.539679805859775e-08</v>
+        <v>9.734509494575531e-08</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4779828522547843</v>
+        <v>0.4805664021726411</v>
       </c>
       <c r="D66" t="n">
-        <v>4.925499338033338</v>
+        <v>4.813579125122042</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>7.353015075376884</v>
+        <v>7.319095477386934</v>
       </c>
       <c r="B67" t="n">
-        <v>9.353283661202213e-08</v>
+        <v>9.536899468023068e-08</v>
       </c>
       <c r="C67" t="n">
-        <v>0.475583253521388</v>
+        <v>0.4779463751567563</v>
       </c>
       <c r="D67" t="n">
-        <v>5.037729983616424</v>
+        <v>4.927377029096526</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>7.387437185929649</v>
+        <v>7.353768844221105</v>
       </c>
       <c r="B68" t="n">
-        <v>9.176142573246649e-08</v>
+        <v>9.349303374672105e-08</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4733756553243295</v>
+        <v>0.4755325814714703</v>
       </c>
       <c r="D68" t="n">
-        <v>5.149153357202798</v>
+        <v>5.040410459618185</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>7.421859296482412</v>
+        <v>7.388442211055276</v>
       </c>
       <c r="B69" t="n">
-        <v>9.007624135040364e-08</v>
+        <v>9.171099094838888e-08</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4713500718420616</v>
+        <v>0.473313867437624</v>
       </c>
       <c r="D69" t="n">
-        <v>5.259719087436467</v>
+        <v>5.152628337233964</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>7.456281407035176</v>
+        <v>7.423115577889448</v>
       </c>
       <c r="B70" t="n">
-        <v>8.847481587978724e-08</v>
+        <v>9.001639852787914e-08</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4695079004564816</v>
+        <v>0.4712793771117103</v>
       </c>
       <c r="D70" t="n">
-        <v>5.369418295413042</v>
+        <v>5.263968332601131</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>7.49070351758794</v>
+        <v>7.457788944723617</v>
       </c>
       <c r="B71" t="n">
-        <v>8.694874770194057e-08</v>
+        <v>8.840652575123057e-08</v>
       </c>
       <c r="C71" t="n">
-        <v>0.467828053821753</v>
+        <v>0.4694308479274488</v>
       </c>
       <c r="D71" t="n">
-        <v>5.478154470731642</v>
+        <v>5.374431572737103</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>7.525125628140704</v>
+        <v>7.492462311557789</v>
       </c>
       <c r="B72" t="n">
-        <v>8.549485307679362e-08</v>
+        <v>8.687263845073401e-08</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4663068047463452</v>
+        <v>0.467746352494925</v>
       </c>
       <c r="D72" t="n">
-        <v>5.58590691225352</v>
+        <v>5.483917836577721</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>7.559547738693468</v>
+        <v>7.527135678391959</v>
       </c>
       <c r="B73" t="n">
-        <v>8.410821266033445e-08</v>
+        <v>8.541186807033979e-08</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4649374083008039</v>
+        <v>0.4662227820597895</v>
       </c>
       <c r="D73" t="n">
-        <v>5.692636277848764</v>
+        <v>5.592400521266507</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>7.593969849246232</v>
+        <v>7.561809045226131</v>
       </c>
       <c r="B74" t="n">
-        <v>8.278585098174886e-08</v>
+        <v>8.401945435503226e-08</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4637143015702606</v>
+        <v>0.4648528021491873</v>
       </c>
       <c r="D74" t="n">
-        <v>5.798312626250834</v>
+        <v>5.699844378824588</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>7.628391959798996</v>
+        <v>7.596482412060301</v>
       </c>
       <c r="B75" t="n">
-        <v>8.152316601271119e-08</v>
+        <v>8.269137649642635e-08</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4626283176600625</v>
+        <v>0.4636295997048524</v>
       </c>
       <c r="D75" t="n">
-        <v>5.90288378407324</v>
+        <v>5.806212405639609</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>7.662814070351759</v>
+        <v>7.631155778894472</v>
       </c>
       <c r="B76" t="n">
-        <v>8.031752993272626e-08</v>
+        <v>8.142458419508028e-08</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4616763613833879</v>
+        <v>0.4625492527300897</v>
       </c>
       <c r="D76" t="n">
-        <v>6.006332333295926</v>
+        <v>5.911475362869183</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>7.697236180904524</v>
+        <v>7.665829145728643</v>
       </c>
       <c r="B77" t="n">
-        <v>7.916437319453494e-08</v>
+        <v>8.021449591241325e-08</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4608476241766063</v>
+        <v>0.4615989641078252</v>
       </c>
       <c r="D77" t="n">
-        <v>6.108599416458125</v>
+        <v>6.015570042504018</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7.731658291457286</v>
+        <v>7.700502512562814</v>
       </c>
       <c r="B78" t="n">
-        <v>7.806355900928992e-08</v>
+        <v>7.905778714330466e-08</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4601490868369252</v>
+        <v>0.4607755357527607</v>
       </c>
       <c r="D78" t="n">
-        <v>6.209728846173028</v>
+        <v>6.118476191726901</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>7.766080402010051</v>
+        <v>7.735175879396984</v>
       </c>
       <c r="B79" t="n">
-        <v>7.701024084703055e-08</v>
+        <v>7.795396394627024e-08</v>
       </c>
       <c r="C79" t="n">
-        <v>0.459564034935269</v>
+        <v>0.4600839743443866</v>
       </c>
       <c r="D79" t="n">
-        <v>6.309621892416748</v>
+        <v>6.220224461356127</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>7.800502512562815</v>
+        <v>7.769849246231155</v>
       </c>
       <c r="B80" t="n">
-        <v>7.600204907538839e-08</v>
+        <v>7.689761126886002e-08</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4590919739768806</v>
+        <v>0.4595069212320074</v>
       </c>
       <c r="D80" t="n">
-        <v>6.408276047602117</v>
+        <v>6.320714681481679</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>7.834924623115578</v>
+        <v>7.804522613065327</v>
       </c>
       <c r="B81" t="n">
-        <v>7.503712530494834e-08</v>
+        <v>7.588729350566859e-08</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4587289122536762</v>
+        <v>0.4590441121165453</v>
       </c>
       <c r="D81" t="n">
-        <v>6.505674432028114</v>
+        <v>6.419949644634898</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7.869346733668342</v>
+        <v>7.839195979899497</v>
       </c>
       <c r="B82" t="n">
-        <v>7.41129870445184e-08</v>
+        <v>7.492035795615041e-08</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4584703105829844</v>
+        <v>0.4586915971403678</v>
       </c>
       <c r="D82" t="n">
-        <v>6.601791146976352</v>
+        <v>6.517905480741461</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.903768844221106</v>
+        <v>7.873869346733668</v>
       </c>
       <c r="B83" t="n">
-        <v>7.322753353122825e-08</v>
+        <v>7.399434641721259e-08</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4583125403827389</v>
+        <v>0.4584437285401651</v>
       </c>
       <c r="D83" t="n">
-        <v>6.696609453940016</v>
+        <v>6.614554586241579</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7.938190954773869</v>
+        <v>7.908542713567838</v>
       </c>
       <c r="B84" t="n">
-        <v>7.23787452664865e-08</v>
+        <v>7.310695923952243e-08</v>
       </c>
       <c r="C84" t="n">
-        <v>0.458251713521711</v>
+        <v>0.4582951043017069</v>
       </c>
       <c r="D84" t="n">
-        <v>6.790106924219892</v>
+        <v>6.709859933414692</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7.972613065326634</v>
+        <v>7.94321608040201</v>
       </c>
       <c r="B85" t="n">
-        <v>7.156518961341019e-08</v>
+        <v>7.225790754553388e-08</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4582851269960884</v>
+        <v>0.4582508259121529</v>
       </c>
       <c r="D85" t="n">
-        <v>6.882273120433828</v>
+        <v>6.803876958151777</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>8.007035175879398</v>
+        <v>7.977889447236181</v>
       </c>
       <c r="B86" t="n">
-        <v>7.078497950423678e-08</v>
+        <v>7.144319588947419e-08</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4584096772373034</v>
+        <v>0.4582980437865823</v>
       </c>
       <c r="D86" t="n">
-        <v>6.973096650602247</v>
+        <v>6.89651226097615</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8.041457286432161</v>
+        <v>8.012562814070352</v>
       </c>
       <c r="B87" t="n">
-        <v>7.003537806659822e-08</v>
+        <v>7.066262480533383e-08</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4586165593966265</v>
+        <v>0.4584373865852545</v>
       </c>
       <c r="D87" t="n">
-        <v>7.062511126730796</v>
+        <v>6.987783018944093</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8.075879396984925</v>
+        <v>8.047236180904523</v>
       </c>
       <c r="B88" t="n">
-        <v>6.931778613827871e-08</v>
+        <v>6.991368788497003e-08</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4589176435074469</v>
+        <v>0.4586655310671126</v>
       </c>
       <c r="D88" t="n">
-        <v>7.150640862426799</v>
+        <v>7.077675117149472</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8.110301507537688</v>
+        <v>8.081909547738693</v>
       </c>
       <c r="B89" t="n">
-        <v>6.862826570123663e-08</v>
+        <v>6.919494596110668e-08</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4592963732610764</v>
+        <v>0.4589782200209835</v>
       </c>
       <c r="D89" t="n">
-        <v>7.237343125341383</v>
+        <v>7.166160669658935</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8.144723618090453</v>
+        <v>8.116582914572863</v>
       </c>
       <c r="B90" t="n">
-        <v>6.796616733402666e-08</v>
+        <v>6.850565146149729e-08</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4597551931819812</v>
+        <v>0.4593753653250862</v>
       </c>
       <c r="D90" t="n">
-        <v>7.322659766658</v>
+        <v>7.253259234436595</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8.179145728643217</v>
+        <v>8.151256281407035</v>
       </c>
       <c r="B91" t="n">
-        <v>6.733036958869459e-08</v>
+        <v>6.784262257993803e-08</v>
       </c>
       <c r="C91" t="n">
-        <v>0.460291017484746</v>
+        <v>0.4598460291369882</v>
       </c>
       <c r="D91" t="n">
-        <v>7.40657644506716</v>
+        <v>7.33887464777361</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8.21356783919598</v>
+        <v>8.185929648241206</v>
       </c>
       <c r="B92" t="n">
-        <v>6.671905195759862e-08</v>
+        <v>6.720804733980549e-08</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4608988690688723</v>
+        <v>0.4604053262777974</v>
       </c>
       <c r="D92" t="n">
-        <v>7.489053971319122</v>
+        <v>7.42317779465708</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8.247989949748744</v>
+        <v>8.220603015075376</v>
       </c>
       <c r="B93" t="n">
-        <v>6.613286924992585e-08</v>
+        <v>6.659828132667185e-08</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4615857068916718</v>
+        <v>0.4610382571182732</v>
       </c>
       <c r="D93" t="n">
-        <v>7.570190261424385</v>
+        <v>7.506035204546319</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.282412060301509</v>
+        <v>8.255276381909548</v>
       </c>
       <c r="B94" t="n">
-        <v>6.5568933714087e-08</v>
+        <v>6.601161322380312e-08</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4623401672458727</v>
+        <v>0.4617395091155009</v>
       </c>
       <c r="D94" t="n">
-        <v>7.64987486087425</v>
+        <v>7.587404775957644</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8.316834170854271</v>
+        <v>8.289949748743718</v>
       </c>
       <c r="B95" t="n">
-        <v>6.502696565875442e-08</v>
+        <v>6.544846475921751e-08</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4631633253299798</v>
+        <v>0.4625143950575936</v>
       </c>
       <c r="D95" t="n">
-        <v>7.728142329495542</v>
+        <v>7.667362870778197</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.351256281407036</v>
+        <v>8.324623115577889</v>
       </c>
       <c r="B96" t="n">
-        <v>6.450604670034783e-08</v>
+        <v>6.490743651263614e-08</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4640540407820746</v>
+        <v>0.4633594040646787</v>
       </c>
       <c r="D96" t="n">
-        <v>7.804994201654464</v>
+        <v>7.745891003765911</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>8.3856783919598</v>
+        <v>8.359296482412059</v>
       </c>
       <c r="B97" t="n">
-        <v>6.400541580536495e-08</v>
+        <v>6.438726703655327e-08</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4650102265673323</v>
+        <v>0.4642714722169428</v>
       </c>
       <c r="D97" t="n">
-        <v>7.880428918439745</v>
+        <v>7.822970944866023</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8.420100502512563</v>
+        <v>8.393969849246231</v>
       </c>
       <c r="B98" t="n">
-        <v>6.352383974430255e-08</v>
+        <v>6.388756084014748e-08</v>
       </c>
       <c r="C98" t="n">
-        <v>0.46602923713533</v>
+        <v>0.4652493937761107</v>
       </c>
       <c r="D98" t="n">
-        <v>7.954432923425874</v>
+        <v>7.898608297206297</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>8.454522613065327</v>
+        <v>8.428643216080403</v>
       </c>
       <c r="B99" t="n">
-        <v>6.30607496774297e-08</v>
+        <v>6.340718261585876e-08</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4671102417023951</v>
+        <v>0.4662918644576698</v>
       </c>
       <c r="D99" t="n">
-        <v>8.027017223697705</v>
+        <v>7.972811312347824</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>8.48894472361809</v>
+        <v>8.463316582914572</v>
       </c>
       <c r="B100" t="n">
-        <v>6.261560106025671e-08</v>
+        <v>6.294538208570489e-08</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4682528443957958</v>
+        <v>0.4673963591890338</v>
       </c>
       <c r="D100" t="n">
-        <v>8.098195388357039</v>
+        <v>8.045565272823438</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8.523366834170854</v>
+        <v>8.497989949748742</v>
       </c>
       <c r="B101" t="n">
-        <v>6.218752238614903e-08</v>
+        <v>6.250149165300153e-08</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4694537433726125</v>
+        <v>0.468562679433029</v>
       </c>
       <c r="D101" t="n">
-        <v>8.167945148784346</v>
+        <v>8.116890571875887</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>8.557788944723619</v>
+        <v>8.532663316582914</v>
       </c>
       <c r="B102" t="n">
-        <v>6.177573513207545e-08</v>
+        <v>6.207463636928407e-08</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4707127639567795</v>
+        <v>0.4697881643778913</v>
       </c>
       <c r="D102" t="n">
-        <v>8.236287895301425</v>
+        <v>8.186772699937995</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>8.592211055276383</v>
+        <v>8.567336683417086</v>
       </c>
       <c r="B103" t="n">
-        <v>6.137962344753954e-08</v>
+        <v>6.166430003694345e-08</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4720277751084816</v>
+        <v>0.4710716960024235</v>
       </c>
       <c r="D103" t="n">
-        <v>8.303215839141091</v>
+        <v>8.255221307415177</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8.626633165829146</v>
+        <v>8.602010050251256</v>
       </c>
       <c r="B104" t="n">
-        <v>6.099861739688149e-08</v>
+        <v>6.126975389598083e-08</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4733972037632418</v>
+        <v>0.4724125896985906</v>
       </c>
       <c r="D104" t="n">
-        <v>8.368724768364041</v>
+        <v>8.322244587160968</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8.66105527638191</v>
+        <v>8.636683417085427</v>
       </c>
       <c r="B105" t="n">
-        <v>6.063209658961172e-08</v>
+        <v>6.089001807081976e-08</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4748199517605261</v>
+        <v>0.4738063580712635</v>
       </c>
       <c r="D105" t="n">
-        <v>8.432825583495543</v>
+        <v>8.387804594021775</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>8.695477386934673</v>
+        <v>8.671356783919597</v>
       </c>
       <c r="B106" t="n">
-        <v>6.028035168122742e-08</v>
+        <v>6.052567443648957e-08</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4763009834692015</v>
+        <v>0.4752597747245266</v>
       </c>
       <c r="D106" t="n">
-        <v>8.495609459507833</v>
+        <v>8.452021350087994</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>8.729899497487438</v>
+        <v>8.706030150753769</v>
       </c>
       <c r="B107" t="n">
-        <v>5.994177115278713e-08</v>
+        <v>6.017505350022876e-08</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4778310138913078</v>
+        <v>0.4767644651246022</v>
       </c>
       <c r="D107" t="n">
-        <v>8.556963802412328</v>
+        <v>8.514793153101403</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>8.764321608040202</v>
+        <v>8.740703517587939</v>
       </c>
       <c r="B108" t="n">
-        <v>5.961589025499892e-08</v>
+        <v>5.983843479519872e-08</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4794104510953631</v>
+        <v>0.4783236165183018</v>
       </c>
       <c r="D108" t="n">
-        <v>8.616914911574813</v>
+        <v>8.576192984899153</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>8.798743718592965</v>
+        <v>8.77537688442211</v>
       </c>
       <c r="B109" t="n">
-        <v>5.930287265450121e-08</v>
+        <v>5.95140018113426e-08</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4810408226691987</v>
+        <v>0.4799285940327267</v>
       </c>
       <c r="D109" t="n">
-        <v>8.675509823950568</v>
+        <v>8.636111073719041</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>8.833165829145729</v>
+        <v>8.810050251256282</v>
       </c>
       <c r="B110" t="n">
-        <v>5.900158251996368e-08</v>
+        <v>5.92026252533833e-08</v>
       </c>
       <c r="C110" t="n">
-        <v>0.482718616055599</v>
+        <v>0.4815870256623741</v>
       </c>
       <c r="D110" t="n">
-        <v>8.732716226419928</v>
+        <v>8.694687152006411</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>8.867587939698492</v>
+        <v>8.844723618090452</v>
       </c>
       <c r="B111" t="n">
-        <v>5.871211905437479e-08</v>
+        <v>5.890314597226826e-08</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4844450664364948</v>
+        <v>0.4832933283038872</v>
       </c>
       <c r="D111" t="n">
-        <v>8.788574149027385</v>
+        <v>8.751857051247628</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>8.902010050251256</v>
+        <v>8.879396984924622</v>
       </c>
       <c r="B112" t="n">
-        <v>5.843439730779619e-08</v>
+        <v>5.861543109288148e-08</v>
       </c>
       <c r="C112" t="n">
-        <v>0.486221342794915</v>
+        <v>0.4850480445537299</v>
       </c>
       <c r="D112" t="n">
-        <v>8.843127720809768</v>
+        <v>8.807652048157673</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>8.936432160804021</v>
+        <v>8.914070351758793</v>
       </c>
       <c r="B113" t="n">
-        <v>5.816724306033732e-08</v>
+        <v>5.833963728376857e-08</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4880420891259075</v>
+        <v>0.4868540320446335</v>
       </c>
       <c r="D113" t="n">
-        <v>8.896311601366998</v>
+        <v>8.862142701840494</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8.970854271356785</v>
+        <v>8.948743718592965</v>
       </c>
       <c r="B114" t="n">
-        <v>5.79106291979067e-08</v>
+        <v>5.807426266086762e-08</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4899083982160031</v>
+        <v>0.4887044098954634</v>
       </c>
       <c r="D114" t="n">
-        <v>8.948165042409927</v>
+        <v>8.915239167264948</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>9.005276381909548</v>
+        <v>8.983417085427135</v>
       </c>
       <c r="B115" t="n">
-        <v>5.766398801716995e-08</v>
+        <v>5.781946694976038e-08</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4918183869742151</v>
+        <v>0.4906006129943001</v>
       </c>
       <c r="D115" t="n">
-        <v>8.998679554725907</v>
+        <v>8.966987535171688</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9.039698492462312</v>
+        <v>9.018090452261307</v>
       </c>
       <c r="B116" t="n">
-        <v>5.74275844933625e-08</v>
+        <v>5.757459429788777e-08</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4937752381090261</v>
+        <v>0.4925397442965504</v>
       </c>
       <c r="D116" t="n">
-        <v>9.047931753004676</v>
+        <v>9.017361697777948</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9.074120603015075</v>
+        <v>9.052763819095476</v>
       </c>
       <c r="B117" t="n">
-        <v>5.720049531711246e-08</v>
+        <v>5.73398602017599e-08</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4957741422126529</v>
+        <v>0.4945258753030168</v>
       </c>
       <c r="D117" t="n">
-        <v>9.095862237671666</v>
+        <v>9.066454840740537</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9.108542713567839</v>
+        <v>9.087437185929648</v>
       </c>
       <c r="B118" t="n">
-        <v>5.698260677074998e-08</v>
+        <v>5.711515634391177e-08</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4978152997729915</v>
+        <v>0.4965588794374596</v>
       </c>
       <c r="D118" t="n">
-        <v>9.1424962091886</v>
+        <v>9.114288242151495</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9.142964824120604</v>
+        <v>9.122110552763818</v>
       </c>
       <c r="B119" t="n">
-        <v>5.677360984426872e-08</v>
+        <v>5.689927208710765e-08</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4998992957386228</v>
+        <v>0.4986326363486543</v>
       </c>
       <c r="D119" t="n">
-        <v>9.187865377065766</v>
+        <v>9.160777048540794</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9.177386934673368</v>
+        <v>9.15678391959799</v>
       </c>
       <c r="B120" t="n">
-        <v>5.657326666233333e-08</v>
+        <v>5.669213251739108e-08</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5020247071972707</v>
+        <v>0.5007474362874439</v>
       </c>
       <c r="D120" t="n">
-        <v>9.231968367609667</v>
+        <v>9.205949203442545</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9.211809045226131</v>
+        <v>9.191457286432161</v>
       </c>
       <c r="B121" t="n">
-        <v>5.638123610364404e-08</v>
+        <v>5.64938173433688e-08</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5041908012233576</v>
+        <v>0.5029052769510687</v>
       </c>
       <c r="D121" t="n">
-        <v>9.274812513838324</v>
+        <v>9.249863069029599</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>9.246231155778894</v>
+        <v>9.226130653266331</v>
       </c>
       <c r="B122" t="n">
-        <v>5.619739127832939e-08</v>
+        <v>5.630368684527957e-08</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5063975570467555</v>
+        <v>0.5051040777504731</v>
       </c>
       <c r="D122" t="n">
-        <v>9.316420038879436</v>
+        <v>9.292503882961944</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>9.280653266331658</v>
+        <v>9.260804020100501</v>
       </c>
       <c r="B123" t="n">
-        <v>5.602127399030304e-08</v>
+        <v>5.612197763942686e-08</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5086440813326303</v>
+        <v>0.5073440199104264</v>
       </c>
       <c r="D123" t="n">
-        <v>9.356796669242788</v>
+        <v>9.333897040298774</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>9.315075376884423</v>
+        <v>9.295477386934673</v>
       </c>
       <c r="B124" t="n">
-        <v>5.585288569227374e-08</v>
+        <v>5.594782811767055e-08</v>
       </c>
       <c r="C124" t="n">
-        <v>0.510929989299142</v>
+        <v>0.5096234557858405</v>
       </c>
       <c r="D124" t="n">
-        <v>9.395956258075111</v>
+        <v>9.374034189975806</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>9.349497487437187</v>
+        <v>9.330150753768844</v>
       </c>
       <c r="B125" t="n">
-        <v>5.569170535606333e-08</v>
+        <v>5.578130832668373e-08</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5132541175661003</v>
+        <v>0.5119423988002603</v>
       </c>
       <c r="D125" t="n">
-        <v>9.433899407173588</v>
+        <v>9.412938562724754</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9.383919597989951</v>
+        <v>9.364824120603014</v>
       </c>
       <c r="B126" t="n">
-        <v>5.553799761822911e-08</v>
+        <v>5.562247758643252e-08</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5156180172447024</v>
+        <v>0.5143024420982655</v>
       </c>
       <c r="D126" t="n">
-        <v>9.4706778252304</v>
+        <v>9.450661500480114</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9.418341708542714</v>
+        <v>9.399497487437186</v>
       </c>
       <c r="B127" t="n">
-        <v>5.539110951329559e-08</v>
+        <v>5.547079040073327e-08</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5180194604245394</v>
+        <v>0.5167008087556456</v>
       </c>
       <c r="D127" t="n">
-        <v>9.506269067817675</v>
+        <v>9.487173309663556</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>9.452763819095477</v>
+        <v>9.434170854271358</v>
       </c>
       <c r="B128" t="n">
-        <v>5.525097075131801e-08</v>
+        <v>5.532575421033334e-08</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5204583785779233</v>
+        <v>0.519136274986453</v>
       </c>
       <c r="D128" t="n">
-        <v>9.540693714325169</v>
+        <v>9.522471272656844</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>9.487185929648241</v>
+        <v>9.468844221105527</v>
       </c>
       <c r="B129" t="n">
-        <v>5.511735795778657e-08</v>
+        <v>5.518773899806298e-08</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5229341323921054</v>
+        <v>0.5216104800226661</v>
       </c>
       <c r="D129" t="n">
-        <v>9.57395970200724</v>
+        <v>9.55660985386808</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>9.521608040201006</v>
+        <v>9.503517587939697</v>
       </c>
       <c r="B130" t="n">
-        <v>5.499021146952358e-08</v>
+        <v>5.505624925434906e-08</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5254464482263763</v>
+        <v>0.5241218399905195</v>
       </c>
       <c r="D130" t="n">
-        <v>9.606083389131046</v>
+        <v>9.589578498522128</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>9.55603015075377</v>
+        <v>9.538190954773869</v>
       </c>
       <c r="B131" t="n">
-        <v>5.486922205743747e-08</v>
+        <v>5.493115938575832e-08</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5279957295110739</v>
+        <v>0.5266702366542266</v>
       </c>
       <c r="D131" t="n">
-        <v>9.637093906728156</v>
+        <v>9.621396338669257</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>9.590452261306533</v>
+        <v>9.572864321608041</v>
       </c>
       <c r="B132" t="n">
-        <v>5.475426121882988e-08</v>
+        <v>5.481225004447454e-08</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5305803812421425</v>
+        <v>0.5292551840890681</v>
       </c>
       <c r="D132" t="n">
-        <v>9.666979513301627</v>
+        <v>9.652075781802445</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>9.624874371859297</v>
+        <v>9.607537688442211</v>
       </c>
       <c r="B133" t="n">
-        <v>5.46448876408885e-08</v>
+        <v>5.469916266127475e-08</v>
       </c>
       <c r="C133" t="n">
-        <v>0.5331984930596647</v>
+        <v>0.53187467988617</v>
       </c>
       <c r="D133" t="n">
-        <v>9.695721858486184</v>
+        <v>9.681596970477033</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9.65929648241206</v>
+        <v>9.64221105527638</v>
       </c>
       <c r="B134" t="n">
-        <v>5.454183359115678e-08</v>
+        <v>5.459227023187501e-08</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5358565434623338</v>
+        <v>0.5345327726709992</v>
       </c>
       <c r="D134" t="n">
-        <v>9.723474025397101</v>
+        <v>9.710063159620336</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>9.693718592964824</v>
+        <v>9.676884422110552</v>
       </c>
       <c r="B135" t="n">
-        <v>5.444458342162967e-08</v>
+        <v>5.449080789182002e-08</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5385514704520258</v>
+        <v>0.5372240403941949</v>
       </c>
       <c r="D135" t="n">
-        <v>9.750194363938084</v>
+        <v>9.737384107884786</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9.728140703517589</v>
+        <v>9.711557788944724</v>
       </c>
       <c r="B136" t="n">
-        <v>5.435169780367446e-08</v>
+        <v>5.439531083639108e-08</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5412725728804559</v>
+        <v>0.5399537724157183</v>
       </c>
       <c r="D136" t="n">
-        <v>9.775680157447521</v>
+        <v>9.763689648796781</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9.762562814070353</v>
+        <v>9.746231155778894</v>
       </c>
       <c r="B137" t="n">
-        <v>5.426465918801022e-08</v>
+        <v>5.430510415672489e-08</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5440328635497402</v>
+        <v>0.5427176080787082</v>
       </c>
       <c r="D137" t="n">
-        <v>9.800222281381856</v>
+        <v>9.78891022445306</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>9.796984924623116</v>
+        <v>9.780904522613065</v>
       </c>
       <c r="B138" t="n">
-        <v>5.418244794974006e-08</v>
+        <v>5.422023209823133e-08</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5468243269842871</v>
+        <v>0.5455161613879324</v>
       </c>
       <c r="D138" t="n">
-        <v>9.823672196636133</v>
+        <v>9.813078251999977</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>9.831407035175879</v>
+        <v>9.815577889447237</v>
       </c>
       <c r="B139" t="n">
-        <v>5.41056065815457e-08</v>
+        <v>5.414045547461432e-08</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5496526778405277</v>
+        <v>0.5483489441768352</v>
       </c>
       <c r="D139" t="n">
-        <v>9.846170606411022</v>
+        <v>9.836204230628814</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>9.865829145728643</v>
+        <v>9.850251256281407</v>
       </c>
       <c r="B140" t="n">
-        <v>5.403354902166584e-08</v>
+        <v>5.406562766036261e-08</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5525135910037332</v>
+        <v>0.5512149084312669</v>
       </c>
       <c r="D140" t="n">
-        <v>9.867645298856164</v>
+        <v>9.858285253135502</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9.900251256281408</v>
+        <v>9.884924623115577</v>
       </c>
       <c r="B141" t="n">
-        <v>5.396632639223265e-08</v>
+        <v>5.399570807615619e-08</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5554080108545683</v>
+        <v>0.5541153146184352</v>
       </c>
       <c r="D141" t="n">
-        <v>9.8881350357806</v>
+        <v>9.879367784364296</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>9.934673366834172</v>
+        <v>9.919597989949748</v>
       </c>
       <c r="B142" t="n">
-        <v>5.39036363826529e-08</v>
+        <v>5.393053357866195e-08</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5583349139213749</v>
+        <v>0.5570491687638136</v>
       </c>
       <c r="D142" t="n">
-        <v>9.907636970129227</v>
+        <v>9.899449636597787</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>9.969095477386935</v>
+        <v>9.95427135678392</v>
       </c>
       <c r="B143" t="n">
-        <v>5.384543478338041e-08</v>
+        <v>5.386995827266723e-08</v>
       </c>
       <c r="C143" t="n">
-        <v>0.5612942950776106</v>
+        <v>0.5600157416393423</v>
       </c>
       <c r="D143" t="n">
-        <v>9.926170170206829</v>
+        <v>9.918535440707505</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>10.0035175879397</v>
+        <v>9.98894472361809</v>
       </c>
       <c r="B144" t="n">
-        <v>5.379171266792998e-08</v>
+        <v>5.381400868856497e-08</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5642862305585503</v>
+        <v>0.5630156635037071</v>
       </c>
       <c r="D144" t="n">
-        <v>9.943754413012119</v>
+        <v>9.936657083504858</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>10.03793969849246</v>
+        <v>10.02361809045226</v>
       </c>
       <c r="B145" t="n">
-        <v>5.374237076797328e-08</v>
+        <v>5.376243658582135e-08</v>
       </c>
       <c r="C145" t="n">
-        <v>0.5673103830134214</v>
+        <v>0.5660488055541135</v>
       </c>
       <c r="D145" t="n">
-        <v>9.960400901557611</v>
+        <v>9.953831015446656</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>10.07236180904523</v>
+        <v>10.05829145728643</v>
       </c>
       <c r="B146" t="n">
-        <v>5.369661961427412e-08</v>
+        <v>5.371451409706204e-08</v>
       </c>
       <c r="C146" t="n">
-        <v>0.5703621286859348</v>
+        <v>0.569108488215434</v>
       </c>
       <c r="D146" t="n">
-        <v>9.976026093982274</v>
+        <v>9.969929649291213</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>10.10678391959799</v>
+        <v>10.0929648241206</v>
       </c>
       <c r="B147" t="n">
-        <v>5.365580015896273e-08</v>
+        <v>5.367173808462835e-08</v>
       </c>
       <c r="C147" t="n">
-        <v>0.5734522572375552</v>
+        <v>0.5722081094382226</v>
       </c>
       <c r="D147" t="n">
-        <v>9.990885243439969</v>
+        <v>9.985264142227747</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>10.14120603015076</v>
+        <v>10.12763819095477</v>
       </c>
       <c r="B148" t="n">
-        <v>5.361890529604374e-08</v>
+        <v>5.363310318106813e-08</v>
       </c>
       <c r="C148" t="n">
-        <v>0.5765729671892242</v>
+        <v>0.575340178985728</v>
       </c>
       <c r="D148" t="n">
-        <v>10.00482450834035</v>
+        <v>9.999690633123684</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>10.17562814070352</v>
+        <v>10.16231155778894</v>
       </c>
       <c r="B149" t="n">
-        <v>5.358579644419353e-08</v>
+        <v>5.359817878462089e-08</v>
       </c>
       <c r="C149" t="n">
-        <v>0.5797241170455478</v>
+        <v>0.5785015216557651</v>
       </c>
       <c r="D149" t="n">
-        <v>10.01785867709218</v>
+        <v>10.0131552737102</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>10.21005025125628</v>
+        <v>10.19698492462312</v>
       </c>
       <c r="B150" t="n">
-        <v>5.355657289915781e-08</v>
+        <v>5.356716009016781e-08</v>
       </c>
       <c r="C150" t="n">
-        <v>0.5829069322796602</v>
+        <v>0.5816947757086199</v>
       </c>
       <c r="D150" t="n">
-        <v>10.0300312407214</v>
+        <v>10.02573475192811</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>10.24447236180904</v>
+        <v>10.23165829145729</v>
       </c>
       <c r="B151" t="n">
-        <v>5.353098418299721e-08</v>
+        <v>5.354006447364095e-08</v>
       </c>
       <c r="C151" t="n">
-        <v>0.5861195876276764</v>
+        <v>0.584919911686872</v>
       </c>
       <c r="D151" t="n">
-        <v>10.04132057712096</v>
+        <v>10.0374464190678</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>10.27889447236181</v>
+        <v>10.26633165829146</v>
       </c>
       <c r="B152" t="n">
-        <v>5.350912381716655e-08</v>
+        <v>5.351667530658424e-08</v>
       </c>
       <c r="C152" t="n">
-        <v>0.5893634344077072</v>
+        <v>0.588175973310882</v>
       </c>
       <c r="D152" t="n">
-        <v>10.05177172546387</v>
+        <v>10.048285786897</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>10.31331658291457</v>
+        <v>10.30100502512563</v>
       </c>
       <c r="B153" t="n">
-        <v>5.349090495086435e-08</v>
+        <v>5.349699199038121e-08</v>
       </c>
       <c r="C153" t="n">
-        <v>0.5926384397325626</v>
+        <v>0.5914633860570929</v>
       </c>
       <c r="D153" t="n">
-        <v>10.06140217192797</v>
+        <v>10.05827947454548</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>10.34773869346734</v>
+        <v>10.3356783919598</v>
       </c>
       <c r="B154" t="n">
-        <v>5.347607926727369e-08</v>
+        <v>5.348085244852898e-08</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5959427857507053</v>
+        <v>0.5947813970681346</v>
       </c>
       <c r="D154" t="n">
-        <v>10.07018733612736</v>
+        <v>10.06742847637832</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>10.3821608040201</v>
+        <v>10.37035175879397</v>
       </c>
       <c r="B155" t="n">
-        <v>5.34643478376394e-08</v>
+        <v>5.346823929828389e-08</v>
       </c>
       <c r="C155" t="n">
-        <v>0.5992740195861354</v>
+        <v>0.5981303844700703</v>
       </c>
       <c r="D155" t="n">
-        <v>10.07808835599526</v>
+        <v>10.07575771701997</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10.41658291457286</v>
+        <v>10.40502512562814</v>
       </c>
       <c r="B156" t="n">
-        <v>5.345671447542249e-08</v>
+        <v>5.345901187761352e-08</v>
       </c>
       <c r="C156" t="n">
-        <v>0.6026428484306583</v>
+        <v>0.6015093272554027</v>
       </c>
       <c r="D156" t="n">
-        <v>10.08536214921014</v>
+        <v>10.08326062731877</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>10.45100502512563</v>
+        <v>10.43969849246231</v>
       </c>
       <c r="B157" t="n">
-        <v>5.345210884037319e-08</v>
+        <v>5.345328536912401e-08</v>
       </c>
       <c r="C157" t="n">
-        <v>0.6060385632297179</v>
+        <v>0.6049200323802764</v>
       </c>
       <c r="D157" t="n">
-        <v>10.09178402246203</v>
+        <v>10.08999456521279</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10.48542713567839</v>
+        <v>10.47437185929648</v>
       </c>
       <c r="B158" t="n">
-        <v>5.345068640912606e-08</v>
+        <v>5.345079918129096e-08</v>
       </c>
       <c r="C158" t="n">
-        <v>0.6094638436203066</v>
+        <v>0.6083605824976739</v>
       </c>
       <c r="D158" t="n">
-        <v>10.09742966236545</v>
+        <v>10.09593236016661</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10.51984924623116</v>
+        <v>10.50904522613065</v>
       </c>
       <c r="B159" t="n">
-        <v>5.345242257129447e-08</v>
+        <v>5.345154641419794e-08</v>
       </c>
       <c r="C159" t="n">
-        <v>0.6129187180000629</v>
+        <v>0.6118313269584919</v>
       </c>
       <c r="D159" t="n">
-        <v>10.10231585755071</v>
+        <v>10.10109791960959</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>10.55427135678392</v>
+        <v>10.54371859296482</v>
       </c>
       <c r="B160" t="n">
-        <v>5.345693134960766e-08</v>
+        <v>5.345531261473532e-08</v>
       </c>
       <c r="C160" t="n">
-        <v>0.6164006890079562</v>
+        <v>0.615330808678006</v>
       </c>
       <c r="D160" t="n">
-        <v>10.10640099273538</v>
+        <v>10.10547446597064</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>10.58869346733668</v>
+        <v>10.578391959799</v>
       </c>
       <c r="B161" t="n">
-        <v>5.346514062339488e-08</v>
+        <v>5.346247321063495e-08</v>
       </c>
       <c r="C161" t="n">
-        <v>0.6199176149488431</v>
+        <v>0.6188629260189302</v>
       </c>
       <c r="D161" t="n">
-        <v>10.10987848622646</v>
+        <v>10.10916521545116</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>10.62311557788945</v>
+        <v>10.61306532663317</v>
       </c>
       <c r="B162" t="n">
-        <v>5.347598339360963e-08</v>
+        <v>5.347250238489926e-08</v>
       </c>
       <c r="C162" t="n">
-        <v>0.6234606749239192</v>
+        <v>0.6224231575241252</v>
       </c>
       <c r="D162" t="n">
-        <v>10.11256305327248</v>
+        <v>10.11208334708313</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>10.65753768844221</v>
+        <v>10.64773869346734</v>
       </c>
       <c r="B163" t="n">
-        <v>5.348969524181368e-08</v>
+        <v>5.348550189500665e-08</v>
       </c>
       <c r="C163" t="n">
-        <v>0.6270328850581492</v>
+        <v>0.6260129441708696</v>
       </c>
       <c r="D163" t="n">
-        <v>10.11454038434688</v>
+        <v>10.11427914509408</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>10.69195979899498</v>
+        <v>10.68241206030151</v>
       </c>
       <c r="B164" t="n">
-        <v>5.350632968347994e-08</v>
+        <v>5.35014362073409e-08</v>
       </c>
       <c r="C164" t="n">
-        <v>0.6306342525489599</v>
+        <v>0.6296325854774308</v>
       </c>
       <c r="D164" t="n">
-        <v>10.11581962425664</v>
+        <v>10.11576805580584</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>10.72638190954774</v>
+        <v>10.71708542713568</v>
       </c>
       <c r="B165" t="n">
-        <v>5.352561669569926e-08</v>
+        <v>5.35202348066398e-08</v>
       </c>
       <c r="C165" t="n">
-        <v>0.6342635840545433</v>
+        <v>0.6332812478183635</v>
       </c>
       <c r="D165" t="n">
-        <v>10.11639337396515</v>
+        <v>10.11655226188855</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>10.7608040201005</v>
+        <v>10.75175879396985</v>
       </c>
       <c r="B166" t="n">
-        <v>5.354795441763318e-08</v>
+        <v>5.354169066116315e-08</v>
       </c>
       <c r="C166" t="n">
-        <v>0.6379242321053331</v>
+        <v>0.6369582786328642</v>
       </c>
       <c r="D166" t="n">
-        <v>10.11635047525524</v>
+        <v>10.11662854591908</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>10.79522613065327</v>
+        <v>10.78643216080402</v>
       </c>
       <c r="B167" t="n">
-        <v>5.357280933707017e-08</v>
+        <v>5.356651293334118e-08</v>
       </c>
       <c r="C167" t="n">
-        <v>0.641611903114466</v>
+        <v>0.6406699541649065</v>
       </c>
       <c r="D167" t="n">
-        <v>10.11560906178578</v>
+        <v>10.1161563839642</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>10.82964824120603</v>
+        <v>10.82110552763819</v>
       </c>
       <c r="B168" t="n">
-        <v>5.360031377473353e-08</v>
+        <v>5.35932548507097e-08</v>
       </c>
       <c r="C168" t="n">
-        <v>0.6453281688572665</v>
+        <v>0.6444034054746773</v>
       </c>
       <c r="D168" t="n">
-        <v>10.11421351510051</v>
+        <v>10.11485397591705</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>10.86407035175879</v>
+        <v>10.85577889447236</v>
       </c>
       <c r="B169" t="n">
-        <v>5.363088650723893e-08</v>
+        <v>5.362300653815544e-08</v>
       </c>
       <c r="C169" t="n">
-        <v>0.6490773220597381</v>
+        <v>0.648168931689669</v>
       </c>
       <c r="D169" t="n">
-        <v>10.11227863118244</v>
+        <v>10.11297152298168</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>10.89849246231156</v>
+        <v>10.89045226130653</v>
       </c>
       <c r="B170" t="n">
-        <v>5.366308336681576e-08</v>
+        <v>5.36551225735792e-08</v>
       </c>
       <c r="C170" t="n">
-        <v>0.6528458731631541</v>
+        <v>0.6519609976879691</v>
       </c>
       <c r="D170" t="n">
-        <v>10.10951189477507</v>
+        <v>10.11039731420584</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>10.93291457286432</v>
+        <v>10.9251256281407</v>
       </c>
       <c r="B171" t="n">
-        <v>5.369834009746074e-08</v>
+        <v>5.368967124202757e-08</v>
       </c>
       <c r="C171" t="n">
-        <v>0.6566479678673199</v>
+        <v>0.6557805918808907</v>
       </c>
       <c r="D171" t="n">
-        <v>10.1062480793174</v>
+        <v>10.10716701691747</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>10.96733668341709</v>
+        <v>10.95979899497488</v>
       </c>
       <c r="B172" t="n">
-        <v>5.37359367193612e-08</v>
+        <v>5.372748860114092e-08</v>
       </c>
       <c r="C172" t="n">
-        <v>0.6604772765359411</v>
+        <v>0.6596362631729693</v>
       </c>
       <c r="D172" t="n">
-        <v>10.10235555484424</v>
+        <v>10.10348835333926</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>11.00175879396985</v>
+        <v>10.99447236180904</v>
       </c>
       <c r="B173" t="n">
-        <v>5.377605106856655e-08</v>
+        <v>5.376741802240939e-08</v>
       </c>
       <c r="C173" t="n">
-        <v>0.6643355371516723</v>
+        <v>0.6635166262345311</v>
       </c>
       <c r="D173" t="n">
-        <v>10.09788719723237</v>
+        <v>10.09911618697472</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>11.03618090452261</v>
+        <v>11.02914572864321</v>
       </c>
       <c r="B174" t="n">
-        <v>5.381853136859165e-08</v>
+        <v>5.380966531683118e-08</v>
       </c>
       <c r="C174" t="n">
-        <v>0.6682214272748547</v>
+        <v>0.6674251984907654</v>
       </c>
       <c r="D174" t="n">
-        <v>10.09282514257008</v>
+        <v>10.09414325706836</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>11.07060301507538</v>
+        <v>11.06381909547739</v>
       </c>
       <c r="B175" t="n">
-        <v>5.386325701633002e-08</v>
+        <v>5.385440133164922e-08</v>
       </c>
       <c r="C175" t="n">
-        <v>0.6721344315811991</v>
+        <v>0.6713624270365577</v>
       </c>
       <c r="D175" t="n">
-        <v>10.08716878311002</v>
+        <v>10.08859030718173</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>11.10502512562814</v>
+        <v>11.09849246231156</v>
       </c>
       <c r="B176" t="n">
-        <v>5.39104544612621e-08</v>
+        <v>5.390141191834721e-08</v>
       </c>
       <c r="C176" t="n">
-        <v>0.6760766455604443</v>
+        <v>0.6753275636645624</v>
       </c>
       <c r="D176" t="n">
-        <v>10.08098534712319</v>
+        <v>10.08246045875206</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>11.1394472361809</v>
+        <v>11.13316582914573</v>
       </c>
       <c r="B177" t="n">
-        <v>5.395983272546763e-08</v>
+        <v>5.395066378177503e-08</v>
       </c>
       <c r="C177" t="n">
-        <v>0.6800464356506453</v>
+        <v>0.6793198572370017</v>
       </c>
       <c r="D177" t="n">
-        <v>10.07424265826997</v>
+        <v>10.07574289294243</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>11.17386934673367</v>
+        <v>11.1678391959799</v>
       </c>
       <c r="B178" t="n">
-        <v>5.401139443518309e-08</v>
+        <v>5.400219791690353e-08</v>
       </c>
       <c r="C178" t="n">
-        <v>0.684043169120244</v>
+        <v>0.6833410667762834</v>
       </c>
       <c r="D178" t="n">
-        <v>10.06694044550532</v>
+        <v>10.06849084556405</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>11.20829145728643</v>
+        <v>11.20251256281407</v>
       </c>
       <c r="B179" t="n">
-        <v>5.406520706857218e-08</v>
+        <v>5.405601196471457e-08</v>
       </c>
       <c r="C179" t="n">
-        <v>0.6880678593168312</v>
+        <v>0.6873903665337241</v>
       </c>
       <c r="D179" t="n">
-        <v>10.05911400114724</v>
+        <v>10.06069840504486</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>11.2427135678392</v>
+        <v>11.23718592964824</v>
       </c>
       <c r="B180" t="n">
-        <v>5.412115343793242e-08</v>
+        <v>5.411201314345377e-08</v>
       </c>
       <c r="C180" t="n">
-        <v>0.6921201653636074</v>
+        <v>0.6914676163894753</v>
       </c>
       <c r="D180" t="n">
-        <v>10.05076864326337</v>
+        <v>10.05237687056273</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>11.27713567839196</v>
+        <v>11.27185929648241</v>
       </c>
       <c r="B181" t="n">
-        <v>5.417889647138875e-08</v>
+        <v>5.41701340948285e-08</v>
       </c>
       <c r="C181" t="n">
-        <v>0.6961965336522107</v>
+        <v>0.6955722357862183</v>
       </c>
       <c r="D181" t="n">
-        <v>10.0418329476686</v>
+        <v>10.04351986345847</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>11.31155778894473</v>
+        <v>11.30653266331658</v>
       </c>
       <c r="B182" t="n">
-        <v>5.423925046155759e-08</v>
+        <v>5.423027582393132e-08</v>
       </c>
       <c r="C182" t="n">
-        <v>0.7003059101811611</v>
+        <v>0.6997039690429387</v>
       </c>
       <c r="D182" t="n">
-        <v>10.03252140265842</v>
+        <v>10.03413600090175</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>11.34597989949749</v>
+        <v>11.34120603015075</v>
       </c>
       <c r="B183" t="n">
-        <v>5.430129143289244e-08</v>
+        <v>5.429253957439403e-08</v>
       </c>
       <c r="C183" t="n">
-        <v>0.7044383912885989</v>
+        <v>0.7038634608541643</v>
       </c>
       <c r="D183" t="n">
-        <v>10.02262346575111</v>
+        <v>10.02425194246797</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>11.38040201005025</v>
+        <v>11.37587939698492</v>
       </c>
       <c r="B184" t="n">
-        <v>5.436538648093589e-08</v>
+        <v>5.435687903913383e-08</v>
       </c>
       <c r="C184" t="n">
-        <v>0.7085987170020732</v>
+        <v>0.7080507361402517</v>
       </c>
       <c r="D184" t="n">
-        <v>10.01225518618017</v>
+        <v>10.01387986047787</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>11.41482412060301</v>
+        <v>11.41055276381909</v>
       </c>
       <c r="B185" t="n">
-        <v>5.44315124849688e-08</v>
+        <v>5.442330156122994e-08</v>
       </c>
       <c r="C185" t="n">
-        <v>0.7127864563968636</v>
+        <v>0.712266456730154</v>
       </c>
       <c r="D185" t="n">
-        <v>10.00141607763655</v>
+        <v>10.00304270294301</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>11.44924623115578</v>
+        <v>11.44522613065327</v>
       </c>
       <c r="B186" t="n">
-        <v>5.449999246630633e-08</v>
+        <v>5.449193463391258e-08</v>
       </c>
       <c r="C186" t="n">
-        <v>0.7170056367186276</v>
+        <v>0.7165119459882737</v>
       </c>
       <c r="D186" t="n">
-        <v>9.990212724950801</v>
+        <v>9.991786021726623</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>11.48366834170854</v>
+        <v>11.47989949748744</v>
       </c>
       <c r="B187" t="n">
-        <v>5.457006116645506e-08</v>
+        <v>5.456234474871302e-08</v>
       </c>
       <c r="C187" t="n">
-        <v>0.7212481416299729</v>
+        <v>0.7207823504646097</v>
       </c>
       <c r="D187" t="n">
-        <v>9.978470972748605</v>
+        <v>9.980012609997399</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>11.51809045226131</v>
+        <v>11.51457286432161</v>
       </c>
       <c r="B188" t="n">
-        <v>5.46420531077009e-08</v>
+        <v>5.463466390619764e-08</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7255176743360223</v>
+        <v>0.7250808099250333</v>
       </c>
       <c r="D188" t="n">
-        <v>9.966285848539698</v>
+        <v>9.967797704236553</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>11.55251256281407</v>
+        <v>11.54924623115578</v>
       </c>
       <c r="B189" t="n">
-        <v>5.471589632964632e-08</v>
+        <v>5.470877969825613e-08</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7298137670266138</v>
+        <v>0.7294049452863339</v>
       </c>
       <c r="D189" t="n">
-        <v>9.953654795433405</v>
+        <v>9.955102938900239</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>11.58693467336683</v>
+        <v>11.58391959798995</v>
       </c>
       <c r="B190" t="n">
-        <v>5.479155346887673e-08</v>
+        <v>5.478485075773213e-08</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7341368668456005</v>
+        <v>0.7337573275906365</v>
       </c>
       <c r="D190" t="n">
-        <v>9.94059800893398</v>
+        <v>9.941994141683159</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>11.6213567839196</v>
+        <v>11.61859296482412</v>
       </c>
       <c r="B191" t="n">
-        <v>5.486906321334659e-08</v>
+        <v>5.486276921194083e-08</v>
       </c>
       <c r="C191" t="n">
-        <v>0.7384866964453388</v>
+        <v>0.7381364521765894</v>
       </c>
       <c r="D191" t="n">
-        <v>9.927120033975703</v>
+        <v>9.928449433151483</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>11.65577889447236</v>
+        <v>11.65326633165829</v>
       </c>
       <c r="B192" t="n">
-        <v>5.494856217249094e-08</v>
+        <v>5.494267219954482e-08</v>
       </c>
       <c r="C192" t="n">
-        <v>0.7428655725494639</v>
+        <v>0.7425447554083378</v>
       </c>
       <c r="D192" t="n">
-        <v>9.913283412434961</v>
+        <v>9.914532621988718</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>11.69020100502513</v>
+        <v>11.68793969849246</v>
       </c>
       <c r="B193" t="n">
-        <v>5.502938969924281e-08</v>
+        <v>5.502397122197662e-08</v>
       </c>
       <c r="C193" t="n">
-        <v>0.747265947574379</v>
+        <v>0.7469755928704918</v>
       </c>
       <c r="D193" t="n">
-        <v>9.898930757648342</v>
+        <v>9.900106821810892</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>11.72462311557789</v>
+        <v>11.72261306532663</v>
       </c>
       <c r="B194" t="n">
-        <v>5.511215303661845e-08</v>
+        <v>5.510731815668191e-08</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7516953796788038</v>
+        <v>0.7514363105602287</v>
       </c>
       <c r="D194" t="n">
-        <v>9.884236715366319</v>
+        <v>9.885344215336382</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>11.75904522613065</v>
+        <v>11.7572864321608</v>
       </c>
       <c r="B195" t="n">
-        <v>5.519642846735792e-08</v>
+        <v>5.519210832874245e-08</v>
       </c>
       <c r="C195" t="n">
-        <v>0.7561488259079467</v>
+        <v>0.7559208899819432</v>
       </c>
       <c r="D195" t="n">
-        <v>9.869102509972571</v>
+        <v>9.8701188490462</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>11.79346733668342</v>
+        <v>11.79195979899497</v>
       </c>
       <c r="B196" t="n">
-        <v>5.528294159125876e-08</v>
+        <v>5.527913901555298e-08</v>
       </c>
       <c r="C196" t="n">
-        <v>0.7606348560639724</v>
+        <v>0.7604379790800924</v>
       </c>
       <c r="D196" t="n">
-        <v>9.853723253263889</v>
+        <v>9.854639580169552</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>11.82788944723618</v>
+        <v>11.82663316582915</v>
       </c>
       <c r="B197" t="n">
-        <v>5.537085725110188e-08</v>
+        <v>5.536762700837411e-08</v>
       </c>
       <c r="C197" t="n">
-        <v>0.7651441961049286</v>
+        <v>0.7649790217445168</v>
       </c>
       <c r="D197" t="n">
-        <v>9.837906828722495</v>
+        <v>9.838718013333136</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>11.86231155778895</v>
+        <v>11.86130653266332</v>
       </c>
       <c r="B198" t="n">
-        <v>5.546025324786668e-08</v>
+        <v>5.545763207141265e-08</v>
       </c>
       <c r="C198" t="n">
-        <v>0.7696781493081604</v>
+        <v>0.7695455041880255</v>
       </c>
       <c r="D198" t="n">
-        <v>9.821689561914463</v>
+        <v>9.822401686111863</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>11.89673366834171</v>
+        <v>11.89597989949749</v>
       </c>
       <c r="B199" t="n">
-        <v>5.555149607973061e-08</v>
+        <v>5.554947563671672e-08</v>
       </c>
       <c r="C199" t="n">
-        <v>0.7742406987989278</v>
+        <v>0.7741404081194304</v>
       </c>
       <c r="D199" t="n">
-        <v>9.805167750752702</v>
+        <v>9.805761665012128</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>11.93115577889447</v>
+        <v>11.93065326633166</v>
       </c>
       <c r="B200" t="n">
-        <v>5.56442450691994e-08</v>
+        <v>5.56428943981792e-08</v>
       </c>
       <c r="C200" t="n">
-        <v>0.7788283827918671</v>
+        <v>0.7787612181172971</v>
       </c>
       <c r="D200" t="n">
-        <v>9.78827512954539</v>
+        <v>9.788755373668975</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>11.96557788944724</v>
+        <v>11.96532663316583</v>
       </c>
       <c r="B201" t="n">
-        <v>5.573854053219245e-08</v>
+        <v>5.573788429094892e-08</v>
       </c>
       <c r="C201" t="n">
-        <v>0.7834419675961362</v>
+        <v>0.7834088198763979</v>
       </c>
       <c r="D201" t="n">
-        <v>9.771036377176545</v>
+        <v>9.771405457871172</v>
       </c>
     </row>
     <row r="202">
@@ -3195,7 +3195,7 @@
         <v>0.7880777123982869</v>
       </c>
       <c r="D202" t="n">
-        <v>9.753380803610298</v>
+        <v>9.753612079920634</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -362,7 +362,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>range=linspace(5.1,12.0,200)</t>
+          <t>range=linspace(5.07,12.0,200)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -400,13 +400,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5.1</v>
+        <v>5.07</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01144251692327199</v>
+        <v>0.2610655941682542</v>
       </c>
       <c r="C3" t="n">
-        <v>1137.51783718782</v>
+        <v>13892.20212576446</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -414,2774 +414,2774 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.13467336683417</v>
+        <v>5.104824120603015</v>
       </c>
       <c r="B4" t="n">
-        <v>0.001445211257589782</v>
+        <v>0.007986451081294267</v>
       </c>
       <c r="C4" t="n">
-        <v>242.3653611748811</v>
+        <v>865.8502214233921</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001352680740420803</v>
+        <v>1.39010560931967e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.169346733668341</v>
+        <v>5.13964824120603</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0003839959089785305</v>
+        <v>0.001156359443319252</v>
       </c>
       <c r="C5" t="n">
-        <v>92.3827111275241</v>
+        <v>205.8018201483233</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0007030838242582943</v>
+        <v>0.0001891465768780852</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.204020100502512</v>
+        <v>5.174472361809046</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0001477021032288825</v>
+        <v>0.0003273787987579854</v>
       </c>
       <c r="C6" t="n">
-        <v>46.59724618262027</v>
+        <v>82.35664683553485</v>
       </c>
       <c r="D6" t="n">
-        <v>0.002080009290842902</v>
+        <v>0.0008525558031547958</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.238693467336683</v>
+        <v>5.209296482412061</v>
       </c>
       <c r="B7" t="n">
-        <v>7.05731930289931e-05</v>
+        <v>0.0001304984034337591</v>
       </c>
       <c r="C7" t="n">
-        <v>27.6282045205298</v>
+        <v>42.67040289489498</v>
       </c>
       <c r="D7" t="n">
-        <v>0.004653345282316076</v>
+        <v>0.002389373996123186</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.273366834170854</v>
+        <v>5.244120603015076</v>
       </c>
       <c r="B8" t="n">
-        <v>3.882557175933499e-05</v>
+        <v>6.376349463752989e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>18.17876850940148</v>
+        <v>25.72482521475499</v>
       </c>
       <c r="D8" t="n">
-        <v>0.008801534740381903</v>
+        <v>0.005192159419829864</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.308040201005025</v>
+        <v>5.278944723618091</v>
       </c>
       <c r="B9" t="n">
-        <v>2.358016025676712e-05</v>
+        <v>3.562561155780546e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>12.85969326297668</v>
+        <v>17.12081689864341</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0148812821804236</v>
+        <v>0.009641054104186936</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.342713567839196</v>
+        <v>5.313768844221106</v>
       </c>
       <c r="B10" t="n">
-        <v>1.540233880678454e-05</v>
+        <v>2.187981887922334e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>9.593522788285869</v>
+        <v>12.21223356783441</v>
       </c>
       <c r="D10" t="n">
-        <v>0.02322026410621574</v>
+        <v>0.01609332001684191</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.377386934673367</v>
+        <v>5.348592964824121</v>
       </c>
       <c r="B11" t="n">
-        <v>1.06375368957518e-05</v>
+        <v>1.441344141917072e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>7.452814996732065</v>
+        <v>9.167824648379456</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03411667006940414</v>
+        <v>0.02487713369344265</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.412060301507537</v>
+        <v>5.383417085427136</v>
       </c>
       <c r="B12" t="n">
-        <v>7.677620814067921e-06</v>
+        <v>1.002176950975148e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>5.977094527089852</v>
+        <v>7.157117683448211</v>
       </c>
       <c r="D12" t="n">
-        <v>0.04783611988068607</v>
+        <v>0.03628919794971003</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.446733668341708</v>
+        <v>5.418241206030151</v>
       </c>
       <c r="B13" t="n">
-        <v>5.742506263376307e-06</v>
+        <v>7.272775028799711e-06</v>
       </c>
       <c r="C13" t="n">
-        <v>4.918671387896397</v>
+        <v>5.763156571829035</v>
       </c>
       <c r="D13" t="n">
-        <v>0.06460360363998843</v>
+        <v>0.05058806257290212</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.481407035175879</v>
+        <v>5.453065326633166</v>
       </c>
       <c r="B14" t="n">
-        <v>4.422967186175439e-06</v>
+        <v>5.464006701569416e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>4.133960562183072</v>
+        <v>4.758068077472005</v>
       </c>
       <c r="D14" t="n">
-        <v>0.08462087051488303</v>
+        <v>0.0680033016461033</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.51608040201005</v>
+        <v>5.487889447236181</v>
       </c>
       <c r="B15" t="n">
-        <v>3.491450807925407e-06</v>
+        <v>4.224319619504996e-06</v>
       </c>
       <c r="C15" t="n">
-        <v>3.536299239376136</v>
+        <v>4.009998108993782</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1080517773934709</v>
+        <v>0.08872803640307259</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.550753768844221</v>
+        <v>5.522713567839197</v>
       </c>
       <c r="B16" t="n">
-        <v>2.81437208799272e-06</v>
+        <v>3.345299558021924e-06</v>
       </c>
       <c r="C16" t="n">
-        <v>3.070688895414647</v>
+        <v>3.438326959006395</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1350278949535361</v>
+        <v>0.1129235888829862</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.585427135678391</v>
+        <v>5.557537688442212</v>
       </c>
       <c r="B17" t="n">
-        <v>2.309527385757343e-06</v>
+        <v>2.70386834011744e-06</v>
       </c>
       <c r="C17" t="n">
-        <v>2.700678630087985</v>
+        <v>2.991556406539253</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1656622705614622</v>
+        <v>0.1407231364935792</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.620100502512562</v>
+        <v>5.592361809045227</v>
       </c>
       <c r="B18" t="n">
-        <v>1.925149411178645e-06</v>
+        <v>2.224353477303669e-06</v>
       </c>
       <c r="C18" t="n">
-        <v>2.401832573920135</v>
+        <v>2.635851908225944</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2000251335309445</v>
+        <v>0.1722205273496618</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.654773869346734</v>
+        <v>5.627185929648242</v>
       </c>
       <c r="B19" t="n">
-        <v>1.626732483675073e-06</v>
+        <v>1.858070777840142e-06</v>
       </c>
       <c r="C19" t="n">
-        <v>2.156859839707961</v>
+        <v>2.3478554743079</v>
       </c>
       <c r="D19" t="n">
-        <v>0.238172813181996</v>
+        <v>0.2074951807718602</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.689447236180905</v>
+        <v>5.662010050251257</v>
       </c>
       <c r="B20" t="n">
-        <v>1.391276710975245e-06</v>
+        <v>1.573033431311292e-06</v>
       </c>
       <c r="C20" t="n">
-        <v>1.953526869956517</v>
+        <v>2.111345853263632</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2801304013352948</v>
+        <v>0.2465949695140267</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.724120603015075</v>
+        <v>5.696834170854272</v>
       </c>
       <c r="B21" t="n">
-        <v>1.202666418594067e-06</v>
+        <v>1.347592853158543e-06</v>
       </c>
       <c r="C21" t="n">
-        <v>1.782801367862747</v>
+        <v>1.914676155119861</v>
       </c>
       <c r="D21" t="n">
-        <v>0.325910811869095</v>
+        <v>0.2895447244610863</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.758793969849246</v>
+        <v>5.731658291457286</v>
       </c>
       <c r="B22" t="n">
-        <v>1.049621069058834e-06</v>
+        <v>1.166701621518793e-06</v>
       </c>
       <c r="C22" t="n">
-        <v>1.638028277664096</v>
+        <v>1.749318178074079</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3755011545660052</v>
+        <v>0.3363478481576129</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.793467336683417</v>
+        <v>5.766482412060302</v>
       </c>
       <c r="B23" t="n">
-        <v>9.239600462157105e-07</v>
+        <v>1.01959018952576e-06</v>
       </c>
       <c r="C23" t="n">
-        <v>1.514153786514721</v>
+        <v>1.608866950854005</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4288739557188972</v>
+        <v>0.3869972996824978</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.828140703517588</v>
+        <v>5.801306532663316</v>
       </c>
       <c r="B24" t="n">
-        <v>8.196915581680697e-07</v>
+        <v>8.987086539632325e-07</v>
       </c>
       <c r="C24" t="n">
-        <v>1.407332344846092</v>
+        <v>1.488624455428282</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4859797025631676</v>
+        <v>0.4414400428347607</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.862814070351758</v>
+        <v>5.836130653266332</v>
       </c>
       <c r="B25" t="n">
-        <v>7.323158471573569e-07</v>
+        <v>7.981897792335592e-07</v>
       </c>
       <c r="C25" t="n">
-        <v>1.314523553675818</v>
+        <v>1.384794753691663</v>
       </c>
       <c r="D25" t="n">
-        <v>0.5467653570728421</v>
+        <v>0.4996407454894753</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.897487437185929</v>
+        <v>5.870954773869347</v>
       </c>
       <c r="B26" t="n">
-        <v>6.584708151017929e-07</v>
+        <v>7.138766274539087e-07</v>
       </c>
       <c r="C26" t="n">
-        <v>1.233373241611371</v>
+        <v>1.294501754995876</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6111562784339208</v>
+        <v>0.5615378404409945</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.9321608040201</v>
+        <v>5.905778894472363</v>
       </c>
       <c r="B27" t="n">
-        <v>5.95553511352247e-07</v>
+        <v>6.42511792446677e-07</v>
       </c>
       <c r="C27" t="n">
-        <v>1.161985685126617</v>
+        <v>1.215477942447135</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6790736338526876</v>
+        <v>0.6270545604616223</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.966834170854271</v>
+        <v>5.940603015075377</v>
       </c>
       <c r="B28" t="n">
-        <v>5.415630092642572e-07</v>
+        <v>5.816565838040951e-07</v>
       </c>
       <c r="C28" t="n">
-        <v>1.098863727778912</v>
+        <v>1.145912970376324</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7504173897639583</v>
+        <v>0.6961044981739093</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>6.001507537688441</v>
+        <v>5.975427135678392</v>
       </c>
       <c r="B29" t="n">
-        <v>4.949092994816447e-07</v>
+        <v>5.293674548787364e-07</v>
       </c>
       <c r="C29" t="n">
-        <v>1.042758868135558</v>
+        <v>1.084341566791652</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8250943126377296</v>
+        <v>0.7685934585242375</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6.036180904522613</v>
+        <v>6.010251256281407</v>
       </c>
       <c r="B30" t="n">
-        <v>4.543498400762055e-07</v>
+        <v>4.841507191083802e-07</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9926688292924226</v>
+        <v>1.029596137487662</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9029938130192439</v>
+        <v>0.8444115537999698</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.070854271356784</v>
+        <v>6.045075376884422</v>
       </c>
       <c r="B31" t="n">
-        <v>4.188700704605839e-07</v>
+        <v>4.448012271603296e-07</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9477475699914018</v>
+        <v>0.9806867629053011</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9840099141632407</v>
+        <v>0.9234530559301681</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.105527638190955</v>
+        <v>6.079899497487437</v>
       </c>
       <c r="B32" t="n">
-        <v>3.877048850554325e-07</v>
+        <v>4.103645950166449e-07</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9073598240122013</v>
+        <v>0.9368156746752387</v>
       </c>
       <c r="D32" t="n">
-        <v>1.06799880242433</v>
+        <v>1.005601401514479</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.140201005025125</v>
+        <v>6.114723618090452</v>
       </c>
       <c r="B33" t="n">
-        <v>3.601659538429255e-07</v>
+        <v>3.80069992832561e-07</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8708703613042821</v>
+        <v>0.8973217861181574</v>
       </c>
       <c r="D33" t="n">
-        <v>1.154858985373482</v>
+        <v>1.09073003680301</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.174874371859296</v>
+        <v>6.149547738693467</v>
       </c>
       <c r="B34" t="n">
-        <v>3.35717394945406e-07</v>
+        <v>3.532899684017996e-07</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8378139231844813</v>
+        <v>0.8616403066037303</v>
       </c>
       <c r="D34" t="n">
-        <v>1.244458670827823</v>
+        <v>1.178715947312876</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6.209547738693467</v>
+        <v>6.184371859296482</v>
       </c>
       <c r="B35" t="n">
-        <v>3.139273831717664e-07</v>
+        <v>3.295024989587813e-07</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8077745010433727</v>
+        <v>0.8293022407913859</v>
       </c>
       <c r="D35" t="n">
-        <v>1.336668881290441</v>
+        <v>1.269429243870817</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6.244221105527638</v>
+        <v>6.219195979899498</v>
       </c>
       <c r="B36" t="n">
-        <v>2.944299601580523e-07</v>
+        <v>3.082875345704482e-07</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7804084342788686</v>
+        <v>0.7999075780787711</v>
       </c>
       <c r="D36" t="n">
-        <v>1.431355749850177</v>
+        <v>1.362738814640604</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.278894472361809</v>
+        <v>6.254020100502513</v>
       </c>
       <c r="B37" t="n">
-        <v>2.769120252698591e-07</v>
+        <v>2.892902400778218e-07</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7554081662124318</v>
+        <v>0.7731160746629243</v>
       </c>
       <c r="D37" t="n">
-        <v>1.528389736190113</v>
+        <v>1.458511531665342</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.313567839195979</v>
+        <v>6.288844221105528</v>
       </c>
       <c r="B38" t="n">
-        <v>2.611238948493778e-07</v>
+        <v>2.722152057987334e-07</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7325255944581852</v>
+        <v>0.7486356171678574</v>
       </c>
       <c r="D38" t="n">
-        <v>1.627631105059367</v>
+        <v>1.556613692356631</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6.348241206030151</v>
+        <v>6.323668341708543</v>
       </c>
       <c r="B39" t="n">
-        <v>2.468364053439688e-07</v>
+        <v>2.568109051070324e-07</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7115130162638863</v>
+        <v>0.7262134567333343</v>
       </c>
       <c r="D39" t="n">
-        <v>1.72896428548706</v>
+        <v>1.656910481265303</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6.382914572864321</v>
+        <v>6.358492462311558</v>
       </c>
       <c r="B40" t="n">
-        <v>2.338829709240788e-07</v>
+        <v>2.428807947699227e-07</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6922204728110648</v>
+        <v>0.7056505122120152</v>
       </c>
       <c r="D40" t="n">
-        <v>1.832226151488629</v>
+        <v>1.759256303603137</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6.417587939698493</v>
+        <v>6.393316582914573</v>
       </c>
       <c r="B41" t="n">
-        <v>2.220908618384325e-07</v>
+        <v>2.302296861987772e-07</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6744413344429451</v>
+        <v>0.6867343394532026</v>
       </c>
       <c r="D41" t="n">
-        <v>1.937309995264479</v>
+        <v>1.863531302108652</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6.452261306532663</v>
+        <v>6.428140703517588</v>
       </c>
       <c r="B42" t="n">
-        <v>2.113300836942764e-07</v>
+        <v>2.187127774809731e-07</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6580394060411096</v>
+        <v>0.6693099811002247</v>
       </c>
       <c r="D42" t="n">
-        <v>2.044076743461333</v>
+        <v>1.969595865600918</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6.486934673366834</v>
+        <v>6.462964824120603</v>
       </c>
       <c r="B43" t="n">
-        <v>2.014855686734389e-07</v>
+        <v>2.081988347390542e-07</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6428836348784317</v>
+        <v>0.6532329969990756</v>
       </c>
       <c r="D43" t="n">
-        <v>2.152398033103601</v>
+        <v>2.077319696816352</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6.521608040201005</v>
+        <v>6.497788944723618</v>
       </c>
       <c r="B44" t="n">
-        <v>1.924546206924137e-07</v>
+        <v>1.985758533909633e-07</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6288607976276818</v>
+        <v>0.6383787412152849</v>
       </c>
       <c r="D44" t="n">
-        <v>2.262145272760256</v>
+        <v>2.18656825503326</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6.556281407035176</v>
+        <v>6.532613065326633</v>
       </c>
       <c r="B45" t="n">
-        <v>1.841529712398704e-07</v>
+        <v>1.897451005174735e-07</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6158721364198231</v>
+        <v>0.6246318813376677</v>
       </c>
       <c r="D45" t="n">
-        <v>2.373193382149904</v>
+        <v>2.297218309849533</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6.590954773869346</v>
+        <v>6.567437185929649</v>
       </c>
       <c r="B46" t="n">
-        <v>1.765029661543721e-07</v>
+        <v>1.816243790690616e-07</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6038248494693951</v>
+        <v>0.6118970917987661</v>
       </c>
       <c r="D46" t="n">
-        <v>2.485420806522304</v>
+        <v>2.409141831959946</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6.625628140703517</v>
+        <v>6.602261306532664</v>
       </c>
       <c r="B47" t="n">
-        <v>1.694391053309963e-07</v>
+        <v>1.741381202266941e-07</v>
       </c>
       <c r="C47" t="n">
-        <v>0.5926393675387204</v>
+        <v>0.6000862421016008</v>
       </c>
       <c r="D47" t="n">
-        <v>2.598705118063644</v>
+        <v>2.52221115282302</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6.660301507537688</v>
+        <v>6.637085427135679</v>
       </c>
       <c r="B48" t="n">
-        <v>1.629033814849312e-07</v>
+        <v>1.672236410639823e-07</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5822452863717703</v>
+        <v>0.5891206177357553</v>
       </c>
       <c r="D48" t="n">
-        <v>2.712928947121212</v>
+        <v>2.636311103978463</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6.694974874371859</v>
+        <v>6.671909547738694</v>
       </c>
       <c r="B49" t="n">
-        <v>1.568437334070694e-07</v>
+        <v>1.608237055113519e-07</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5725805217692416</v>
+        <v>0.5789311365736257</v>
       </c>
       <c r="D49" t="n">
-        <v>2.827977107102059</v>
+        <v>2.751318818912609</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6.72964824120603</v>
+        <v>6.706733668341709</v>
       </c>
       <c r="B50" t="n">
-        <v>1.512173948953805e-07</v>
+        <v>1.548890309651844e-07</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5635856633784394</v>
+        <v>0.5694557083607397</v>
       </c>
       <c r="D50" t="n">
-        <v>2.943737144688532</v>
+        <v>2.867121016235469</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6.7643216080402</v>
+        <v>6.741557788944724</v>
       </c>
       <c r="B51" t="n">
-        <v>1.459819626019116e-07</v>
+        <v>1.493753340323702e-07</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5552082207030024</v>
+        <v>0.5606366190989258</v>
       </c>
       <c r="D51" t="n">
-        <v>3.060101273403563</v>
+        <v>2.983606656849306</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6.798994974874372</v>
+        <v>6.776381909547739</v>
       </c>
       <c r="B52" t="n">
-        <v>1.41104284049904e-07</v>
+        <v>1.442441722977742e-07</v>
       </c>
       <c r="C52" t="n">
-        <v>0.5474070395183898</v>
+        <v>0.552424581117106</v>
       </c>
       <c r="D52" t="n">
-        <v>3.176963539303236</v>
+        <v>3.100659754238517</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.833668341708543</v>
+        <v>6.811206030150754</v>
       </c>
       <c r="B53" t="n">
-        <v>1.365510108275713e-07</v>
+        <v>1.394652247100725e-07</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5401351857408995</v>
+        <v>0.5447875821157805</v>
       </c>
       <c r="D53" t="n">
-        <v>3.294219143883351</v>
+        <v>3.218181326101154</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6.868341708542713</v>
+        <v>6.846030150753769</v>
       </c>
       <c r="B54" t="n">
-        <v>1.322954931093618e-07</v>
+        <v>1.350012113699205e-07</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5333572092635879</v>
+        <v>0.5376642284346353</v>
       </c>
       <c r="D54" t="n">
-        <v>3.411768829623981</v>
+        <v>3.336062828407637</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6.903015075376884</v>
+        <v>6.880854271356784</v>
       </c>
       <c r="B55" t="n">
-        <v>1.28311599628842e-07</v>
+        <v>1.308275131546916e-07</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5270378116826852</v>
+        <v>0.5310255998271872</v>
       </c>
       <c r="D55" t="n">
-        <v>3.529518550296535</v>
+        <v>3.454206674228174</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6.937688442211055</v>
+        <v>6.915678391959799</v>
       </c>
       <c r="B56" t="n">
-        <v>1.245769781248957e-07</v>
+        <v>1.269196452407455e-07</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5211462178047869</v>
+        <v>0.5248387525228179</v>
       </c>
       <c r="D56" t="n">
-        <v>3.647374057415885</v>
+        <v>3.572515961021726</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6.972361809045226</v>
+        <v>6.950502512562815</v>
       </c>
       <c r="B57" t="n">
-        <v>1.210721037509009e-07</v>
+        <v>1.232560594091197e-07</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5156548252195594</v>
+        <v>0.5190722873311185</v>
       </c>
       <c r="D57" t="n">
-        <v>3.765242521385291</v>
+        <v>3.690899717889865</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>7.007035175879397</v>
+        <v>6.98532663316583</v>
       </c>
       <c r="B58" t="n">
-        <v>1.177774919248488e-07</v>
+        <v>1.198164033607766e-07</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5105354788732415</v>
+        <v>0.513698790693079</v>
       </c>
       <c r="D58" t="n">
-        <v>3.883041318366454</v>
+        <v>3.809265955432205</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7.041708542713567</v>
+        <v>7.020150753768845</v>
       </c>
       <c r="B59" t="n">
-        <v>1.146790695235765e-07</v>
+        <v>1.165833423545821e-07</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5057680282349118</v>
+        <v>0.5086928784749275</v>
       </c>
       <c r="D59" t="n">
-        <v>4.000688135440227</v>
+        <v>3.927528153503267</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7.076381909547738</v>
+        <v>7.05497487437186</v>
       </c>
       <c r="B60" t="n">
-        <v>1.11759037710515e-07</v>
+        <v>1.135410244974113e-07</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5013274911175698</v>
+        <v>0.5040313981387864</v>
       </c>
       <c r="D60" t="n">
-        <v>4.118101707282609</v>
+        <v>4.045606170780561</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7.11105527638191</v>
+        <v>7.089798994974874</v>
       </c>
       <c r="B61" t="n">
-        <v>1.090051277769563e-07</v>
+        <v>1.106746150761614e-07</v>
       </c>
       <c r="C61" t="n">
-        <v>0.497193555981432</v>
+        <v>0.4996930737337597</v>
       </c>
       <c r="D61" t="n">
-        <v>4.235198169311165</v>
+        <v>4.163417232330531</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7.14572864321608</v>
+        <v>7.12462311557789</v>
       </c>
       <c r="B62" t="n">
-        <v>1.064069983286372e-07</v>
+        <v>1.079713143572845e-07</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4933529357322515</v>
+        <v>0.4956583908009183</v>
       </c>
       <c r="D62" t="n">
-        <v>4.351917921036305</v>
+        <v>4.28088474922011</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7.180402010050251</v>
+        <v>7.159447236180904</v>
       </c>
       <c r="B63" t="n">
-        <v>1.039511436288203e-07</v>
+        <v>1.054188176645564e-07</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4897840378302121</v>
+        <v>0.4919092411379309</v>
       </c>
       <c r="D63" t="n">
-        <v>4.468179985327009</v>
+        <v>4.397937184595675</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7.215075376884421</v>
+        <v>7.19427135678392</v>
       </c>
       <c r="B64" t="n">
-        <v>1.016282448717327e-07</v>
+        <v>1.030066000750318e-07</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4864725007621633</v>
+        <v>0.4884289616351059</v>
       </c>
       <c r="D64" t="n">
-        <v>4.583920290233709</v>
+        <v>4.514503691675386</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>7.249748743718593</v>
+        <v>7.229095477386934</v>
       </c>
       <c r="B65" t="n">
-        <v>9.942785128165791e-08</v>
+        <v>1.007246135611999e-07</v>
       </c>
       <c r="C65" t="n">
-        <v>0.483400331735257</v>
+        <v>0.4852032602776574</v>
       </c>
       <c r="D65" t="n">
-        <v>4.699062594330316</v>
+        <v>4.630516090042466</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>7.284422110552764</v>
+        <v>7.26391959798995</v>
       </c>
       <c r="B66" t="n">
-        <v>9.734509494575531e-08</v>
+        <v>9.856399631046387e-08</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4805664021726411</v>
+        <v>0.4822177008608954</v>
       </c>
       <c r="D66" t="n">
-        <v>4.813579125122042</v>
+        <v>4.745913998856109</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>7.319095477386934</v>
+        <v>7.298743718592965</v>
       </c>
       <c r="B67" t="n">
-        <v>9.536899468023068e-08</v>
+        <v>9.651622742153359e-08</v>
       </c>
       <c r="C67" t="n">
-        <v>0.4779463751567563</v>
+        <v>0.479458296998496</v>
       </c>
       <c r="D67" t="n">
-        <v>4.927377029096526</v>
+        <v>4.860630459858806</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>7.353768844221105</v>
+        <v>7.333567839195981</v>
       </c>
       <c r="B68" t="n">
-        <v>9.349303374672105e-08</v>
+        <v>9.457412783393809e-08</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4755325814714703</v>
+        <v>0.4769141124845902</v>
       </c>
       <c r="D68" t="n">
-        <v>5.040410459618185</v>
+        <v>4.974610963306421</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>7.388442211055276</v>
+        <v>7.368391959798995</v>
       </c>
       <c r="B69" t="n">
-        <v>9.171099094838888e-08</v>
+        <v>9.27305404459943e-08</v>
       </c>
       <c r="C69" t="n">
-        <v>0.473313867437624</v>
+        <v>0.4745743622863621</v>
       </c>
       <c r="D69" t="n">
-        <v>5.152628337233964</v>
+        <v>5.08780033663994</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>7.423115577889448</v>
+        <v>7.403216080402011</v>
       </c>
       <c r="B70" t="n">
-        <v>9.001639852787914e-08</v>
+        <v>9.097893631023422e-08</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4712793771117103</v>
+        <v>0.4724272268887728</v>
       </c>
       <c r="D70" t="n">
-        <v>5.263968332601131</v>
+        <v>5.200144097398034</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>7.457788944723617</v>
+        <v>7.438040201005025</v>
       </c>
       <c r="B71" t="n">
-        <v>8.840652575123057e-08</v>
+        <v>8.931399415403254e-08</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4694308479274488</v>
+        <v>0.4704646258053039</v>
       </c>
       <c r="D71" t="n">
-        <v>5.374431572737103</v>
+        <v>5.311595623212146</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>7.492462311557789</v>
+        <v>7.472864321608041</v>
       </c>
       <c r="B72" t="n">
-        <v>8.687263845073401e-08</v>
+        <v>8.773003498453377e-08</v>
       </c>
       <c r="C72" t="n">
-        <v>0.467746352494925</v>
+        <v>0.4686764227851695</v>
       </c>
       <c r="D72" t="n">
-        <v>5.483917836577721</v>
+        <v>5.422104758484521</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>7.527135678391959</v>
+        <v>7.507688442211055</v>
       </c>
       <c r="B73" t="n">
-        <v>8.541186807033979e-08</v>
+        <v>8.62221144776781e-08</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4662227820597895</v>
+        <v>0.4670560378147844</v>
       </c>
       <c r="D73" t="n">
-        <v>5.592400521266507</v>
+        <v>5.531632466952877</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>7.561809045226131</v>
+        <v>7.542512562814071</v>
       </c>
       <c r="B74" t="n">
-        <v>8.401945435503226e-08</v>
+        <v>8.478566400188678e-08</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4648528021491873</v>
+        <v>0.4655946191172725</v>
       </c>
       <c r="D74" t="n">
-        <v>5.699844378824588</v>
+        <v>5.64012935257362</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>7.596482412060301</v>
+        <v>7.577336683417085</v>
       </c>
       <c r="B75" t="n">
-        <v>8.269137649642635e-08</v>
+        <v>8.341649946805417e-08</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4636295997048524</v>
+        <v>0.4642848952733361</v>
       </c>
       <c r="D75" t="n">
-        <v>5.806212405639609</v>
+        <v>5.747563298891938</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>7.631155778894472</v>
+        <v>7.612160804020101</v>
       </c>
       <c r="B76" t="n">
-        <v>8.142458419508028e-08</v>
+        <v>8.211055558395898e-08</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4625492527300897</v>
+        <v>0.4631204035398966</v>
       </c>
       <c r="D76" t="n">
-        <v>5.911475362869183</v>
+        <v>5.85389151507768</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>7.665829145728643</v>
+        <v>7.646984924623116</v>
       </c>
       <c r="B77" t="n">
-        <v>8.021449591241325e-08</v>
+        <v>8.086448720217941e-08</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4615989641078252</v>
+        <v>0.4620956113968068</v>
       </c>
       <c r="D77" t="n">
-        <v>6.015570042504018</v>
+        <v>5.959083518260686</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7.700502512562814</v>
+        <v>7.681809045226131</v>
       </c>
       <c r="B78" t="n">
-        <v>7.905778714330466e-08</v>
+        <v>7.967447927349727e-08</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4607755357527607</v>
+        <v>0.4612028281372987</v>
       </c>
       <c r="D78" t="n">
-        <v>6.118476191726901</v>
+        <v>6.063101325984261</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>7.735175879396984</v>
+        <v>7.716633165829146</v>
       </c>
       <c r="B79" t="n">
-        <v>7.795396394627024e-08</v>
+        <v>7.853787348019591e-08</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4600839743443866</v>
+        <v>0.4604376755589718</v>
       </c>
       <c r="D79" t="n">
-        <v>6.220224461356127</v>
+        <v>6.165918626329841</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>7.769849246231155</v>
+        <v>7.751457286432161</v>
       </c>
       <c r="B80" t="n">
-        <v>7.689761126886002e-08</v>
+        <v>7.74515137381717e-08</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4595069212320074</v>
+        <v>0.4597956889666283</v>
       </c>
       <c r="D80" t="n">
-        <v>6.320714681481679</v>
+        <v>6.267511586440886</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>7.804522613065327</v>
+        <v>7.786281407035176</v>
       </c>
       <c r="B81" t="n">
-        <v>7.588729350566859e-08</v>
+        <v>7.641263129781086e-08</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4590441121165453</v>
+        <v>0.4592703807086613</v>
       </c>
       <c r="D81" t="n">
-        <v>6.419949644634898</v>
+        <v>6.367844815744157</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7.839195979899497</v>
+        <v>7.821105527638191</v>
       </c>
       <c r="B82" t="n">
-        <v>7.492035795615041e-08</v>
+        <v>7.541901085407919e-08</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4586915971403678</v>
+        <v>0.4588596930403474</v>
       </c>
       <c r="D82" t="n">
-        <v>6.517905480741461</v>
+        <v>6.466908447589642</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.873869346733668</v>
+        <v>7.855929648241206</v>
       </c>
       <c r="B83" t="n">
-        <v>7.399434641721259e-08</v>
+        <v>7.446765604335759e-08</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4584437285401651</v>
+        <v>0.4585551936935928</v>
       </c>
       <c r="D83" t="n">
-        <v>6.614554586241579</v>
+        <v>6.564651825439943</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7.908542713567838</v>
+        <v>7.890753768844221</v>
       </c>
       <c r="B84" t="n">
-        <v>7.310695923952243e-08</v>
+        <v>7.355706729553426e-08</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4582951043017069</v>
+        <v>0.4583570107079019</v>
       </c>
       <c r="D84" t="n">
-        <v>6.709859933414692</v>
+        <v>6.66108344624603</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7.94321608040201</v>
+        <v>7.925577889447236</v>
       </c>
       <c r="B85" t="n">
-        <v>7.225790754553388e-08</v>
+        <v>7.268460803499538e-08</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4582508259121529</v>
+        <v>0.4582579454728665</v>
       </c>
       <c r="D85" t="n">
-        <v>6.803876958151777</v>
+        <v>6.756160677335249</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>7.977889447236181</v>
+        <v>7.960402010050251</v>
       </c>
       <c r="B86" t="n">
-        <v>7.144319588947419e-08</v>
+        <v>7.184924575117034e-08</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4582980437865823</v>
+        <v>0.4582595269880192</v>
       </c>
       <c r="D86" t="n">
-        <v>6.89651226097615</v>
+        <v>6.849906311213098</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>8.012562814070352</v>
+        <v>7.995226130653267</v>
       </c>
       <c r="B87" t="n">
-        <v>7.066262480533383e-08</v>
+        <v>7.104833567702003e-08</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4584373865852545</v>
+        <v>0.4583541228062329</v>
       </c>
       <c r="D87" t="n">
-        <v>6.987783018944093</v>
+        <v>6.942271863672358</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8.047236180904523</v>
+        <v>8.030050251256281</v>
       </c>
       <c r="B88" t="n">
-        <v>6.991368788497003e-08</v>
+        <v>7.028042726060678e-08</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4586655310671126</v>
+        <v>0.4585390856738589</v>
       </c>
       <c r="D88" t="n">
-        <v>7.077675117149472</v>
+        <v>7.033242156747832</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8.081909547738693</v>
+        <v>8.064874371859297</v>
       </c>
       <c r="B89" t="n">
-        <v>6.919494596110668e-08</v>
+        <v>6.954432098136902e-08</v>
       </c>
       <c r="C89" t="n">
-        <v>0.4589782200209835</v>
+        <v>0.458813282754397</v>
       </c>
       <c r="D89" t="n">
-        <v>7.166160669658935</v>
+        <v>7.122826844666314</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8.116582914572863</v>
+        <v>8.099698492462313</v>
       </c>
       <c r="B90" t="n">
-        <v>6.850565146149729e-08</v>
+        <v>6.883733111401842e-08</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4593753653250862</v>
+        <v>0.4591691008005189</v>
       </c>
       <c r="D90" t="n">
-        <v>7.253259234436595</v>
+        <v>7.210968046604254</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8.151256281407035</v>
+        <v>8.134522613065327</v>
       </c>
       <c r="B91" t="n">
-        <v>6.784262257993803e-08</v>
+        <v>6.81592213150831e-08</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4598460291369882</v>
+        <v>0.4596089391534377</v>
       </c>
       <c r="D91" t="n">
-        <v>7.33887464777361</v>
+        <v>7.297704850086694</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8.185929648241206</v>
+        <v>8.169346733668341</v>
       </c>
       <c r="B92" t="n">
-        <v>6.720804733980549e-08</v>
+        <v>6.750839562916244e-08</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4604053262777974</v>
+        <v>0.4601290256930201</v>
       </c>
       <c r="D92" t="n">
-        <v>7.42317779465708</v>
+        <v>7.383016790286614</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8.220603015075376</v>
+        <v>8.204170854271357</v>
       </c>
       <c r="B93" t="n">
-        <v>6.659828132667185e-08</v>
+        <v>6.688359929423051e-08</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4610382571182732</v>
+        <v>0.4607261746522727</v>
       </c>
       <c r="D93" t="n">
-        <v>7.506035204546319</v>
+        <v>7.466890459184764</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.255276381909548</v>
+        <v>8.238994974874373</v>
       </c>
       <c r="B94" t="n">
-        <v>6.601161322380312e-08</v>
+        <v>6.628380002577424e-08</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4617395091155009</v>
+        <v>0.4613994273198604</v>
       </c>
       <c r="D94" t="n">
-        <v>7.587404775957644</v>
+        <v>7.549329952249211</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8.289949748743718</v>
+        <v>8.273819095477387</v>
       </c>
       <c r="B95" t="n">
-        <v>6.544846475921751e-08</v>
+        <v>6.570740826483174e-08</v>
       </c>
       <c r="C95" t="n">
-        <v>0.4625143950575936</v>
+        <v>0.462144275907291</v>
       </c>
       <c r="D95" t="n">
-        <v>7.667362870778197</v>
+        <v>7.63030888235881</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.324623115577889</v>
+        <v>8.308643216080402</v>
       </c>
       <c r="B96" t="n">
-        <v>6.490743651263614e-08</v>
+        <v>6.515397169679151e-08</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4633594040646787</v>
+        <v>0.4629611784326715</v>
       </c>
       <c r="D96" t="n">
-        <v>7.745891003765911</v>
+        <v>7.709849974295602</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>8.359296482412059</v>
+        <v>8.343467336683418</v>
       </c>
       <c r="B97" t="n">
-        <v>6.438726703655327e-08</v>
+        <v>6.46220062915659e-08</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4642714722169428</v>
+        <v>0.4638462413057737</v>
       </c>
       <c r="D97" t="n">
-        <v>7.822970944866023</v>
+        <v>7.787928375516415</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8.393969849246231</v>
+        <v>8.378291457286434</v>
       </c>
       <c r="B98" t="n">
-        <v>6.388756084014748e-08</v>
+        <v>6.411111936804621e-08</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4652493937761107</v>
+        <v>0.4647993138384741</v>
       </c>
       <c r="D98" t="n">
-        <v>7.898608297206297</v>
+        <v>7.864562587305287</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>8.428643216080403</v>
+        <v>8.413115577889448</v>
       </c>
       <c r="B99" t="n">
-        <v>6.340718261585876e-08</v>
+        <v>6.362000156324333e-08</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4662918644576698</v>
+        <v>0.4658172104532282</v>
       </c>
       <c r="D99" t="n">
-        <v>7.972811312347824</v>
+        <v>7.939734526464412</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>8.463316582914572</v>
+        <v>8.447939698492462</v>
       </c>
       <c r="B100" t="n">
-        <v>6.294538208570489e-08</v>
+        <v>6.314796297208394e-08</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4673963591890338</v>
+        <v>0.4668986472715639</v>
       </c>
       <c r="D100" t="n">
-        <v>8.045565272823438</v>
+        <v>8.013449099916008</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8.497989949748742</v>
+        <v>8.482763819095478</v>
       </c>
       <c r="B101" t="n">
-        <v>6.250149165300153e-08</v>
+        <v>6.269421957920035e-08</v>
       </c>
       <c r="C101" t="n">
-        <v>0.468562679433029</v>
+        <v>0.4680433248443425</v>
       </c>
       <c r="D101" t="n">
-        <v>8.116890571875887</v>
+        <v>8.085725292601007</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>8.532663316582914</v>
+        <v>8.517587939698492</v>
       </c>
       <c r="B102" t="n">
-        <v>6.207463636928407e-08</v>
+        <v>6.225816417484725e-08</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4697881643778913</v>
+        <v>0.4692479725131096</v>
       </c>
       <c r="D102" t="n">
-        <v>8.186772699937995</v>
+        <v>8.156538677036323</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>8.567336683417086</v>
+        <v>8.552412060301508</v>
       </c>
       <c r="B103" t="n">
-        <v>6.166430003694345e-08</v>
+        <v>6.183897558299212e-08</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4710716960024235</v>
+        <v>0.4705123820945298</v>
       </c>
       <c r="D103" t="n">
-        <v>8.255221307415177</v>
+        <v>8.225912845022085</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8.602010050251256</v>
+        <v>8.587236180904522</v>
       </c>
       <c r="B104" t="n">
-        <v>6.126975389598083e-08</v>
+        <v>6.143599538884494e-08</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4724125896985906</v>
+        <v>0.4718342758458903</v>
       </c>
       <c r="D104" t="n">
-        <v>8.322244587160968</v>
+        <v>8.293836027227577</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8.636683417085427</v>
+        <v>8.622060301507538</v>
       </c>
       <c r="B105" t="n">
-        <v>6.089001807081976e-08</v>
+        <v>6.104854221577873e-08</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4738063580712635</v>
+        <v>0.4732133676279544</v>
       </c>
       <c r="D105" t="n">
-        <v>8.387804594021775</v>
+        <v>8.36032729713866</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>8.671356783919597</v>
+        <v>8.656884422110553</v>
       </c>
       <c r="B106" t="n">
-        <v>6.052567443648957e-08</v>
+        <v>6.06761723012295e-08</v>
       </c>
       <c r="C106" t="n">
-        <v>0.4752597747245266</v>
+        <v>0.474648007037984</v>
       </c>
       <c r="D106" t="n">
-        <v>8.452021350087994</v>
+        <v>8.425385094841099</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>8.706030150753769</v>
+        <v>8.691708542713569</v>
       </c>
       <c r="B107" t="n">
-        <v>6.017505350022876e-08</v>
+        <v>6.031828896119189e-08</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4767644651246022</v>
+        <v>0.4761366586567784</v>
       </c>
       <c r="D107" t="n">
-        <v>8.514793153101403</v>
+        <v>8.48901221980009</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>8.740703517587939</v>
+        <v>8.726532663316583</v>
       </c>
       <c r="B108" t="n">
-        <v>5.983843479519872e-08</v>
+        <v>5.997416483660682e-08</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4783236165183018</v>
+        <v>0.4776785112354189</v>
       </c>
       <c r="D108" t="n">
-        <v>8.576192984899153</v>
+        <v>8.551219359967719</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>8.77537688442211</v>
+        <v>8.761356783919599</v>
       </c>
       <c r="B109" t="n">
-        <v>5.95140018113426e-08</v>
+        <v>5.964358122964628e-08</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4799285940327267</v>
+        <v>0.4792731386955451</v>
       </c>
       <c r="D109" t="n">
-        <v>8.636111073719041</v>
+        <v>8.612021917129804</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>8.810050251256282</v>
+        <v>8.796180904522613</v>
       </c>
       <c r="B110" t="n">
-        <v>5.92026252533833e-08</v>
+        <v>5.932572557042499e-08</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4815870256623741</v>
+        <v>0.4809180638195389</v>
       </c>
       <c r="D110" t="n">
-        <v>8.694687152006411</v>
+        <v>8.671404116725601</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>8.844723618090452</v>
+        <v>8.831005025125629</v>
       </c>
       <c r="B111" t="n">
-        <v>5.890314597226826e-08</v>
+        <v>5.902037454506712e-08</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4832933283038872</v>
+        <v>0.4826133074642416</v>
       </c>
       <c r="D111" t="n">
-        <v>8.751857051247628</v>
+        <v>8.729392031600936</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>8.879396984924622</v>
+        <v>8.865829145728643</v>
       </c>
       <c r="B112" t="n">
-        <v>5.861543109288148e-08</v>
+        <v>5.872697515397793e-08</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4850480445537299</v>
+        <v>0.4843578932407512</v>
       </c>
       <c r="D112" t="n">
-        <v>8.807652048157673</v>
+        <v>8.785992557626628</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>8.914070351758793</v>
+        <v>8.900653266331659</v>
       </c>
       <c r="B113" t="n">
-        <v>5.833963728376857e-08</v>
+        <v>5.844521328286101e-08</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4868540320446335</v>
+        <v>0.4861508972079324</v>
       </c>
       <c r="D113" t="n">
-        <v>8.862142701840494</v>
+        <v>8.841213993769308</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8.948743718592965</v>
+        <v>8.935477386934673</v>
       </c>
       <c r="B114" t="n">
-        <v>5.807426266086762e-08</v>
+        <v>5.817456285463563e-08</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4887044098954634</v>
+        <v>0.4879910979133348</v>
       </c>
       <c r="D114" t="n">
-        <v>8.915239167264948</v>
+        <v>8.895059724100777</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>8.983417085427135</v>
+        <v>8.970301507537689</v>
       </c>
       <c r="B115" t="n">
-        <v>5.781946694976038e-08</v>
+        <v>5.791467196708887e-08</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4906006129943001</v>
+        <v>0.4898782095022094</v>
       </c>
       <c r="D115" t="n">
-        <v>8.966987535171688</v>
+        <v>8.947548314837062</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9.018090452261307</v>
+        <v>9.005125628140703</v>
       </c>
       <c r="B116" t="n">
-        <v>5.757459429788777e-08</v>
+        <v>5.766537891790968e-08</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4925397442965504</v>
+        <v>0.4918121213786297</v>
       </c>
       <c r="D116" t="n">
-        <v>9.017361697777948</v>
+        <v>8.998701884800971</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9.052763819095476</v>
+        <v>9.039949748743719</v>
       </c>
       <c r="B117" t="n">
-        <v>5.73398602017599e-08</v>
+        <v>5.742591035871469e-08</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4945258753030168</v>
+        <v>0.4937897540640312</v>
       </c>
       <c r="D117" t="n">
-        <v>9.066454840740537</v>
+        <v>9.048491296139398</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9.087437185929648</v>
+        <v>9.074773869346734</v>
       </c>
       <c r="B118" t="n">
-        <v>5.711515634391177e-08</v>
+        <v>5.719628921817797e-08</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4965588794374596</v>
+        <v>0.4958124802273018</v>
       </c>
       <c r="D118" t="n">
-        <v>9.114288242151495</v>
+        <v>9.096962644530066</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9.122110552763818</v>
+        <v>9.109597989949748</v>
       </c>
       <c r="B119" t="n">
-        <v>5.689927208710765e-08</v>
+        <v>5.697605048582671e-08</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4986326363486543</v>
+        <v>0.4978789245021907</v>
       </c>
       <c r="D119" t="n">
-        <v>9.160777048540794</v>
+        <v>9.14411566267434</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9.15678391959799</v>
+        <v>9.144422110552764</v>
       </c>
       <c r="B120" t="n">
-        <v>5.669213251739108e-08</v>
+        <v>5.676495717637761e-08</v>
       </c>
       <c r="C120" t="n">
-        <v>0.5007474362874439</v>
+        <v>0.499988479048686</v>
       </c>
       <c r="D120" t="n">
-        <v>9.205949203442545</v>
+        <v>9.18996211420572</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9.191457286432161</v>
+        <v>9.17924623115578</v>
       </c>
       <c r="B121" t="n">
-        <v>5.64938173433688e-08</v>
+        <v>5.656266988576101e-08</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5029052769510687</v>
+        <v>0.5021406856386752</v>
       </c>
       <c r="D121" t="n">
-        <v>9.249863069029599</v>
+        <v>9.234517486083554</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>9.226130653266331</v>
+        <v>9.214070351758794</v>
       </c>
       <c r="B122" t="n">
-        <v>5.630368684527957e-08</v>
+        <v>5.63689216443831e-08</v>
       </c>
       <c r="C122" t="n">
-        <v>0.5051040777504731</v>
+        <v>0.504334588510106</v>
       </c>
       <c r="D122" t="n">
-        <v>9.292503882961944</v>
+        <v>9.277787123654766</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>9.260804020100501</v>
+        <v>9.248894472361808</v>
       </c>
       <c r="B123" t="n">
-        <v>5.612197763942686e-08</v>
+        <v>5.618344201636107e-08</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5073440199104264</v>
+        <v>0.5065699913636308</v>
       </c>
       <c r="D123" t="n">
-        <v>9.333897040298774</v>
+        <v>9.319790842086819</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>9.295477386934673</v>
+        <v>9.283718592964824</v>
       </c>
       <c r="B124" t="n">
-        <v>5.594782811767055e-08</v>
+        <v>5.600600491828357e-08</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5096234557858405</v>
+        <v>0.5088460546140283</v>
       </c>
       <c r="D124" t="n">
-        <v>9.374034189975806</v>
+        <v>9.360536222837892</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>9.330150753768844</v>
+        <v>9.31854271356784</v>
       </c>
       <c r="B125" t="n">
-        <v>5.578130832668373e-08</v>
+        <v>5.583622346464495e-08</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5119423988002603</v>
+        <v>0.5111623099712768</v>
       </c>
       <c r="D125" t="n">
-        <v>9.412938562724754</v>
+        <v>9.400034908653817</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9.364824120603014</v>
+        <v>9.353366834170854</v>
       </c>
       <c r="B126" t="n">
-        <v>5.562247758643252e-08</v>
+        <v>5.567420807319347e-08</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5143024420982655</v>
+        <v>0.5135187862280645</v>
       </c>
       <c r="D126" t="n">
-        <v>9.450661500480114</v>
+        <v>9.438312774520032</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9.399497487437186</v>
+        <v>9.388190954773869</v>
       </c>
       <c r="B127" t="n">
-        <v>5.547079040073327e-08</v>
+        <v>5.55194204696696e-08</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5167008087556456</v>
+        <v>0.5159144262965824</v>
       </c>
       <c r="D127" t="n">
-        <v>9.487173309663556</v>
+        <v>9.47536974953236</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>9.434170854271358</v>
+        <v>9.423015075376885</v>
       </c>
       <c r="B128" t="n">
-        <v>5.532575421033334e-08</v>
+        <v>5.537165345597007e-08</v>
       </c>
       <c r="C128" t="n">
-        <v>0.519136274986453</v>
+        <v>0.5183484156485286</v>
       </c>
       <c r="D128" t="n">
-        <v>9.522471272656844</v>
+        <v>9.511212763718222</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>9.468844221105527</v>
+        <v>9.457839195979901</v>
       </c>
       <c r="B129" t="n">
-        <v>5.518773899806298e-08</v>
+        <v>5.52308359407596e-08</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5216104800226661</v>
+        <v>0.5208211633561778</v>
       </c>
       <c r="D129" t="n">
-        <v>9.55660985386808</v>
+        <v>9.545874752550251</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>9.503517587939697</v>
+        <v>9.492663316582915</v>
       </c>
       <c r="B130" t="n">
-        <v>5.505624925434906e-08</v>
+        <v>5.509667186812172e-08</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5241218399905195</v>
+        <v>0.5233312857486437</v>
       </c>
       <c r="D130" t="n">
-        <v>9.589578498522128</v>
+        <v>9.579347164939353</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>9.538190954773869</v>
+        <v>9.527487437185929</v>
       </c>
       <c r="B131" t="n">
-        <v>5.493115938575832e-08</v>
+        <v>5.496908090798897e-08</v>
       </c>
       <c r="C131" t="n">
-        <v>0.5266702366542266</v>
+        <v>0.52587953479222</v>
       </c>
       <c r="D131" t="n">
-        <v>9.621396338669257</v>
+        <v>9.611666951900828</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>9.572864321608041</v>
+        <v>9.562311557788945</v>
       </c>
       <c r="B132" t="n">
-        <v>5.481225004447454e-08</v>
+        <v>5.484781140986367e-08</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5292551840890681</v>
+        <v>0.5284647900901631</v>
       </c>
       <c r="D132" t="n">
-        <v>9.652075781802445</v>
+        <v>9.642834587305945</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>9.607537688442211</v>
+        <v>9.597135678391961</v>
       </c>
       <c r="B133" t="n">
-        <v>5.469916266127475e-08</v>
+        <v>5.473264815083734e-08</v>
       </c>
       <c r="C133" t="n">
-        <v>0.53187467988617</v>
+        <v>0.531086451283882</v>
       </c>
       <c r="D133" t="n">
-        <v>9.681596970477033</v>
+        <v>9.672859198355477</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9.64221105527638</v>
+        <v>9.631959798994975</v>
       </c>
       <c r="B134" t="n">
-        <v>5.459227023187501e-08</v>
+        <v>5.462308480685101e-08</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5345327726709992</v>
+        <v>0.5337413411022714</v>
       </c>
       <c r="D134" t="n">
-        <v>9.710063159620336</v>
+        <v>9.701696639770535</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>9.676884422110552</v>
+        <v>9.666783919597989</v>
       </c>
       <c r="B135" t="n">
-        <v>5.449080789182002e-08</v>
+        <v>5.451999128602795e-08</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5372240403941949</v>
+        <v>0.5364380648433382</v>
       </c>
       <c r="D135" t="n">
-        <v>9.737384107884786</v>
+        <v>9.729544588520042</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9.711557788944724</v>
+        <v>9.701608040201005</v>
       </c>
       <c r="B136" t="n">
-        <v>5.439531083639108e-08</v>
+        <v>5.44222253998054e-08</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5399537724157183</v>
+        <v>0.5391671805557661</v>
       </c>
       <c r="D136" t="n">
-        <v>9.763689648796781</v>
+        <v>9.756229988267972</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9.746231155778894</v>
+        <v>9.736432160804021</v>
       </c>
       <c r="B137" t="n">
-        <v>5.430510415672489e-08</v>
+        <v>5.433004845921986e-08</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5427176080787082</v>
+        <v>0.5419329229216935</v>
       </c>
       <c r="D137" t="n">
-        <v>9.78891022445306</v>
+        <v>9.781860960642492</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>9.780904522613065</v>
+        <v>9.771256281407036</v>
       </c>
       <c r="B138" t="n">
-        <v>5.422023209823133e-08</v>
+        <v>5.4243265265932e-08</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5455161613879324</v>
+        <v>0.5447336490705283</v>
       </c>
       <c r="D138" t="n">
-        <v>9.813078251999977</v>
+        <v>9.806424205163747</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>9.815577889447237</v>
+        <v>9.80608040201005</v>
       </c>
       <c r="B139" t="n">
-        <v>5.414045547461432e-08</v>
+        <v>5.416171209403306e-08</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5483489441768352</v>
+        <v>0.5475687339718889</v>
       </c>
       <c r="D139" t="n">
-        <v>9.836204230628814</v>
+        <v>9.82992644975227</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>9.850251256281407</v>
+        <v>9.840904522613066</v>
       </c>
       <c r="B140" t="n">
-        <v>5.406562766036261e-08</v>
+        <v>5.408525909818861e-08</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5512149084312669</v>
+        <v>0.5504386990205378</v>
       </c>
       <c r="D140" t="n">
-        <v>9.858285253135502</v>
+        <v>9.852399214292104</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9.884924623115577</v>
+        <v>9.875728643216082</v>
       </c>
       <c r="B141" t="n">
-        <v>5.399570807615619e-08</v>
+        <v>5.401364950589853e-08</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5541153146184352</v>
+        <v>0.5533422789101085</v>
       </c>
       <c r="D141" t="n">
-        <v>9.879367784364296</v>
+        <v>9.873835778942592</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>9.919597989949748</v>
+        <v>9.910552763819096</v>
       </c>
       <c r="B142" t="n">
-        <v>5.393053357866195e-08</v>
+        <v>5.394703885807988e-08</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5570491687638136</v>
+        <v>0.5562800979624554</v>
       </c>
       <c r="D142" t="n">
-        <v>9.899449636597787</v>
+        <v>9.894268150565896</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>9.95427135678392</v>
+        <v>9.94537688442211</v>
       </c>
       <c r="B143" t="n">
-        <v>5.386995827266723e-08</v>
+        <v>5.388504986198088e-08</v>
       </c>
       <c r="C143" t="n">
-        <v>0.5600157416393423</v>
+        <v>0.5592515327245814</v>
       </c>
       <c r="D143" t="n">
-        <v>9.918535440707505</v>
+        <v>9.913704171544516</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>9.98894472361809</v>
+        <v>9.980201005025126</v>
       </c>
       <c r="B144" t="n">
-        <v>5.381400868856497e-08</v>
+        <v>5.382765318868277e-08</v>
       </c>
       <c r="C144" t="n">
-        <v>0.5630156635037071</v>
+        <v>0.562255893355168</v>
       </c>
       <c r="D144" t="n">
-        <v>9.936657083504858</v>
+        <v>9.932147241552141</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>10.02361809045226</v>
+        <v>10.01502512562814</v>
       </c>
       <c r="B145" t="n">
-        <v>5.376243658582135e-08</v>
+        <v>5.377468534054698e-08</v>
       </c>
       <c r="C145" t="n">
-        <v>0.5660488055541135</v>
+        <v>0.565293147016651</v>
       </c>
       <c r="D145" t="n">
-        <v>9.953831015446656</v>
+        <v>9.949615437935327</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>10.05829145728643</v>
+        <v>10.04984924623116</v>
       </c>
       <c r="B146" t="n">
-        <v>5.371451409706204e-08</v>
+        <v>5.372621243224491e-08</v>
       </c>
       <c r="C146" t="n">
-        <v>0.569108488215434</v>
+        <v>0.568363957748524</v>
       </c>
       <c r="D146" t="n">
-        <v>9.969929649291213</v>
+        <v>9.966143617205969</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>10.0929648241206</v>
+        <v>10.08467336683417</v>
       </c>
       <c r="B147" t="n">
-        <v>5.367173808462835e-08</v>
+        <v>5.368197786054789e-08</v>
       </c>
       <c r="C147" t="n">
-        <v>0.5722081094382226</v>
+        <v>0.5714673217193023</v>
       </c>
       <c r="D147" t="n">
-        <v>9.985264142227747</v>
+        <v>9.981727503620212</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>10.12763819095477</v>
+        <v>10.11949748743719</v>
       </c>
       <c r="B148" t="n">
-        <v>5.363310318106813e-08</v>
+        <v>5.364186599528904e-08</v>
       </c>
       <c r="C148" t="n">
-        <v>0.575340178985728</v>
+        <v>0.5746028533450739</v>
       </c>
       <c r="D148" t="n">
-        <v>9.999690633123684</v>
+        <v>9.996377434497639</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>10.16231155778894</v>
+        <v>10.1543216080402</v>
       </c>
       <c r="B149" t="n">
-        <v>5.359817878462089e-08</v>
+        <v>5.360587620110906e-08</v>
       </c>
       <c r="C149" t="n">
-        <v>0.5785015216557651</v>
+        <v>0.577770634979164</v>
       </c>
       <c r="D149" t="n">
-        <v>10.0131552737102</v>
+        <v>10.01011315555664</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>10.19698492462312</v>
+        <v>10.18914572864322</v>
       </c>
       <c r="B150" t="n">
-        <v>5.356716009016781e-08</v>
+        <v>5.357389481835938e-08</v>
       </c>
       <c r="C150" t="n">
-        <v>0.5816947757086199</v>
+        <v>0.5809706053221778</v>
       </c>
       <c r="D150" t="n">
-        <v>10.02573475192811</v>
+        <v>10.02295259754028</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>10.23165829145729</v>
+        <v>10.22396984924623</v>
       </c>
       <c r="B151" t="n">
-        <v>5.354006447364095e-08</v>
+        <v>5.354578476136153e-08</v>
       </c>
       <c r="C151" t="n">
-        <v>0.584919911686872</v>
+        <v>0.5842024620007309</v>
       </c>
       <c r="D151" t="n">
-        <v>10.0374464190678</v>
+        <v>10.03490572827596</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>10.26633165829146</v>
+        <v>10.25879396984925</v>
       </c>
       <c r="B152" t="n">
-        <v>5.351667530658424e-08</v>
+        <v>5.352145378137251e-08</v>
       </c>
       <c r="C152" t="n">
-        <v>0.588175973310882</v>
+        <v>0.5874655782870973</v>
       </c>
       <c r="D152" t="n">
-        <v>10.048285786897</v>
+        <v>10.04597679655376</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>10.30100502512563</v>
+        <v>10.29361809045226</v>
       </c>
       <c r="B153" t="n">
-        <v>5.349699199038121e-08</v>
+        <v>5.350088599797846e-08</v>
       </c>
       <c r="C153" t="n">
-        <v>0.5914633860570929</v>
+        <v>0.5907604529941211</v>
       </c>
       <c r="D153" t="n">
-        <v>10.05827947454548</v>
+        <v>10.05619432433743</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>10.3356783919598</v>
+        <v>10.32844221105528</v>
       </c>
       <c r="B154" t="n">
-        <v>5.348085244852898e-08</v>
+        <v>5.348395593385415e-08</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5947813970681346</v>
+        <v>0.5940865810583126</v>
       </c>
       <c r="D154" t="n">
-        <v>10.06742847637832</v>
+        <v>10.06556421287814</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>10.37035175879397</v>
+        <v>10.36326633165829</v>
       </c>
       <c r="B155" t="n">
-        <v>5.346823929828389e-08</v>
+        <v>5.34705709680918e-08</v>
       </c>
       <c r="C155" t="n">
-        <v>0.5981303844700703</v>
+        <v>0.5974437653720835</v>
       </c>
       <c r="D155" t="n">
-        <v>10.07575771701997</v>
+        <v>10.07409974240825</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10.40502512562814</v>
+        <v>10.39809045226131</v>
       </c>
       <c r="B156" t="n">
-        <v>5.345901187761352e-08</v>
+        <v>5.346066696473251e-08</v>
       </c>
       <c r="C156" t="n">
-        <v>0.6015093272554027</v>
+        <v>0.6008318480161426</v>
       </c>
       <c r="D156" t="n">
-        <v>10.08326062731877</v>
+        <v>10.08181362628189</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>10.43969849246231</v>
+        <v>10.43291457286432</v>
       </c>
       <c r="B157" t="n">
-        <v>5.345328536912401e-08</v>
+        <v>5.345417932588889e-08</v>
       </c>
       <c r="C157" t="n">
-        <v>0.6049200323802764</v>
+        <v>0.6042506286171557</v>
       </c>
       <c r="D157" t="n">
-        <v>10.08999456521279</v>
+        <v>10.08871853679385</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10.47437185929648</v>
+        <v>10.46773869346734</v>
       </c>
       <c r="B158" t="n">
-        <v>5.345079918129096e-08</v>
+        <v>5.345108376482674e-08</v>
       </c>
       <c r="C158" t="n">
-        <v>0.6083605824976739</v>
+        <v>0.6077001516753068</v>
       </c>
       <c r="D158" t="n">
-        <v>10.09593236016661</v>
+        <v>10.0948311786133</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10.50904522613065</v>
+        <v>10.50256281407035</v>
       </c>
       <c r="B159" t="n">
-        <v>5.345154641419794e-08</v>
+        <v>5.345118388747817e-08</v>
       </c>
       <c r="C159" t="n">
-        <v>0.6118313269584919</v>
+        <v>0.6111803618754311</v>
       </c>
       <c r="D159" t="n">
-        <v>10.10109791960959</v>
+        <v>10.10016728553957</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>10.54371859296482</v>
+        <v>10.53738693467337</v>
       </c>
       <c r="B160" t="n">
-        <v>5.345531261473532e-08</v>
+        <v>5.345454331830854e-08</v>
       </c>
       <c r="C160" t="n">
-        <v>0.615330808678006</v>
+        <v>0.6146908110377342</v>
       </c>
       <c r="D160" t="n">
-        <v>10.10547446597064</v>
+        <v>10.10473241319425</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>10.578391959799</v>
+        <v>10.57221105527638</v>
       </c>
       <c r="B161" t="n">
-        <v>5.346247321063495e-08</v>
+        <v>5.346099436660646e-08</v>
       </c>
       <c r="C161" t="n">
-        <v>0.6188629260189302</v>
+        <v>0.6182312875890865</v>
       </c>
       <c r="D161" t="n">
-        <v>10.10916521545116</v>
+        <v>10.10853800654676</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>10.61306532663317</v>
+        <v>10.6070351758794</v>
       </c>
       <c r="B162" t="n">
-        <v>5.347250238489926e-08</v>
+        <v>5.34705384506671e-08</v>
       </c>
       <c r="C162" t="n">
-        <v>0.6224231575241252</v>
+        <v>0.6218017934912984</v>
       </c>
       <c r="D162" t="n">
-        <v>10.11208334708313</v>
+        <v>10.11159825484726</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>10.64773869346734</v>
+        <v>10.64185929648241</v>
       </c>
       <c r="B163" t="n">
-        <v>5.348550189500665e-08</v>
+        <v>5.348307325970079e-08</v>
       </c>
       <c r="C163" t="n">
-        <v>0.6260129441708696</v>
+        <v>0.6254021705369865</v>
       </c>
       <c r="D163" t="n">
-        <v>10.11427914509408</v>
+        <v>10.11392863337865</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>10.68241206030151</v>
+        <v>10.67668341708543</v>
       </c>
       <c r="B164" t="n">
-        <v>5.35014362073409e-08</v>
+        <v>5.349867259403343e-08</v>
       </c>
       <c r="C164" t="n">
-        <v>0.6296325854774308</v>
+        <v>0.6290332189361487</v>
       </c>
       <c r="D164" t="n">
-        <v>10.11576805580584</v>
+        <v>10.11555830878617</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>10.71708542713568</v>
+        <v>10.71150753768844</v>
       </c>
       <c r="B165" t="n">
-        <v>5.35202348066398e-08</v>
+        <v>5.351702607052807e-08</v>
       </c>
       <c r="C165" t="n">
-        <v>0.6332812478183635</v>
+        <v>0.6326925168575696</v>
       </c>
       <c r="D165" t="n">
-        <v>10.11655226188855</v>
+        <v>10.11644988027881</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>10.75175879396985</v>
+        <v>10.74633165829146</v>
       </c>
       <c r="B166" t="n">
-        <v>5.354169066116315e-08</v>
+        <v>5.353825846091123e-08</v>
       </c>
       <c r="C166" t="n">
-        <v>0.6369582786328642</v>
+        <v>0.6363818568667107</v>
       </c>
       <c r="D166" t="n">
-        <v>10.11662854591908</v>
+        <v>10.11665803319839</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>10.78643216080402</v>
+        <v>10.78115577889447</v>
       </c>
       <c r="B167" t="n">
-        <v>5.356651293334118e-08</v>
+        <v>5.356229663883665e-08</v>
       </c>
       <c r="C167" t="n">
-        <v>0.6406699541649065</v>
+        <v>0.6401007144869467</v>
       </c>
       <c r="D167" t="n">
-        <v>10.1161563839642</v>
+        <v>10.1161861268447</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>10.82110552763819</v>
+        <v>10.81597989949749</v>
       </c>
       <c r="B168" t="n">
-        <v>5.35932548507097e-08</v>
+        <v>5.358900555903263e-08</v>
       </c>
       <c r="C168" t="n">
-        <v>0.6444034054746773</v>
+        <v>0.6438488153854605</v>
       </c>
       <c r="D168" t="n">
-        <v>10.11485397591705</v>
+        <v>10.11504120125638</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>10.85577889447236</v>
+        <v>10.8508040201005</v>
       </c>
       <c r="B169" t="n">
-        <v>5.362300653815544e-08</v>
+        <v>5.361858642754705e-08</v>
       </c>
       <c r="C169" t="n">
-        <v>0.648168931689669</v>
+        <v>0.6476268140795209</v>
       </c>
       <c r="D169" t="n">
-        <v>10.11297152298168</v>
+        <v>10.11325183603662</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>10.89045226130653</v>
+        <v>10.88562814070352</v>
       </c>
       <c r="B170" t="n">
-        <v>5.36551225735792e-08</v>
+        <v>5.365063093372884e-08</v>
       </c>
       <c r="C170" t="n">
-        <v>0.6519609976879691</v>
+        <v>0.6514330028949692</v>
       </c>
       <c r="D170" t="n">
-        <v>10.11039731420584</v>
+        <v>10.11079544894916</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>10.9251256281407</v>
+        <v>10.92045226130653</v>
       </c>
       <c r="B171" t="n">
-        <v>5.368967124202757e-08</v>
+        <v>5.368527051188322e-08</v>
       </c>
       <c r="C171" t="n">
-        <v>0.6557805918808907</v>
+        <v>0.6552680596106646</v>
       </c>
       <c r="D171" t="n">
-        <v>10.10716701691747</v>
+        <v>10.10770100843183</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>10.95979899497488</v>
+        <v>10.95527638190955</v>
       </c>
       <c r="B172" t="n">
-        <v>5.372748860114092e-08</v>
+        <v>5.372249191685245e-08</v>
       </c>
       <c r="C172" t="n">
-        <v>0.6596362631729693</v>
+        <v>0.6591323437218655</v>
       </c>
       <c r="D172" t="n">
-        <v>10.10348835333926</v>
+        <v>10.10398936231282</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>10.99447236180904</v>
+        <v>10.99010050251256</v>
       </c>
       <c r="B173" t="n">
-        <v>5.376741802240939e-08</v>
+        <v>5.37622450892201e-08</v>
       </c>
       <c r="C173" t="n">
-        <v>0.6635166262345311</v>
+        <v>0.6630256416046726</v>
       </c>
       <c r="D173" t="n">
-        <v>10.09911618697472</v>
+        <v>10.09966971053143</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>11.02914572864321</v>
+        <v>11.02492462311558</v>
       </c>
       <c r="B174" t="n">
-        <v>5.380966531683118e-08</v>
+        <v>5.380441208215695e-08</v>
       </c>
       <c r="C174" t="n">
-        <v>0.6674251984907654</v>
+        <v>0.6669479184614256</v>
       </c>
       <c r="D174" t="n">
-        <v>10.09414325706836</v>
+        <v>10.09475382845929</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>11.06381909547739</v>
+        <v>11.05974874371859</v>
       </c>
       <c r="B175" t="n">
-        <v>5.385440133164922e-08</v>
+        <v>5.384902809284438e-08</v>
       </c>
       <c r="C175" t="n">
-        <v>0.6713624270365577</v>
+        <v>0.6708987722310336</v>
       </c>
       <c r="D175" t="n">
-        <v>10.08859030718173</v>
+        <v>10.08924445603231</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>11.09849246231156</v>
+        <v>11.09457286432161</v>
       </c>
       <c r="B176" t="n">
-        <v>5.390141191834721e-08</v>
+        <v>5.389588674970729e-08</v>
       </c>
       <c r="C176" t="n">
-        <v>0.6753275636645624</v>
+        <v>0.6748770771351884</v>
       </c>
       <c r="D176" t="n">
-        <v>10.08246045875206</v>
+        <v>10.08313573853869</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>11.13316582914573</v>
+        <v>11.12939698492462</v>
       </c>
       <c r="B177" t="n">
-        <v>5.395066378177503e-08</v>
+        <v>5.39451315515843e-08</v>
       </c>
       <c r="C177" t="n">
-        <v>0.6793198572370017</v>
+        <v>0.6788840552440076</v>
       </c>
       <c r="D177" t="n">
-        <v>10.07574289294243</v>
+        <v>10.07646116136187</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>11.1678391959799</v>
+        <v>11.16422110552764</v>
       </c>
       <c r="B178" t="n">
-        <v>5.400219791690353e-08</v>
+        <v>5.399673471293713e-08</v>
       </c>
       <c r="C178" t="n">
-        <v>0.6833410667762834</v>
+        <v>0.6829201954375622</v>
       </c>
       <c r="D178" t="n">
-        <v>10.06849084556405</v>
+        <v>10.06924652955371</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>11.20251256281407</v>
+        <v>11.19904522613065</v>
       </c>
       <c r="B179" t="n">
-        <v>5.405601196471457e-08</v>
+        <v>5.405053509162451e-08</v>
       </c>
       <c r="C179" t="n">
-        <v>0.6873903665337241</v>
+        <v>0.6869842179058784</v>
       </c>
       <c r="D179" t="n">
-        <v>10.06069840504486</v>
+        <v>10.06147470762412</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>11.23718592964824</v>
+        <v>11.23386934673367</v>
       </c>
       <c r="B180" t="n">
-        <v>5.411201314345377e-08</v>
+        <v>5.41061886641639e-08</v>
       </c>
       <c r="C180" t="n">
-        <v>0.6914676163894753</v>
+        <v>0.6910725356976902</v>
       </c>
       <c r="D180" t="n">
-        <v>10.05237687056273</v>
+        <v>10.05307976877255</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>11.27185929648241</v>
+        <v>11.26869346733668</v>
       </c>
       <c r="B181" t="n">
-        <v>5.41701340948285e-08</v>
+        <v>5.416418496750951e-08</v>
       </c>
       <c r="C181" t="n">
-        <v>0.6955722357862183</v>
+        <v>0.6951907582581466</v>
       </c>
       <c r="D181" t="n">
-        <v>10.04351986345847</v>
+        <v>10.04419474201989</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>11.30653266331658</v>
+        <v>11.3035175879397</v>
       </c>
       <c r="B182" t="n">
-        <v>5.423027582393132e-08</v>
+        <v>5.422462177135781e-08</v>
       </c>
       <c r="C182" t="n">
-        <v>0.6997039690429387</v>
+        <v>0.6993399530649762</v>
       </c>
       <c r="D182" t="n">
-        <v>10.03413600090175</v>
+        <v>10.03486181685299</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>11.34120603015075</v>
+        <v>11.33834170854271</v>
       </c>
       <c r="B183" t="n">
-        <v>5.429253957439403e-08</v>
+        <v>5.42870953234228e-08</v>
       </c>
       <c r="C183" t="n">
-        <v>0.7038634608541643</v>
+        <v>0.7035164962758619</v>
       </c>
       <c r="D183" t="n">
-        <v>10.02425194246797</v>
+        <v>10.02500718745879</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>11.37587939698492</v>
+        <v>11.37316582914573</v>
       </c>
       <c r="B184" t="n">
-        <v>5.435687903913383e-08</v>
+        <v>5.43516850991863e-08</v>
       </c>
       <c r="C184" t="n">
-        <v>0.7080507361402517</v>
+        <v>0.7077213221704994</v>
       </c>
       <c r="D184" t="n">
-        <v>10.01387986047787</v>
+        <v>10.0146643187776</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>11.41055276381909</v>
+        <v>11.40798994974874</v>
       </c>
       <c r="B185" t="n">
-        <v>5.442330156122994e-08</v>
+        <v>5.441825428695797e-08</v>
       </c>
       <c r="C185" t="n">
-        <v>0.712266456730154</v>
+        <v>0.7119527185877005</v>
       </c>
       <c r="D185" t="n">
-        <v>10.00304270294301</v>
+        <v>10.00380458976652</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>11.44522613065327</v>
+        <v>11.44281407035176</v>
       </c>
       <c r="B186" t="n">
-        <v>5.449193463391258e-08</v>
+        <v>5.448682445949613e-08</v>
       </c>
       <c r="C186" t="n">
-        <v>0.7165119459882737</v>
+        <v>0.7162128424185643</v>
       </c>
       <c r="D186" t="n">
-        <v>9.991786021726623</v>
+        <v>9.992491412434431</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>11.47989949748744</v>
+        <v>11.47763819095477</v>
       </c>
       <c r="B187" t="n">
-        <v>5.456234474871302e-08</v>
+        <v>5.455746296627286e-08</v>
       </c>
       <c r="C187" t="n">
-        <v>0.7207823504646097</v>
+        <v>0.7205009301454098</v>
       </c>
       <c r="D187" t="n">
-        <v>9.980012609997399</v>
+        <v>9.980719001000988</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>11.51457286432161</v>
+        <v>11.51246231155779</v>
       </c>
       <c r="B188" t="n">
-        <v>5.463466390619764e-08</v>
+        <v>5.462987615625349e-08</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7250808099250333</v>
+        <v>0.7248152411156765</v>
       </c>
       <c r="D188" t="n">
-        <v>9.967797704236553</v>
+        <v>9.968455482131548</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>11.54924623115578</v>
+        <v>11.5472864321608</v>
       </c>
       <c r="B189" t="n">
-        <v>5.470877969825613e-08</v>
+        <v>5.470444747114799e-08</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7294049452863339</v>
+        <v>0.7291586051404629</v>
       </c>
       <c r="D189" t="n">
-        <v>9.955102938900239</v>
+        <v>9.955776584863992</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>11.58391959798995</v>
+        <v>11.58211055276382</v>
       </c>
       <c r="B190" t="n">
-        <v>5.478485075773213e-08</v>
+        <v>5.478086818062027e-08</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7337573275906365</v>
+        <v>0.7335296941045731</v>
       </c>
       <c r="D190" t="n">
-        <v>9.941994141683159</v>
+        <v>9.942662057569866</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>11.61859296482412</v>
+        <v>11.61693467336683</v>
       </c>
       <c r="B191" t="n">
-        <v>5.486276921194083e-08</v>
+        <v>5.485895584329134e-08</v>
       </c>
       <c r="C191" t="n">
-        <v>0.7381364521765894</v>
+        <v>0.7379259066189008</v>
       </c>
       <c r="D191" t="n">
-        <v>9.928449433151483</v>
+        <v>9.929066940638865</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>11.65326633165829</v>
+        <v>11.65175879396985</v>
       </c>
       <c r="B192" t="n">
-        <v>5.494267219954482e-08</v>
+        <v>5.493895895770873e-08</v>
       </c>
       <c r="C192" t="n">
-        <v>0.7425447554083378</v>
+        <v>0.74235020742334</v>
       </c>
       <c r="D192" t="n">
-        <v>9.914532621988718</v>
+        <v>9.91506544457801</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>11.68793969849246</v>
+        <v>11.68658291457287</v>
       </c>
       <c r="B193" t="n">
-        <v>5.502397122197662e-08</v>
+        <v>5.50207636238347e-08</v>
       </c>
       <c r="C193" t="n">
-        <v>0.7469755928704918</v>
+        <v>0.7468017584308518</v>
       </c>
       <c r="D193" t="n">
-        <v>9.900106821810892</v>
+        <v>9.900651226311448</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>11.72261306532663</v>
+        <v>11.72140703517588</v>
       </c>
       <c r="B194" t="n">
-        <v>5.510731815668191e-08</v>
+        <v>5.510436578412698e-08</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7514363105602287</v>
+        <v>0.7512806223972683</v>
       </c>
       <c r="D194" t="n">
-        <v>9.885344215336382</v>
+        <v>9.885833643162082</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>11.7572864321608</v>
+        <v>11.7562311557789</v>
       </c>
       <c r="B195" t="n">
-        <v>5.519210832874245e-08</v>
+        <v>5.518972972654288e-08</v>
       </c>
       <c r="C195" t="n">
-        <v>0.7559208899819432</v>
+        <v>0.7557865019612372</v>
       </c>
       <c r="D195" t="n">
-        <v>9.8701188490462</v>
+        <v>9.870616215373229</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>11.79195979899497</v>
+        <v>11.79105527638191</v>
       </c>
       <c r="B196" t="n">
-        <v>5.527913901555298e-08</v>
+        <v>5.527686436235497e-08</v>
       </c>
       <c r="C196" t="n">
-        <v>0.7604379790800924</v>
+        <v>0.760319783309533</v>
       </c>
       <c r="D196" t="n">
-        <v>9.854639580169552</v>
+        <v>9.855019167623873</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>11.82663316582915</v>
+        <v>11.82587939698492</v>
       </c>
       <c r="B197" t="n">
-        <v>5.536762700837411e-08</v>
+        <v>5.536564307277989e-08</v>
       </c>
       <c r="C197" t="n">
-        <v>0.7649790217445168</v>
+        <v>0.7648797655377032</v>
       </c>
       <c r="D197" t="n">
-        <v>9.838718013333136</v>
+        <v>9.839031274619908</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>11.86130653266332</v>
+        <v>11.86070351758794</v>
       </c>
       <c r="B198" t="n">
-        <v>5.545763207141265e-08</v>
+        <v>5.545613659382554e-08</v>
       </c>
       <c r="C198" t="n">
-        <v>0.7695455041880255</v>
+        <v>0.769466494768271</v>
       </c>
       <c r="D198" t="n">
-        <v>9.822401686111863</v>
+        <v>9.822673596309848</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>11.89597989949749</v>
+        <v>11.89552763819096</v>
       </c>
       <c r="B199" t="n">
-        <v>5.554947563671672e-08</v>
+        <v>5.554828595184487e-08</v>
       </c>
       <c r="C199" t="n">
-        <v>0.7741404081194304</v>
+        <v>0.7740805450080049</v>
       </c>
       <c r="D199" t="n">
-        <v>9.805761665012128</v>
+        <v>9.805958350601248</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>11.93065326633166</v>
+        <v>11.93035175879397</v>
       </c>
       <c r="B200" t="n">
-        <v>5.56428943981792e-08</v>
+        <v>5.564206242833022e-08</v>
       </c>
       <c r="C200" t="n">
-        <v>0.7787612181172971</v>
+        <v>0.7787210008963564</v>
       </c>
       <c r="D200" t="n">
-        <v>9.788755373668975</v>
+        <v>9.788876906856087</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>11.96532663316583</v>
+        <v>11.96517587939698</v>
       </c>
       <c r="B201" t="n">
-        <v>5.573788429094892e-08</v>
+        <v>5.573746126376541e-08</v>
       </c>
       <c r="C201" t="n">
-        <v>0.7834088198763979</v>
+        <v>0.7833885980652933</v>
       </c>
       <c r="D201" t="n">
-        <v>9.771405457871172</v>
+        <v>9.771457086916426</v>
       </c>
     </row>
     <row r="202">
@@ -3189,13 +3189,13 @@
         <v>12</v>
       </c>
       <c r="B202" t="n">
-        <v>5.583408235417613e-08</v>
+        <v>5.583449489083282e-08</v>
       </c>
       <c r="C202" t="n">
-        <v>0.7880777123982869</v>
+        <v>0.7880825272139468</v>
       </c>
       <c r="D202" t="n">
-        <v>9.753612079920634</v>
+        <v>9.7536870851819</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -346,7 +346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D202"/>
+  <dimension ref="A1:D502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -362,7 +362,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>range=linspace(5.07,12.0,200)</t>
+          <t>range=linspace(5.07,12.0,500)</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -414,2788 +414,6988 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.104824120603015</v>
+        <v>5.083887775551102</v>
       </c>
       <c r="B4" t="n">
-        <v>0.007986451081294267</v>
+        <v>0.04933205418487127</v>
       </c>
       <c r="C4" t="n">
-        <v>865.8502214233921</v>
+        <v>3533.79724734856</v>
       </c>
       <c r="D4" t="n">
-        <v>1.39010560931967e-05</v>
+        <v>4.746574140867198e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5.13964824120603</v>
+        <v>5.097775551102204</v>
       </c>
       <c r="B5" t="n">
-        <v>0.001156359443319252</v>
+        <v>0.01364925823058112</v>
       </c>
       <c r="C5" t="n">
-        <v>205.8018201483233</v>
+        <v>1301.4030884333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0001891465768780852</v>
+        <v>2.148944703559419e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.174472361809046</v>
+        <v>5.111663326653307</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0003273787987579854</v>
+        <v>0.005031533807411063</v>
       </c>
       <c r="C6" t="n">
-        <v>82.35664683553485</v>
+        <v>611.487187371204</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0008525558031547958</v>
+        <v>6.371611318198848e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.209296482412061</v>
+        <v>5.125551102204409</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0001304984034337591</v>
+        <v>0.00226025206209408</v>
       </c>
       <c r="C7" t="n">
-        <v>42.67040289489498</v>
+        <v>337.007887314162</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002389373996123186</v>
+        <v>0.0001487232092615339</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5.244120603015076</v>
+        <v>5.139438877755511</v>
       </c>
       <c r="B8" t="n">
-        <v>6.376349463752989e-05</v>
+        <v>0.001166947878222887</v>
       </c>
       <c r="C8" t="n">
-        <v>25.72482521475499</v>
+        <v>207.18005649769</v>
       </c>
       <c r="D8" t="n">
-        <v>0.005192159419829864</v>
+        <v>0.0002963863406034285</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.278944723618091</v>
+        <v>5.153326653306613</v>
       </c>
       <c r="B9" t="n">
-        <v>3.562561155780546e-05</v>
+        <v>0.0006667587572916152</v>
       </c>
       <c r="C9" t="n">
-        <v>17.12081689864341</v>
+        <v>137.7333557387097</v>
       </c>
       <c r="D9" t="n">
-        <v>0.009641054104186936</v>
+        <v>0.0005283859845600958</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5.313768844221106</v>
+        <v>5.167214428857716</v>
       </c>
       <c r="B10" t="n">
-        <v>2.187981887922334e-05</v>
+        <v>0.0004112559774976785</v>
       </c>
       <c r="C10" t="n">
-        <v>12.21223356783441</v>
+        <v>97.06854214945076</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01609332001684191</v>
+        <v>0.0008675745700767056</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>5.348592964824121</v>
+        <v>5.181102204408818</v>
       </c>
       <c r="B11" t="n">
-        <v>1.441344141917072e-05</v>
+        <v>0.0002691904840277235</v>
       </c>
       <c r="C11" t="n">
-        <v>9.167824648379456</v>
+        <v>71.55311001097448</v>
       </c>
       <c r="D11" t="n">
-        <v>0.02487713369344265</v>
+        <v>0.001337619244294342</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5.383417085427136</v>
+        <v>5.19498997995992</v>
       </c>
       <c r="B12" t="n">
-        <v>1.002176950975148e-05</v>
+        <v>0.0001847422883394327</v>
       </c>
       <c r="C12" t="n">
-        <v>7.157117683448211</v>
+        <v>54.65347316789362</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03628919794971003</v>
+        <v>0.00196259141310027</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5.418241206030151</v>
+        <v>5.208877755511022</v>
       </c>
       <c r="B13" t="n">
-        <v>7.272775028799711e-06</v>
+        <v>0.0001317682052897641</v>
       </c>
       <c r="C13" t="n">
-        <v>5.763156571829035</v>
+        <v>42.96439225137301</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05058806257290212</v>
+        <v>0.002766641987699211</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>5.453065326633166</v>
+        <v>5.222765531062125</v>
       </c>
       <c r="B14" t="n">
-        <v>5.464006701569416e-06</v>
+        <v>9.70132696450903e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>4.758068077472005</v>
+        <v>34.58240649641711</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0680033016461033</v>
+        <v>0.003774396409018711</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5.487889447236181</v>
+        <v>5.236653306613227</v>
       </c>
       <c r="B15" t="n">
-        <v>4.224319619504996e-06</v>
+        <v>7.337999759776095e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>4.009998108993782</v>
+        <v>28.39755249094076</v>
       </c>
       <c r="D15" t="n">
-        <v>0.08872803640307259</v>
+        <v>0.005008854131690338</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5.522713567839197</v>
+        <v>5.250541082164329</v>
       </c>
       <c r="B16" t="n">
-        <v>3.345299558021924e-06</v>
+        <v>5.677595424465198e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>3.438326959006395</v>
+        <v>23.71136035972642</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1129235888829862</v>
+        <v>0.006495092197545459</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.557537688442212</v>
+        <v>5.264428857715431</v>
       </c>
       <c r="B17" t="n">
-        <v>2.70386834011744e-06</v>
+        <v>4.480672538684866e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>2.991556406539253</v>
+        <v>20.09020857299858</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1407231364935792</v>
+        <v>0.008254024888606347</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5.592361809045227</v>
+        <v>5.278316633266534</v>
       </c>
       <c r="B18" t="n">
-        <v>2.224353477303669e-06</v>
+        <v>3.596760841587699e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>2.635851908225944</v>
+        <v>17.23526671906471</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1722205273496618</v>
+        <v>0.01031020781783179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.627185929648242</v>
+        <v>5.292204408817636</v>
       </c>
       <c r="B19" t="n">
-        <v>1.858070777840142e-06</v>
+        <v>2.930744939707045e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>2.3478554743079</v>
+        <v>14.94900095418079</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2074951807718602</v>
+        <v>0.0126848995925338</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>5.662010050251257</v>
+        <v>5.306092184368738</v>
       </c>
       <c r="B20" t="n">
-        <v>1.573033431311292e-06</v>
+        <v>2.419943158320586e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>2.111345853263632</v>
+        <v>13.09208761876509</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2465949695140267</v>
+        <v>0.01539913654043175</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.696834170854272</v>
+        <v>5.31997995991984</v>
       </c>
       <c r="B21" t="n">
-        <v>1.347592853158543e-06</v>
+        <v>2.021721731251039e-05</v>
       </c>
       <c r="C21" t="n">
-        <v>1.914676155119861</v>
+        <v>11.56469642401052</v>
       </c>
       <c r="D21" t="n">
-        <v>0.2895447244610863</v>
+        <v>0.01847351901197664</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5.731658291457286</v>
+        <v>5.333867735470943</v>
       </c>
       <c r="B22" t="n">
-        <v>1.166701621518793e-06</v>
+        <v>1.706970139175543e-05</v>
       </c>
       <c r="C22" t="n">
-        <v>1.749318178074079</v>
+        <v>10.29417975233688</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3363478481576129</v>
+        <v>0.02192769955340646</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5.766482412060302</v>
+        <v>5.347755511022044</v>
       </c>
       <c r="B23" t="n">
-        <v>1.01959018952576e-06</v>
+        <v>1.454936096180343e-05</v>
       </c>
       <c r="C23" t="n">
-        <v>1.608866950854005</v>
+        <v>9.226644408324773</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3869972996824978</v>
+        <v>0.02578056522124301</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5.801306532663316</v>
+        <v>5.361643286573146</v>
       </c>
       <c r="B24" t="n">
-        <v>8.987086539632325e-07</v>
+        <v>1.250707843069463e-05</v>
       </c>
       <c r="C24" t="n">
-        <v>1.488624455428282</v>
+        <v>8.320756660341633</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4414400428347607</v>
+        <v>0.03005289384088688</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>5.836130653266332</v>
+        <v>5.375531062124248</v>
       </c>
       <c r="B25" t="n">
-        <v>7.981897792335592e-07</v>
+        <v>1.083665714855727e-05</v>
       </c>
       <c r="C25" t="n">
-        <v>1.384794753691663</v>
+        <v>7.547362249437178</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4996407454894753</v>
+        <v>0.03475496346117751</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>5.870954773869347</v>
+        <v>5.389418837675351</v>
       </c>
       <c r="B26" t="n">
-        <v>7.138766274539087e-07</v>
+        <v>9.456816336700246e-06</v>
       </c>
       <c r="C26" t="n">
-        <v>1.294501754995876</v>
+        <v>6.880986468247343</v>
       </c>
       <c r="D26" t="n">
-        <v>0.5615378404409945</v>
+        <v>0.03990805030108086</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>5.905778894472363</v>
+        <v>5.403306613226453</v>
       </c>
       <c r="B27" t="n">
-        <v>6.42511792446677e-07</v>
+        <v>8.30607122982196e-06</v>
       </c>
       <c r="C27" t="n">
-        <v>1.215477942447135</v>
+        <v>6.302979009757473</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6270545604616223</v>
+        <v>0.04552718712003713</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5.940603015075377</v>
+        <v>5.417194388777555</v>
       </c>
       <c r="B28" t="n">
-        <v>5.816565838040951e-07</v>
+        <v>7.339332182363021e-06</v>
       </c>
       <c r="C28" t="n">
-        <v>1.145912970376324</v>
+        <v>5.79855668156872</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6961044981739093</v>
+        <v>0.05162649839725682</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.975427135678392</v>
+        <v>5.431082164328657</v>
       </c>
       <c r="B29" t="n">
-        <v>5.293674548787364e-07</v>
+        <v>6.521147377663972e-06</v>
       </c>
       <c r="C29" t="n">
-        <v>1.084341566791652</v>
+        <v>5.355767822066759</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7685934585242375</v>
+        <v>0.05821992823153487</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6.010251256281407</v>
+        <v>5.44496993987976</v>
       </c>
       <c r="B30" t="n">
-        <v>4.841507191083802e-07</v>
+        <v>5.823569433544405e-06</v>
       </c>
       <c r="C30" t="n">
-        <v>1.029596137487662</v>
+        <v>4.965006095674747</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8444115537999698</v>
+        <v>0.06532050574242912</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6.045075376884422</v>
+        <v>5.458857715430862</v>
       </c>
       <c r="B31" t="n">
-        <v>4.448012271603296e-07</v>
+        <v>5.225439558306908e-06</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9806867629053011</v>
+        <v>4.618478008719562</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9234530559301681</v>
+        <v>0.0729400945868116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>6.079899497487437</v>
+        <v>5.472745490981964</v>
       </c>
       <c r="B32" t="n">
-        <v>4.103645950166449e-07</v>
+        <v>4.709330459912967e-06</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9368156746752387</v>
+        <v>4.309751081954353</v>
       </c>
       <c r="D32" t="n">
-        <v>1.005601401514479</v>
+        <v>0.08109020953142015</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6.114723618090452</v>
+        <v>5.486633266533066</v>
       </c>
       <c r="B33" t="n">
-        <v>3.80069992832561e-07</v>
+        <v>4.261817820921203e-06</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8973217861181574</v>
+        <v>4.033535339776567</v>
       </c>
       <c r="D33" t="n">
-        <v>1.09073003680301</v>
+        <v>0.08978108048296049</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>6.149547738693467</v>
+        <v>5.500521042084168</v>
       </c>
       <c r="B34" t="n">
-        <v>3.532899684017996e-07</v>
+        <v>3.871444979007579e-06</v>
       </c>
       <c r="C34" t="n">
-        <v>0.8616403066037303</v>
+        <v>3.785428026098617</v>
       </c>
       <c r="D34" t="n">
-        <v>1.178715947312876</v>
+        <v>0.09902237215283176</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6.184371859296482</v>
+        <v>5.514408817635271</v>
       </c>
       <c r="B35" t="n">
-        <v>3.295024989587813e-07</v>
+        <v>3.529588180343136e-06</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8293022407913859</v>
+        <v>3.561731764547265</v>
       </c>
       <c r="D35" t="n">
-        <v>1.269429243870817</v>
+        <v>0.1088232721639796</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6.219195979899498</v>
+        <v>5.528296593186373</v>
       </c>
       <c r="B36" t="n">
-        <v>3.082875345704482e-07</v>
+        <v>3.228850967155283e-06</v>
       </c>
       <c r="C36" t="n">
-        <v>0.7999075780787711</v>
+        <v>3.359347812735492</v>
       </c>
       <c r="D36" t="n">
-        <v>1.362738814640604</v>
+        <v>0.1191915300785472</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>6.254020100502513</v>
+        <v>5.542184368737475</v>
       </c>
       <c r="B37" t="n">
-        <v>2.892902400778218e-07</v>
+        <v>2.962751196557454e-06</v>
       </c>
       <c r="C37" t="n">
-        <v>0.7731160746629243</v>
+        <v>3.17550181098833</v>
       </c>
       <c r="D37" t="n">
-        <v>1.458511531665342</v>
+        <v>0.1301400996862453</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.288844221105528</v>
+        <v>5.556072144288578</v>
       </c>
       <c r="B38" t="n">
-        <v>2.722152057987334e-07</v>
+        <v>2.727122374845757e-06</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7486356171678574</v>
+        <v>3.008304057321912</v>
       </c>
       <c r="D38" t="n">
-        <v>1.556613692356631</v>
+        <v>0.1416633571346641</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>6.323668341708543</v>
+        <v>5.56995991983968</v>
       </c>
       <c r="B39" t="n">
-        <v>2.568109051070324e-07</v>
+        <v>2.517229462286033e-06</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7262134567333343</v>
+        <v>2.855622601856077</v>
       </c>
       <c r="D39" t="n">
-        <v>1.656910481265303</v>
+        <v>0.1537736226061085</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>6.358492462311558</v>
+        <v>5.583847695390782</v>
       </c>
       <c r="B40" t="n">
-        <v>2.428807947699227e-07</v>
+        <v>2.329603974832122e-06</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7056505122120152</v>
+        <v>2.715813230742699</v>
       </c>
       <c r="D40" t="n">
-        <v>1.759256303603137</v>
+        <v>0.1664771350126228</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>6.393316582914573</v>
+        <v>5.597735470941884</v>
       </c>
       <c r="B41" t="n">
-        <v>2.302296861987772e-07</v>
+        <v>2.16135465171146e-06</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6867343394532026</v>
+        <v>2.587464118470268</v>
       </c>
       <c r="D41" t="n">
-        <v>1.863531302108652</v>
+        <v>0.1797785521248068</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>6.428140703517588</v>
+        <v>5.611623246492986</v>
       </c>
       <c r="B42" t="n">
-        <v>2.187127774809731e-07</v>
+        <v>2.010089298445665e-06</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6693099811002247</v>
+        <v>2.469352847819343</v>
       </c>
       <c r="D42" t="n">
-        <v>1.969595865600918</v>
+        <v>0.193681042600882</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6.462964824120603</v>
+        <v>5.625511022044089</v>
       </c>
       <c r="B43" t="n">
-        <v>2.081988347390542e-07</v>
+        <v>1.873627983934242e-06</v>
       </c>
       <c r="C43" t="n">
-        <v>0.6532329969990756</v>
+        <v>2.360417697671691</v>
       </c>
       <c r="D43" t="n">
-        <v>2.077319696816352</v>
+        <v>0.2081880862870764</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6.497788944723618</v>
+        <v>5.639398797595191</v>
       </c>
       <c r="B44" t="n">
-        <v>1.985758533909633e-07</v>
+        <v>1.75010395761486e-06</v>
       </c>
       <c r="C44" t="n">
-        <v>0.6383787412152849</v>
+        <v>2.259724070325666</v>
       </c>
       <c r="D44" t="n">
-        <v>2.18656825503326</v>
+        <v>0.2233022417952482</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6.532613065326633</v>
+        <v>5.653286573146293</v>
       </c>
       <c r="B45" t="n">
-        <v>1.897451005174735e-07</v>
+        <v>1.638117652714737e-06</v>
       </c>
       <c r="C45" t="n">
-        <v>0.6246318813376677</v>
+        <v>2.166458413270711</v>
       </c>
       <c r="D45" t="n">
-        <v>2.297218309849533</v>
+        <v>0.239025904114451</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6.567437185929649</v>
+        <v>5.667174348697395</v>
       </c>
       <c r="B46" t="n">
-        <v>1.816243790690616e-07</v>
+        <v>1.536272861420336e-06</v>
       </c>
       <c r="C46" t="n">
-        <v>0.6118970917987661</v>
+        <v>2.079899729989354</v>
       </c>
       <c r="D46" t="n">
-        <v>2.409141831959946</v>
+        <v>0.2553601760372542</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6.602261306532664</v>
+        <v>5.681062124248498</v>
       </c>
       <c r="B47" t="n">
-        <v>1.741381202266941e-07</v>
+        <v>1.443417424789321e-06</v>
       </c>
       <c r="C47" t="n">
-        <v>0.6000862421016008</v>
+        <v>1.999418538364018</v>
       </c>
       <c r="D47" t="n">
-        <v>2.52221115282302</v>
+        <v>0.2723058293169762</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>6.637085427135679</v>
+        <v>5.6949498997996</v>
       </c>
       <c r="B48" t="n">
-        <v>1.672236410639823e-07</v>
+        <v>1.358542405124699e-06</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5891206177357553</v>
+        <v>1.924450890632007</v>
       </c>
       <c r="D48" t="n">
-        <v>2.636311103978463</v>
+        <v>0.2898639277608405</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6.671909547738694</v>
+        <v>5.708837675350702</v>
       </c>
       <c r="B49" t="n">
-        <v>1.608237055113519e-07</v>
+        <v>1.280831427915261e-06</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5789311365736257</v>
+        <v>1.854503805313479</v>
       </c>
       <c r="D49" t="n">
-        <v>2.751318818912609</v>
+        <v>0.3080338873999581</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6.706733668341709</v>
+        <v>5.722725450901804</v>
       </c>
       <c r="B50" t="n">
-        <v>1.548890309651844e-07</v>
+        <v>1.2095133625166e-06</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5694557083607397</v>
+        <v>1.789131972055149</v>
       </c>
       <c r="D50" t="n">
-        <v>2.867121016235469</v>
+        <v>0.3268157307862071</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>6.741557788944724</v>
+        <v>5.736613226452906</v>
       </c>
       <c r="B51" t="n">
-        <v>1.493753340323702e-07</v>
+        <v>1.143906959220905e-06</v>
       </c>
       <c r="C51" t="n">
-        <v>0.5606366190989258</v>
+        <v>1.727944031533085</v>
       </c>
       <c r="D51" t="n">
-        <v>2.983606656849306</v>
+        <v>0.3462078954570467</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6.776381909547739</v>
+        <v>5.750501002004008</v>
       </c>
       <c r="B52" t="n">
-        <v>1.442441722977742e-07</v>
+        <v>1.083478826022573e-06</v>
       </c>
       <c r="C52" t="n">
-        <v>0.552424581117106</v>
+        <v>1.670585348404204</v>
       </c>
       <c r="D52" t="n">
-        <v>3.100659754238517</v>
+        <v>0.3662090751098794</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>6.811206030150754</v>
+        <v>5.76438877755511</v>
       </c>
       <c r="B53" t="n">
-        <v>1.394652247100725e-07</v>
+        <v>1.027627030243693e-06</v>
       </c>
       <c r="C53" t="n">
-        <v>0.5447875821157805</v>
+        <v>1.616678088705087</v>
       </c>
       <c r="D53" t="n">
-        <v>3.218181326101154</v>
+        <v>0.3868283295029535</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>6.846030150753769</v>
+        <v>5.778276553106212</v>
       </c>
       <c r="B54" t="n">
-        <v>1.350012113699205e-07</v>
+        <v>9.760521648476779e-07</v>
       </c>
       <c r="C54" t="n">
-        <v>0.5376642284346353</v>
+        <v>1.566092173906835</v>
       </c>
       <c r="D54" t="n">
-        <v>3.336062828407637</v>
+        <v>0.408036902771945</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6.880854271356784</v>
+        <v>5.792164328657315</v>
       </c>
       <c r="B55" t="n">
-        <v>1.308275131546916e-07</v>
+        <v>9.282537339696313e-07</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5310255998271872</v>
+        <v>1.51847089073789</v>
       </c>
       <c r="D55" t="n">
-        <v>3.454206674228174</v>
+        <v>0.4298491110293571</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>6.915678391959799</v>
+        <v>5.806052104208417</v>
       </c>
       <c r="B56" t="n">
-        <v>1.269196452407455e-07</v>
+        <v>8.839218045908343e-07</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5248387525228179</v>
+        <v>1.473579740415965</v>
       </c>
       <c r="D56" t="n">
-        <v>3.572515961021726</v>
+        <v>0.4522623898979301</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>6.950502512562815</v>
+        <v>5.819939879759519</v>
       </c>
       <c r="B57" t="n">
-        <v>1.232560594091197e-07</v>
+        <v>8.42684167247293e-07</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5190722873311185</v>
+        <v>1.431226911292905</v>
       </c>
       <c r="D57" t="n">
-        <v>3.690899717889865</v>
+        <v>0.4752698010849621</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>6.98532663316583</v>
+        <v>5.833827655310621</v>
       </c>
       <c r="B58" t="n">
-        <v>1.198164033607766e-07</v>
+        <v>8.042921239233166e-07</v>
       </c>
       <c r="C58" t="n">
-        <v>0.513698790693079</v>
+        <v>1.391215383599748</v>
       </c>
       <c r="D58" t="n">
-        <v>3.809265955432205</v>
+        <v>0.4988701869070002</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7.020150753768845</v>
+        <v>5.847715430861724</v>
       </c>
       <c r="B59" t="n">
-        <v>1.165833423545821e-07</v>
+        <v>7.685176965397028e-07</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5086928784749275</v>
+        <v>1.353378725026187</v>
       </c>
       <c r="D59" t="n">
-        <v>3.927528153503267</v>
+        <v>0.5230581723599699</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>7.05497487437186</v>
+        <v>5.861603206412826</v>
       </c>
       <c r="B60" t="n">
-        <v>1.135410244974113e-07</v>
+        <v>7.35124775652257e-07</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5040313981387864</v>
+        <v>1.317557435365569</v>
       </c>
       <c r="D60" t="n">
-        <v>4.045606170780561</v>
+        <v>0.5478299041131498</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>7.089798994974874</v>
+        <v>5.875490981963928</v>
       </c>
       <c r="B61" t="n">
-        <v>1.106746150761614e-07</v>
+        <v>7.03892528718319e-07</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4996930737337597</v>
+        <v>1.283611860060883</v>
       </c>
       <c r="D61" t="n">
-        <v>4.163417232330531</v>
+        <v>0.5731802225117523</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>7.12462311557789</v>
+        <v>5.88937875751503</v>
       </c>
       <c r="B62" t="n">
-        <v>1.079713143572845e-07</v>
+        <v>6.746757528234153e-07</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4956583908009183</v>
+        <v>1.251413764590519</v>
       </c>
       <c r="D62" t="n">
-        <v>4.28088474922011</v>
+        <v>0.59910236503155</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>7.159447236180904</v>
+        <v>5.903266533066132</v>
       </c>
       <c r="B63" t="n">
-        <v>1.054188176645564e-07</v>
+        <v>6.47287730225108e-07</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4919092411379309</v>
+        <v>1.2208430934282</v>
       </c>
       <c r="D63" t="n">
-        <v>4.397937184595675</v>
+        <v>0.6255935468569287</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>7.19427135678392</v>
+        <v>5.917154308617235</v>
       </c>
       <c r="B64" t="n">
-        <v>1.030066000750318e-07</v>
+        <v>6.215870764673196e-07</v>
       </c>
       <c r="C64" t="n">
-        <v>0.4884289616351059</v>
+        <v>1.191791646974678</v>
       </c>
       <c r="D64" t="n">
-        <v>4.514503691675386</v>
+        <v>0.6526458875234395</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>7.229095477386934</v>
+        <v>5.931042084168337</v>
       </c>
       <c r="B65" t="n">
-        <v>1.007246135611999e-07</v>
+        <v>5.974391791114649e-07</v>
       </c>
       <c r="C65" t="n">
-        <v>0.4852032602776574</v>
+        <v>1.164159347854544</v>
       </c>
       <c r="D65" t="n">
-        <v>4.630516090042466</v>
+        <v>0.6802545010894031</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>7.26391959798995</v>
+        <v>5.944929859719439</v>
       </c>
       <c r="B66" t="n">
-        <v>9.856399631046387e-08</v>
+        <v>5.747298129798211e-07</v>
       </c>
       <c r="C66" t="n">
-        <v>0.4822177008608954</v>
+        <v>1.137854714932258</v>
       </c>
       <c r="D66" t="n">
-        <v>4.745913998856109</v>
+        <v>0.7084140582430181</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>7.298743718592965</v>
+        <v>5.958817635270542</v>
       </c>
       <c r="B67" t="n">
-        <v>9.651622742153359e-08</v>
+        <v>5.533497053369505e-07</v>
       </c>
       <c r="C67" t="n">
-        <v>0.479458296998496</v>
+        <v>1.11279490290834</v>
       </c>
       <c r="D67" t="n">
-        <v>4.860630459858806</v>
+        <v>0.737117189707801</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>7.333567839195981</v>
+        <v>5.972705410821644</v>
       </c>
       <c r="B68" t="n">
-        <v>9.457412783393809e-08</v>
+        <v>5.331742290825282e-07</v>
       </c>
       <c r="C68" t="n">
-        <v>0.4769141124845902</v>
+        <v>1.088890717854345</v>
       </c>
       <c r="D68" t="n">
-        <v>4.974610963306421</v>
+        <v>0.7663610277122438</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>7.368391959798995</v>
+        <v>5.986593186372746</v>
       </c>
       <c r="B69" t="n">
-        <v>9.27305404459943e-08</v>
+        <v>5.141578312633868e-07</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4745743622863621</v>
+        <v>1.066097447314508</v>
       </c>
       <c r="D69" t="n">
-        <v>5.08780033663994</v>
+        <v>0.7961301842900905</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>7.403216080402011</v>
+        <v>6.000480961923848</v>
       </c>
       <c r="B70" t="n">
-        <v>9.097893631023422e-08</v>
+        <v>4.961976399535296e-07</v>
       </c>
       <c r="C70" t="n">
-        <v>0.4724272268887728</v>
+        <v>1.044329046142858</v>
       </c>
       <c r="D70" t="n">
-        <v>5.200144097398034</v>
+        <v>0.8264250310984098</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>7.438040201005025</v>
+        <v>6.01436873747495</v>
       </c>
       <c r="B71" t="n">
-        <v>8.931399415403254e-08</v>
+        <v>4.792189561779635e-07</v>
       </c>
       <c r="C71" t="n">
-        <v>0.4704646258053039</v>
+        <v>1.023525584266884</v>
       </c>
       <c r="D71" t="n">
-        <v>5.311595623212146</v>
+        <v>0.8572366081168028</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>7.472864321608041</v>
+        <v>6.028256513026053</v>
       </c>
       <c r="B72" t="n">
-        <v>8.773003498453377e-08</v>
+        <v>4.631337767980072e-07</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4686764227851695</v>
+        <v>1.003626462076584</v>
       </c>
       <c r="D72" t="n">
-        <v>5.422104758484521</v>
+        <v>0.8885611753485056</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>7.507688442211055</v>
+        <v>6.042144288577155</v>
       </c>
       <c r="B73" t="n">
-        <v>8.62221144776781e-08</v>
+        <v>4.479126581777648e-07</v>
       </c>
       <c r="C73" t="n">
-        <v>0.4670560378147844</v>
+        <v>0.984598872138791</v>
       </c>
       <c r="D73" t="n">
-        <v>5.531632466952877</v>
+        <v>0.9203821968016236</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>7.542512562814071</v>
+        <v>6.056032064128257</v>
       </c>
       <c r="B74" t="n">
-        <v>8.478566400188678e-08</v>
+        <v>4.334735607963769e-07</v>
       </c>
       <c r="C74" t="n">
-        <v>0.4655946191172725</v>
+        <v>0.9663744104244371</v>
       </c>
       <c r="D74" t="n">
-        <v>5.64012935257362</v>
+        <v>0.9527012239407388</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>7.577336683417085</v>
+        <v>6.069919839679359</v>
       </c>
       <c r="B75" t="n">
-        <v>8.341649946805417e-08</v>
+        <v>4.197793246976874e-07</v>
       </c>
       <c r="C75" t="n">
-        <v>0.4642848952733361</v>
+        <v>0.9489148837361032</v>
       </c>
       <c r="D75" t="n">
-        <v>5.747563298891938</v>
+        <v>0.9855073419682393</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>7.612160804020101</v>
+        <v>6.083807615230461</v>
       </c>
       <c r="B76" t="n">
-        <v>8.211055558395898e-08</v>
+        <v>4.067687338777287e-07</v>
       </c>
       <c r="C76" t="n">
-        <v>0.4631204035398966</v>
+        <v>0.9321734697506359</v>
       </c>
       <c r="D76" t="n">
-        <v>5.85389151507768</v>
+        <v>1.018795482327019</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>7.646984924623116</v>
+        <v>6.097695390781563</v>
       </c>
       <c r="B77" t="n">
-        <v>8.086448720217941e-08</v>
+        <v>3.944003582674167e-07</v>
       </c>
       <c r="C77" t="n">
-        <v>0.4620956113968068</v>
+        <v>0.9161118438207388</v>
       </c>
       <c r="D77" t="n">
-        <v>5.959083518260686</v>
+        <v>1.052556766075981</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>7.681809045226131</v>
+        <v>6.111583166332665</v>
       </c>
       <c r="B78" t="n">
-        <v>7.967447927349727e-08</v>
+        <v>3.826508277598157e-07</v>
       </c>
       <c r="C78" t="n">
-        <v>0.4612028281372987</v>
+        <v>0.9007192505539654</v>
       </c>
       <c r="D78" t="n">
-        <v>6.063101325984261</v>
+        <v>1.086771063279872</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>7.716633165829146</v>
+        <v>6.125470941883767</v>
       </c>
       <c r="B79" t="n">
-        <v>7.853787348019591e-08</v>
+        <v>3.714566871989841e-07</v>
       </c>
       <c r="C79" t="n">
-        <v>0.4604376755589718</v>
+        <v>0.8859266152095515</v>
       </c>
       <c r="D79" t="n">
-        <v>6.165918626329841</v>
+        <v>1.121447639662603</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>7.751457286432161</v>
+        <v>6.13935871743487</v>
       </c>
       <c r="B80" t="n">
-        <v>7.74515137381717e-08</v>
+        <v>3.607953575277482e-07</v>
       </c>
       <c r="C80" t="n">
-        <v>0.4597956889666283</v>
+        <v>0.8717157145079572</v>
       </c>
       <c r="D80" t="n">
-        <v>6.267511586440886</v>
+        <v>1.156569984204173</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>7.786281407035176</v>
+        <v>6.153246492985972</v>
       </c>
       <c r="B81" t="n">
-        <v>7.641263129781086e-08</v>
+        <v>3.50626411414743e-07</v>
       </c>
       <c r="C81" t="n">
-        <v>0.4592703807086613</v>
+        <v>0.8580544111259888</v>
       </c>
       <c r="D81" t="n">
-        <v>6.367844815744157</v>
+        <v>1.192132909278636</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>7.821105527638191</v>
+        <v>6.167134268537074</v>
       </c>
       <c r="B82" t="n">
-        <v>7.541901085407919e-08</v>
+        <v>3.409282422167726e-07</v>
       </c>
       <c r="C82" t="n">
-        <v>0.4588596930403474</v>
+        <v>0.8449176518388807</v>
       </c>
       <c r="D82" t="n">
-        <v>6.466908447589642</v>
+        <v>1.228126846901497</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>7.855929648241206</v>
+        <v>6.181022044088177</v>
       </c>
       <c r="B83" t="n">
-        <v>7.446765604335759e-08</v>
+        <v>3.316727191263207e-07</v>
       </c>
       <c r="C83" t="n">
-        <v>0.4585551936935928</v>
+        <v>0.8322788965306839</v>
       </c>
       <c r="D83" t="n">
-        <v>6.564651825439943</v>
+        <v>1.264543995047549</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>7.890753768844221</v>
+        <v>6.194909819639278</v>
       </c>
       <c r="B84" t="n">
-        <v>7.355706729553426e-08</v>
+        <v>3.228288253910026e-07</v>
       </c>
       <c r="C84" t="n">
-        <v>0.4583570107079019</v>
+        <v>0.8201128421136008</v>
       </c>
       <c r="D84" t="n">
-        <v>6.66108344624603</v>
+        <v>1.301374824848154</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>7.925577889447236</v>
+        <v>6.208797595190381</v>
       </c>
       <c r="B85" t="n">
-        <v>7.268460803499538e-08</v>
+        <v>3.143748958538232e-07</v>
       </c>
       <c r="C85" t="n">
-        <v>0.4582579454728665</v>
+        <v>0.8083969720595775</v>
       </c>
       <c r="D85" t="n">
-        <v>6.756160677335249</v>
+        <v>1.338612719466567</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>7.960402010050251</v>
+        <v>6.222685370741483</v>
       </c>
       <c r="B86" t="n">
-        <v>7.184924575117034e-08</v>
+        <v>3.062869087601835e-07</v>
       </c>
       <c r="C86" t="n">
-        <v>0.4582595269880192</v>
+        <v>0.7971107739864315</v>
       </c>
       <c r="D86" t="n">
-        <v>6.849906311213098</v>
+        <v>1.376246117572263</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>7.995226130653267</v>
+        <v>6.236573146292585</v>
       </c>
       <c r="B87" t="n">
-        <v>7.104833567702003e-08</v>
+        <v>2.985524881483644e-07</v>
       </c>
       <c r="C87" t="n">
-        <v>0.4583541228062329</v>
+        <v>0.786232381599232</v>
       </c>
       <c r="D87" t="n">
-        <v>6.942271863672358</v>
+        <v>1.414270483604969</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>8.030050251256281</v>
+        <v>6.250460921843688</v>
       </c>
       <c r="B88" t="n">
-        <v>7.028042726060678e-08</v>
+        <v>2.911404130173886e-07</v>
       </c>
       <c r="C88" t="n">
-        <v>0.4585390856738589</v>
+        <v>0.7757444015859346</v>
       </c>
       <c r="D88" t="n">
-        <v>7.033242156747832</v>
+        <v>1.452672384384871</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>8.064874371859297</v>
+        <v>6.26434869739479</v>
       </c>
       <c r="B89" t="n">
-        <v>6.954432098136902e-08</v>
+        <v>2.840375023206097e-07</v>
       </c>
       <c r="C89" t="n">
-        <v>0.458813282754397</v>
+        <v>0.7656264346508594</v>
       </c>
       <c r="D89" t="n">
-        <v>7.122826844666314</v>
+        <v>1.491448803155806</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8.099698492462313</v>
+        <v>6.278236472945892</v>
       </c>
       <c r="B90" t="n">
-        <v>6.883733111401842e-08</v>
+        <v>2.772288804079137e-07</v>
       </c>
       <c r="C90" t="n">
-        <v>0.4591691008005189</v>
+        <v>0.7558631938598367</v>
       </c>
       <c r="D90" t="n">
-        <v>7.210968046604254</v>
+        <v>1.530589424603247</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8.134522613065327</v>
+        <v>6.292124248496994</v>
       </c>
       <c r="B91" t="n">
-        <v>6.81592213150831e-08</v>
+        <v>2.706964092871048e-07</v>
       </c>
       <c r="C91" t="n">
-        <v>0.4596089391534377</v>
+        <v>0.7464374765257734</v>
       </c>
       <c r="D91" t="n">
-        <v>7.297704850086694</v>
+        <v>1.570084663690856</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>8.169346733668341</v>
+        <v>6.306012024048096</v>
       </c>
       <c r="B92" t="n">
-        <v>6.750839562916244e-08</v>
+        <v>2.644253994708857e-07</v>
       </c>
       <c r="C92" t="n">
-        <v>0.4601290256930201</v>
+        <v>0.7373390024389626</v>
       </c>
       <c r="D92" t="n">
-        <v>7.383016790286614</v>
+        <v>1.609924974615592</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8.204170854271357</v>
+        <v>6.319899799599199</v>
       </c>
       <c r="B93" t="n">
-        <v>6.688359929423051e-08</v>
+        <v>2.584047140387519e-07</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4607261746522727</v>
+        <v>0.7285468486906279</v>
       </c>
       <c r="D93" t="n">
-        <v>7.466890459184764</v>
+        <v>1.650106036150578</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>8.238994974874373</v>
+        <v>6.333787575150301</v>
       </c>
       <c r="B94" t="n">
-        <v>6.628380002577424e-08</v>
+        <v>2.526193749615202e-07</v>
       </c>
       <c r="C94" t="n">
-        <v>0.4613994273198604</v>
+        <v>0.7200529929404758</v>
       </c>
       <c r="D94" t="n">
-        <v>7.549329952249211</v>
+        <v>1.690614044791115</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>8.273819095477387</v>
+        <v>6.347675350701403</v>
       </c>
       <c r="B95" t="n">
-        <v>6.570740826483174e-08</v>
+        <v>2.47064407124482e-07</v>
       </c>
       <c r="C95" t="n">
-        <v>0.462144275907291</v>
+        <v>0.7118550742456723</v>
       </c>
       <c r="D95" t="n">
-        <v>7.63030888235881</v>
+        <v>1.731435352564827</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>8.308643216080402</v>
+        <v>6.361563126252506</v>
       </c>
       <c r="B96" t="n">
-        <v>6.515397169679151e-08</v>
+        <v>2.417154421462653e-07</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4629611784326715</v>
+        <v>0.703918426032076</v>
       </c>
       <c r="D96" t="n">
-        <v>7.709849974295602</v>
+        <v>1.772575869950677</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>8.343467336683418</v>
+        <v>6.375450901803608</v>
       </c>
       <c r="B97" t="n">
-        <v>6.46220062915659e-08</v>
+        <v>2.365691539301565e-07</v>
       </c>
       <c r="C97" t="n">
-        <v>0.4638462413057737</v>
+        <v>0.6962426105081562</v>
       </c>
       <c r="D97" t="n">
-        <v>7.787928375516415</v>
+        <v>1.814019362325386</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8.378291457286434</v>
+        <v>6.38933867735471</v>
       </c>
       <c r="B98" t="n">
-        <v>6.411111936804621e-08</v>
+        <v>2.31614362486998e-07</v>
       </c>
       <c r="C98" t="n">
-        <v>0.4647993138384741</v>
+        <v>0.6888167342905602</v>
       </c>
       <c r="D98" t="n">
-        <v>7.864562587305287</v>
+        <v>1.855757383075718</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>8.413115577889448</v>
+        <v>6.403226452905812</v>
       </c>
       <c r="B99" t="n">
-        <v>6.362000156324333e-08</v>
+        <v>2.268424766747393e-07</v>
       </c>
       <c r="C99" t="n">
-        <v>0.4658172104532282</v>
+        <v>0.6816306508133468</v>
       </c>
       <c r="D99" t="n">
-        <v>7.939734526464412</v>
+        <v>1.897782859521383</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>8.447939698492462</v>
+        <v>6.417114228456914</v>
       </c>
       <c r="B100" t="n">
-        <v>6.314796297208394e-08</v>
+        <v>2.222454039457383e-07</v>
       </c>
       <c r="C100" t="n">
-        <v>0.4668986472715639</v>
+        <v>0.6746747071743295</v>
       </c>
       <c r="D100" t="n">
-        <v>8.013449099916008</v>
+        <v>1.940086663904117</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>8.482763819095478</v>
+        <v>6.431002004008016</v>
       </c>
       <c r="B101" t="n">
-        <v>6.269421957920035e-08</v>
+        <v>2.178123948033425e-07</v>
       </c>
       <c r="C101" t="n">
-        <v>0.4680433248443425</v>
+        <v>0.6679399823058573</v>
       </c>
       <c r="D101" t="n">
-        <v>8.085725292601007</v>
+        <v>1.982660944748152</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>8.517587939698492</v>
+        <v>6.444889779559118</v>
       </c>
       <c r="B102" t="n">
-        <v>6.225816417484725e-08</v>
+        <v>2.135375510665136e-07</v>
       </c>
       <c r="C102" t="n">
-        <v>0.4692479725131096</v>
+        <v>0.6614175799059879</v>
       </c>
       <c r="D102" t="n">
-        <v>8.156538677036323</v>
+        <v>2.025495760107534</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>8.552412060301508</v>
+        <v>6.45877755511022</v>
       </c>
       <c r="B103" t="n">
-        <v>6.183897558299212e-08</v>
+        <v>2.09415301978969e-07</v>
       </c>
       <c r="C103" t="n">
-        <v>0.4705123820945298</v>
+        <v>0.6550991870336651</v>
       </c>
       <c r="D103" t="n">
-        <v>8.225912845022085</v>
+        <v>2.068585972140172</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8.587236180904522</v>
+        <v>6.472665330661323</v>
       </c>
       <c r="B104" t="n">
-        <v>6.143599538884494e-08</v>
+        <v>2.054328650556728e-07</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4718342758458903</v>
+        <v>0.6489771655780417</v>
       </c>
       <c r="D104" t="n">
-        <v>8.293836027227577</v>
+        <v>2.111917684744566</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>8.622060301507538</v>
+        <v>6.486553106212425</v>
       </c>
       <c r="B105" t="n">
-        <v>6.104854221577873e-08</v>
+        <v>2.015887992672065e-07</v>
       </c>
       <c r="C105" t="n">
-        <v>0.4732133676279544</v>
+        <v>0.6430441341313112</v>
       </c>
       <c r="D105" t="n">
-        <v>8.36032729713866</v>
+        <v>2.155488371342817</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>8.656884422110553</v>
+        <v>6.500440881763527</v>
       </c>
       <c r="B106" t="n">
-        <v>6.06761723012295e-08</v>
+        <v>1.978765282274695e-07</v>
       </c>
       <c r="C106" t="n">
-        <v>0.474648007037984</v>
+        <v>0.6372931691609757</v>
       </c>
       <c r="D106" t="n">
-        <v>8.425385094841099</v>
+        <v>2.199288251337821</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>8.691708542713569</v>
+        <v>6.514328657314629</v>
       </c>
       <c r="B107" t="n">
-        <v>6.031828896119189e-08</v>
+        <v>1.942877530776528e-07</v>
       </c>
       <c r="C107" t="n">
-        <v>0.4761366586567784</v>
+        <v>0.6317167869182452</v>
       </c>
       <c r="D107" t="n">
-        <v>8.48901221980009</v>
+        <v>2.243309409474939</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>8.726532663316583</v>
+        <v>6.528216432865731</v>
       </c>
       <c r="B108" t="n">
-        <v>5.997416483660682e-08</v>
+        <v>1.908185707222317e-07</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4776785112354189</v>
+        <v>0.6263098341012771</v>
       </c>
       <c r="D108" t="n">
-        <v>8.551219359967719</v>
+        <v>2.287539935393805</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>8.761356783919599</v>
+        <v>6.542104208416834</v>
       </c>
       <c r="B109" t="n">
-        <v>5.964358122964628e-08</v>
+        <v>1.874651466107141e-07</v>
       </c>
       <c r="C109" t="n">
-        <v>0.4792731386955451</v>
+        <v>0.6210647464590766</v>
       </c>
       <c r="D109" t="n">
-        <v>8.612021917129804</v>
+        <v>2.331977947263174</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>8.796180904522613</v>
+        <v>6.555991983967936</v>
       </c>
       <c r="B110" t="n">
-        <v>5.932572557042499e-08</v>
+        <v>1.842193935439439e-07</v>
       </c>
       <c r="C110" t="n">
-        <v>0.4809180638195389</v>
+        <v>0.6159765203104569</v>
       </c>
       <c r="D110" t="n">
-        <v>8.671404116725601</v>
+        <v>2.376611816418717</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>8.831005025125629</v>
+        <v>6.569879759519038</v>
       </c>
       <c r="B111" t="n">
-        <v>5.902037454506712e-08</v>
+        <v>1.810790815520191e-07</v>
       </c>
       <c r="C111" t="n">
-        <v>0.4826133074642416</v>
+        <v>0.6110402046711948</v>
       </c>
       <c r="D111" t="n">
-        <v>8.729392031600936</v>
+        <v>2.42143422132177</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>8.865829145728643</v>
+        <v>6.583767535070141</v>
       </c>
       <c r="B112" t="n">
-        <v>5.872697515397793e-08</v>
+        <v>1.780387032881371e-07</v>
       </c>
       <c r="C112" t="n">
-        <v>0.4843578932407512</v>
+        <v>0.6062486866973699</v>
       </c>
       <c r="D112" t="n">
-        <v>8.785992557626628</v>
+        <v>2.466438281143684</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>8.900653266331659</v>
+        <v>6.597655310621243</v>
       </c>
       <c r="B113" t="n">
-        <v>5.844521328286101e-08</v>
+        <v>1.750940619570495e-07</v>
       </c>
       <c r="C113" t="n">
-        <v>0.4861508972079324</v>
+        <v>0.6015983487766873</v>
       </c>
       <c r="D113" t="n">
-        <v>8.841213993769308</v>
+        <v>2.511615350677474</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8.935477386934673</v>
+        <v>6.611543086172345</v>
       </c>
       <c r="B114" t="n">
-        <v>5.817456285463563e-08</v>
+        <v>1.722420777516597e-07</v>
       </c>
       <c r="C114" t="n">
-        <v>0.4879910979133348</v>
+        <v>0.597083939724726</v>
       </c>
       <c r="D114" t="n">
-        <v>8.895059724100777</v>
+        <v>2.556957414517801</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>8.970301507537689</v>
+        <v>6.625430861723447</v>
       </c>
       <c r="B115" t="n">
-        <v>5.791467196708887e-08</v>
+        <v>1.69477851168927e-07</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4898782095022094</v>
+        <v>0.5927009245653058</v>
       </c>
       <c r="D115" t="n">
-        <v>8.947548314837062</v>
+        <v>2.602458147398842</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9.005125628140703</v>
+        <v>6.639318637274549</v>
       </c>
       <c r="B116" t="n">
-        <v>5.766537891790968e-08</v>
+        <v>1.667985043684001e-07</v>
       </c>
       <c r="C116" t="n">
-        <v>0.4918121213786297</v>
+        <v>0.5884440655735328</v>
       </c>
       <c r="D116" t="n">
-        <v>8.998701884800971</v>
+        <v>2.648109733271677</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>9.039949748743719</v>
+        <v>6.653206412825652</v>
       </c>
       <c r="B117" t="n">
-        <v>5.742591035871469e-08</v>
+        <v>1.641999689585454e-07</v>
       </c>
       <c r="C117" t="n">
-        <v>0.4937897540640312</v>
+        <v>0.5843111877545538</v>
       </c>
       <c r="D117" t="n">
-        <v>9.048491296139398</v>
+        <v>2.693904136441999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>9.074773869346734</v>
+        <v>6.667094188376754</v>
       </c>
       <c r="B118" t="n">
-        <v>5.719628921817797e-08</v>
+        <v>1.616796359931259e-07</v>
       </c>
       <c r="C118" t="n">
-        <v>0.4958124802273018</v>
+        <v>0.5802960355372655</v>
       </c>
       <c r="D118" t="n">
-        <v>9.096962644530066</v>
+        <v>2.739834691168229</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>9.109597989949748</v>
+        <v>6.680981963927856</v>
       </c>
       <c r="B119" t="n">
-        <v>5.697605048582671e-08</v>
+        <v>1.592345955281849e-07</v>
       </c>
       <c r="C119" t="n">
-        <v>0.4978789245021907</v>
+        <v>0.5763959909196729</v>
       </c>
       <c r="D119" t="n">
-        <v>9.14411566267434</v>
+        <v>2.785893619627502</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>9.144422110552764</v>
+        <v>6.694869739478958</v>
       </c>
       <c r="B120" t="n">
-        <v>5.676495717637761e-08</v>
+        <v>1.568611414922656e-07</v>
       </c>
       <c r="C120" t="n">
-        <v>0.499988479048686</v>
+        <v>0.5726073323932769</v>
       </c>
       <c r="D120" t="n">
-        <v>9.18996211420572</v>
+        <v>2.832073670664737</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>9.17924623115578</v>
+        <v>6.70875751503006</v>
       </c>
       <c r="B121" t="n">
-        <v>5.656266988576101e-08</v>
+        <v>1.545570929032704e-07</v>
       </c>
       <c r="C121" t="n">
-        <v>0.5021406856386752</v>
+        <v>0.5689251739288452</v>
       </c>
       <c r="D121" t="n">
-        <v>9.234517486083554</v>
+        <v>2.878370179223777</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>9.214070351758794</v>
+        <v>6.722645290581163</v>
       </c>
       <c r="B122" t="n">
-        <v>5.63689216443831e-08</v>
+        <v>1.523202525988234e-07</v>
       </c>
       <c r="C122" t="n">
-        <v>0.504334588510106</v>
+        <v>0.565347348514852</v>
       </c>
       <c r="D122" t="n">
-        <v>9.277787123654766</v>
+        <v>2.92477031462762</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>9.248894472361808</v>
+        <v>6.736533066132265</v>
       </c>
       <c r="B123" t="n">
-        <v>5.618344201636107e-08</v>
+        <v>1.501464964635142e-07</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5065699913636308</v>
+        <v>0.561870462107146</v>
       </c>
       <c r="D123" t="n">
-        <v>9.319790842086819</v>
+        <v>2.971270786465562</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>9.283718592964824</v>
+        <v>6.750420841683367</v>
       </c>
       <c r="B124" t="n">
-        <v>5.600600491828357e-08</v>
+        <v>1.480353714612754e-07</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5088460546140283</v>
+        <v>0.5584928458985853</v>
       </c>
       <c r="D124" t="n">
-        <v>9.360536222837892</v>
+        <v>3.01786600233811</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>9.31854271356784</v>
+        <v>6.76430861723447</v>
       </c>
       <c r="B125" t="n">
-        <v>5.583622346464495e-08</v>
+        <v>1.459819493751196e-07</v>
       </c>
       <c r="C125" t="n">
-        <v>0.5111623099712768</v>
+        <v>0.5552058501343856</v>
       </c>
       <c r="D125" t="n">
-        <v>9.400034908653817</v>
+        <v>3.064546041005819</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>9.353366834170854</v>
+        <v>6.778196392785572</v>
       </c>
       <c r="B126" t="n">
-        <v>5.567420807319347e-08</v>
+        <v>1.439863965040476e-07</v>
       </c>
       <c r="C126" t="n">
-        <v>0.5135187862280645</v>
+        <v>0.5520128065614724</v>
       </c>
       <c r="D126" t="n">
-        <v>9.438312774520032</v>
+        <v>3.111306602725853</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>9.388190954773869</v>
+        <v>6.792084168336673</v>
       </c>
       <c r="B127" t="n">
-        <v>5.55194204696696e-08</v>
+        <v>1.420498991536463e-07</v>
       </c>
       <c r="C127" t="n">
-        <v>0.5159144262965824</v>
+        <v>0.5489186089666022</v>
       </c>
       <c r="D127" t="n">
-        <v>9.47536974953236</v>
+        <v>3.158141159546515</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>9.423015075376885</v>
+        <v>6.805971943887775</v>
       </c>
       <c r="B128" t="n">
-        <v>5.537165345597007e-08</v>
+        <v>1.401629221062639e-07</v>
       </c>
       <c r="C128" t="n">
-        <v>0.5183484156485286</v>
+        <v>0.5459024145272531</v>
       </c>
       <c r="D128" t="n">
-        <v>9.511212763718222</v>
+        <v>3.205040370499442</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>9.457839195979901</v>
+        <v>6.819859719438877</v>
       </c>
       <c r="B129" t="n">
-        <v>5.52308359407596e-08</v>
+        <v>1.383273599437436e-07</v>
       </c>
       <c r="C129" t="n">
-        <v>0.5208211633561778</v>
+        <v>0.5429704982711363</v>
       </c>
       <c r="D129" t="n">
-        <v>9.545874752550251</v>
+        <v>3.251998518477825</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>9.492663316582915</v>
+        <v>6.83374749498998</v>
       </c>
       <c r="B130" t="n">
-        <v>5.509667186812172e-08</v>
+        <v>1.365410134123656e-07</v>
       </c>
       <c r="C130" t="n">
-        <v>0.5233312857486437</v>
+        <v>0.5401194437466821</v>
       </c>
       <c r="D130" t="n">
-        <v>9.579347164939353</v>
+        <v>3.299010935529797</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>9.527487437185929</v>
+        <v>6.847635270541082</v>
       </c>
       <c r="B131" t="n">
-        <v>5.496908090798897e-08</v>
+        <v>1.348026273792979e-07</v>
       </c>
       <c r="C131" t="n">
-        <v>0.52587953479222</v>
+        <v>0.5373477686173699</v>
       </c>
       <c r="D131" t="n">
-        <v>9.611666951900828</v>
+        <v>3.346072580710701</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>9.562311557788945</v>
+        <v>6.861523046092184</v>
       </c>
       <c r="B132" t="n">
-        <v>5.484781140986367e-08</v>
+        <v>1.331100675609473e-07</v>
       </c>
       <c r="C132" t="n">
-        <v>0.5284647900901631</v>
+        <v>0.5346530075837678</v>
       </c>
       <c r="D132" t="n">
-        <v>9.642834587305945</v>
+        <v>3.39317074268264</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>9.597135678391961</v>
+        <v>6.875410821643287</v>
       </c>
       <c r="B133" t="n">
-        <v>5.473264815083734e-08</v>
+        <v>1.314619614790987e-07</v>
       </c>
       <c r="C133" t="n">
-        <v>0.531086451283882</v>
+        <v>0.5320329272230546</v>
       </c>
       <c r="D133" t="n">
-        <v>9.672859198355477</v>
+        <v>3.440305681103666</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9.631959798994975</v>
+        <v>6.889298597194389</v>
       </c>
       <c r="B134" t="n">
-        <v>5.462308480685101e-08</v>
+        <v>1.298563128310747e-07</v>
       </c>
       <c r="C134" t="n">
-        <v>0.5337413411022714</v>
+        <v>0.5294851739916305</v>
       </c>
       <c r="D134" t="n">
-        <v>9.701696639770535</v>
+        <v>3.487469168068395</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>9.666783919597989</v>
+        <v>6.903186372745491</v>
       </c>
       <c r="B135" t="n">
-        <v>5.451999128602795e-08</v>
+        <v>1.28292566121233e-07</v>
       </c>
       <c r="C135" t="n">
-        <v>0.5364380648433382</v>
+        <v>0.5270079608104584</v>
       </c>
       <c r="D135" t="n">
-        <v>9.729544588520042</v>
+        <v>3.534657428145239</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>9.701608040201005</v>
+        <v>6.917074148296593</v>
       </c>
       <c r="B136" t="n">
-        <v>5.44222253998054e-08</v>
+        <v>1.267678512152858e-07</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5391671805557661</v>
+        <v>0.5245995685821232</v>
       </c>
       <c r="D136" t="n">
-        <v>9.756229988267972</v>
+        <v>3.581858178442187</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>9.736432160804021</v>
+        <v>6.930961923847695</v>
       </c>
       <c r="B137" t="n">
-        <v>5.433004845921986e-08</v>
+        <v>1.252830020077959e-07</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5419329229216935</v>
+        <v>0.5222576301953507</v>
       </c>
       <c r="D137" t="n">
-        <v>9.781860960642492</v>
+        <v>3.629072625420081</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>9.771256281407036</v>
+        <v>6.944849699398798</v>
       </c>
       <c r="B138" t="n">
-        <v>5.4243265265932e-08</v>
+        <v>1.238348569892342e-07</v>
       </c>
       <c r="C138" t="n">
-        <v>0.5447336490705283</v>
+        <v>0.5199807462712541</v>
       </c>
       <c r="D138" t="n">
-        <v>9.806424205163747</v>
+        <v>3.676290442555786</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>9.80608040201005</v>
+        <v>6.9587374749499</v>
       </c>
       <c r="B139" t="n">
-        <v>5.416171209403306e-08</v>
+        <v>1.224229178069945e-07</v>
       </c>
       <c r="C139" t="n">
-        <v>0.5475687339718889</v>
+        <v>0.5177669659097744</v>
       </c>
       <c r="D139" t="n">
-        <v>9.82992644975227</v>
+        <v>3.723508633894824</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>9.840904522613066</v>
+        <v>6.972625250501002</v>
       </c>
       <c r="B140" t="n">
-        <v>5.408525909818861e-08</v>
+        <v>1.2104604067259e-07</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5504386990205378</v>
+        <v>0.5156147467777551</v>
       </c>
       <c r="D140" t="n">
-        <v>9.852399214292104</v>
+        <v>3.770721774341947</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9.875728643216082</v>
+        <v>6.986513026052105</v>
       </c>
       <c r="B141" t="n">
-        <v>5.401364950589853e-08</v>
+        <v>1.197032583657086e-07</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5533422789101085</v>
+        <v>0.5135223728276528</v>
       </c>
       <c r="D141" t="n">
-        <v>9.873835778942592</v>
+        <v>3.817921236993163</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>9.910552763819096</v>
+        <v>7.000400801603207</v>
       </c>
       <c r="B142" t="n">
-        <v>5.394703885807988e-08</v>
+        <v>1.183923493251782e-07</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5562800979624554</v>
+        <v>0.5114880382292616</v>
       </c>
       <c r="D142" t="n">
-        <v>9.894268150565896</v>
+        <v>3.86510441580503</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>9.94537688442211</v>
+        <v>7.014288577154309</v>
       </c>
       <c r="B143" t="n">
-        <v>5.388504986198088e-08</v>
+        <v>1.171137144411448e-07</v>
       </c>
       <c r="C143" t="n">
-        <v>0.5592515327245814</v>
+        <v>0.5095107154645212</v>
       </c>
       <c r="D143" t="n">
-        <v>9.913704171544516</v>
+        <v>3.912265567676439</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>9.980201005025126</v>
+        <v>7.028176352705411</v>
       </c>
       <c r="B144" t="n">
-        <v>5.382765318868277e-08</v>
+        <v>1.158658668974052e-07</v>
       </c>
       <c r="C144" t="n">
-        <v>0.562255893355168</v>
+        <v>0.5075888461097733</v>
       </c>
       <c r="D144" t="n">
-        <v>9.932147241552141</v>
+        <v>3.959399219013548</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>10.01502512562814</v>
+        <v>7.042064128256513</v>
       </c>
       <c r="B145" t="n">
-        <v>5.377468534054698e-08</v>
+        <v>1.146480062960119e-07</v>
       </c>
       <c r="C145" t="n">
-        <v>0.565293147016651</v>
+        <v>0.5057208984087078</v>
       </c>
       <c r="D145" t="n">
-        <v>9.949615437935327</v>
+        <v>4.006502188736372</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>10.04984924623116</v>
+        <v>7.055951903807616</v>
       </c>
       <c r="B146" t="n">
-        <v>5.372621243224491e-08</v>
+        <v>1.134583312859749e-07</v>
       </c>
       <c r="C146" t="n">
-        <v>0.568363957748524</v>
+        <v>0.503905375037783</v>
       </c>
       <c r="D146" t="n">
-        <v>9.966143617205969</v>
+        <v>4.053562692293384</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>10.08467336683417</v>
+        <v>7.069839679358718</v>
       </c>
       <c r="B147" t="n">
-        <v>5.368197786054789e-08</v>
+        <v>1.122967362218101e-07</v>
       </c>
       <c r="C147" t="n">
-        <v>0.5714673217193023</v>
+        <v>0.5021412807396182</v>
       </c>
       <c r="D147" t="n">
-        <v>9.981727503620212</v>
+        <v>4.100585108548105</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>10.11949748743719</v>
+        <v>7.08372745490982</v>
       </c>
       <c r="B148" t="n">
-        <v>5.364186599528904e-08</v>
+        <v>1.111622787299502e-07</v>
       </c>
       <c r="C148" t="n">
-        <v>0.5746028533450739</v>
+        <v>0.5004271409241198</v>
       </c>
       <c r="D148" t="n">
-        <v>9.996377434497639</v>
+        <v>4.147555338034476</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>10.1543216080402</v>
+        <v>7.097615230460923</v>
       </c>
       <c r="B149" t="n">
-        <v>5.360587620110906e-08</v>
+        <v>1.100539402481117e-07</v>
       </c>
       <c r="C149" t="n">
-        <v>0.577770634979164</v>
+        <v>0.4987616022462482</v>
       </c>
       <c r="D149" t="n">
-        <v>10.01011315555664</v>
+        <v>4.194475005352057</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>10.18914572864322</v>
+        <v>7.111503006012024</v>
       </c>
       <c r="B150" t="n">
-        <v>5.357389481835938e-08</v>
+        <v>1.089717125360553e-07</v>
       </c>
       <c r="C150" t="n">
-        <v>0.5809706053221778</v>
+        <v>0.4971439979350329</v>
       </c>
       <c r="D150" t="n">
-        <v>10.02295259754028</v>
+        <v>4.241338820380908</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>10.22396984924623</v>
+        <v>7.125390781563127</v>
       </c>
       <c r="B151" t="n">
-        <v>5.354578476136153e-08</v>
+        <v>1.079134232662345e-07</v>
       </c>
       <c r="C151" t="n">
-        <v>0.5842024620007309</v>
+        <v>0.4955727081278102</v>
       </c>
       <c r="D151" t="n">
-        <v>10.03490572827596</v>
+        <v>4.288138343337218</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>10.25879396984925</v>
+        <v>7.139278557114229</v>
       </c>
       <c r="B152" t="n">
-        <v>5.352145378137251e-08</v>
+        <v>1.068793447229925e-07</v>
       </c>
       <c r="C152" t="n">
-        <v>0.5874655782870973</v>
+        <v>0.4940467179563519</v>
       </c>
       <c r="D152" t="n">
-        <v>10.04597679655376</v>
+        <v>4.334872431816676</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>10.29361809045226</v>
+        <v>7.153166332665331</v>
       </c>
       <c r="B153" t="n">
-        <v>5.350088599797846e-08</v>
+        <v>1.058682275489297e-07</v>
       </c>
       <c r="C153" t="n">
-        <v>0.5907604529941211</v>
+        <v>0.4925650682124553</v>
       </c>
       <c r="D153" t="n">
-        <v>10.05619432433743</v>
+        <v>4.381536453448639</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>10.32844221105528</v>
+        <v>7.167054108216433</v>
       </c>
       <c r="B154" t="n">
-        <v>5.348395593385415e-08</v>
+        <v>1.048802708474475e-07</v>
       </c>
       <c r="C154" t="n">
-        <v>0.5940865810583126</v>
+        <v>0.4911266476381878</v>
       </c>
       <c r="D154" t="n">
-        <v>10.06556421287814</v>
+        <v>4.428123008555007</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>10.36326633165829</v>
+        <v>7.180941883767535</v>
       </c>
       <c r="B155" t="n">
-        <v>5.34705709680918e-08</v>
+        <v>1.039139899847976e-07</v>
       </c>
       <c r="C155" t="n">
-        <v>0.5974437653720835</v>
+        <v>0.4897305114003823</v>
       </c>
       <c r="D155" t="n">
-        <v>10.07409974240825</v>
+        <v>4.474631843244862</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10.39809045226131</v>
+        <v>7.194829659318637</v>
       </c>
       <c r="B156" t="n">
-        <v>5.346066696473251e-08</v>
+        <v>1.029688866096814e-07</v>
       </c>
       <c r="C156" t="n">
-        <v>0.6008318480161426</v>
+        <v>0.4883752758070156</v>
       </c>
       <c r="D156" t="n">
-        <v>10.08181362628189</v>
+        <v>4.521053737658403</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>10.43291457286432</v>
+        <v>7.20871743486974</v>
       </c>
       <c r="B157" t="n">
-        <v>5.345417932588889e-08</v>
+        <v>1.020446939390752e-07</v>
       </c>
       <c r="C157" t="n">
-        <v>0.6042506286171557</v>
+        <v>0.48706106460305</v>
       </c>
       <c r="D157" t="n">
-        <v>10.08871853679385</v>
+        <v>4.567390794112989</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10.46773869346734</v>
+        <v>7.222605210420841</v>
       </c>
       <c r="B158" t="n">
-        <v>5.345108376482674e-08</v>
+        <v>1.011404449298072e-07</v>
       </c>
       <c r="C158" t="n">
-        <v>0.6077001516753068</v>
+        <v>0.4857859682321667</v>
       </c>
       <c r="D158" t="n">
-        <v>10.0948311786133</v>
+        <v>4.613632650162184</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>10.50256281407035</v>
+        <v>7.236492985971944</v>
       </c>
       <c r="B159" t="n">
-        <v>5.345118388747817e-08</v>
+        <v>1.002557884139676e-07</v>
       </c>
       <c r="C159" t="n">
-        <v>0.6111803618754311</v>
+        <v>0.4845494564723961</v>
       </c>
       <c r="D159" t="n">
-        <v>10.10016728553957</v>
+        <v>4.659779295817533</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>10.53738693467337</v>
+        <v>7.250380761523046</v>
       </c>
       <c r="B160" t="n">
-        <v>5.345454331830854e-08</v>
+        <v>9.939016586140303e-08</v>
       </c>
       <c r="C160" t="n">
-        <v>0.6146908110377342</v>
+        <v>0.4833506481693594</v>
       </c>
       <c r="D160" t="n">
-        <v>10.10473241319425</v>
+        <v>4.705827476754616</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>10.57221105527638</v>
+        <v>7.264268537074148</v>
       </c>
       <c r="B161" t="n">
-        <v>5.346099436660646e-08</v>
+        <v>9.854299118701577e-08</v>
       </c>
       <c r="C161" t="n">
-        <v>0.6182312875890865</v>
+        <v>0.4821889797795304</v>
       </c>
       <c r="D161" t="n">
-        <v>10.10853800654676</v>
+        <v>4.751769232620792</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>10.6070351758794</v>
+        <v>7.278156312625251</v>
       </c>
       <c r="B162" t="n">
-        <v>5.34705384506671e-08</v>
+        <v>9.771349955923162e-08</v>
       </c>
       <c r="C162" t="n">
-        <v>0.6218017934912984</v>
+        <v>0.4810626427592082</v>
       </c>
       <c r="D162" t="n">
-        <v>10.11159825484726</v>
+        <v>4.797600850669624</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>10.64185929648241</v>
+        <v>7.292044088176353</v>
       </c>
       <c r="B163" t="n">
-        <v>5.348307325970079e-08</v>
+        <v>9.690199022354864e-08</v>
       </c>
       <c r="C163" t="n">
-        <v>0.6254021705369865</v>
+        <v>0.4799720075350992</v>
       </c>
       <c r="D163" t="n">
-        <v>10.11392863337865</v>
+        <v>4.84332496227334</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>10.67668341708543</v>
+        <v>7.305931863727455</v>
       </c>
       <c r="B164" t="n">
-        <v>5.349867259403343e-08</v>
+        <v>9.610681752907598e-08</v>
       </c>
       <c r="C164" t="n">
-        <v>0.6290332189361487</v>
+        <v>0.4789158155781914</v>
       </c>
       <c r="D164" t="n">
-        <v>10.11555830878617</v>
+        <v>4.88892991507957</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>10.71150753768844</v>
+        <v>7.319819639278557</v>
       </c>
       <c r="B165" t="n">
-        <v>5.351702607052807e-08</v>
+        <v>9.532874860546609e-08</v>
       </c>
       <c r="C165" t="n">
-        <v>0.6326925168575696</v>
+        <v>0.4778938249889363</v>
       </c>
       <c r="D165" t="n">
-        <v>10.11644988027881</v>
+        <v>4.934418226090863</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>10.74633165829146</v>
+        <v>7.333707414829659</v>
       </c>
       <c r="B166" t="n">
-        <v>5.353825846091123e-08</v>
+        <v>9.456653802770667e-08</v>
       </c>
       <c r="C166" t="n">
-        <v>0.6363818568667107</v>
+        <v>0.4769042971499626</v>
       </c>
       <c r="D166" t="n">
-        <v>10.11665803319839</v>
+        <v>4.979780875541062</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>10.78115577889447</v>
+        <v>7.347595190380762</v>
       </c>
       <c r="B167" t="n">
-        <v>5.356229663883665e-08</v>
+        <v>9.381999963657258e-08</v>
       </c>
       <c r="C167" t="n">
-        <v>0.6401007144869467</v>
+        <v>0.4759475671149855</v>
       </c>
       <c r="D167" t="n">
-        <v>10.1161861268447</v>
+        <v>5.025019886251857</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>10.81597989949749</v>
+        <v>7.361482965931864</v>
       </c>
       <c r="B168" t="n">
-        <v>5.358900555903263e-08</v>
+        <v>9.308874540046295e-08</v>
       </c>
       <c r="C168" t="n">
-        <v>0.6438488153854605</v>
+        <v>0.475022707546949</v>
       </c>
       <c r="D168" t="n">
-        <v>10.11504120125638</v>
+        <v>5.070129544526009</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>10.8508040201005</v>
+        <v>7.375370741482966</v>
       </c>
       <c r="B169" t="n">
-        <v>5.361858642754705e-08</v>
+        <v>9.23725134878025e-08</v>
       </c>
       <c r="C169" t="n">
-        <v>0.6476268140795209</v>
+        <v>0.474128114951169</v>
       </c>
       <c r="D169" t="n">
-        <v>10.11325183603662</v>
+        <v>5.115103889210537</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>10.88562814070352</v>
+        <v>7.389258517034069</v>
       </c>
       <c r="B170" t="n">
-        <v>5.365063093372884e-08</v>
+        <v>9.16702983771251e-08</v>
       </c>
       <c r="C170" t="n">
-        <v>0.6514330028949692</v>
+        <v>0.4732651060373712</v>
       </c>
       <c r="D170" t="n">
-        <v>10.11079544894916</v>
+        <v>5.159948693207881</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>10.92045226130653</v>
+        <v>7.40314629258517</v>
       </c>
       <c r="B171" t="n">
-        <v>5.368527051188322e-08</v>
+        <v>9.098237655995994e-08</v>
       </c>
       <c r="C171" t="n">
-        <v>0.6552680596106646</v>
+        <v>0.4724313449436654</v>
       </c>
       <c r="D171" t="n">
-        <v>10.10770100843183</v>
+        <v>5.204647534073366</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>10.95527638190955</v>
+        <v>7.417034068136273</v>
       </c>
       <c r="B172" t="n">
-        <v>5.372249191685245e-08</v>
+        <v>9.03084376082974e-08</v>
       </c>
       <c r="C172" t="n">
-        <v>0.6591323437218655</v>
+        <v>0.4716272288635404</v>
       </c>
       <c r="D172" t="n">
-        <v>10.10398936231282</v>
+        <v>5.249207946509064</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>10.99010050251256</v>
+        <v>7.430921843687375</v>
       </c>
       <c r="B173" t="n">
-        <v>5.37622450892201e-08</v>
+        <v>8.964769738743835e-08</v>
       </c>
       <c r="C173" t="n">
-        <v>0.6630256416046726</v>
+        <v>0.4708514799574399</v>
       </c>
       <c r="D173" t="n">
-        <v>10.09966971053143</v>
+        <v>5.293621811467888</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>11.02492462311558</v>
+        <v>7.444809619238477</v>
       </c>
       <c r="B174" t="n">
-        <v>5.380441208215695e-08</v>
+        <v>8.900008348022346e-08</v>
       </c>
       <c r="C174" t="n">
-        <v>0.6669479184614256</v>
+        <v>0.4701041715007705</v>
       </c>
       <c r="D174" t="n">
-        <v>10.09475382845929</v>
+        <v>5.337888607501267</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>11.05974874371859</v>
+        <v>7.45869739478958</v>
       </c>
       <c r="B175" t="n">
-        <v>5.384902809284438e-08</v>
+        <v>8.836487396057378e-08</v>
       </c>
       <c r="C175" t="n">
-        <v>0.6708987722310336</v>
+        <v>0.4693837120103831</v>
       </c>
       <c r="D175" t="n">
-        <v>10.08924445603231</v>
+        <v>5.382002660749412</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>11.09457286432161</v>
+        <v>7.472585170340682</v>
       </c>
       <c r="B176" t="n">
-        <v>5.389588674970729e-08</v>
+        <v>8.774257579428315e-08</v>
       </c>
       <c r="C176" t="n">
-        <v>0.6748770771351884</v>
+        <v>0.4686908283679466</v>
       </c>
       <c r="D176" t="n">
-        <v>10.08313573853869</v>
+        <v>5.425962789947674</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>11.12939698492462</v>
+        <v>7.486472945891784</v>
       </c>
       <c r="B177" t="n">
-        <v>5.39451315515843e-08</v>
+        <v>8.713212339828819e-08</v>
       </c>
       <c r="C177" t="n">
-        <v>0.6788840552440076</v>
+        <v>0.4680249537799638</v>
       </c>
       <c r="D177" t="n">
-        <v>10.07646116136187</v>
+        <v>5.469768876786083</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>11.16422110552764</v>
+        <v>7.500360721442886</v>
       </c>
       <c r="B178" t="n">
-        <v>5.399673471293713e-08</v>
+        <v>8.65332333513427e-08</v>
       </c>
       <c r="C178" t="n">
-        <v>0.6829201954375622</v>
+        <v>0.4673831870740037</v>
       </c>
       <c r="D178" t="n">
-        <v>10.06924652955371</v>
+        <v>5.513407630093432</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>11.19904522613065</v>
+        <v>7.514248496993988</v>
       </c>
       <c r="B179" t="n">
-        <v>5.405053509162451e-08</v>
+        <v>8.594621883046692e-08</v>
       </c>
       <c r="C179" t="n">
-        <v>0.6869842179058784</v>
+        <v>0.4667687892546543</v>
       </c>
       <c r="D179" t="n">
-        <v>10.06147470762412</v>
+        <v>5.55689340977889</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>11.23386934673367</v>
+        <v>7.52813627254509</v>
       </c>
       <c r="B180" t="n">
-        <v>5.41061886641639e-08</v>
+        <v>8.537008997249107e-08</v>
       </c>
       <c r="C180" t="n">
-        <v>0.6910725356976902</v>
+        <v>0.4661782729051613</v>
       </c>
       <c r="D180" t="n">
-        <v>10.05307976877255</v>
+        <v>5.600207804289321</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>11.26869346733668</v>
+        <v>7.542024048096192</v>
       </c>
       <c r="B181" t="n">
-        <v>5.416418496750951e-08</v>
+        <v>8.480542828968462e-08</v>
       </c>
       <c r="C181" t="n">
-        <v>0.6951907582581466</v>
+        <v>0.4656141140797141</v>
       </c>
       <c r="D181" t="n">
-        <v>10.04419474201989</v>
+        <v>5.643363234166027</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>11.3035175879397</v>
+        <v>7.555911823647294</v>
       </c>
       <c r="B182" t="n">
-        <v>5.422462177135781e-08</v>
+        <v>8.425168926916015e-08</v>
       </c>
       <c r="C182" t="n">
-        <v>0.6993399530649762</v>
+        <v>0.4650743435025818</v>
       </c>
       <c r="D182" t="n">
-        <v>10.03486181685299</v>
+        <v>5.686351134224781</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>11.33834170854271</v>
+        <v>7.569799599198397</v>
       </c>
       <c r="B183" t="n">
-        <v>5.42870953234228e-08</v>
+        <v>8.370733632874157e-08</v>
       </c>
       <c r="C183" t="n">
-        <v>0.7035164962758619</v>
+        <v>0.4645559868608021</v>
       </c>
       <c r="D183" t="n">
-        <v>10.02500718745879</v>
+        <v>5.729153683893506</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>11.37316582914573</v>
+        <v>7.583687374749499</v>
       </c>
       <c r="B184" t="n">
-        <v>5.43516850991863e-08</v>
+        <v>8.317360951275571e-08</v>
       </c>
       <c r="C184" t="n">
-        <v>0.7077213221704994</v>
+        <v>0.4640615170014911</v>
       </c>
       <c r="D184" t="n">
-        <v>10.0146643187776</v>
+        <v>5.771786957970932</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>11.40798994974874</v>
+        <v>7.597575150300601</v>
       </c>
       <c r="B185" t="n">
-        <v>5.441825428695797e-08</v>
+        <v>8.265012199275543e-08</v>
       </c>
       <c r="C185" t="n">
-        <v>0.7119527185877005</v>
+        <v>0.4635908476577882</v>
       </c>
       <c r="D185" t="n">
-        <v>10.00380458976652</v>
+        <v>5.814245914713048</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>11.44281407035176</v>
+        <v>7.611462925851704</v>
       </c>
       <c r="B186" t="n">
-        <v>5.448682445949613e-08</v>
+        <v>8.21360654725251e-08</v>
       </c>
       <c r="C186" t="n">
-        <v>0.7162128424185643</v>
+        <v>0.4631423122214403</v>
       </c>
       <c r="D186" t="n">
-        <v>9.992491412434431</v>
+        <v>5.856524111793735</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>11.47763819095477</v>
+        <v>7.625350701402805</v>
       </c>
       <c r="B187" t="n">
-        <v>5.455746296627286e-08</v>
+        <v>8.163189493502048e-08</v>
       </c>
       <c r="C187" t="n">
-        <v>0.7205009301454098</v>
+        <v>0.4627166580094527</v>
       </c>
       <c r="D187" t="n">
-        <v>9.980719001000988</v>
+        <v>5.898626812588368</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>11.51246231155779</v>
+        <v>7.639238476953908</v>
       </c>
       <c r="B188" t="n">
-        <v>5.462987615625349e-08</v>
+        <v>8.113635472087367e-08</v>
       </c>
       <c r="C188" t="n">
-        <v>0.7248152411156765</v>
+        <v>0.4623103289874723</v>
       </c>
       <c r="D188" t="n">
-        <v>9.968455482131548</v>
+        <v>5.940533875338319</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>11.5472864321608</v>
+        <v>7.65312625250501</v>
       </c>
       <c r="B189" t="n">
-        <v>5.470444747114799e-08</v>
+        <v>8.06507733835925e-08</v>
       </c>
       <c r="C189" t="n">
-        <v>0.7291586051404629</v>
+        <v>0.4619292025000085</v>
       </c>
       <c r="D189" t="n">
-        <v>9.955776584863992</v>
+        <v>5.982276653040453</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>11.58211055276382</v>
+        <v>7.667014028056112</v>
       </c>
       <c r="B190" t="n">
-        <v>5.478086818062027e-08</v>
+        <v>8.017319334855077e-08</v>
       </c>
       <c r="C190" t="n">
-        <v>0.7335296941045731</v>
+        <v>0.4615650783856111</v>
       </c>
       <c r="D190" t="n">
-        <v>9.942662057569866</v>
+        <v>6.023810463089258</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>11.61693467336683</v>
+        <v>7.680901803607215</v>
       </c>
       <c r="B191" t="n">
-        <v>5.485895584329134e-08</v>
+        <v>7.970480074333105e-08</v>
       </c>
       <c r="C191" t="n">
-        <v>0.7379259066189008</v>
+        <v>0.4612244781761685</v>
       </c>
       <c r="D191" t="n">
-        <v>9.929066940638865</v>
+        <v>6.065169848415476</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>11.65175879396985</v>
+        <v>7.694789579158317</v>
       </c>
       <c r="B192" t="n">
-        <v>5.493895895770873e-08</v>
+        <v>7.924480945011396e-08</v>
       </c>
       <c r="C192" t="n">
-        <v>0.74235020742334</v>
+        <v>0.4609028441705693</v>
       </c>
       <c r="D192" t="n">
-        <v>9.91506544457801</v>
+        <v>6.106331473648041</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>11.68658291457287</v>
+        <v>7.708677354709419</v>
       </c>
       <c r="B193" t="n">
-        <v>5.50207636238347e-08</v>
+        <v>7.879282413506433e-08</v>
       </c>
       <c r="C193" t="n">
-        <v>0.7468017584308518</v>
+        <v>0.460601797859482</v>
       </c>
       <c r="D193" t="n">
-        <v>9.900651226311448</v>
+        <v>6.147302872923792</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>11.72140703517588</v>
+        <v>7.722565130260522</v>
       </c>
       <c r="B194" t="n">
-        <v>5.510436578412698e-08</v>
+        <v>7.834923256298763e-08</v>
       </c>
       <c r="C194" t="n">
-        <v>0.7512806223972683</v>
+        <v>0.4603198028803185</v>
       </c>
       <c r="D194" t="n">
-        <v>9.885833643162082</v>
+        <v>6.188077345108431</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>11.7562311557789</v>
+        <v>7.736452905811623</v>
       </c>
       <c r="B195" t="n">
-        <v>5.518972972654288e-08</v>
+        <v>7.791345949730032e-08</v>
       </c>
       <c r="C195" t="n">
-        <v>0.7557865019612372</v>
+        <v>0.4600570445440149</v>
       </c>
       <c r="D195" t="n">
-        <v>9.870616215373229</v>
+        <v>6.228654865625809</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>11.79105527638191</v>
+        <v>7.750340681362726</v>
       </c>
       <c r="B196" t="n">
-        <v>5.527686436235497e-08</v>
+        <v>7.748559119176184e-08</v>
       </c>
       <c r="C196" t="n">
-        <v>0.760319783309533</v>
+        <v>0.4598144149894223</v>
       </c>
       <c r="D196" t="n">
-        <v>9.855019167623873</v>
+        <v>6.269041553629098</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>11.82587939698492</v>
+        <v>7.764228456913828</v>
       </c>
       <c r="B197" t="n">
-        <v>5.536564307277989e-08</v>
+        <v>7.706457332429934e-08</v>
       </c>
       <c r="C197" t="n">
-        <v>0.7648797655377032</v>
+        <v>0.4595876906194548</v>
       </c>
       <c r="D197" t="n">
-        <v>9.839031274619908</v>
+        <v>6.309210242336396</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>11.86070351758794</v>
+        <v>7.77811623246493</v>
       </c>
       <c r="B198" t="n">
-        <v>5.545613659382554e-08</v>
+        <v>7.665220922180624e-08</v>
       </c>
       <c r="C198" t="n">
-        <v>0.769466494768271</v>
+        <v>0.4593836265885769</v>
       </c>
       <c r="D198" t="n">
-        <v>9.822673596309848</v>
+        <v>6.349207340752035</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>11.89552763819096</v>
+        <v>7.792004008016033</v>
       </c>
       <c r="B199" t="n">
-        <v>5.554828595184487e-08</v>
+        <v>7.624608743971004e-08</v>
       </c>
       <c r="C199" t="n">
-        <v>0.7740805450080049</v>
+        <v>0.459194263464571</v>
       </c>
       <c r="D199" t="n">
-        <v>9.805958350601248</v>
+        <v>6.388975984230364</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>11.93035175879397</v>
+        <v>7.805891783567134</v>
       </c>
       <c r="B200" t="n">
-        <v>5.564206242833022e-08</v>
+        <v>7.58475693603436e-08</v>
       </c>
       <c r="C200" t="n">
-        <v>0.7787210008963564</v>
+        <v>0.4590248242557562</v>
       </c>
       <c r="D200" t="n">
-        <v>9.788876906856087</v>
+        <v>6.428555994382305</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>11.96517587939698</v>
+        <v>7.819779559118237</v>
       </c>
       <c r="B201" t="n">
-        <v>5.573746126376541e-08</v>
+        <v>7.545610297688096e-08</v>
       </c>
       <c r="C201" t="n">
-        <v>0.7833885980652933</v>
+        <v>0.4588733630416469</v>
       </c>
       <c r="D201" t="n">
-        <v>9.771457086916426</v>
+        <v>6.467933326496165</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
+        <v>7.833667334669339</v>
+      </c>
+      <c r="B202" t="n">
+        <v>7.507092080283023e-08</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.4587365942282173</v>
+      </c>
+      <c r="D202" t="n">
+        <v>6.507085994502062</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>7.847555110220441</v>
+      </c>
+      <c r="B203" t="n">
+        <v>7.469271066327922e-08</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.4586185353911841</v>
+      </c>
+      <c r="D203" t="n">
+        <v>6.546041170374282</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>7.861442885771543</v>
+      </c>
+      <c r="B204" t="n">
+        <v>7.432091265557094e-08</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.4585165436959242</v>
+      </c>
+      <c r="D204" t="n">
+        <v>6.58478007655153</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>7.875330661322645</v>
+      </c>
+      <c r="B205" t="n">
+        <v>7.395589997635993e-08</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.4584335617260528</v>
+      </c>
+      <c r="D205" t="n">
+        <v>6.623327910007033</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>7.889218436873747</v>
+      </c>
+      <c r="B206" t="n">
+        <v>7.359636039928257e-08</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.4583633410241028</v>
+      </c>
+      <c r="D206" t="n">
+        <v>6.661636487945287</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>7.90310621242485</v>
+      </c>
+      <c r="B207" t="n">
+        <v>7.32434340549938e-08</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.4583110678929873</v>
+      </c>
+      <c r="D207" t="n">
+        <v>6.69974636190469</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>7.916993987975951</v>
+      </c>
+      <c r="B208" t="n">
+        <v>7.289644318916218e-08</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.4582744598803672</v>
+      </c>
+      <c r="D208" t="n">
+        <v>6.737640521031567</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>7.930881763527054</v>
+      </c>
+      <c r="B209" t="n">
+        <v>7.255526050838065e-08</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.4582531084096167</v>
+      </c>
+      <c r="D209" t="n">
+        <v>6.775316344740007</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>7.944769539078156</v>
+      </c>
+      <c r="B210" t="n">
+        <v>7.221993781371977e-08</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.4582475494380351</v>
+      </c>
+      <c r="D210" t="n">
+        <v>6.812778922166883</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>7.958657314629258</v>
+      </c>
+      <c r="B211" t="n">
+        <v>7.189006183330776e-08</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.4582562344803403</v>
+      </c>
+      <c r="D211" t="n">
+        <v>6.850017253271554</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>7.972545090180361</v>
+      </c>
+      <c r="B212" t="n">
+        <v>7.156620601612351e-08</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.4582822254770467</v>
+      </c>
+      <c r="D212" t="n">
+        <v>6.887054694732744</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>7.986432865731463</v>
+      </c>
+      <c r="B213" t="n">
+        <v>7.124763067323421e-08</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.4583225895451865</v>
+      </c>
+      <c r="D213" t="n">
+        <v>6.923870724659108</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>8.000320641282565</v>
+      </c>
+      <c r="B214" t="n">
+        <v>7.093450503392095e-08</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.4583779209582066</v>
+      </c>
+      <c r="D214" t="n">
+        <v>6.960470121464653</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>8.014208416833668</v>
+      </c>
+      <c r="B215" t="n">
+        <v>7.062587728806236e-08</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.4584437362386544</v>
+      </c>
+      <c r="D215" t="n">
+        <v>6.996815160290526</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>8.028096192384769</v>
+      </c>
+      <c r="B216" t="n">
+        <v>7.03226212788753e-08</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.4585262874485533</v>
+      </c>
+      <c r="D216" t="n">
+        <v>7.032958731022708</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>8.041983967935872</v>
+      </c>
+      <c r="B217" t="n">
+        <v>7.002468397617344e-08</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.4586226619385468</v>
+      </c>
+      <c r="D217" t="n">
+        <v>7.068880627709099</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>8.055871743486975</v>
+      </c>
+      <c r="B218" t="n">
+        <v>6.973128420576843e-08</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.4587320030269046</v>
+      </c>
+      <c r="D218" t="n">
+        <v>7.104568823787511</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>8.069759519038076</v>
+      </c>
+      <c r="B219" t="n">
+        <v>6.944302798191741e-08</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.4588567893416975</v>
+      </c>
+      <c r="D219" t="n">
+        <v>7.140051196654077</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>8.083647294589179</v>
+      </c>
+      <c r="B220" t="n">
+        <v>6.915948067027872e-08</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.4589945099616874</v>
+      </c>
+      <c r="D220" t="n">
+        <v>7.175305092473272</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>8.097535070140282</v>
+      </c>
+      <c r="B221" t="n">
+        <v>6.888041427659754e-08</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.4591448908887294</v>
+      </c>
+      <c r="D221" t="n">
+        <v>7.210325328926136</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>8.111422845691383</v>
+      </c>
+      <c r="B222" t="n">
+        <v>6.860603261370516e-08</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.4593089793066543</v>
+      </c>
+      <c r="D222" t="n">
+        <v>7.245127876960433</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>8.125310621242486</v>
+      </c>
+      <c r="B223" t="n">
+        <v>6.833598701315888e-08</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.4594852504272203</v>
+      </c>
+      <c r="D223" t="n">
+        <v>7.279693961045287</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>8.139198396793587</v>
+      </c>
+      <c r="B224" t="n">
+        <v>6.807070614180686e-08</v>
+      </c>
+      <c r="C224" t="n">
+        <v>0.4596760306846496</v>
+      </c>
+      <c r="D224" t="n">
+        <v>7.314052608682069</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>8.15308617234469</v>
+      </c>
+      <c r="B225" t="n">
+        <v>6.780915728860017e-08</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.4598766932584167</v>
+      </c>
+      <c r="D225" t="n">
+        <v>7.348153331357033</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>8.166973947895791</v>
+      </c>
+      <c r="B226" t="n">
+        <v>6.755195591779146e-08</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.4600910698728576</v>
+      </c>
+      <c r="D226" t="n">
+        <v>7.382039747657503</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>8.180861723446894</v>
+      </c>
+      <c r="B227" t="n">
+        <v>6.729911715531632e-08</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.4603184987953226</v>
+      </c>
+      <c r="D227" t="n">
+        <v>7.415706696181044</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>8.194749498997997</v>
+      </c>
+      <c r="B228" t="n">
+        <v>6.705028995123492e-08</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.4605577529526561</v>
+      </c>
+      <c r="D228" t="n">
+        <v>7.449139934667569</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>8.208637274549098</v>
+      </c>
+      <c r="B229" t="n">
+        <v>6.68053726352843e-08</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.4608086219701798</v>
+      </c>
+      <c r="D229" t="n">
+        <v>7.482339277381223</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>8.222525050100201</v>
+      </c>
+      <c r="B230" t="n">
+        <v>6.656450856907333e-08</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.4610720536531061</v>
+      </c>
+      <c r="D230" t="n">
+        <v>7.515315056909161</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>8.236412825651303</v>
+      </c>
+      <c r="B231" t="n">
+        <v>6.632744773222358e-08</v>
+      </c>
+      <c r="C231" t="n">
+        <v>0.4613470551421358</v>
+      </c>
+      <c r="D231" t="n">
+        <v>7.548061424774316</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>8.250300601202404</v>
+      </c>
+      <c r="B232" t="n">
+        <v>6.609408322647707e-08</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.4616330711704502</v>
+      </c>
+      <c r="D232" t="n">
+        <v>7.580569840436787</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>8.264188376753507</v>
+      </c>
+      <c r="B233" t="n">
+        <v>6.58644748536395e-08</v>
+      </c>
+      <c r="C233" t="n">
+        <v>0.4619308820259813</v>
+      </c>
+      <c r="D233" t="n">
+        <v>7.61284986971706</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>8.27807615230461</v>
+      </c>
+      <c r="B234" t="n">
+        <v>6.563881955734937e-08</v>
+      </c>
+      <c r="C234" t="n">
+        <v>0.4622417861787678</v>
+      </c>
+      <c r="D234" t="n">
+        <v>7.644921344383045</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>8.291963927855711</v>
+      </c>
+      <c r="B235" t="n">
+        <v>6.541617212760454e-08</v>
+      </c>
+      <c r="C235" t="n">
+        <v>0.4625605230034638</v>
+      </c>
+      <c r="D235" t="n">
+        <v>7.676720679091058</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>8.305851703406814</v>
+      </c>
+      <c r="B236" t="n">
+        <v>6.519752538285009e-08</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.4628930858348027</v>
+      </c>
+      <c r="D236" t="n">
+        <v>7.708323052055025</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>8.319739478957915</v>
+      </c>
+      <c r="B237" t="n">
+        <v>6.49821391173031e-08</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.4632359744344253</v>
+      </c>
+      <c r="D237" t="n">
+        <v>7.739684734599289</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>8.333627254509018</v>
+      </c>
+      <c r="B238" t="n">
+        <v>6.477013893899541e-08</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.4635891894309919</v>
+      </c>
+      <c r="D238" t="n">
+        <v>7.770807817827158</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>8.347515030060119</v>
+      </c>
+      <c r="B239" t="n">
+        <v>6.456166311153121e-08</v>
+      </c>
+      <c r="C239" t="n">
+        <v>0.4639538381179416</v>
+      </c>
+      <c r="D239" t="n">
+        <v>7.801709953150782</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>8.361402805611222</v>
+      </c>
+      <c r="B240" t="n">
+        <v>6.435635683396073e-08</v>
+      </c>
+      <c r="C240" t="n">
+        <v>0.4643287070611719</v>
+      </c>
+      <c r="D240" t="n">
+        <v>7.832374474719079</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>8.375290581162325</v>
+      </c>
+      <c r="B241" t="n">
+        <v>6.415440248755343e-08</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.4647148474080795</v>
+      </c>
+      <c r="D241" t="n">
+        <v>7.862816709870939</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>8.389178356713426</v>
+      </c>
+      <c r="B242" t="n">
+        <v>6.395541354145709e-08</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.465110214003935</v>
+      </c>
+      <c r="D242" t="n">
+        <v>7.893012669506676</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>8.403066132264529</v>
+      </c>
+      <c r="B243" t="n">
+        <v>6.375969099344668e-08</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.4655168432786419</v>
+      </c>
+      <c r="D243" t="n">
+        <v>7.922987706123021</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>8.416953907815632</v>
+      </c>
+      <c r="B244" t="n">
+        <v>6.356703989822412e-08</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.4659333039052361</v>
+      </c>
+      <c r="D244" t="n">
+        <v>7.952727730939595</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>8.430841683366733</v>
+      </c>
+      <c r="B245" t="n">
+        <v>6.337731039489224e-08</v>
+      </c>
+      <c r="C245" t="n">
+        <v>0.4663596907267359</v>
+      </c>
+      <c r="D245" t="n">
+        <v>7.982235327627712</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>8.444729458917836</v>
+      </c>
+      <c r="B246" t="n">
+        <v>6.319060629659511e-08</v>
+      </c>
+      <c r="C246" t="n">
+        <v>0.4667962982300746</v>
+      </c>
+      <c r="D246" t="n">
+        <v>8.011513117323586</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>8.458617234468939</v>
+      </c>
+      <c r="B247" t="n">
+        <v>6.30069729373147e-08</v>
+      </c>
+      <c r="C247" t="n">
+        <v>0.4672429823721729</v>
+      </c>
+      <c r="D247" t="n">
+        <v>8.040561853742084</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>8.47250501002004</v>
+      </c>
+      <c r="B248" t="n">
+        <v>6.28260761012529e-08</v>
+      </c>
+      <c r="C248" t="n">
+        <v>0.4676996714796142</v>
+      </c>
+      <c r="D248" t="n">
+        <v>8.06938078833884</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>8.486392785571143</v>
+      </c>
+      <c r="B249" t="n">
+        <v>6.264794198011333e-08</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.468166027874913</v>
+      </c>
+      <c r="D249" t="n">
+        <v>8.097969427607609</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>8.500280561122246</v>
+      </c>
+      <c r="B250" t="n">
+        <v>6.247269019275122e-08</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.4686415905095204</v>
+      </c>
+      <c r="D250" t="n">
+        <v>8.12632190127189</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>8.514168336673347</v>
+      </c>
+      <c r="B251" t="n">
+        <v>6.23001684292501e-08</v>
+      </c>
+      <c r="C251" t="n">
+        <v>0.4691267055882356</v>
+      </c>
+      <c r="D251" t="n">
+        <v>8.15444491544064</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>8.52805611222445</v>
+      </c>
+      <c r="B252" t="n">
+        <v>6.213045821436179e-08</v>
+      </c>
+      <c r="C252" t="n">
+        <v>0.4696218517457909</v>
+      </c>
+      <c r="D252" t="n">
+        <v>8.182343171918772</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>8.541943887775551</v>
+      </c>
+      <c r="B253" t="n">
+        <v>6.196326590464537e-08</v>
+      </c>
+      <c r="C253" t="n">
+        <v>0.4701261884897129</v>
+      </c>
+      <c r="D253" t="n">
+        <v>8.210010212331509</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>8.555831663326654</v>
+      </c>
+      <c r="B254" t="n">
+        <v>6.179868993865836e-08</v>
+      </c>
+      <c r="C254" t="n">
+        <v>0.4706396712878994</v>
+      </c>
+      <c r="D254" t="n">
+        <v>8.237446609785367</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>8.569719438877755</v>
+      </c>
+      <c r="B255" t="n">
+        <v>6.163664461337474e-08</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.4711623291627887</v>
+      </c>
+      <c r="D255" t="n">
+        <v>8.264651343128824</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>8.583607214428858</v>
+      </c>
+      <c r="B256" t="n">
+        <v>6.147719220874289e-08</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.4716938382895173</v>
+      </c>
+      <c r="D256" t="n">
+        <v>8.291623848381011</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>8.59749498997996</v>
+      </c>
+      <c r="B257" t="n">
+        <v>6.132029359747155e-08</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.4722349181328425</v>
+      </c>
+      <c r="D257" t="n">
+        <v>8.318375071963356</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>8.611382765531062</v>
+      </c>
+      <c r="B258" t="n">
+        <v>6.116576636185411e-08</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.4727846374285329</v>
+      </c>
+      <c r="D258" t="n">
+        <v>8.344894364687889</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>8.625270541082164</v>
+      </c>
+      <c r="B259" t="n">
+        <v>6.101363039826372e-08</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.473343298284877</v>
+      </c>
+      <c r="D259" t="n">
+        <v>8.371185015627107</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>8.639158316633267</v>
+      </c>
+      <c r="B260" t="n">
+        <v>6.086390043977076e-08</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.4739108668184505</v>
+      </c>
+      <c r="D260" t="n">
+        <v>8.397249217556652</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>8.653046092184368</v>
+      </c>
+      <c r="B261" t="n">
+        <v>6.071660070850279e-08</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.474487212890991</v>
+      </c>
+      <c r="D261" t="n">
+        <v>8.423086812662106</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>8.666933867735471</v>
+      </c>
+      <c r="B262" t="n">
+        <v>6.057140800753541e-08</v>
+      </c>
+      <c r="C262" t="n">
+        <v>0.4750721320298324</v>
+      </c>
+      <c r="D262" t="n">
+        <v>8.448694775694367</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>8.680821643286574</v>
+      </c>
+      <c r="B263" t="n">
+        <v>6.042868349827491e-08</v>
+      </c>
+      <c r="C263" t="n">
+        <v>0.475665802961552</v>
+      </c>
+      <c r="D263" t="n">
+        <v>8.474079631272586</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>8.694709418837675</v>
+      </c>
+      <c r="B264" t="n">
+        <v>6.028804826735051e-08</v>
+      </c>
+      <c r="C264" t="n">
+        <v>0.4762673569681317</v>
+      </c>
+      <c r="D264" t="n">
+        <v>8.499229701129437</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>8.708597194388778</v>
+      </c>
+      <c r="B265" t="n">
+        <v>6.014967212212773e-08</v>
+      </c>
+      <c r="C265" t="n">
+        <v>0.4768776049891366</v>
+      </c>
+      <c r="D265" t="n">
+        <v>8.524155847500815</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>8.722484969939879</v>
+      </c>
+      <c r="B266" t="n">
+        <v>6.001347337307426e-08</v>
+      </c>
+      <c r="C266" t="n">
+        <v>0.4774965904377019</v>
+      </c>
+      <c r="D266" t="n">
+        <v>8.548862717539699</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>8.736372745490982</v>
+      </c>
+      <c r="B267" t="n">
+        <v>5.987939680028269e-08</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.4781237104863603</v>
+      </c>
+      <c r="D267" t="n">
+        <v>8.573341948801385</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>8.750260521042083</v>
+      </c>
+      <c r="B268" t="n">
+        <v>5.9747404120287e-08</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.4787590730122367</v>
+      </c>
+      <c r="D268" t="n">
+        <v>8.597597483279795</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>8.764148296593186</v>
+      </c>
+      <c r="B269" t="n">
+        <v>5.961761990748515e-08</v>
+      </c>
+      <c r="C269" t="n">
+        <v>0.4794031055919142</v>
+      </c>
+      <c r="D269" t="n">
+        <v>8.621634832883476</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>8.778036072144289</v>
+      </c>
+      <c r="B270" t="n">
+        <v>5.948975794179451e-08</v>
+      </c>
+      <c r="C270" t="n">
+        <v>0.4800546439890807</v>
+      </c>
+      <c r="D270" t="n">
+        <v>8.645440160044275</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>8.79192384769539</v>
+      </c>
+      <c r="B271" t="n">
+        <v>5.936392932707474e-08</v>
+      </c>
+      <c r="C271" t="n">
+        <v>0.4807142572262826</v>
+      </c>
+      <c r="D271" t="n">
+        <v>8.669022484531029</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>8.805811623246493</v>
+      </c>
+      <c r="B272" t="n">
+        <v>5.924008651540095e-08</v>
+      </c>
+      <c r="C272" t="n">
+        <v>0.4813818985258209</v>
+      </c>
+      <c r="D272" t="n">
+        <v>8.692382948515149</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>8.819699398797596</v>
+      </c>
+      <c r="B273" t="n">
+        <v>5.911816918126134e-08</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.4820574938445704</v>
+      </c>
+      <c r="D273" t="n">
+        <v>8.715521760239234</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>8.833587174348697</v>
+      </c>
+      <c r="B274" t="n">
+        <v>5.899821853363614e-08</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.4827409824213987</v>
+      </c>
+      <c r="D274" t="n">
+        <v>8.738439992848955</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>8.8474749498998</v>
+      </c>
+      <c r="B275" t="n">
+        <v>5.888012665271522e-08</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.483432309806651</v>
+      </c>
+      <c r="D275" t="n">
+        <v>8.761136662392184</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>8.861362725450903</v>
+      </c>
+      <c r="B276" t="n">
+        <v>5.87639417829061e-08</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.4841314126797294</v>
+      </c>
+      <c r="D276" t="n">
+        <v>8.783613607107972</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>8.875250501002004</v>
+      </c>
+      <c r="B277" t="n">
+        <v>5.864962995191584e-08</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.4848382355072374</v>
+      </c>
+      <c r="D277" t="n">
+        <v>8.805871210202326</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>8.889138276553107</v>
+      </c>
+      <c r="B278" t="n">
+        <v>5.853713630333745e-08</v>
+      </c>
+      <c r="C278" t="n">
+        <v>0.4855527145160765</v>
+      </c>
+      <c r="D278" t="n">
+        <v>8.827910498491983</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>8.903026052104209</v>
+      </c>
+      <c r="B279" t="n">
+        <v>5.842642340439142e-08</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.4862748063846902</v>
+      </c>
+      <c r="D279" t="n">
+        <v>8.849730152596821</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>8.916913827655311</v>
+      </c>
+      <c r="B280" t="n">
+        <v>5.831745439604815e-08</v>
+      </c>
+      <c r="C280" t="n">
+        <v>0.4870044380768841</v>
+      </c>
+      <c r="D280" t="n">
+        <v>8.871332545607448</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>8.930801603206413</v>
+      </c>
+      <c r="B281" t="n">
+        <v>5.821023866218687e-08</v>
+      </c>
+      <c r="C281" t="n">
+        <v>0.4877412613421585</v>
+      </c>
+      <c r="D281" t="n">
+        <v>8.892712691240948</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>8.944689378757515</v>
+      </c>
+      <c r="B282" t="n">
+        <v>5.810475277638447e-08</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.4884857850073046</v>
+      </c>
+      <c r="D282" t="n">
+        <v>8.913880371128789</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>8.958577154308617</v>
+      </c>
+      <c r="B283" t="n">
+        <v>5.800104180659912e-08</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.4892377069745386</v>
+      </c>
+      <c r="D283" t="n">
+        <v>8.934832123666604</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>8.972464929859719</v>
+      </c>
+      <c r="B284" t="n">
+        <v>5.789888754812064e-08</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.4899969687630202</v>
+      </c>
+      <c r="D284" t="n">
+        <v>8.955569019424274</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>8.986352705410821</v>
+      </c>
+      <c r="B285" t="n">
+        <v>5.779867204522719e-08</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.4907649435458868</v>
+      </c>
+      <c r="D285" t="n">
+        <v>8.976115179537556</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>9.000240480961924</v>
+      </c>
+      <c r="B286" t="n">
+        <v>5.769971005572945e-08</v>
+      </c>
+      <c r="C286" t="n">
+        <v>0.4915380232390353</v>
+      </c>
+      <c r="D286" t="n">
+        <v>8.996409999109517</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>9.014128256513025</v>
+      </c>
+      <c r="B287" t="n">
+        <v>5.760255820210839e-08</v>
+      </c>
+      <c r="C287" t="n">
+        <v>0.4923195061581257</v>
+      </c>
+      <c r="D287" t="n">
+        <v>9.016512853915875</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>9.028016032064128</v>
+      </c>
+      <c r="B288" t="n">
+        <v>5.750687060036466e-08</v>
+      </c>
+      <c r="C288" t="n">
+        <v>0.4931068354840663</v>
+      </c>
+      <c r="D288" t="n">
+        <v>9.036380919219196</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>9.041903807615231</v>
+      </c>
+      <c r="B289" t="n">
+        <v>5.741275955513595e-08</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.4939020715149229</v>
+      </c>
+      <c r="D289" t="n">
+        <v>9.056050523095031</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>9.055791583166332</v>
+      </c>
+      <c r="B290" t="n">
+        <v>5.732018831732396e-08</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.494704156617447</v>
+      </c>
+      <c r="D290" t="n">
+        <v>9.07550453881418</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>9.069679358717435</v>
+      </c>
+      <c r="B291" t="n">
+        <v>5.722932224641812e-08</v>
+      </c>
+      <c r="C291" t="n">
+        <v>0.4955138036426492</v>
+      </c>
+      <c r="D291" t="n">
+        <v>9.094758074892429</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>9.083567134268538</v>
+      </c>
+      <c r="B292" t="n">
+        <v>5.713987564809075e-08</v>
+      </c>
+      <c r="C292" t="n">
+        <v>0.4963302071657432</v>
+      </c>
+      <c r="D292" t="n">
+        <v>9.113797879140002</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>9.097454909819639</v>
+      </c>
+      <c r="B293" t="n">
+        <v>5.705181292702963e-08</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.4971534497936785</v>
+      </c>
+      <c r="D293" t="n">
+        <v>9.132627470798155</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>9.11134268537074</v>
+      </c>
+      <c r="B294" t="n">
+        <v>5.696528262231948e-08</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.4979836020018591</v>
+      </c>
+      <c r="D294" t="n">
+        <v>9.151248296725335</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>9.125230460921845</v>
+      </c>
+      <c r="B295" t="n">
+        <v>5.688014438686774e-08</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.4988204850791862</v>
+      </c>
+      <c r="D295" t="n">
+        <v>9.169659042634727</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>9.139118236472946</v>
+      </c>
+      <c r="B296" t="n">
+        <v>5.679657039882885e-08</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.4996644503132477</v>
+      </c>
+      <c r="D296" t="n">
+        <v>9.187868341358634</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>9.153006012024047</v>
+      </c>
+      <c r="B297" t="n">
+        <v>5.671424230639081e-08</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.5005147468426503</v>
+      </c>
+      <c r="D297" t="n">
+        <v>9.205863470907021</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>9.16689378757515</v>
+      </c>
+      <c r="B298" t="n">
+        <v>5.663338168124058e-08</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.5013724507855409</v>
+      </c>
+      <c r="D298" t="n">
+        <v>9.223665773040057</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>9.180781563126253</v>
+      </c>
+      <c r="B299" t="n">
+        <v>5.65539308693105e-08</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.5022365405512078</v>
+      </c>
+      <c r="D299" t="n">
+        <v>9.241257844642929</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>9.194669338677354</v>
+      </c>
+      <c r="B300" t="n">
+        <v>5.647581953988082e-08</v>
+      </c>
+      <c r="C300" t="n">
+        <v>0.5031072470378174</v>
+      </c>
+      <c r="D300" t="n">
+        <v>9.258644597930628</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>9.208557114228457</v>
+      </c>
+      <c r="B301" t="n">
+        <v>5.639904699750449e-08</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.5039845656829465</v>
+      </c>
+      <c r="D301" t="n">
+        <v>9.275828947586332</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>9.22244488977956</v>
+      </c>
+      <c r="B302" t="n">
+        <v>5.63235735896571e-08</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.5048684109076689</v>
+      </c>
+      <c r="D302" t="n">
+        <v>9.292809053177848</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>9.236332665330661</v>
+      </c>
+      <c r="B303" t="n">
+        <v>5.624939408696204e-08</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.505758733325449</v>
+      </c>
+      <c r="D303" t="n">
+        <v>9.309587647077239</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>9.250220440881764</v>
+      </c>
+      <c r="B304" t="n">
+        <v>5.617659596590682e-08</v>
+      </c>
+      <c r="C304" t="n">
+        <v>0.5066559332470456</v>
+      </c>
+      <c r="D304" t="n">
+        <v>9.326171013454294</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>9.264108216432867</v>
+      </c>
+      <c r="B305" t="n">
+        <v>5.610494058719221e-08</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.5075595665353523</v>
+      </c>
+      <c r="D305" t="n">
+        <v>9.342555112011308</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>9.277995991983968</v>
+      </c>
+      <c r="B306" t="n">
+        <v>5.603458352769614e-08</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.5084692784036361</v>
+      </c>
+      <c r="D306" t="n">
+        <v>9.358732449664203</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>9.291883767535071</v>
+      </c>
+      <c r="B307" t="n">
+        <v>5.596550874476993e-08</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.5093855191550745</v>
+      </c>
+      <c r="D307" t="n">
+        <v>9.374713131127358</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>9.305771543086173</v>
+      </c>
+      <c r="B308" t="n">
+        <v>5.589763314530971e-08</v>
+      </c>
+      <c r="C308" t="n">
+        <v>0.5103081857645835</v>
+      </c>
+      <c r="D308" t="n">
+        <v>9.390497709501528</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>9.319659318637274</v>
+      </c>
+      <c r="B309" t="n">
+        <v>5.583095882018725e-08</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.5112372336050808</v>
+      </c>
+      <c r="D309" t="n">
+        <v>9.406086911789226</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>9.333547094188376</v>
+      </c>
+      <c r="B310" t="n">
+        <v>5.576556259807925e-08</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.5121728598226488</v>
+      </c>
+      <c r="D310" t="n">
+        <v>9.421484469802394</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>9.34743486973948</v>
+      </c>
+      <c r="B311" t="n">
+        <v>5.570130905660468e-08</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.5131146333274469</v>
+      </c>
+      <c r="D311" t="n">
+        <v>9.436684886623736</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>9.361322645290581</v>
+      </c>
+      <c r="B312" t="n">
+        <v>5.56381831002348e-08</v>
+      </c>
+      <c r="C312" t="n">
+        <v>0.5140625963467873</v>
+      </c>
+      <c r="D312" t="n">
+        <v>9.451689960670908</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>9.375210420841682</v>
+      </c>
+      <c r="B313" t="n">
+        <v>5.557624719280254e-08</v>
+      </c>
+      <c r="C313" t="n">
+        <v>0.5150166780434674</v>
+      </c>
+      <c r="D313" t="n">
+        <v>9.466500168007373</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>9.389098196392785</v>
+      </c>
+      <c r="B314" t="n">
+        <v>5.551548502085875e-08</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.5159773788815872</v>
+      </c>
+      <c r="D314" t="n">
+        <v>9.481125212582548</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>9.402985971943888</v>
+      </c>
+      <c r="B315" t="n">
+        <v>5.545581756316515e-08</v>
+      </c>
+      <c r="C315" t="n">
+        <v>0.5169436722555044</v>
+      </c>
+      <c r="D315" t="n">
+        <v>9.495547990617233</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>9.416873747494989</v>
+      </c>
+      <c r="B316" t="n">
+        <v>5.539716474934e-08</v>
+      </c>
+      <c r="C316" t="n">
+        <v>0.5179163530148042</v>
+      </c>
+      <c r="D316" t="n">
+        <v>9.509785368317537</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>9.430761523046092</v>
+      </c>
+      <c r="B317" t="n">
+        <v>5.533972286071454e-08</v>
+      </c>
+      <c r="C317" t="n">
+        <v>0.5188950975837178</v>
+      </c>
+      <c r="D317" t="n">
+        <v>9.523831163223706</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>9.444649298597195</v>
+      </c>
+      <c r="B318" t="n">
+        <v>5.528339317146936e-08</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.5198800525365037</v>
+      </c>
+      <c r="D318" t="n">
+        <v>9.537690727831846</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>9.458537074148296</v>
+      </c>
+      <c r="B319" t="n">
+        <v>5.522812261678707e-08</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.5208711014477033</v>
+      </c>
+      <c r="D319" t="n">
+        <v>9.551362994005419</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>9.472424849699399</v>
+      </c>
+      <c r="B320" t="n">
+        <v>5.517394679403086e-08</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.5218681017135358</v>
+      </c>
+      <c r="D320" t="n">
+        <v>9.564846505740057</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>9.486312625250502</v>
+      </c>
+      <c r="B321" t="n">
+        <v>5.512068844349519e-08</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.5228706543495409</v>
+      </c>
+      <c r="D321" t="n">
+        <v>9.578134914655342</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>9.500200400801603</v>
+      </c>
+      <c r="B322" t="n">
+        <v>5.506796429821641e-08</v>
+      </c>
+      <c r="C322" t="n">
+        <v>0.523875272772701</v>
+      </c>
+      <c r="D322" t="n">
+        <v>9.591158954219782</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>9.514088176352706</v>
+      </c>
+      <c r="B323" t="n">
+        <v>5.501748594776345e-08</v>
+      </c>
+      <c r="C323" t="n">
+        <v>0.5248952332846072</v>
+      </c>
+      <c r="D323" t="n">
+        <v>9.604186621893716</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>9.527975951903809</v>
+      </c>
+      <c r="B324" t="n">
+        <v>5.496732827624778e-08</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.5259155672920595</v>
+      </c>
+      <c r="D324" t="n">
+        <v>9.616918643836417</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>9.54186372745491</v>
+      </c>
+      <c r="B325" t="n">
+        <v>5.491771312348199e-08</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.5269380578746351</v>
+      </c>
+      <c r="D325" t="n">
+        <v>9.629392817421921</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>9.555751503006011</v>
+      </c>
+      <c r="B326" t="n">
+        <v>5.486962883518029e-08</v>
+      </c>
+      <c r="C326" t="n">
+        <v>0.5279705589513376</v>
+      </c>
+      <c r="D326" t="n">
+        <v>9.641768044231217</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>9.569639278557114</v>
+      </c>
+      <c r="B327" t="n">
+        <v>5.482304023441395e-08</v>
+      </c>
+      <c r="C327" t="n">
+        <v>0.5290131728008438</v>
+      </c>
+      <c r="D327" t="n">
+        <v>9.654048410680463</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>9.583527054108217</v>
+      </c>
+      <c r="B328" t="n">
+        <v>5.477678370444784e-08</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.5300564595313365</v>
+      </c>
+      <c r="D328" t="n">
+        <v>9.666044125683614</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>9.597414829659318</v>
+      </c>
+      <c r="B329" t="n">
+        <v>5.473174030121517e-08</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.5311076137581152</v>
+      </c>
+      <c r="D329" t="n">
+        <v>9.677902223826051</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>9.611302605210421</v>
+      </c>
+      <c r="B330" t="n">
+        <v>5.468712747824665e-08</v>
+      </c>
+      <c r="C330" t="n">
+        <v>0.532160594370949</v>
+      </c>
+      <c r="D330" t="n">
+        <v>9.68950092118633</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>9.625190380761524</v>
+      </c>
+      <c r="B331" t="n">
+        <v>5.464381314466034e-08</v>
+      </c>
+      <c r="C331" t="n">
+        <v>0.5332220273483274</v>
+      </c>
+      <c r="D331" t="n">
+        <v>9.700977007692211</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>9.639078156312625</v>
+      </c>
+      <c r="B332" t="n">
+        <v>5.460158674797154e-08</v>
+      </c>
+      <c r="C332" t="n">
+        <v>0.5342903362119461</v>
+      </c>
+      <c r="D332" t="n">
+        <v>9.712299636175999</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>9.652965931863728</v>
+      </c>
+      <c r="B333" t="n">
+        <v>5.456018267724106e-08</v>
+      </c>
+      <c r="C333" t="n">
+        <v>0.5353633996132593</v>
+      </c>
+      <c r="D333" t="n">
+        <v>9.723426555021394</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>9.66685370741483</v>
+      </c>
+      <c r="B334" t="n">
+        <v>5.451978122298196e-08</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.5364434070688391</v>
+      </c>
+      <c r="D334" t="n">
+        <v>9.734404348202204</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>9.680741482965932</v>
+      </c>
+      <c r="B335" t="n">
+        <v>5.448001975296584e-08</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.5375266049093601</v>
+      </c>
+      <c r="D335" t="n">
+        <v>9.745156602503567</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>9.694629258517034</v>
+      </c>
+      <c r="B336" t="n">
+        <v>5.444137163339883e-08</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.538617713483306</v>
+      </c>
+      <c r="D336" t="n">
+        <v>9.755782499782121</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>9.708517034068137</v>
+      </c>
+      <c r="B337" t="n">
+        <v>5.440344886172782e-08</v>
+      </c>
+      <c r="C337" t="n">
+        <v>0.5397128822415416</v>
+      </c>
+      <c r="D337" t="n">
+        <v>9.766203361271733</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>9.722404809619238</v>
+      </c>
+      <c r="B338" t="n">
+        <v>5.436649648073836e-08</v>
+      </c>
+      <c r="C338" t="n">
+        <v>0.5408144580238882</v>
+      </c>
+      <c r="D338" t="n">
+        <v>9.776469232535552</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>9.736292585170339</v>
+      </c>
+      <c r="B339" t="n">
+        <v>5.433043672361565e-08</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5419217787718082</v>
+      </c>
+      <c r="D339" t="n">
+        <v>9.786567822213314</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>9.750180360721444</v>
+      </c>
+      <c r="B340" t="n">
+        <v>5.429515166936869e-08</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.5430343294638348</v>
+      </c>
+      <c r="D340" t="n">
+        <v>9.796489578354389</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>9.764068136272545</v>
+      </c>
+      <c r="B341" t="n">
+        <v>5.426077062410016e-08</v>
+      </c>
+      <c r="C341" t="n">
+        <v>0.5441527115287924</v>
+      </c>
+      <c r="D341" t="n">
+        <v>9.806248490211143</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>9.777955911823646</v>
+      </c>
+      <c r="B342" t="n">
+        <v>5.422725954891807e-08</v>
+      </c>
+      <c r="C342" t="n">
+        <v>0.5452769571365391</v>
+      </c>
+      <c r="D342" t="n">
+        <v>9.815846271530452</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>9.791843687374749</v>
+      </c>
+      <c r="B343" t="n">
+        <v>5.419439927566888e-08</v>
+      </c>
+      <c r="C343" t="n">
+        <v>0.5464052714354322</v>
+      </c>
+      <c r="D343" t="n">
+        <v>9.825246567824845</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>9.805731462925852</v>
+      </c>
+      <c r="B344" t="n">
+        <v>5.416244943294517e-08</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.5475401221552936</v>
+      </c>
+      <c r="D344" t="n">
+        <v>9.83450280423526</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>9.819619238476953</v>
+      </c>
+      <c r="B345" t="n">
+        <v>5.413137142177595e-08</v>
+      </c>
+      <c r="C345" t="n">
+        <v>0.5486804226982365</v>
+      </c>
+      <c r="D345" t="n">
+        <v>9.843593099903119</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>9.833507014028056</v>
+      </c>
+      <c r="B346" t="n">
+        <v>5.410104965645098e-08</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.5498259910065815</v>
+      </c>
+      <c r="D346" t="n">
+        <v>9.852514944798061</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>9.847394789579159</v>
+      </c>
+      <c r="B347" t="n">
+        <v>5.407173731743374e-08</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.5509789012131469</v>
+      </c>
+      <c r="D347" t="n">
+        <v>9.861314022480533</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>9.86128256513026</v>
+      </c>
+      <c r="B348" t="n">
+        <v>5.404276934632641e-08</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.5521330939227319</v>
+      </c>
+      <c r="D348" t="n">
+        <v>9.869862031621849</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>9.875170340681363</v>
+      </c>
+      <c r="B349" t="n">
+        <v>5.401475999279121e-08</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.5532955185227227</v>
+      </c>
+      <c r="D349" t="n">
+        <v>9.878308706276522</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>9.889058116232466</v>
+      </c>
+      <c r="B350" t="n">
+        <v>5.398760833574912e-08</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.5544628483740996</v>
+      </c>
+      <c r="D350" t="n">
+        <v>9.88658401102826</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>9.902945891783567</v>
+      </c>
+      <c r="B351" t="n">
+        <v>5.396115008389932e-08</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.5556353750806193</v>
+      </c>
+      <c r="D351" t="n">
+        <v>9.894696019323211</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>9.91683366733467</v>
+      </c>
+      <c r="B352" t="n">
+        <v>5.393550400348614e-08</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.556813660998892</v>
+      </c>
+      <c r="D352" t="n">
+        <v>9.902656915757285</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>9.930721442885773</v>
+      </c>
+      <c r="B353" t="n">
+        <v>5.391058096793007e-08</v>
+      </c>
+      <c r="C353" t="n">
+        <v>0.5579971150416059</v>
+      </c>
+      <c r="D353" t="n">
+        <v>9.910456567980896</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>9.944609218436874</v>
+      </c>
+      <c r="B354" t="n">
+        <v>5.388636225980191e-08</v>
+      </c>
+      <c r="C354" t="n">
+        <v>0.5591856433311506</v>
+      </c>
+      <c r="D354" t="n">
+        <v>9.918093143557536</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>9.958496993987975</v>
+      </c>
+      <c r="B355" t="n">
+        <v>5.386285327812111e-08</v>
+      </c>
+      <c r="C355" t="n">
+        <v>0.5603792710935007</v>
+      </c>
+      <c r="D355" t="n">
+        <v>9.925569193479001</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>9.972384769539078</v>
+      </c>
+      <c r="B356" t="n">
+        <v>5.384012497128833e-08</v>
+      </c>
+      <c r="C356" t="n">
+        <v>0.5615786173472056</v>
+      </c>
+      <c r="D356" t="n">
+        <v>9.932898767224421</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>9.986272545090181</v>
+      </c>
+      <c r="B357" t="n">
+        <v>5.381809635384252e-08</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.5627831702243253</v>
+      </c>
+      <c r="D357" t="n">
+        <v>9.94007245185548</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>10.00016032064128</v>
+      </c>
+      <c r="B358" t="n">
+        <v>5.379678737259588e-08</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.5639929326547388</v>
+      </c>
+      <c r="D358" t="n">
+        <v>9.947090790332927</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>10.01404809619238</v>
+      </c>
+      <c r="B359" t="n">
+        <v>5.377610278735269e-08</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.5652074599120082</v>
+      </c>
+      <c r="D359" t="n">
+        <v>9.95394605669571</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>10.02793587174349</v>
+      </c>
+      <c r="B360" t="n">
+        <v>5.375635813500515e-08</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.5664290448664862</v>
+      </c>
+      <c r="D360" t="n">
+        <v>9.960688831574949</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>10.04182364729459</v>
+      </c>
+      <c r="B361" t="n">
+        <v>5.373700814192927e-08</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.5676534846555559</v>
+      </c>
+      <c r="D361" t="n">
+        <v>9.967229241062627</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>10.05571142284569</v>
+      </c>
+      <c r="B362" t="n">
+        <v>5.371841554949987e-08</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.5688839502100854</v>
+      </c>
+      <c r="D362" t="n">
+        <v>9.973637213385475</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>10.06959919839679</v>
+      </c>
+      <c r="B363" t="n">
+        <v>5.37005616575984e-08</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0.5701197063615991</v>
+      </c>
+      <c r="D363" t="n">
+        <v>9.979898038472664</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>10.0834869739479</v>
+      </c>
+      <c r="B364" t="n">
+        <v>5.368340523967628e-08</v>
+      </c>
+      <c r="C364" t="n">
+        <v>0.571361048898254</v>
+      </c>
+      <c r="D364" t="n">
+        <v>9.986019406754938</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>10.097374749499</v>
+      </c>
+      <c r="B365" t="n">
+        <v>5.36669192608131e-08</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.5726075840956025</v>
+      </c>
+      <c r="D365" t="n">
+        <v>9.991993781105654</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>10.1112625250501</v>
+      </c>
+      <c r="B366" t="n">
+        <v>5.365099304281907e-08</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.5738585932334922</v>
+      </c>
+      <c r="D366" t="n">
+        <v>9.997806331152475</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>10.1251503006012</v>
+      </c>
+      <c r="B367" t="n">
+        <v>5.363579181246315e-08</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.5751148554610285</v>
+      </c>
+      <c r="D367" t="n">
+        <v>10.00347571158875</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>10.1390380761523</v>
+      </c>
+      <c r="B368" t="n">
+        <v>5.362118219936888e-08</v>
+      </c>
+      <c r="C368" t="n">
+        <v>0.576376384234934</v>
+      </c>
+      <c r="D368" t="n">
+        <v>10.00900377709532</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>10.15292585170341</v>
+      </c>
+      <c r="B369" t="n">
+        <v>5.360724831425342e-08</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.5776430535439964</v>
+      </c>
+      <c r="D369" t="n">
+        <v>10.01438804082742</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>10.16681362725451</v>
+      </c>
+      <c r="B370" t="n">
+        <v>5.359399728628429e-08</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.5789148371411056</v>
+      </c>
+      <c r="D370" t="n">
+        <v>10.01962931019801</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>10.18070140280561</v>
+      </c>
+      <c r="B371" t="n">
+        <v>5.358127181516231e-08</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.5801915740780972</v>
+      </c>
+      <c r="D371" t="n">
+        <v>10.02472551398749</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>10.19458917835671</v>
+      </c>
+      <c r="B372" t="n">
+        <v>5.356924769926877e-08</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.5814737120305732</v>
+      </c>
+      <c r="D372" t="n">
+        <v>10.02968723224346</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>10.20847695390782</v>
+      </c>
+      <c r="B373" t="n">
+        <v>5.355785987513949e-08</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.5827610465335559</v>
+      </c>
+      <c r="D373" t="n">
+        <v>10.03451099266129</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>10.22236472945892</v>
+      </c>
+      <c r="B374" t="n">
+        <v>5.354701961265352e-08</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.5840527892765474</v>
+      </c>
+      <c r="D374" t="n">
+        <v>10.03918102461724</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>10.23625250501002</v>
+      </c>
+      <c r="B375" t="n">
+        <v>5.353674312972875e-08</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.585349626359145</v>
+      </c>
+      <c r="D375" t="n">
+        <v>10.04371390366882</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>10.25014028056112</v>
+      </c>
+      <c r="B376" t="n">
+        <v>5.352721897784483e-08</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.5866518446617632</v>
+      </c>
+      <c r="D376" t="n">
+        <v>10.04811608458198</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>10.26402805611222</v>
+      </c>
+      <c r="B377" t="n">
+        <v>5.351814178338757e-08</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.587958867040741</v>
+      </c>
+      <c r="D377" t="n">
+        <v>10.05237640187253</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>10.27791583166333</v>
+      </c>
+      <c r="B378" t="n">
+        <v>5.35096854235856e-08</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.5892708570809793</v>
+      </c>
+      <c r="D378" t="n">
+        <v>10.0564995273516</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>10.29180360721443</v>
+      </c>
+      <c r="B379" t="n">
+        <v>5.350183783627576e-08</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.5905879882223655</v>
+      </c>
+      <c r="D379" t="n">
+        <v>10.06049047949881</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>10.30569138276553</v>
+      </c>
+      <c r="B380" t="n">
+        <v>5.349462691079581e-08</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0.5919102962454554</v>
+      </c>
+      <c r="D380" t="n">
+        <v>10.06435084149878</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>10.31957915831663</v>
+      </c>
+      <c r="B381" t="n">
+        <v>5.348798313685395e-08</v>
+      </c>
+      <c r="C381" t="n">
+        <v>0.5932373537209202</v>
+      </c>
+      <c r="D381" t="n">
+        <v>10.06807287039292</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>10.33346693386774</v>
+      </c>
+      <c r="B382" t="n">
+        <v>5.348179147059532e-08</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.5945690385640675</v>
+      </c>
+      <c r="D382" t="n">
+        <v>10.07165414102777</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>10.34735470941884</v>
+      </c>
+      <c r="B383" t="n">
+        <v>5.347626641960791e-08</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0.5959058499102402</v>
+      </c>
+      <c r="D383" t="n">
+        <v>10.07510750164527</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>10.36124248496994</v>
+      </c>
+      <c r="B384" t="n">
+        <v>5.3471252118795e-08</v>
+      </c>
+      <c r="C384" t="n">
+        <v>0.5972478117868473</v>
+      </c>
+      <c r="D384" t="n">
+        <v>10.07843415400565</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>10.37513026052104</v>
+      </c>
+      <c r="B385" t="n">
+        <v>5.34667986823107e-08</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.5985944176720659</v>
+      </c>
+      <c r="D385" t="n">
+        <v>10.08162380618864</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>10.38901803607214</v>
+      </c>
+      <c r="B386" t="n">
+        <v>5.346290915710998e-08</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.59994614056745</v>
+      </c>
+      <c r="D386" t="n">
+        <v>10.08468855177807</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>10.40290581162325</v>
+      </c>
+      <c r="B387" t="n">
+        <v>5.34595994196292e-08</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.6013029483249883</v>
+      </c>
+      <c r="D387" t="n">
+        <v>10.08762846820645</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>10.41679358717435</v>
+      </c>
+      <c r="B388" t="n">
+        <v>5.345680666578759e-08</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.6026645774975736</v>
+      </c>
+      <c r="D388" t="n">
+        <v>10.09043852091659</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>10.43068136272545</v>
+      </c>
+      <c r="B389" t="n">
+        <v>5.34545130249444e-08</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.6040305737893983</v>
+      </c>
+      <c r="D389" t="n">
+        <v>10.09310999731127</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>10.44456913827655</v>
+      </c>
+      <c r="B390" t="n">
+        <v>5.345276478149089e-08</v>
+      </c>
+      <c r="C390" t="n">
+        <v>0.6054017664225303</v>
+      </c>
+      <c r="D390" t="n">
+        <v>10.09566189403824</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>10.45845691382766</v>
+      </c>
+      <c r="B391" t="n">
+        <v>5.345156935448347e-08</v>
+      </c>
+      <c r="C391" t="n">
+        <v>0.6067779204166694</v>
+      </c>
+      <c r="D391" t="n">
+        <v>10.09809054697073</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>10.47234468937876</v>
+      </c>
+      <c r="B392" t="n">
+        <v>5.345087487343973e-08</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0.6081586903037195</v>
+      </c>
+      <c r="D392" t="n">
+        <v>10.10038882923476</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>10.48623246492986</v>
+      </c>
+      <c r="B393" t="n">
+        <v>5.345070850741227e-08</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.6095445124400252</v>
+      </c>
+      <c r="D393" t="n">
+        <v>10.10256825165156</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>10.50012024048096</v>
+      </c>
+      <c r="B394" t="n">
+        <v>5.345106543832961e-08</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.6109352553200509</v>
+      </c>
+      <c r="D394" t="n">
+        <v>10.1046257523337</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>10.51400801603207</v>
+      </c>
+      <c r="B395" t="n">
+        <v>5.345191363696354e-08</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.6123305891861053</v>
+      </c>
+      <c r="D395" t="n">
+        <v>10.10655604768233</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>10.52789579158317</v>
+      </c>
+      <c r="B396" t="n">
+        <v>5.345326461991046e-08</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.6137306915444426</v>
+      </c>
+      <c r="D396" t="n">
+        <v>10.1083635248767</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>10.54178356713427</v>
+      </c>
+      <c r="B397" t="n">
+        <v>5.345516991372948e-08</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.6151361518032386</v>
+      </c>
+      <c r="D397" t="n">
+        <v>10.11006277257831</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>10.55567134268537</v>
+      </c>
+      <c r="B398" t="n">
+        <v>5.34575383701059e-08</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.6165460099333675</v>
+      </c>
+      <c r="D398" t="n">
+        <v>10.11163266309938</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>10.56955911823647</v>
+      </c>
+      <c r="B399" t="n">
+        <v>5.346039008556626e-08</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.6179606126583036</v>
+      </c>
+      <c r="D399" t="n">
+        <v>10.11308244635754</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>10.58344689378757</v>
+      </c>
+      <c r="B400" t="n">
+        <v>5.346372730820239e-08</v>
+      </c>
+      <c r="C400" t="n">
+        <v>0.6193801887000547</v>
+      </c>
+      <c r="D400" t="n">
+        <v>10.11441817732498</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>10.59733466933868</v>
+      </c>
+      <c r="B401" t="n">
+        <v>5.346759160004788e-08</v>
+      </c>
+      <c r="C401" t="n">
+        <v>0.6208043017328815</v>
+      </c>
+      <c r="D401" t="n">
+        <v>10.11563109288409</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>10.61122244488978</v>
+      </c>
+      <c r="B402" t="n">
+        <v>5.347189312802063e-08</v>
+      </c>
+      <c r="C402" t="n">
+        <v>0.6222331990759329</v>
+      </c>
+      <c r="D402" t="n">
+        <v>10.11672713440943</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>10.62511022044088</v>
+      </c>
+      <c r="B403" t="n">
+        <v>5.347668076265451e-08</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.6236669315821595</v>
+      </c>
+      <c r="D403" t="n">
+        <v>10.11770938691964</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>10.63899799599198</v>
+      </c>
+      <c r="B404" t="n">
+        <v>5.348190261687627e-08</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.6251052654363544</v>
+      </c>
+      <c r="D404" t="n">
+        <v>10.11857334594403</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>10.65288577154309</v>
+      </c>
+      <c r="B405" t="n">
+        <v>5.348765896204076e-08</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.6265482793133914</v>
+      </c>
+      <c r="D405" t="n">
+        <v>10.11932249157758</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>10.66677354709419</v>
+      </c>
+      <c r="B406" t="n">
+        <v>5.349388700827246e-08</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.6279963976728297</v>
+      </c>
+      <c r="D406" t="n">
+        <v>10.11996513346897</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>10.68066132264529</v>
+      </c>
+      <c r="B407" t="n">
+        <v>5.350070525116981e-08</v>
+      </c>
+      <c r="C407" t="n">
+        <v>0.629450384290376</v>
+      </c>
+      <c r="D407" t="n">
+        <v>10.12051872402499</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>10.69454909819639</v>
+      </c>
+      <c r="B408" t="n">
+        <v>5.35076797902304e-08</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.6309063826693673</v>
+      </c>
+      <c r="D408" t="n">
+        <v>10.12090086293147</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>10.70843687374749</v>
+      </c>
+      <c r="B409" t="n">
+        <v>5.351520956923938e-08</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.632368228590953</v>
+      </c>
+      <c r="D409" t="n">
+        <v>10.12119746748896</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>10.7223246492986</v>
+      </c>
+      <c r="B410" t="n">
+        <v>5.352327071648335e-08</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.6338348548651357</v>
+      </c>
+      <c r="D410" t="n">
+        <v>10.12138506975441</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>10.7362124248497</v>
+      </c>
+      <c r="B411" t="n">
+        <v>5.353179839589324e-08</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.6353067440215353</v>
+      </c>
+      <c r="D411" t="n">
+        <v>10.12147596203127</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>10.7501002004008</v>
+      </c>
+      <c r="B412" t="n">
+        <v>5.354075366410315e-08</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.6367831575706894</v>
+      </c>
+      <c r="D412" t="n">
+        <v>10.12145393958275</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>10.7639879759519</v>
+      </c>
+      <c r="B413" t="n">
+        <v>5.355007283067557e-08</v>
+      </c>
+      <c r="C413" t="n">
+        <v>0.6382636432057446</v>
+      </c>
+      <c r="D413" t="n">
+        <v>10.12130959007548</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>10.77787575150301</v>
+      </c>
+      <c r="B414" t="n">
+        <v>5.355990238709615e-08</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.6397490920773198</v>
+      </c>
+      <c r="D414" t="n">
+        <v>10.1210653019213</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>10.79176352705411</v>
+      </c>
+      <c r="B415" t="n">
+        <v>5.357014600839985e-08</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.6412393254060371</v>
+      </c>
+      <c r="D415" t="n">
+        <v>10.12071590796599</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>10.80565130260521</v>
+      </c>
+      <c r="B416" t="n">
+        <v>5.358081359659794e-08</v>
+      </c>
+      <c r="C416" t="n">
+        <v>0.6427338996118072</v>
+      </c>
+      <c r="D416" t="n">
+        <v>10.12025506721501</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>10.81953907815631</v>
+      </c>
+      <c r="B417" t="n">
+        <v>5.359195101789863e-08</v>
+      </c>
+      <c r="C417" t="n">
+        <v>0.6442336868122549</v>
+      </c>
+      <c r="D417" t="n">
+        <v>10.11969947122133</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>10.83342685370742</v>
+      </c>
+      <c r="B418" t="n">
+        <v>5.360348658173259e-08</v>
+      </c>
+      <c r="C418" t="n">
+        <v>0.6457376066251862</v>
+      </c>
+      <c r="D418" t="n">
+        <v>10.11902826589683</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>10.84731462925852</v>
+      </c>
+      <c r="B419" t="n">
+        <v>5.361549133071174e-08</v>
+      </c>
+      <c r="C419" t="n">
+        <v>0.6472469072017251</v>
+      </c>
+      <c r="D419" t="n">
+        <v>10.11826779509043</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>10.86120240480962</v>
+      </c>
+      <c r="B420" t="n">
+        <v>5.362791549974551e-08</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.6487606019832979</v>
+      </c>
+      <c r="D420" t="n">
+        <v>10.11740111683268</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>10.87509018036072</v>
+      </c>
+      <c r="B421" t="n">
+        <v>5.364066589182788e-08</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.6502780934735086</v>
+      </c>
+      <c r="D421" t="n">
+        <v>10.11641310884757</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>10.88897795591182</v>
+      </c>
+      <c r="B422" t="n">
+        <v>5.365386327001152e-08</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0.6518006618277536</v>
+      </c>
+      <c r="D422" t="n">
+        <v>10.11533360727987</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>10.90286573146293</v>
+      </c>
+      <c r="B423" t="n">
+        <v>5.366743306326167e-08</v>
+      </c>
+      <c r="C423" t="n">
+        <v>0.6533274639604018</v>
+      </c>
+      <c r="D423" t="n">
+        <v>10.11414518365482</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>10.91675350701403</v>
+      </c>
+      <c r="B424" t="n">
+        <v>5.368145996152934e-08</v>
+      </c>
+      <c r="C424" t="n">
+        <v>0.6548593118942231</v>
+      </c>
+      <c r="D424" t="n">
+        <v>10.1128666434036</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>10.93064128256513</v>
+      </c>
+      <c r="B425" t="n">
+        <v>5.369592563285452e-08</v>
+      </c>
+      <c r="C425" t="n">
+        <v>0.6563960058102594</v>
+      </c>
+      <c r="D425" t="n">
+        <v>10.11149407753534</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>10.94452905811623</v>
+      </c>
+      <c r="B426" t="n">
+        <v>5.371074349633941e-08</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0.6579368174562349</v>
+      </c>
+      <c r="D426" t="n">
+        <v>10.11001188455808</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>10.95841683366734</v>
+      </c>
+      <c r="B427" t="n">
+        <v>5.372595402023376e-08</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.6594822298689637</v>
+      </c>
+      <c r="D427" t="n">
+        <v>10.10843219713373</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>10.97230460921844</v>
+      </c>
+      <c r="B428" t="n">
+        <v>5.374159698409332e-08</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.6610324054048345</v>
+      </c>
+      <c r="D428" t="n">
+        <v>10.10675914849785</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>10.98619238476954</v>
+      </c>
+      <c r="B429" t="n">
+        <v>5.37576267147827e-08</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.6625875497103225</v>
+      </c>
+      <c r="D429" t="n">
+        <v>10.10499845475637</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>11.00008016032064</v>
+      </c>
+      <c r="B430" t="n">
+        <v>5.377405145616165e-08</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.6641467679152352</v>
+      </c>
+      <c r="D430" t="n">
+        <v>10.10313073894524</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>11.01396793587174</v>
+      </c>
+      <c r="B431" t="n">
+        <v>5.379088384780338e-08</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0.6657109119254111</v>
+      </c>
+      <c r="D431" t="n">
+        <v>10.10117621457585</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>11.02785571142284</v>
+      </c>
+      <c r="B432" t="n">
+        <v>5.380802383604874e-08</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0.6672788137908561</v>
+      </c>
+      <c r="D432" t="n">
+        <v>10.09910861097359</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>11.04174348697395</v>
+      </c>
+      <c r="B433" t="n">
+        <v>5.382562845106157e-08</v>
+      </c>
+      <c r="C433" t="n">
+        <v>0.6688520482079349</v>
+      </c>
+      <c r="D433" t="n">
+        <v>10.09696590474821</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>11.05563126252505</v>
+      </c>
+      <c r="B434" t="n">
+        <v>5.384356626707647e-08</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0.6704296551211918</v>
+      </c>
+      <c r="D434" t="n">
+        <v>10.09472266119045</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>11.06951903807615</v>
+      </c>
+      <c r="B435" t="n">
+        <v>5.386191639613391e-08</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0.6720118044069348</v>
+      </c>
+      <c r="D435" t="n">
+        <v>10.09239029251361</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>11.08340681362725</v>
+      </c>
+      <c r="B436" t="n">
+        <v>5.388057695322027e-08</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0.673598002165079</v>
+      </c>
+      <c r="D436" t="n">
+        <v>10.08995504708931</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>11.09729458917836</v>
+      </c>
+      <c r="B437" t="n">
+        <v>5.38996435780376e-08</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0.6751889564320541</v>
+      </c>
+      <c r="D437" t="n">
+        <v>10.08743668165641</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>11.11118236472946</v>
+      </c>
+      <c r="B438" t="n">
+        <v>5.391912303904579e-08</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0.6767849901420441</v>
+      </c>
+      <c r="D438" t="n">
+        <v>10.08483811459472</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>11.12507014028056</v>
+      </c>
+      <c r="B439" t="n">
+        <v>5.393888428621986e-08</v>
+      </c>
+      <c r="C439" t="n">
+        <v>0.6783845455678147</v>
+      </c>
+      <c r="D439" t="n">
+        <v>10.08212685201654</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>11.13895791583166</v>
+      </c>
+      <c r="B440" t="n">
+        <v>5.395909981603221e-08</v>
+      </c>
+      <c r="C440" t="n">
+        <v>0.6799896629117198</v>
+      </c>
+      <c r="D440" t="n">
+        <v>10.07935097371441</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>11.15284569138277</v>
+      </c>
+      <c r="B441" t="n">
+        <v>5.397964759603711e-08</v>
+      </c>
+      <c r="C441" t="n">
+        <v>0.6815987427921186</v>
+      </c>
+      <c r="D441" t="n">
+        <v>10.07647374142786</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>11.16673346693387</v>
+      </c>
+      <c r="B442" t="n">
+        <v>5.40005379297531e-08</v>
+      </c>
+      <c r="C442" t="n">
+        <v>0.6832124304235703</v>
+      </c>
+      <c r="D442" t="n">
+        <v>10.07351190765185</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>11.18062124248497</v>
+      </c>
+      <c r="B443" t="n">
+        <v>5.402178707732835e-08</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0.6848304803832141</v>
+      </c>
+      <c r="D443" t="n">
+        <v>10.07045983494184</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>11.19450901803607</v>
+      </c>
+      <c r="B444" t="n">
+        <v>5.40434700060968e-08</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0.6864539514406791</v>
+      </c>
+      <c r="D444" t="n">
+        <v>10.06734207519019</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>11.20839679358717</v>
+      </c>
+      <c r="B445" t="n">
+        <v>5.406534180094055e-08</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0.6880801276261528</v>
+      </c>
+      <c r="D445" t="n">
+        <v>10.06409903101916</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>11.22228456913828</v>
+      </c>
+      <c r="B446" t="n">
+        <v>5.408763870995259e-08</v>
+      </c>
+      <c r="C446" t="n">
+        <v>0.6897114060577838</v>
+      </c>
+      <c r="D446" t="n">
+        <v>10.06078440254714</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>11.23617234468938</v>
+      </c>
+      <c r="B447" t="n">
+        <v>5.410996528972866e-08</v>
+      </c>
+      <c r="C447" t="n">
+        <v>0.6913441303608151</v>
+      </c>
+      <c r="D447" t="n">
+        <v>10.0573193200899</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>11.25006012024048</v>
+      </c>
+      <c r="B448" t="n">
+        <v>5.413343088667993e-08</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0.6929893024947918</v>
+      </c>
+      <c r="D448" t="n">
+        <v>10.05394723313327</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>11.26394789579158</v>
+      </c>
+      <c r="B449" t="n">
+        <v>5.415614932776998e-08</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.6946280542057081</v>
+      </c>
+      <c r="D449" t="n">
+        <v>10.05024739858694</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>11.27783567134269</v>
+      </c>
+      <c r="B450" t="n">
+        <v>5.417989434162794e-08</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.6962776981780938</v>
+      </c>
+      <c r="D450" t="n">
+        <v>10.04661210830608</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>11.29172344689379</v>
+      </c>
+      <c r="B451" t="n">
+        <v>5.4204374559335e-08</v>
+      </c>
+      <c r="C451" t="n">
+        <v>0.6979363260574667</v>
+      </c>
+      <c r="D451" t="n">
+        <v>10.04299605189049</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>11.30561122244489</v>
+      </c>
+      <c r="B452" t="n">
+        <v>5.422825806484778e-08</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0.6995896867762703</v>
+      </c>
+      <c r="D452" t="n">
+        <v>10.03907917735733</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>11.31949899799599</v>
+      </c>
+      <c r="B453" t="n">
+        <v>5.425300090946241e-08</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0.7012527763143422</v>
+      </c>
+      <c r="D453" t="n">
+        <v>10.03520089372442</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>11.33338677354709</v>
+      </c>
+      <c r="B454" t="n">
+        <v>5.427798474444139e-08</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0.7029196218403061</v>
+      </c>
+      <c r="D454" t="n">
+        <v>10.03122786756308</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>11.34727454909819</v>
+      </c>
+      <c r="B455" t="n">
+        <v>5.430345567138087e-08</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0.7045923034490003</v>
+      </c>
+      <c r="D455" t="n">
+        <v>10.02720696810498</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>11.3611623246493</v>
+      </c>
+      <c r="B456" t="n">
+        <v>5.432909022282114e-08</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.7062677251436491</v>
+      </c>
+      <c r="D456" t="n">
+        <v>10.02306878449552</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>11.3750501002004</v>
+      </c>
+      <c r="B457" t="n">
+        <v>5.43552221286802e-08</v>
+      </c>
+      <c r="C457" t="n">
+        <v>0.7079495077898208</v>
+      </c>
+      <c r="D457" t="n">
+        <v>10.01889687322137</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>11.3889378757515</v>
+      </c>
+      <c r="B458" t="n">
+        <v>5.43814635834335e-08</v>
+      </c>
+      <c r="C458" t="n">
+        <v>0.7096331973347777</v>
+      </c>
+      <c r="D458" t="n">
+        <v>10.01459066876955</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>11.4028256513026</v>
+      </c>
+      <c r="B459" t="n">
+        <v>5.440805818050236e-08</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0.711322195440064</v>
+      </c>
+      <c r="D459" t="n">
+        <v>10.01022509685309</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>11.41671342685371</v>
+      </c>
+      <c r="B460" t="n">
+        <v>5.443532205139173e-08</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0.7130180534418671</v>
+      </c>
+      <c r="D460" t="n">
+        <v>10.00583854188709</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>11.43060120240481</v>
+      </c>
+      <c r="B461" t="n">
+        <v>5.446255498617166e-08</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.7147158938672757</v>
+      </c>
+      <c r="D461" t="n">
+        <v>10.00132615799399</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>11.44448897795591</v>
+      </c>
+      <c r="B462" t="n">
+        <v>5.449017550576726e-08</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0.7164184416819732</v>
+      </c>
+      <c r="D462" t="n">
+        <v>9.996741957283586</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>11.45837675350701</v>
+      </c>
+      <c r="B463" t="n">
+        <v>5.451827736111113e-08</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0.7181270895669681</v>
+      </c>
+      <c r="D463" t="n">
+        <v>9.992125564922928</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>11.47226452905812</v>
+      </c>
+      <c r="B464" t="n">
+        <v>5.45464518568114e-08</v>
+      </c>
+      <c r="C464" t="n">
+        <v>0.7198376255894796</v>
+      </c>
+      <c r="D464" t="n">
+        <v>9.987379021941953</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>11.48615230460922</v>
+      </c>
+      <c r="B465" t="n">
+        <v>5.457502996062147e-08</v>
+      </c>
+      <c r="C465" t="n">
+        <v>0.721553284561359</v>
+      </c>
+      <c r="D465" t="n">
+        <v>9.98257391131888</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>11.50004008016032</v>
+      </c>
+      <c r="B466" t="n">
+        <v>5.460389123260573e-08</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.7232736089498877</v>
+      </c>
+      <c r="D466" t="n">
+        <v>9.977701765476709</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>11.51392785571142</v>
+      </c>
+      <c r="B467" t="n">
+        <v>5.463300090428244e-08</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0.7249973857238615</v>
+      </c>
+      <c r="D467" t="n">
+        <v>9.972737781651094</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>11.52781563126253</v>
+      </c>
+      <c r="B468" t="n">
+        <v>5.466272133870943e-08</v>
+      </c>
+      <c r="C468" t="n">
+        <v>0.7267287542436245</v>
+      </c>
+      <c r="D468" t="n">
+        <v>9.967772985230445</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>11.54170340681363</v>
+      </c>
+      <c r="B469" t="n">
+        <v>5.469229971136844e-08</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0.7284596917167193</v>
+      </c>
+      <c r="D469" t="n">
+        <v>9.962631050886703</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>11.55559118236473</v>
+      </c>
+      <c r="B470" t="n">
+        <v>5.472242811385743e-08</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0.730197861202414</v>
+      </c>
+      <c r="D470" t="n">
+        <v>9.957480395829473</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>11.56947895791583</v>
+      </c>
+      <c r="B471" t="n">
+        <v>5.475284913149945e-08</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.7319402235682025</v>
+      </c>
+      <c r="D471" t="n">
+        <v>9.952260062514286</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>11.58336673346694</v>
+      </c>
+      <c r="B472" t="n">
+        <v>5.478348995451156e-08</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0.7336862363725875</v>
+      </c>
+      <c r="D472" t="n">
+        <v>9.946953514055924</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>11.59725450901804</v>
+      </c>
+      <c r="B473" t="n">
+        <v>5.481450961439586e-08</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0.7354374092350708</v>
+      </c>
+      <c r="D473" t="n">
+        <v>9.941595809274652</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>11.61114228456914</v>
+      </c>
+      <c r="B474" t="n">
+        <v>5.484588340455026e-08</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0.7371933914476801</v>
+      </c>
+      <c r="D474" t="n">
+        <v>9.936179699055533</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>11.62503006012024</v>
+      </c>
+      <c r="B475" t="n">
+        <v>5.487744491749352e-08</v>
+      </c>
+      <c r="C475" t="n">
+        <v>0.7389523268684719</v>
+      </c>
+      <c r="D475" t="n">
+        <v>9.930665787335217</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>11.63891783567134</v>
+      </c>
+      <c r="B476" t="n">
+        <v>5.490922290294542e-08</v>
+      </c>
+      <c r="C476" t="n">
+        <v>0.7407153824501703</v>
+      </c>
+      <c r="D476" t="n">
+        <v>9.92507988941407</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>11.65280561122244</v>
+      </c>
+      <c r="B477" t="n">
+        <v>5.494144420381817e-08</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0.7424840568016082</v>
+      </c>
+      <c r="D477" t="n">
+        <v>9.919456982052866</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>11.66669338677355</v>
+      </c>
+      <c r="B478" t="n">
+        <v>5.49737644975615e-08</v>
+      </c>
+      <c r="C478" t="n">
+        <v>0.7442553984593236</v>
+      </c>
+      <c r="D478" t="n">
+        <v>9.913730675705377</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>11.68058116232465</v>
+      </c>
+      <c r="B479" t="n">
+        <v>5.500653784008315e-08</v>
+      </c>
+      <c r="C479" t="n">
+        <v>0.7460325447476456</v>
+      </c>
+      <c r="D479" t="n">
+        <v>9.907971725440314</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>11.69446893787575</v>
+      </c>
+      <c r="B480" t="n">
+        <v>5.503954393379228e-08</v>
+      </c>
+      <c r="C480" t="n">
+        <v>0.7478136858057335</v>
+      </c>
+      <c r="D480" t="n">
+        <v>9.902140608569749</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>11.70835671342685</v>
+      </c>
+      <c r="B481" t="n">
+        <v>5.507279082346428e-08</v>
+      </c>
+      <c r="C481" t="n">
+        <v>0.749598219641039</v>
+      </c>
+      <c r="D481" t="n">
+        <v>9.896224526445961</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>11.72224448897796</v>
+      </c>
+      <c r="B482" t="n">
+        <v>5.510640429821999e-08</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0.7513887062438566</v>
+      </c>
+      <c r="D482" t="n">
+        <v>9.890281310131764</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>11.73613226452906</v>
+      </c>
+      <c r="B483" t="n">
+        <v>5.514029866340169e-08</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0.7531832654938462</v>
+      </c>
+      <c r="D483" t="n">
+        <v>9.884270266183632</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>11.75002004008016</v>
+      </c>
+      <c r="B484" t="n">
+        <v>5.517435085916645e-08</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.7549806341093641</v>
+      </c>
+      <c r="D484" t="n">
+        <v>9.878162540821377</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>11.76390781563126</v>
+      </c>
+      <c r="B485" t="n">
+        <v>5.520872981186706e-08</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0.7567829106806704</v>
+      </c>
+      <c r="D485" t="n">
+        <v>9.872006775486925</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>11.77779559118236</v>
+      </c>
+      <c r="B486" t="n">
+        <v>5.524346075876736e-08</v>
+      </c>
+      <c r="C486" t="n">
+        <v>0.7585904934945399</v>
+      </c>
+      <c r="D486" t="n">
+        <v>9.865812055766565</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>11.79168336673347</v>
+      </c>
+      <c r="B487" t="n">
+        <v>5.527842054905536e-08</v>
+      </c>
+      <c r="C487" t="n">
+        <v>0.7604017945555717</v>
+      </c>
+      <c r="D487" t="n">
+        <v>9.859542302246677</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>11.80557114228457</v>
+      </c>
+      <c r="B488" t="n">
+        <v>5.531363895914787e-08</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0.7622172444429601</v>
+      </c>
+      <c r="D488" t="n">
+        <v>9.853210239369417</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>11.81945891783567</v>
+      </c>
+      <c r="B489" t="n">
+        <v>5.534915278019299e-08</v>
+      </c>
+      <c r="C489" t="n">
+        <v>0.7640368804820492</v>
+      </c>
+      <c r="D489" t="n">
+        <v>9.846815323737566</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>11.83334669338677</v>
+      </c>
+      <c r="B490" t="n">
+        <v>5.538501515892785e-08</v>
+      </c>
+      <c r="C490" t="n">
+        <v>0.7658620599936228</v>
+      </c>
+      <c r="D490" t="n">
+        <v>9.840388570000886</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>11.84723446893788</v>
+      </c>
+      <c r="B491" t="n">
+        <v>5.54209188258699e-08</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.7676891988517331</v>
+      </c>
+      <c r="D491" t="n">
+        <v>9.833852119685771</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>11.86112224448898</v>
+      </c>
+      <c r="B492" t="n">
+        <v>5.545721144581205e-08</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0.7695218643048521</v>
+      </c>
+      <c r="D492" t="n">
+        <v>9.827284518532808</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>11.87501002004008</v>
+      </c>
+      <c r="B493" t="n">
+        <v>5.549375218487442e-08</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0.7713584987005107</v>
+      </c>
+      <c r="D493" t="n">
+        <v>9.820652315829715</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>11.88889779559118</v>
+      </c>
+      <c r="B494" t="n">
+        <v>5.553059768223908e-08</v>
+      </c>
+      <c r="C494" t="n">
+        <v>0.7732000362877796</v>
+      </c>
+      <c r="D494" t="n">
+        <v>9.813976594618277</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>11.90278557114229</v>
+      </c>
+      <c r="B495" t="n">
+        <v>5.556769717247533e-08</v>
+      </c>
+      <c r="C495" t="n">
+        <v>0.7750455231149688</v>
+      </c>
+      <c r="D495" t="n">
+        <v>9.807237011286135</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>11.91667334669339</v>
+      </c>
+      <c r="B496" t="n">
+        <v>5.56050337517234e-08</v>
+      </c>
+      <c r="C496" t="n">
+        <v>0.7768950535591035</v>
+      </c>
+      <c r="D496" t="n">
+        <v>9.800436277980154</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>11.93056112224449</v>
+      </c>
+      <c r="B497" t="n">
+        <v>5.564264492238545e-08</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0.7787489814407761</v>
+      </c>
+      <c r="D497" t="n">
+        <v>9.793582659969402</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>11.94444889779559</v>
+      </c>
+      <c r="B498" t="n">
+        <v>5.568049240169674e-08</v>
+      </c>
+      <c r="C498" t="n">
+        <v>0.7806068870654554</v>
+      </c>
+      <c r="D498" t="n">
+        <v>9.786667595285667</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>11.95833667334669</v>
+      </c>
+      <c r="B499" t="n">
+        <v>5.571861676231133e-08</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0.7824696230451794</v>
+      </c>
+      <c r="D499" t="n">
+        <v>9.779706785085624</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>11.97222444889779</v>
+      </c>
+      <c r="B500" t="n">
+        <v>5.575698526273966e-08</v>
+      </c>
+      <c r="C500" t="n">
+        <v>0.7843363146117422</v>
+      </c>
+      <c r="D500" t="n">
+        <v>9.772692013122052</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>11.9861122244489</v>
+      </c>
+      <c r="B501" t="n">
+        <v>5.579561730042952e-08</v>
+      </c>
+      <c r="C501" t="n">
+        <v>0.7862073094195167</v>
+      </c>
+      <c r="D501" t="n">
+        <v>9.765621141935865</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
         <v>12</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B502" t="n">
         <v>5.583449489083282e-08</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C502" t="n">
         <v>0.7880825272139468</v>
       </c>
-      <c r="D202" t="n">
-        <v>9.7536870851819</v>
+      <c r="D502" t="n">
+        <v>9.758495762067577</v>
       </c>
     </row>
   </sheetData>
